--- a/OperadoraNominas/bin/Debug/Archivos/Reporte.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/Reporte.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="MES" sheetId="1" r:id="rId1"/>
@@ -2089,9 +2089,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA50"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4504,7 +4504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
     </sheetView>

--- a/OperadoraNominas/bin/Debug/Archivos/Reporte.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/Reporte.xlsx
@@ -1110,6 +1110,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1125,14 +1133,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -2545,7 +2545,7 @@
       <c r="V4" s="2"/>
     </row>
     <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="119"/>
+      <c r="B5" s="127"/>
       <c r="C5" s="6" t="s">
         <v>100</v>
       </c>
@@ -2614,7 +2614,7 @@
       <c r="Y5" s="4"/>
     </row>
     <row r="6" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="119"/>
+      <c r="B6" s="127"/>
       <c r="C6" s="6" t="s">
         <v>107</v>
       </c>
@@ -2683,7 +2683,7 @@
       <c r="Y6" s="4"/>
     </row>
     <row r="7" spans="1:25" s="81" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="119"/>
+      <c r="B7" s="127"/>
       <c r="C7" s="65" t="s">
         <v>38</v>
       </c>
@@ -2752,7 +2752,7 @@
       <c r="Y7" s="67"/>
     </row>
     <row r="8" spans="1:25" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="119"/>
+      <c r="B8" s="127"/>
       <c r="C8" s="65" t="s">
         <v>108</v>
       </c>
@@ -2821,7 +2821,7 @@
       <c r="Y8" s="67"/>
     </row>
     <row r="9" spans="1:25" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="119"/>
+      <c r="B9" s="127"/>
       <c r="C9" s="65" t="s">
         <v>97</v>
       </c>
@@ -2890,7 +2890,7 @@
       <c r="Y9" s="67"/>
     </row>
     <row r="10" spans="1:25" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="119"/>
+      <c r="B10" s="127"/>
       <c r="C10" s="65" t="s">
         <v>109</v>
       </c>
@@ -2959,7 +2959,7 @@
       <c r="Y10" s="67"/>
     </row>
     <row r="11" spans="1:25" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="119"/>
+      <c r="B11" s="127"/>
       <c r="C11" s="65" t="s">
         <v>101</v>
       </c>
@@ -3028,7 +3028,7 @@
       <c r="Y11" s="67"/>
     </row>
     <row r="12" spans="1:25" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="119"/>
+      <c r="B12" s="127"/>
       <c r="C12" s="65" t="s">
         <v>99</v>
       </c>
@@ -3097,7 +3097,7 @@
       <c r="Y12" s="67"/>
     </row>
     <row r="13" spans="1:25" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="119"/>
+      <c r="B13" s="127"/>
       <c r="C13" s="65" t="s">
         <v>89</v>
       </c>
@@ -3166,7 +3166,7 @@
       <c r="Y13" s="67"/>
     </row>
     <row r="14" spans="1:25" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="119"/>
+      <c r="B14" s="127"/>
       <c r="C14" s="65" t="s">
         <v>95</v>
       </c>
@@ -3235,7 +3235,7 @@
       <c r="Y14" s="67"/>
     </row>
     <row r="15" spans="1:25" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="119"/>
+      <c r="B15" s="127"/>
       <c r="C15" s="65" t="s">
         <v>121</v>
       </c>
@@ -3304,7 +3304,7 @@
       <c r="Y15" s="67"/>
     </row>
     <row r="16" spans="1:25" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="119"/>
+      <c r="B16" s="127"/>
       <c r="C16" s="65" t="s">
         <v>120</v>
       </c>
@@ -3373,7 +3373,7 @@
       <c r="Y16" s="67"/>
     </row>
     <row r="17" spans="2:34" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="119"/>
+      <c r="B17" s="127"/>
       <c r="C17" s="65" t="s">
         <v>115</v>
       </c>
@@ -3442,7 +3442,7 @@
       <c r="Y17" s="67"/>
     </row>
     <row r="18" spans="2:34" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="119"/>
+      <c r="B18" s="127"/>
       <c r="C18" s="65" t="s">
         <v>116</v>
       </c>
@@ -3511,7 +3511,7 @@
       <c r="Y18" s="67"/>
     </row>
     <row r="19" spans="2:34" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="119"/>
+      <c r="B19" s="127"/>
       <c r="C19" s="65" t="s">
         <v>117</v>
       </c>
@@ -3580,7 +3580,7 @@
       <c r="Y19" s="67"/>
     </row>
     <row r="20" spans="2:34" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="119"/>
+      <c r="B20" s="127"/>
       <c r="C20" s="65" t="s">
         <v>118</v>
       </c>
@@ -3649,7 +3649,7 @@
       <c r="Y20" s="67"/>
     </row>
     <row r="21" spans="2:34" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="119"/>
+      <c r="B21" s="127"/>
       <c r="C21" s="65" t="s">
         <v>119</v>
       </c>
@@ -3744,7 +3744,7 @@
       <c r="Y22" s="4"/>
     </row>
     <row r="23" spans="2:34" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B23" s="120" t="s">
+      <c r="B23" s="128" t="s">
         <v>129</v>
       </c>
       <c r="C23" s="65" t="s">
@@ -3831,7 +3831,7 @@
       <c r="Y23" s="4"/>
     </row>
     <row r="24" spans="2:34" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B24" s="120"/>
+      <c r="B24" s="128"/>
       <c r="C24" s="65" t="s">
         <v>101</v>
       </c>
@@ -3916,7 +3916,7 @@
       <c r="Y24" s="4"/>
     </row>
     <row r="25" spans="2:34" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B25" s="120"/>
+      <c r="B25" s="128"/>
       <c r="C25" s="6" t="s">
         <v>95</v>
       </c>
@@ -4001,7 +4001,7 @@
       <c r="Y25" s="4"/>
     </row>
     <row r="26" spans="2:34" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B26" s="120"/>
+      <c r="B26" s="128"/>
       <c r="C26" s="6" t="s">
         <v>97</v>
       </c>
@@ -4180,25 +4180,25 @@
       <c r="C31" s="98"/>
       <c r="D31" s="99"/>
       <c r="E31" s="99"/>
-      <c r="G31" s="121" t="s">
+      <c r="G31" s="129" t="s">
         <v>102</v>
       </c>
-      <c r="H31" s="121"/>
-      <c r="I31" s="121"/>
-      <c r="J31" s="121"/>
-      <c r="K31" s="121"/>
-      <c r="L31" s="121"/>
-      <c r="M31" s="121"/>
-      <c r="N31" s="121"/>
-      <c r="O31" s="121"/>
-      <c r="P31" s="121"/>
+      <c r="H31" s="129"/>
+      <c r="I31" s="129"/>
+      <c r="J31" s="129"/>
+      <c r="K31" s="129"/>
+      <c r="L31" s="129"/>
+      <c r="M31" s="129"/>
+      <c r="N31" s="129"/>
+      <c r="O31" s="129"/>
+      <c r="P31" s="129"/>
       <c r="Z31" s="97" t="s">
         <v>103</v>
       </c>
       <c r="AA31" s="97"/>
       <c r="AC31" s="78"/>
-      <c r="AD31" s="118"/>
-      <c r="AE31" s="118"/>
+      <c r="AD31" s="126"/>
+      <c r="AE31" s="126"/>
       <c r="AF31" s="69"/>
     </row>
     <row r="32" spans="2:34" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -4321,7 +4321,7 @@
       <c r="E34" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="G34" s="130">
+      <c r="G34" s="125">
         <f>D5</f>
         <v>0</v>
       </c>
@@ -4389,19 +4389,19 @@
         <f>D21</f>
         <v>0</v>
       </c>
-      <c r="Y34" s="123">
+      <c r="Y34" s="118">
         <f>D25</f>
         <v>0</v>
       </c>
-      <c r="Z34" s="124">
+      <c r="Z34" s="119">
         <f>D26</f>
         <v>0</v>
       </c>
-      <c r="AA34" s="124">
+      <c r="AA34" s="119">
         <f>D27</f>
         <v>0</v>
       </c>
-      <c r="AB34" s="125">
+      <c r="AB34" s="120">
         <f>D28</f>
         <v>0</v>
       </c>
@@ -4417,7 +4417,7 @@
       <c r="C35" s="101"/>
       <c r="D35" s="101"/>
       <c r="E35" s="101"/>
-      <c r="G35" s="129">
+      <c r="G35" s="124">
         <f>E5</f>
         <v>0</v>
       </c>
@@ -4485,19 +4485,19 @@
         <f>E21</f>
         <v>0</v>
       </c>
-      <c r="Y35" s="126">
+      <c r="Y35" s="121">
         <f>E25</f>
         <v>0</v>
       </c>
-      <c r="Z35" s="127">
+      <c r="Z35" s="122">
         <f>E26</f>
         <v>0</v>
       </c>
-      <c r="AA35" s="127">
+      <c r="AA35" s="122">
         <f>E27</f>
         <v>0</v>
       </c>
-      <c r="AB35" s="128">
+      <c r="AB35" s="123">
         <f>E28</f>
         <v>0</v>
       </c>
@@ -4519,7 +4519,7 @@
       <c r="E36" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="G36" s="129">
+      <c r="G36" s="124">
         <f>F5</f>
         <v>0</v>
       </c>
@@ -4587,19 +4587,19 @@
         <f>F21</f>
         <v>0</v>
       </c>
-      <c r="Y36" s="126">
+      <c r="Y36" s="121">
         <f>F23</f>
         <v>0</v>
       </c>
-      <c r="Z36" s="127">
+      <c r="Z36" s="122">
         <f>F24</f>
         <v>0</v>
       </c>
-      <c r="AA36" s="127">
+      <c r="AA36" s="122">
         <f>F25</f>
         <v>0</v>
       </c>
-      <c r="AB36" s="128">
+      <c r="AB36" s="123">
         <f>F26</f>
         <v>0</v>
       </c>
@@ -4621,7 +4621,7 @@
       <c r="E37" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="G37" s="129">
+      <c r="G37" s="124">
         <f>G5</f>
         <v>0</v>
       </c>
@@ -4689,19 +4689,19 @@
         <f>G21</f>
         <v>0</v>
       </c>
-      <c r="Y37" s="126">
+      <c r="Y37" s="121">
         <f>G23</f>
         <v>0</v>
       </c>
-      <c r="Z37" s="127">
+      <c r="Z37" s="122">
         <f>G24</f>
         <v>0</v>
       </c>
-      <c r="AA37" s="127">
+      <c r="AA37" s="122">
         <f>G25</f>
         <v>0</v>
       </c>
-      <c r="AB37" s="128">
+      <c r="AB37" s="123">
         <f>G26</f>
         <v>0</v>
       </c>
@@ -4723,7 +4723,7 @@
       <c r="E38" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="G38" s="129">
+      <c r="G38" s="124">
         <f>I5</f>
         <v>0</v>
       </c>
@@ -4791,19 +4791,19 @@
         <f>I21</f>
         <v>0</v>
       </c>
-      <c r="Y38" s="126">
+      <c r="Y38" s="121">
         <f>I23</f>
         <v>0</v>
       </c>
-      <c r="Z38" s="127">
+      <c r="Z38" s="122">
         <f>I24</f>
         <v>0</v>
       </c>
-      <c r="AA38" s="127">
+      <c r="AA38" s="122">
         <f>I25</f>
         <v>0</v>
       </c>
-      <c r="AB38" s="128">
+      <c r="AB38" s="123">
         <f>I26</f>
         <v>0</v>
       </c>
@@ -4825,7 +4825,7 @@
       <c r="E39" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="G39" s="129">
+      <c r="G39" s="124">
         <f>H5</f>
         <v>0</v>
       </c>
@@ -4893,19 +4893,19 @@
         <f>H21</f>
         <v>0</v>
       </c>
-      <c r="Y39" s="126">
+      <c r="Y39" s="121">
         <f>H23</f>
         <v>0</v>
       </c>
-      <c r="Z39" s="127">
+      <c r="Z39" s="122">
         <f>H24</f>
         <v>0</v>
       </c>
-      <c r="AA39" s="127">
+      <c r="AA39" s="122">
         <f>H25</f>
         <v>0</v>
       </c>
-      <c r="AB39" s="128">
+      <c r="AB39" s="123">
         <f>H26</f>
         <v>0</v>
       </c>
@@ -4927,7 +4927,7 @@
       <c r="E40" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="G40" s="129">
+      <c r="G40" s="124">
         <f>J5</f>
         <v>0</v>
       </c>
@@ -4995,19 +4995,19 @@
         <f>J21</f>
         <v>0</v>
       </c>
-      <c r="Y40" s="126">
+      <c r="Y40" s="121">
         <f>J23</f>
         <v>0</v>
       </c>
-      <c r="Z40" s="127">
+      <c r="Z40" s="122">
         <f>J24</f>
         <v>0</v>
       </c>
-      <c r="AA40" s="127">
+      <c r="AA40" s="122">
         <f>J25</f>
         <v>0</v>
       </c>
-      <c r="AB40" s="128">
+      <c r="AB40" s="123">
         <f>J26</f>
         <v>0</v>
       </c>
@@ -5634,7 +5634,7 @@
       <c r="E47" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="G47" s="129">
+      <c r="G47" s="124">
         <f>M5+N5</f>
         <v>0</v>
       </c>
@@ -5702,7 +5702,7 @@
         <f>M21+N21</f>
         <v>0</v>
       </c>
-      <c r="Y47" s="129">
+      <c r="Y47" s="124">
         <f>M23+N23</f>
         <v>0</v>
       </c>
@@ -6340,8 +6340,8 @@
   <dimension ref="A1:AD42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="S1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U36" sqref="U36"/>
+      <pane ySplit="5" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AB36" sqref="AB36:AC36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6365,37 +6365,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="122" t="s">
+      <c r="B1" s="130" t="s">
         <v>110</v>
       </c>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
-      <c r="L1" s="122"/>
-      <c r="M1" s="122"/>
-      <c r="N1" s="122"/>
-      <c r="O1" s="122"/>
-      <c r="P1" s="122"/>
-      <c r="Q1" s="122"/>
-      <c r="R1" s="122"/>
-      <c r="S1" s="122"/>
-      <c r="T1" s="122"/>
-      <c r="U1" s="122"/>
-      <c r="X1" s="122" t="s">
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="130"/>
+      <c r="N1" s="130"/>
+      <c r="O1" s="130"/>
+      <c r="P1" s="130"/>
+      <c r="Q1" s="130"/>
+      <c r="R1" s="130"/>
+      <c r="S1" s="130"/>
+      <c r="T1" s="130"/>
+      <c r="U1" s="130"/>
+      <c r="X1" s="130" t="s">
         <v>103</v>
       </c>
-      <c r="Y1" s="122"/>
-      <c r="Z1" s="122"/>
-      <c r="AA1" s="122"/>
-      <c r="AB1" s="122"/>
-      <c r="AC1" s="122"/>
-      <c r="AD1" s="122"/>
+      <c r="Y1" s="130"/>
+      <c r="Z1" s="130"/>
+      <c r="AA1" s="130"/>
+      <c r="AB1" s="130"/>
+      <c r="AC1" s="130"/>
+      <c r="AD1" s="130"/>
     </row>
     <row r="2" spans="1:30" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:30" s="56" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7008,18 +7008,9 @@
       <c r="Y10" s="21"/>
       <c r="Z10" s="21"/>
       <c r="AA10" s="80"/>
-      <c r="AB10" s="84">
-        <f>MES!D31</f>
-        <v>0</v>
-      </c>
-      <c r="AC10" s="84">
-        <f>MES!D32</f>
-        <v>0</v>
-      </c>
-      <c r="AD10" s="84">
-        <f>RESUMEN!$Z10+RESUMEN!$AA10+AB10+AC10</f>
-        <v>0</v>
-      </c>
+      <c r="AB10" s="84"/>
+      <c r="AC10" s="84"/>
+      <c r="AD10" s="84"/>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -7303,7 +7294,7 @@
         <v>37</v>
       </c>
       <c r="D14" s="23">
-        <f t="shared" ref="D14:M14" si="1">D6+D7+D8+D9+D11+D12+D13</f>
+        <f t="shared" ref="D14:T14" si="1">D6+D7+D8+D9+D11+D12+D13</f>
         <v>0</v>
       </c>
       <c r="E14" s="72">
@@ -7342,13 +7333,34 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N14" s="72"/>
-      <c r="O14" s="72"/>
-      <c r="P14" s="72"/>
-      <c r="Q14" s="72"/>
-      <c r="R14" s="72"/>
-      <c r="S14" s="72"/>
-      <c r="T14" s="72"/>
+      <c r="N14" s="72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="U14" s="72">
         <f>U6+U7+U8+U9+U10+U11+U12+U13</f>
         <v>0</v>
@@ -7389,46 +7401,60 @@
       <c r="C15" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="45">
-        <v>7387.8350135098008</v>
-      </c>
-      <c r="E15" s="45">
-        <v>89.087720517926869</v>
-      </c>
-      <c r="F15" s="45">
-        <v>5757.4674194715299</v>
-      </c>
-      <c r="G15" s="45">
-        <v>4082.6085072988531</v>
-      </c>
-      <c r="H15" s="45">
-        <v>2938.8552451280711</v>
-      </c>
-      <c r="I15" s="45">
-        <v>2486.1022822218697</v>
-      </c>
-      <c r="J15" s="45">
-        <v>2486.1022822218697</v>
-      </c>
-      <c r="K15" s="45">
-        <v>2486.1022822218697</v>
-      </c>
-      <c r="L15" s="45">
-        <v>2830.5748015578533</v>
-      </c>
-      <c r="M15" s="45">
-        <v>5301.0893232199514</v>
-      </c>
-      <c r="N15" s="45"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="45"/>
-      <c r="Q15" s="45"/>
-      <c r="R15" s="45"/>
-      <c r="S15" s="45"/>
-      <c r="T15" s="45"/>
-      <c r="U15" s="24">
+      <c r="D15" s="72">
+        <v>0</v>
+      </c>
+      <c r="E15" s="72">
+        <v>0</v>
+      </c>
+      <c r="F15" s="72">
+        <v>0</v>
+      </c>
+      <c r="G15" s="72">
+        <v>0</v>
+      </c>
+      <c r="H15" s="72">
+        <v>0</v>
+      </c>
+      <c r="I15" s="72">
+        <v>0</v>
+      </c>
+      <c r="J15" s="72">
+        <v>0</v>
+      </c>
+      <c r="K15" s="72">
+        <v>0</v>
+      </c>
+      <c r="L15" s="72">
+        <v>0</v>
+      </c>
+      <c r="M15" s="72">
+        <v>0</v>
+      </c>
+      <c r="N15" s="72">
+        <v>0</v>
+      </c>
+      <c r="O15" s="72">
+        <v>0</v>
+      </c>
+      <c r="P15" s="72">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="72">
+        <v>0</v>
+      </c>
+      <c r="R15" s="72">
+        <v>0</v>
+      </c>
+      <c r="S15" s="72">
+        <v>0</v>
+      </c>
+      <c r="T15" s="72">
+        <v>0</v>
+      </c>
+      <c r="U15" s="72">
         <f>RESUMEN!$D15+RESUMEN!$E15+RESUMEN!$F15+RESUMEN!$G15+RESUMEN!$H15+RESUMEN!$I15+RESUMEN!$J15+RESUMEN!$K15+L15+M15+Table43[[#This Row],[Column25222]]+Table43[[#This Row],[Column252223]]+Table43[[#This Row],[Column252222]]+Table43[[#This Row],[Column2522224]]+Table43[[#This Row],[Column2522223]]+Table43[[#This Row],[Column2522222]]+Table43[[#This Row],[Column25223]]</f>
-        <v>35845.824877369596</v>
+        <v>0</v>
       </c>
       <c r="V15" s="21"/>
       <c r="W15" s="3" t="s">
@@ -7441,20 +7467,20 @@
         <v>67</v>
       </c>
       <c r="Z15" s="45">
-        <v>270.8004364795143</v>
+        <v>0</v>
       </c>
       <c r="AA15" s="45">
-        <v>5.9391813678617913</v>
+        <v>0</v>
       </c>
       <c r="AB15" s="45">
-        <v>464.27449870132159</v>
+        <v>0</v>
       </c>
       <c r="AC15" s="45">
-        <v>889.81888871760566</v>
+        <v>0</v>
       </c>
       <c r="AD15" s="72">
         <f>RESUMEN!$Z15+RESUMEN!$AA15+AB15+AC15</f>
-        <v>1630.8330052663034</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
@@ -7556,43 +7582,43 @@
       </c>
       <c r="D17" s="21">
         <f>D14-D15-D16</f>
-        <v>-7387.8350135098008</v>
+        <v>0</v>
       </c>
       <c r="E17" s="84">
         <f t="shared" ref="E17:M17" si="2">E14-E15-E16</f>
-        <v>-89.087720517926869</v>
+        <v>0</v>
       </c>
       <c r="F17" s="84">
         <f t="shared" si="2"/>
-        <v>-5757.4674194715299</v>
+        <v>0</v>
       </c>
       <c r="G17" s="84">
         <f>G14-G15-G16</f>
-        <v>-4082.6085072988531</v>
+        <v>0</v>
       </c>
       <c r="H17" s="84">
         <f>H14-H15-H16</f>
-        <v>-2938.8552451280711</v>
+        <v>0</v>
       </c>
       <c r="I17" s="84">
         <f t="shared" si="2"/>
-        <v>-2486.1022822218697</v>
+        <v>0</v>
       </c>
       <c r="J17" s="84">
         <f t="shared" si="2"/>
-        <v>-2486.1022822218697</v>
+        <v>0</v>
       </c>
       <c r="K17" s="84">
         <f t="shared" si="2"/>
-        <v>-2486.1022822218697</v>
+        <v>0</v>
       </c>
       <c r="L17" s="84">
         <f t="shared" si="2"/>
-        <v>-2830.5748015578533</v>
+        <v>0</v>
       </c>
       <c r="M17" s="84">
         <f t="shared" si="2"/>
-        <v>-5301.0893232199514</v>
+        <v>0</v>
       </c>
       <c r="N17" s="84"/>
       <c r="O17" s="84"/>
@@ -7603,7 +7629,7 @@
       <c r="T17" s="84"/>
       <c r="U17" s="84">
         <f>U14-U15-U16</f>
-        <v>-35845.824877369596</v>
+        <v>0</v>
       </c>
       <c r="V17" s="21"/>
       <c r="X17" s="21"/>
@@ -7612,23 +7638,23 @@
       </c>
       <c r="Z17" s="21">
         <f>Z14-Z15-Z16</f>
-        <v>-270.8004364795143</v>
+        <v>0</v>
       </c>
       <c r="AA17" s="84">
         <f>AA14-AA15-AA16</f>
-        <v>-5.9391813678617913</v>
+        <v>0</v>
       </c>
       <c r="AB17" s="84">
         <f>AB14-AB15-AB16</f>
-        <v>-464.27449870132159</v>
+        <v>0</v>
       </c>
       <c r="AC17" s="84">
         <f>AC14-AC15-AC16</f>
-        <v>-889.81888871760566</v>
+        <v>0</v>
       </c>
       <c r="AD17" s="72">
         <f>RESUMEN!$Z17+RESUMEN!$AA17+AB17+AC17</f>
-        <v>-1630.8330052663034</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
@@ -9200,14 +9226,8 @@
       <c r="Y36" s="33"/>
       <c r="Z36" s="33"/>
       <c r="AA36" s="33"/>
-      <c r="AB36" s="36">
-        <f>MES!D57</f>
-        <v>0</v>
-      </c>
-      <c r="AC36" s="36">
-        <f>MES!D58</f>
-        <v>0</v>
-      </c>
+      <c r="AB36" s="36"/>
+      <c r="AC36" s="36"/>
       <c r="AD36" s="33"/>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.25">

--- a/OperadoraNominas/bin/Debug/Archivos/Reporte.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/Reporte.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="135">
   <si>
     <t>TOTAL PERCEPCIONES</t>
   </si>
@@ -329,9 +329,6 @@
     <t>ISLA CIARI</t>
   </si>
   <si>
-    <t>21 DE MARZO</t>
-  </si>
-  <si>
     <t>MARZO ADICIONALES</t>
   </si>
   <si>
@@ -411,6 +408,24 @@
   </si>
   <si>
     <t xml:space="preserve"> ADICIONALES</t>
+  </si>
+  <si>
+    <t>ISLA CRECIENTE</t>
+  </si>
+  <si>
+    <t>ISLA COLORADA</t>
+  </si>
+  <si>
+    <t>SUBSEA 88</t>
+  </si>
+  <si>
+    <t>Column252232</t>
+  </si>
+  <si>
+    <t>Column252233</t>
+  </si>
+  <si>
+    <t>Column252234</t>
   </si>
 </sst>
 </file>
@@ -903,7 +918,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1054,10 +1069,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1118,17 +1129,18 @@
     <xf numFmtId="43" fontId="13" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="17" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1140,7 +1152,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Título 2" xfId="2" builtinId="17"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="36">
     <dxf>
       <font>
         <b val="0"/>
@@ -1321,6 +1333,57 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1706,13 +1769,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1774,13 +1837,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1947,13 +2010,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>635000</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>10584</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>889000</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
@@ -1998,13 +2061,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>635000</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>10584</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>889000</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
@@ -2051,28 +2114,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table43" displayName="Table43" ref="B4:U36" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31" tableBorderDxfId="30">
-  <autoFilter ref="B4:U36"/>
-  <tableColumns count="20">
-    <tableColumn id="1" name="Column1" dataDxfId="29"/>
-    <tableColumn id="7" name="Column12" dataDxfId="28"/>
-    <tableColumn id="2" name="Column2" dataDxfId="27"/>
-    <tableColumn id="3" name="Column22" dataDxfId="26"/>
-    <tableColumn id="5" name="Column222" dataDxfId="25"/>
-    <tableColumn id="4" name="Column23" dataDxfId="24"/>
-    <tableColumn id="8" name="Column24" dataDxfId="23"/>
-    <tableColumn id="9" name="Column25" dataDxfId="22"/>
-    <tableColumn id="15" name="Column253" dataDxfId="21"/>
-    <tableColumn id="14" name="Column252" dataDxfId="20"/>
-    <tableColumn id="17" name="Column2523" dataDxfId="19" dataCellStyle="Millares"/>
-    <tableColumn id="16" name="Column2522" dataDxfId="18" dataCellStyle="Millares"/>
-    <tableColumn id="10" name="Column25222" dataDxfId="17" dataCellStyle="Millares"/>
-    <tableColumn id="13" name="Column252223" dataDxfId="16" dataCellStyle="Millares"/>
-    <tableColumn id="12" name="Column252222" dataDxfId="15" dataCellStyle="Millares"/>
-    <tableColumn id="20" name="Column2522224" dataDxfId="14" dataCellStyle="Millares"/>
-    <tableColumn id="19" name="Column2522223" dataDxfId="13" dataCellStyle="Millares"/>
-    <tableColumn id="18" name="Column2522222" dataDxfId="12" dataCellStyle="Millares"/>
-    <tableColumn id="11" name="Column25223" dataDxfId="11" dataCellStyle="Millares"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table43" displayName="Table43" ref="B4:X36" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34" tableBorderDxfId="33">
+  <autoFilter ref="B4:X36"/>
+  <tableColumns count="23">
+    <tableColumn id="1" name="Column1" dataDxfId="32"/>
+    <tableColumn id="7" name="Column12" dataDxfId="31"/>
+    <tableColumn id="2" name="Column2" dataDxfId="30"/>
+    <tableColumn id="3" name="Column22" dataDxfId="29"/>
+    <tableColumn id="5" name="Column222" dataDxfId="28"/>
+    <tableColumn id="4" name="Column23" dataDxfId="27"/>
+    <tableColumn id="8" name="Column24" dataDxfId="26"/>
+    <tableColumn id="9" name="Column25" dataDxfId="25"/>
+    <tableColumn id="15" name="Column253" dataDxfId="24"/>
+    <tableColumn id="14" name="Column252" dataDxfId="23"/>
+    <tableColumn id="17" name="Column2523" dataDxfId="22" dataCellStyle="Millares"/>
+    <tableColumn id="16" name="Column2522" dataDxfId="21" dataCellStyle="Millares"/>
+    <tableColumn id="10" name="Column25222" dataDxfId="20" dataCellStyle="Millares"/>
+    <tableColumn id="13" name="Column252223" dataDxfId="19" dataCellStyle="Millares"/>
+    <tableColumn id="12" name="Column252222" dataDxfId="18" dataCellStyle="Millares"/>
+    <tableColumn id="20" name="Column2522224" dataDxfId="17" dataCellStyle="Millares"/>
+    <tableColumn id="19" name="Column2522223" dataDxfId="16" dataCellStyle="Millares"/>
+    <tableColumn id="18" name="Column2522222" dataDxfId="15" dataCellStyle="Millares"/>
+    <tableColumn id="11" name="Column25223" dataDxfId="14" dataCellStyle="Millares"/>
+    <tableColumn id="25" name="Column252234" dataDxfId="13" dataCellStyle="Millares"/>
+    <tableColumn id="24" name="Column252233" dataDxfId="12" dataCellStyle="Millares"/>
+    <tableColumn id="23" name="Column252232" dataDxfId="11" dataCellStyle="Millares"/>
     <tableColumn id="6" name="Column6" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2080,8 +2146,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table432" displayName="Table432" ref="X4:AD36" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" tableBorderDxfId="7">
-  <autoFilter ref="X4:AD36"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table432" displayName="Table432" ref="AA4:AG36" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" tableBorderDxfId="7">
+  <autoFilter ref="AA4:AG36"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Column1" dataDxfId="6"/>
     <tableColumn id="7" name="Column12" dataDxfId="5"/>
@@ -2382,11 +2448,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH59"/>
+  <dimension ref="A1:AK63"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G31" sqref="G31:P31"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2394,7 +2460,7 @@
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
     <col min="2" max="2" width="20.140625" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" customWidth="1"/>
     <col min="7" max="7" width="14.5703125" customWidth="1"/>
@@ -2409,12 +2475,12 @@
     <col min="16" max="19" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.140625" customWidth="1"/>
-    <col min="23" max="24" width="11.7109375" customWidth="1"/>
+    <col min="22" max="25" width="11.140625" customWidth="1"/>
+    <col min="26" max="27" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:28" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
       <c r="B2" s="14"/>
       <c r="C2" s="1" t="s">
@@ -2478,7 +2544,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" ht="15.75" x14ac:dyDescent="0.3">
       <c r="C3" s="4"/>
       <c r="D3" s="3" t="s">
         <v>4</v>
@@ -2521,8 +2587,11 @@
       <c r="T3" s="3"/>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
-    </row>
-    <row r="4" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+    </row>
+    <row r="4" spans="1:28" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="4"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -2543,9 +2612,12 @@
       <c r="T4" s="3"/>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
-    </row>
-    <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="127"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+    </row>
+    <row r="5" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="128"/>
       <c r="C5" s="6" t="s">
         <v>100</v>
       </c>
@@ -2598,25 +2670,28 @@
         <v>0</v>
       </c>
       <c r="T5" s="7">
-        <f t="shared" ref="T5:T21" si="0">SUM(K5:S5)</f>
+        <f>SUM(K5:S5)</f>
         <v>0</v>
       </c>
       <c r="U5" s="7">
-        <f t="shared" ref="U5:U21" si="1">T5*16%</f>
+        <f t="shared" ref="U5:U24" si="0">T5*16%</f>
         <v>0</v>
       </c>
       <c r="V5" s="15">
-        <f t="shared" ref="V5:V21" si="2">T5+U5</f>
-        <v>0</v>
-      </c>
-      <c r="W5" s="7"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="4"/>
-    </row>
-    <row r="6" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="127"/>
+        <f t="shared" ref="V5:V24" si="1">T5+U5</f>
+        <v>0</v>
+      </c>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="4"/>
+    </row>
+    <row r="6" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="128"/>
       <c r="C6" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D6" s="7">
         <v>0</v>
@@ -2667,23 +2742,26 @@
         <v>0</v>
       </c>
       <c r="T6" s="7">
+        <f t="shared" ref="T6:T24" si="2">SUM(K6:S6)</f>
+        <v>0</v>
+      </c>
+      <c r="U6" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U6" s="7">
+      <c r="V6" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V6" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W6" s="7"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="4"/>
-    </row>
-    <row r="7" spans="1:25" s="81" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="127"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="4"/>
+    </row>
+    <row r="7" spans="1:28" s="81" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="128"/>
       <c r="C7" s="65" t="s">
         <v>38</v>
       </c>
@@ -2736,92 +2814,98 @@
         <v>0</v>
       </c>
       <c r="T7" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U7" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U7" s="7">
+      <c r="V7" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V7" s="15">
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="44"/>
+      <c r="AA7" s="66"/>
+      <c r="AB7" s="67"/>
+    </row>
+    <row r="8" spans="1:28" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="128"/>
+      <c r="C8" s="65" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0</v>
+      </c>
+      <c r="K8" s="7">
+        <v>0</v>
+      </c>
+      <c r="L8" s="7">
+        <v>0</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7">
+        <v>0</v>
+      </c>
+      <c r="P8" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>0</v>
+      </c>
+      <c r="R8" s="7">
+        <v>0</v>
+      </c>
+      <c r="S8" s="7">
+        <v>0</v>
+      </c>
+      <c r="T8" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W7" s="44"/>
-      <c r="X7" s="66"/>
-      <c r="Y7" s="67"/>
-    </row>
-    <row r="8" spans="1:25" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="127"/>
-      <c r="C8" s="65" t="s">
-        <v>108</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0</v>
-      </c>
-      <c r="E8" s="7">
-        <v>0</v>
-      </c>
-      <c r="F8" s="7">
-        <v>0</v>
-      </c>
-      <c r="G8" s="7">
-        <v>0</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7">
-        <v>0</v>
-      </c>
-      <c r="K8" s="7">
-        <v>0</v>
-      </c>
-      <c r="L8" s="7">
-        <v>0</v>
-      </c>
-      <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7">
-        <v>0</v>
-      </c>
-      <c r="P8" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="7">
-        <v>0</v>
-      </c>
-      <c r="R8" s="7">
-        <v>0</v>
-      </c>
-      <c r="S8" s="7">
-        <v>0</v>
-      </c>
-      <c r="T8" s="7">
+      <c r="U8" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U8" s="7">
+      <c r="V8" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V8" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W8" s="44"/>
-      <c r="X8" s="66"/>
-      <c r="Y8" s="67"/>
-    </row>
-    <row r="9" spans="1:25" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="127"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="44"/>
+      <c r="AA8" s="66"/>
+      <c r="AB8" s="67"/>
+    </row>
+    <row r="9" spans="1:28" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="128"/>
       <c r="C9" s="65" t="s">
         <v>97</v>
       </c>
@@ -2874,92 +2958,98 @@
         <v>0</v>
       </c>
       <c r="T9" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U9" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U9" s="7">
+      <c r="V9" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V9" s="15">
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="44"/>
+      <c r="AA9" s="66"/>
+      <c r="AB9" s="67"/>
+    </row>
+    <row r="10" spans="1:28" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="128"/>
+      <c r="C10" s="65" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7">
+        <v>0</v>
+      </c>
+      <c r="K10" s="7">
+        <v>0</v>
+      </c>
+      <c r="L10" s="7">
+        <v>0</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7">
+        <v>0</v>
+      </c>
+      <c r="P10" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>0</v>
+      </c>
+      <c r="R10" s="7">
+        <v>0</v>
+      </c>
+      <c r="S10" s="7">
+        <v>0</v>
+      </c>
+      <c r="T10" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W9" s="44"/>
-      <c r="X9" s="66"/>
-      <c r="Y9" s="67"/>
-    </row>
-    <row r="10" spans="1:25" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="127"/>
-      <c r="C10" s="65" t="s">
-        <v>109</v>
-      </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
-      <c r="E10" s="7">
-        <v>0</v>
-      </c>
-      <c r="F10" s="7">
-        <v>0</v>
-      </c>
-      <c r="G10" s="7">
-        <v>0</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7">
-        <v>0</v>
-      </c>
-      <c r="K10" s="7">
-        <v>0</v>
-      </c>
-      <c r="L10" s="7">
-        <v>0</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7">
-        <v>0</v>
-      </c>
-      <c r="P10" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="7">
-        <v>0</v>
-      </c>
-      <c r="R10" s="7">
-        <v>0</v>
-      </c>
-      <c r="S10" s="7">
-        <v>0</v>
-      </c>
-      <c r="T10" s="7">
+      <c r="U10" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U10" s="7">
+      <c r="V10" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V10" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W10" s="44"/>
-      <c r="X10" s="66"/>
-      <c r="Y10" s="67"/>
-    </row>
-    <row r="11" spans="1:25" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="127"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="44"/>
+      <c r="AA10" s="66"/>
+      <c r="AB10" s="67"/>
+    </row>
+    <row r="11" spans="1:28" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="128"/>
       <c r="C11" s="65" t="s">
         <v>101</v>
       </c>
@@ -3012,23 +3102,26 @@
         <v>0</v>
       </c>
       <c r="T11" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U11" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U11" s="7">
+      <c r="V11" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V11" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W11" s="44"/>
-      <c r="X11" s="66"/>
-      <c r="Y11" s="67"/>
-    </row>
-    <row r="12" spans="1:25" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="127"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="44"/>
+      <c r="AA11" s="66"/>
+      <c r="AB11" s="67"/>
+    </row>
+    <row r="12" spans="1:28" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="128"/>
       <c r="C12" s="65" t="s">
         <v>99</v>
       </c>
@@ -3081,23 +3174,26 @@
         <v>0</v>
       </c>
       <c r="T12" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U12" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U12" s="7">
+      <c r="V12" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V12" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W12" s="44"/>
-      <c r="X12" s="66"/>
-      <c r="Y12" s="67"/>
-    </row>
-    <row r="13" spans="1:25" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="127"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="44"/>
+      <c r="AA12" s="66"/>
+      <c r="AB12" s="67"/>
+    </row>
+    <row r="13" spans="1:28" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="128"/>
       <c r="C13" s="65" t="s">
         <v>89</v>
       </c>
@@ -3150,23 +3246,26 @@
         <v>0</v>
       </c>
       <c r="T13" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U13" s="7">
+      <c r="V13" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V13" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W13" s="44"/>
-      <c r="X13" s="66"/>
-      <c r="Y13" s="67"/>
-    </row>
-    <row r="14" spans="1:25" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="127"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="44"/>
+      <c r="AA13" s="66"/>
+      <c r="AB13" s="67"/>
+    </row>
+    <row r="14" spans="1:28" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="128"/>
       <c r="C14" s="65" t="s">
         <v>95</v>
       </c>
@@ -3219,7 +3318,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U14" s="7">
@@ -3230,14 +3329,17 @@
         <f t="shared" ref="V14:V20" si="4">T14+U14</f>
         <v>0</v>
       </c>
-      <c r="W14" s="44"/>
-      <c r="X14" s="66"/>
-      <c r="Y14" s="67"/>
-    </row>
-    <row r="15" spans="1:25" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="127"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="44"/>
+      <c r="AA14" s="66"/>
+      <c r="AB14" s="67"/>
+    </row>
+    <row r="15" spans="1:28" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="128"/>
       <c r="C15" s="65" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D15" s="7">
         <v>0</v>
@@ -3288,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U15" s="7">
@@ -3299,14 +3401,17 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W15" s="44"/>
-      <c r="X15" s="66"/>
-      <c r="Y15" s="67"/>
-    </row>
-    <row r="16" spans="1:25" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="127"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="15"/>
+      <c r="Y15" s="15"/>
+      <c r="Z15" s="44"/>
+      <c r="AA15" s="66"/>
+      <c r="AB15" s="67"/>
+    </row>
+    <row r="16" spans="1:28" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="128"/>
       <c r="C16" s="65" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D16" s="7">
         <v>0</v>
@@ -3357,7 +3462,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U16" s="7">
@@ -3368,14 +3473,17 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W16" s="44"/>
-      <c r="X16" s="66"/>
-      <c r="Y16" s="67"/>
-    </row>
-    <row r="17" spans="2:34" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="127"/>
+      <c r="W16" s="15"/>
+      <c r="X16" s="15"/>
+      <c r="Y16" s="15"/>
+      <c r="Z16" s="44"/>
+      <c r="AA16" s="66"/>
+      <c r="AB16" s="67"/>
+    </row>
+    <row r="17" spans="2:28" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="128"/>
       <c r="C17" s="65" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D17" s="7">
         <v>0</v>
@@ -3426,7 +3534,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U17" s="7">
@@ -3437,14 +3545,17 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W17" s="44"/>
-      <c r="X17" s="66"/>
-      <c r="Y17" s="67"/>
-    </row>
-    <row r="18" spans="2:34" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="127"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="15"/>
+      <c r="Y17" s="15"/>
+      <c r="Z17" s="44"/>
+      <c r="AA17" s="66"/>
+      <c r="AB17" s="67"/>
+    </row>
+    <row r="18" spans="2:28" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="128"/>
       <c r="C18" s="65" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D18" s="7">
         <v>0</v>
@@ -3495,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U18" s="7">
@@ -3506,14 +3617,17 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W18" s="44"/>
-      <c r="X18" s="66"/>
-      <c r="Y18" s="67"/>
-    </row>
-    <row r="19" spans="2:34" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="127"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="15"/>
+      <c r="Y18" s="15"/>
+      <c r="Z18" s="44"/>
+      <c r="AA18" s="66"/>
+      <c r="AB18" s="67"/>
+    </row>
+    <row r="19" spans="2:28" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="128"/>
       <c r="C19" s="65" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D19" s="7">
         <v>0</v>
@@ -3564,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U19" s="7">
@@ -3575,14 +3689,17 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W19" s="44"/>
-      <c r="X19" s="66"/>
-      <c r="Y19" s="67"/>
-    </row>
-    <row r="20" spans="2:34" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="127"/>
+      <c r="W19" s="15"/>
+      <c r="X19" s="15"/>
+      <c r="Y19" s="15"/>
+      <c r="Z19" s="44"/>
+      <c r="AA19" s="66"/>
+      <c r="AB19" s="67"/>
+    </row>
+    <row r="20" spans="2:28" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="128"/>
       <c r="C20" s="65" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D20" s="7">
         <v>0</v>
@@ -3633,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U20" s="7">
@@ -3644,14 +3761,17 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W20" s="44"/>
-      <c r="X20" s="66"/>
-      <c r="Y20" s="67"/>
-    </row>
-    <row r="21" spans="2:34" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="127"/>
+      <c r="W20" s="15"/>
+      <c r="X20" s="15"/>
+      <c r="Y20" s="15"/>
+      <c r="Z20" s="44"/>
+      <c r="AA20" s="66"/>
+      <c r="AB20" s="67"/>
+    </row>
+    <row r="21" spans="2:28" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="128"/>
       <c r="C21" s="65" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D21" s="7">
         <v>0</v>
@@ -3702,2505 +3822,3006 @@
         <v>0</v>
       </c>
       <c r="T21" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U21" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U21" s="7">
+      <c r="V21" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V21" s="15">
+      <c r="W21" s="15"/>
+      <c r="X21" s="15"/>
+      <c r="Y21" s="15"/>
+      <c r="Z21" s="44"/>
+      <c r="AA21" s="66"/>
+      <c r="AB21" s="67"/>
+    </row>
+    <row r="22" spans="2:28" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="128"/>
+      <c r="C22" s="65" t="s">
+        <v>129</v>
+      </c>
+      <c r="D22" s="7">
+        <v>0</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0</v>
+      </c>
+      <c r="G22" s="7">
+        <v>0</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7">
+        <v>0</v>
+      </c>
+      <c r="K22" s="7">
+        <v>0</v>
+      </c>
+      <c r="L22" s="7">
+        <v>0</v>
+      </c>
+      <c r="M22" s="7">
+        <v>0</v>
+      </c>
+      <c r="N22" s="7">
+        <v>0</v>
+      </c>
+      <c r="O22" s="7">
+        <v>0</v>
+      </c>
+      <c r="P22" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="7">
+        <v>0</v>
+      </c>
+      <c r="R22" s="7">
+        <v>0</v>
+      </c>
+      <c r="S22" s="7">
+        <v>0</v>
+      </c>
+      <c r="T22" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W21" s="44"/>
-      <c r="X21" s="66"/>
-      <c r="Y21" s="67"/>
-    </row>
-    <row r="22" spans="2:34" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="60"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="15"/>
-      <c r="W22" s="7"/>
-      <c r="X22" s="5"/>
-      <c r="Y22" s="4"/>
-    </row>
-    <row r="23" spans="2:34" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B23" s="128" t="s">
-        <v>129</v>
-      </c>
+      <c r="U22" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V22" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W22" s="15"/>
+      <c r="X22" s="15"/>
+      <c r="Y22" s="15"/>
+      <c r="Z22" s="44"/>
+      <c r="AA22" s="66"/>
+      <c r="AB22" s="67"/>
+    </row>
+    <row r="23" spans="2:28" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="128"/>
       <c r="C23" s="65" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="D23" s="7">
-        <f>0</f>
         <v>0</v>
       </c>
       <c r="E23" s="7">
-        <f>0</f>
         <v>0</v>
       </c>
       <c r="F23" s="7">
-        <f>0</f>
         <v>0</v>
       </c>
       <c r="G23" s="7">
-        <f>0</f>
         <v>0</v>
       </c>
       <c r="H23" s="7">
-        <f>0</f>
         <v>0</v>
       </c>
       <c r="I23" s="7">
-        <f>0</f>
         <v>0</v>
       </c>
       <c r="J23" s="7">
-        <f>0</f>
         <v>0</v>
       </c>
       <c r="K23" s="7">
-        <f>0</f>
         <v>0</v>
       </c>
       <c r="L23" s="7">
-        <f>0</f>
         <v>0</v>
       </c>
       <c r="M23" s="7">
-        <f>0</f>
         <v>0</v>
       </c>
       <c r="N23" s="7">
-        <f>0</f>
         <v>0</v>
       </c>
       <c r="O23" s="7">
-        <f>0</f>
         <v>0</v>
       </c>
       <c r="P23" s="7">
-        <f>0</f>
         <v>0</v>
       </c>
       <c r="Q23" s="7">
-        <f>0</f>
         <v>0</v>
       </c>
       <c r="R23" s="7">
-        <f>0</f>
         <v>0</v>
       </c>
       <c r="S23" s="7">
-        <f>0</f>
         <v>0</v>
       </c>
       <c r="T23" s="7">
-        <f>0</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U23" s="7">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="V23" s="7">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="W23" s="7"/>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="4"/>
-    </row>
-    <row r="24" spans="2:34" ht="15.75" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V23" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W23" s="15"/>
+      <c r="X23" s="15"/>
+      <c r="Y23" s="15"/>
+      <c r="Z23" s="44"/>
+      <c r="AA23" s="66"/>
+      <c r="AB23" s="67"/>
+    </row>
+    <row r="24" spans="2:28" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="128"/>
       <c r="C24" s="65" t="s">
+        <v>131</v>
+      </c>
+      <c r="D24" s="7">
+        <v>0</v>
+      </c>
+      <c r="E24" s="7">
+        <v>0</v>
+      </c>
+      <c r="F24" s="7">
+        <v>0</v>
+      </c>
+      <c r="G24" s="7">
+        <v>0</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0</v>
+      </c>
+      <c r="J24" s="7">
+        <v>0</v>
+      </c>
+      <c r="K24" s="7">
+        <v>0</v>
+      </c>
+      <c r="L24" s="7">
+        <v>0</v>
+      </c>
+      <c r="M24" s="7">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7">
+        <v>0</v>
+      </c>
+      <c r="O24" s="7">
+        <v>0</v>
+      </c>
+      <c r="P24" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="7">
+        <v>0</v>
+      </c>
+      <c r="R24" s="7">
+        <v>0</v>
+      </c>
+      <c r="S24" s="7">
+        <v>0</v>
+      </c>
+      <c r="T24" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U24" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V24" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W24" s="15"/>
+      <c r="X24" s="15"/>
+      <c r="Y24" s="15"/>
+      <c r="Z24" s="44"/>
+      <c r="AA24" s="66"/>
+      <c r="AB24" s="67"/>
+    </row>
+    <row r="25" spans="2:28" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="128"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="15"/>
+      <c r="W25" s="15"/>
+      <c r="X25" s="15"/>
+      <c r="Y25" s="15"/>
+      <c r="Z25" s="44"/>
+      <c r="AA25" s="66"/>
+      <c r="AB25" s="67"/>
+    </row>
+    <row r="26" spans="2:28" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="60"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="15"/>
+      <c r="W26" s="15"/>
+      <c r="X26" s="15"/>
+      <c r="Y26" s="15"/>
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="5"/>
+      <c r="AB26" s="4"/>
+    </row>
+    <row r="27" spans="2:28" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B27" s="126" t="s">
+        <v>128</v>
+      </c>
+      <c r="C27" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="D27" s="7">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="7">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="7">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="7">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="7">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="7">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="7">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="7">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="7">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="7">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="N27" s="7">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O27" s="7">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="P27" s="7">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="7">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="R27" s="7">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="S27" s="7">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="T27" s="7">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U27" s="7">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="V27" s="7">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="W27" s="7"/>
+      <c r="X27" s="7"/>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="7"/>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="4"/>
+    </row>
+    <row r="28" spans="2:28" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B28" s="126"/>
+      <c r="C28" s="65" t="s">
         <v>101</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D28" s="7">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E28" s="7">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F28" s="7">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G28" s="7">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H28" s="7">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I28" s="7">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="J24" s="7">
+      <c r="J28" s="7">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="K24" s="7">
+      <c r="K28" s="7">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="L24" s="7">
+      <c r="L28" s="7">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="M24" s="7">
+      <c r="M28" s="7">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N28" s="7">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="O24" s="7">
+      <c r="O28" s="7">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="P24" s="7">
+      <c r="P28" s="7">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="Q24" s="7">
+      <c r="Q28" s="7">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="R24" s="7">
+      <c r="R28" s="7">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="S24" s="7">
+      <c r="S28" s="7">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="T24" s="7">
+      <c r="T28" s="7">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="U24" s="7">
+      <c r="U28" s="7">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="V24" s="7">
+      <c r="V28" s="7">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="W24" s="7"/>
-      <c r="X24" s="5"/>
-      <c r="Y24" s="4"/>
-    </row>
-    <row r="25" spans="2:34" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B25" s="128"/>
-      <c r="C25" s="6" t="s">
+      <c r="W28" s="7"/>
+      <c r="X28" s="7"/>
+      <c r="Y28" s="7"/>
+      <c r="Z28" s="7"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="4"/>
+    </row>
+    <row r="29" spans="2:28" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B29" s="126"/>
+      <c r="C29" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D29" s="7">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E29" s="7">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F29" s="7">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G29" s="7">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H29" s="7">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I29" s="7">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="J25" s="7">
+      <c r="J29" s="7">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="K25" s="7">
+      <c r="K29" s="7">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="L25" s="7">
+      <c r="L29" s="7">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="M25" s="7">
+      <c r="M29" s="7">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="N25" s="7">
+      <c r="N29" s="7">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="O25" s="7">
+      <c r="O29" s="7">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="P25" s="7">
+      <c r="P29" s="7">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="Q25" s="7">
+      <c r="Q29" s="7">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="R25" s="7">
+      <c r="R29" s="7">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="S25" s="7">
+      <c r="S29" s="7">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="T25" s="7">
+      <c r="T29" s="7">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="U25" s="7">
+      <c r="U29" s="7">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="V25" s="7">
+      <c r="V29" s="7">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="W25" s="7"/>
-      <c r="X25" s="5"/>
-      <c r="Y25" s="4"/>
-    </row>
-    <row r="26" spans="2:34" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B26" s="128"/>
-      <c r="C26" s="6" t="s">
+      <c r="W29" s="7"/>
+      <c r="X29" s="7"/>
+      <c r="Y29" s="7"/>
+      <c r="Z29" s="7"/>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="4"/>
+    </row>
+    <row r="30" spans="2:28" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B30" s="126"/>
+      <c r="C30" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D30" s="7">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E30" s="7">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F30" s="7">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G30" s="7">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H30" s="7">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I30" s="7">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="J26" s="7">
+      <c r="J30" s="7">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="K26" s="7">
+      <c r="K30" s="7">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="L26" s="7">
+      <c r="L30" s="7">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="M26" s="7">
+      <c r="M30" s="7">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="N26" s="7">
+      <c r="N30" s="7">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="O26" s="7">
+      <c r="O30" s="7">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="P26" s="7">
+      <c r="P30" s="7">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="Q26" s="7">
+      <c r="Q30" s="7">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="R26" s="7">
+      <c r="R30" s="7">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="S26" s="7">
+      <c r="S30" s="7">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="T26" s="7">
+      <c r="T30" s="7">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="U26" s="7">
+      <c r="U30" s="7">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="V26" s="7">
+      <c r="V30" s="7">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="W26" s="7"/>
-      <c r="X26" s="5"/>
-      <c r="Y26" s="4"/>
-    </row>
-    <row r="27" spans="2:34" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B27" s="73"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="7"/>
-      <c r="T27" s="7"/>
-      <c r="U27" s="7"/>
-      <c r="V27" s="15"/>
-      <c r="W27" s="7"/>
-      <c r="X27" s="5"/>
-      <c r="Y27" s="4"/>
-    </row>
-    <row r="28" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="35"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="53"/>
-      <c r="Q28" s="53"/>
-      <c r="R28" s="53"/>
-      <c r="S28" s="53"/>
-      <c r="T28" s="7"/>
-      <c r="U28" s="7"/>
-      <c r="V28" s="15"/>
-      <c r="W28" s="7"/>
-      <c r="X28" s="5"/>
-      <c r="Y28" s="4"/>
-    </row>
-    <row r="29" spans="2:34" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B29" s="41"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="40"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7"/>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="7"/>
-      <c r="S29" s="7"/>
-      <c r="T29" s="7"/>
-      <c r="U29" s="7"/>
-      <c r="V29" s="15"/>
-    </row>
-    <row r="30" spans="2:34" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B30" s="41"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="47"/>
-      <c r="S30" s="47"/>
-      <c r="U30" s="69"/>
-      <c r="V30" s="68"/>
-      <c r="W30" s="69"/>
-    </row>
-    <row r="31" spans="2:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="41"/>
-      <c r="C31" s="98"/>
-      <c r="D31" s="99"/>
-      <c r="E31" s="99"/>
-      <c r="G31" s="129" t="s">
+      <c r="W30" s="7"/>
+      <c r="X30" s="7"/>
+      <c r="Y30" s="7"/>
+      <c r="Z30" s="7"/>
+      <c r="AA30" s="5"/>
+      <c r="AB30" s="4"/>
+    </row>
+    <row r="31" spans="2:28" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B31" s="73"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="7"/>
+      <c r="T31" s="7"/>
+      <c r="U31" s="7"/>
+      <c r="V31" s="15"/>
+      <c r="W31" s="15"/>
+      <c r="X31" s="15"/>
+      <c r="Y31" s="15"/>
+      <c r="Z31" s="7"/>
+      <c r="AA31" s="5"/>
+      <c r="AB31" s="4"/>
+    </row>
+    <row r="32" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="35"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="53"/>
+      <c r="Q32" s="53"/>
+      <c r="R32" s="53"/>
+      <c r="S32" s="53"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="15"/>
+      <c r="W32" s="15"/>
+      <c r="X32" s="15"/>
+      <c r="Y32" s="15"/>
+      <c r="Z32" s="7"/>
+      <c r="AA32" s="5"/>
+      <c r="AB32" s="4"/>
+    </row>
+    <row r="33" spans="2:37" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B33" s="41"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="7"/>
+      <c r="V33" s="15"/>
+      <c r="W33" s="15"/>
+      <c r="X33" s="15"/>
+      <c r="Y33" s="15"/>
+    </row>
+    <row r="34" spans="2:37" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B34" s="41"/>
+      <c r="C34" s="98" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="99"/>
+      <c r="E34" s="98" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="47"/>
+      <c r="S34" s="47"/>
+      <c r="U34" s="69"/>
+      <c r="V34" s="68"/>
+      <c r="W34" s="68"/>
+      <c r="X34" s="68"/>
+      <c r="Y34" s="68"/>
+      <c r="Z34" s="69"/>
+    </row>
+    <row r="35" spans="2:37" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="41"/>
+      <c r="C35" s="100"/>
+      <c r="D35" s="99"/>
+      <c r="E35" s="101"/>
+      <c r="G35" s="127"/>
+      <c r="H35" s="127"/>
+      <c r="I35" s="127"/>
+      <c r="J35" s="127"/>
+      <c r="K35" s="127"/>
+      <c r="L35" s="127"/>
+      <c r="M35" s="127"/>
+      <c r="N35" s="127"/>
+      <c r="O35" s="127"/>
+      <c r="P35" s="127"/>
+      <c r="AC35" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="H31" s="129"/>
-      <c r="I31" s="129"/>
-      <c r="J31" s="129"/>
-      <c r="K31" s="129"/>
-      <c r="L31" s="129"/>
-      <c r="M31" s="129"/>
-      <c r="N31" s="129"/>
-      <c r="O31" s="129"/>
-      <c r="P31" s="129"/>
-      <c r="Z31" s="97" t="s">
-        <v>103</v>
-      </c>
-      <c r="AA31" s="97"/>
-      <c r="AC31" s="78"/>
-      <c r="AD31" s="126"/>
-      <c r="AE31" s="126"/>
-      <c r="AF31" s="69"/>
-    </row>
-    <row r="32" spans="2:34" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="41"/>
-      <c r="C32" s="100" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" s="101"/>
-      <c r="E32" s="100" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" s="16" t="s">
+      <c r="AD35" s="97"/>
+      <c r="AF35" s="78"/>
+      <c r="AG35" s="125"/>
+      <c r="AH35" s="125"/>
+      <c r="AI35" s="69"/>
+    </row>
+    <row r="36" spans="2:37" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="41"/>
+      <c r="C36" s="102" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="104" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="H32" s="16" t="s">
+      <c r="H36" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="I36" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="J36" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="I32" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="J32" s="16" t="s">
+      <c r="K36" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="L36" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="K32" s="16" t="s">
+      <c r="M36" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="N36" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="O36" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="P36" s="86" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q36" s="86" t="s">
+        <v>120</v>
+      </c>
+      <c r="R36" s="86" t="s">
+        <v>119</v>
+      </c>
+      <c r="S36" s="86" t="s">
+        <v>114</v>
+      </c>
+      <c r="T36" s="86" t="s">
+        <v>115</v>
+      </c>
+      <c r="U36" s="86" t="s">
+        <v>116</v>
+      </c>
+      <c r="V36" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="W36" s="86" t="s">
+        <v>118</v>
+      </c>
+      <c r="X36" s="86" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y36" s="86" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z36" s="86" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA36" s="90"/>
+      <c r="AB36" s="86" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC36" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD36" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE36" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="L32" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="M32" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="N32" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="O32" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="P32" s="86" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q32" s="86" t="s">
-        <v>121</v>
-      </c>
-      <c r="R32" s="86" t="s">
-        <v>120</v>
-      </c>
-      <c r="S32" s="86" t="s">
-        <v>115</v>
-      </c>
-      <c r="T32" s="86" t="s">
-        <v>116</v>
-      </c>
-      <c r="U32" s="86" t="s">
-        <v>117</v>
-      </c>
-      <c r="V32" s="86" t="s">
-        <v>118</v>
-      </c>
-      <c r="W32" s="86" t="s">
-        <v>119</v>
-      </c>
-      <c r="X32" s="90"/>
-      <c r="Y32" s="86" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z32" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA32" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB32" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC32" s="75"/>
-      <c r="AD32" s="75"/>
-      <c r="AE32" s="75"/>
-      <c r="AF32" s="75"/>
-      <c r="AG32" s="75"/>
-      <c r="AH32" s="69"/>
-    </row>
-    <row r="33" spans="2:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="41"/>
-      <c r="C33" s="102"/>
-      <c r="D33" s="101"/>
-      <c r="E33" s="103"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="50"/>
-      <c r="M33" s="50"/>
-      <c r="N33" s="50"/>
-      <c r="O33" s="50"/>
-      <c r="P33" s="50"/>
-      <c r="Q33" s="50"/>
-      <c r="R33" s="50"/>
-      <c r="S33" s="50"/>
-      <c r="T33" s="50"/>
-      <c r="U33" s="50"/>
-      <c r="V33" s="50"/>
-      <c r="W33" s="69"/>
-      <c r="Y33" s="6"/>
-      <c r="Z33" s="6"/>
-      <c r="AA33" s="6"/>
-      <c r="AB33" s="69"/>
-      <c r="AC33" s="69"/>
-      <c r="AD33" s="69"/>
-      <c r="AE33" s="69"/>
-      <c r="AF33" s="52"/>
-      <c r="AG33" s="68"/>
-      <c r="AH33" s="69"/>
-    </row>
-    <row r="34" spans="2:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="41"/>
-      <c r="C34" s="104" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="105" t="s">
-        <v>18</v>
-      </c>
-      <c r="E34" s="106" t="s">
-        <v>19</v>
-      </c>
-      <c r="G34" s="125">
+      <c r="AF36" s="75"/>
+      <c r="AG36" s="75"/>
+      <c r="AH36" s="75"/>
+      <c r="AI36" s="75"/>
+      <c r="AJ36" s="75"/>
+      <c r="AK36" s="69"/>
+    </row>
+    <row r="37" spans="2:37" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="41"/>
+      <c r="C37" s="99"/>
+      <c r="D37" s="99"/>
+      <c r="E37" s="99"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="50"/>
+      <c r="M37" s="50"/>
+      <c r="N37" s="50"/>
+      <c r="O37" s="50"/>
+      <c r="P37" s="50"/>
+      <c r="Q37" s="50"/>
+      <c r="R37" s="50"/>
+      <c r="S37" s="50"/>
+      <c r="T37" s="50"/>
+      <c r="U37" s="50"/>
+      <c r="V37" s="50"/>
+      <c r="W37" s="50"/>
+      <c r="X37" s="50"/>
+      <c r="Y37" s="50"/>
+      <c r="Z37" s="69"/>
+      <c r="AB37" s="6"/>
+      <c r="AC37" s="6"/>
+      <c r="AD37" s="6"/>
+      <c r="AE37" s="69"/>
+      <c r="AF37" s="69"/>
+      <c r="AG37" s="69"/>
+      <c r="AH37" s="69"/>
+      <c r="AI37" s="52"/>
+      <c r="AJ37" s="68"/>
+      <c r="AK37" s="69"/>
+    </row>
+    <row r="38" spans="2:37" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B38" s="41"/>
+      <c r="C38" s="105">
+        <v>50000201</v>
+      </c>
+      <c r="D38" s="106" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" s="107" t="s">
+        <v>4</v>
+      </c>
+      <c r="G38" s="123">
         <f>D5</f>
         <v>0</v>
       </c>
-      <c r="H34" s="63">
+      <c r="H38" s="63">
         <f>D6</f>
         <v>0</v>
       </c>
-      <c r="I34" s="63">
+      <c r="I38" s="63">
         <f>D7</f>
         <v>0</v>
       </c>
-      <c r="J34" s="63">
+      <c r="J38" s="63">
         <f>D8</f>
         <v>0</v>
       </c>
-      <c r="K34" s="63">
+      <c r="K38" s="63">
         <f>D9</f>
         <v>0</v>
       </c>
-      <c r="L34" s="63">
+      <c r="L38" s="63">
         <f>D10</f>
         <v>0</v>
       </c>
-      <c r="M34" s="63">
+      <c r="M38" s="63">
         <f>D11</f>
         <v>0</v>
       </c>
-      <c r="N34" s="63">
+      <c r="N38" s="63">
         <f>D12</f>
         <v>0</v>
       </c>
-      <c r="O34" s="63">
+      <c r="O38" s="63">
         <f>D13</f>
         <v>0</v>
       </c>
-      <c r="P34" s="63">
+      <c r="P38" s="63">
         <f>D14</f>
         <v>0</v>
       </c>
-      <c r="Q34" s="63">
+      <c r="Q38" s="63">
         <f>D15</f>
         <v>0</v>
       </c>
-      <c r="R34" s="63">
+      <c r="R38" s="63">
         <f>D16</f>
         <v>0</v>
       </c>
-      <c r="S34" s="63">
+      <c r="S38" s="63">
         <f>D17</f>
         <v>0</v>
       </c>
-      <c r="T34" s="63">
+      <c r="T38" s="63">
         <f>D18</f>
         <v>0</v>
       </c>
-      <c r="U34" s="63">
+      <c r="U38" s="63">
         <f>D19</f>
         <v>0</v>
       </c>
-      <c r="V34" s="63">
+      <c r="V38" s="63">
         <f>D20</f>
         <v>0</v>
       </c>
-      <c r="W34" s="82">
+      <c r="W38" s="63">
         <f>D21</f>
         <v>0</v>
       </c>
-      <c r="Y34" s="118">
-        <f>D25</f>
-        <v>0</v>
-      </c>
-      <c r="Z34" s="119">
-        <f>D26</f>
-        <v>0</v>
-      </c>
-      <c r="AA34" s="119">
-        <f>D27</f>
-        <v>0</v>
-      </c>
-      <c r="AB34" s="120">
-        <f>D28</f>
-        <v>0</v>
-      </c>
-      <c r="AC34" s="76"/>
-      <c r="AD34" s="76"/>
-      <c r="AE34" s="76"/>
-      <c r="AF34" s="76"/>
-      <c r="AG34" s="76"/>
-      <c r="AH34" s="69"/>
-    </row>
-    <row r="35" spans="2:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="41"/>
-      <c r="C35" s="101"/>
-      <c r="D35" s="101"/>
-      <c r="E35" s="101"/>
-      <c r="G35" s="124">
-        <f>E5</f>
-        <v>0</v>
-      </c>
-      <c r="H35" s="8">
-        <f>E6</f>
-        <v>0</v>
-      </c>
-      <c r="I35" s="8">
-        <f>E7</f>
-        <v>0</v>
-      </c>
-      <c r="J35" s="8">
-        <f>E8</f>
-        <v>0</v>
-      </c>
-      <c r="K35" s="8">
-        <f>E9</f>
-        <v>0</v>
-      </c>
-      <c r="L35" s="8">
-        <f>E10</f>
-        <v>0</v>
-      </c>
-      <c r="M35" s="8">
-        <f>E11</f>
-        <v>0</v>
-      </c>
-      <c r="N35" s="8">
-        <f>E12</f>
-        <v>0</v>
-      </c>
-      <c r="O35" s="8">
-        <f>E13</f>
-        <v>0</v>
-      </c>
-      <c r="P35" s="8">
-        <f>E14</f>
-        <v>0</v>
-      </c>
-      <c r="Q35" s="8">
-        <f>E15</f>
-        <v>0</v>
-      </c>
-      <c r="R35" s="8">
-        <f>E16</f>
-        <v>0</v>
-      </c>
-      <c r="S35" s="8">
-        <f>E17</f>
-        <v>0</v>
-      </c>
-      <c r="T35" s="8">
-        <f>E17</f>
-        <v>0</v>
-      </c>
-      <c r="U35" s="8">
-        <f>E19</f>
-        <v>0</v>
-      </c>
-      <c r="V35" s="8">
-        <f>E20</f>
-        <v>0</v>
-      </c>
-      <c r="W35" s="83">
-        <f>E21</f>
-        <v>0</v>
-      </c>
-      <c r="Y35" s="121">
-        <f>E25</f>
-        <v>0</v>
-      </c>
-      <c r="Z35" s="122">
-        <f>E26</f>
-        <v>0</v>
-      </c>
-      <c r="AA35" s="122">
-        <f>E27</f>
-        <v>0</v>
-      </c>
-      <c r="AB35" s="123">
-        <f>E28</f>
-        <v>0</v>
-      </c>
-      <c r="AC35" s="76"/>
-      <c r="AD35" s="76"/>
-      <c r="AE35" s="76"/>
-      <c r="AF35" s="76"/>
-      <c r="AG35" s="76"/>
-      <c r="AH35" s="69"/>
-    </row>
-    <row r="36" spans="2:34" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B36" s="41"/>
-      <c r="C36" s="107">
-        <v>50000201</v>
-      </c>
-      <c r="D36" s="108" t="s">
-        <v>20</v>
-      </c>
-      <c r="E36" s="109" t="s">
-        <v>4</v>
-      </c>
-      <c r="G36" s="124">
-        <f>F5</f>
-        <v>0</v>
-      </c>
-      <c r="H36" s="8">
-        <f>F6</f>
-        <v>0</v>
-      </c>
-      <c r="I36" s="8">
-        <f>F7</f>
-        <v>0</v>
-      </c>
-      <c r="J36" s="8">
-        <f>F8</f>
-        <v>0</v>
-      </c>
-      <c r="K36" s="8">
-        <f>F9</f>
-        <v>0</v>
-      </c>
-      <c r="L36" s="8">
-        <f>F10</f>
-        <v>0</v>
-      </c>
-      <c r="M36" s="8">
-        <f>F11</f>
-        <v>0</v>
-      </c>
-      <c r="N36" s="8">
-        <f>F12</f>
-        <v>0</v>
-      </c>
-      <c r="O36" s="8">
-        <f>F13</f>
-        <v>0</v>
-      </c>
-      <c r="P36" s="8">
-        <f>F14</f>
-        <v>0</v>
-      </c>
-      <c r="Q36" s="8">
-        <f>F15</f>
-        <v>0</v>
-      </c>
-      <c r="R36" s="8">
-        <f>F16</f>
-        <v>0</v>
-      </c>
-      <c r="S36" s="8">
-        <f>F17</f>
-        <v>0</v>
-      </c>
-      <c r="T36" s="8">
-        <f>F18</f>
-        <v>0</v>
-      </c>
-      <c r="U36" s="8">
-        <f>F19</f>
-        <v>0</v>
-      </c>
-      <c r="V36" s="8">
-        <f>F20</f>
-        <v>0</v>
-      </c>
-      <c r="W36" s="83">
-        <f>F21</f>
-        <v>0</v>
-      </c>
-      <c r="Y36" s="121">
-        <f>F23</f>
-        <v>0</v>
-      </c>
-      <c r="Z36" s="122">
-        <f>F24</f>
-        <v>0</v>
-      </c>
-      <c r="AA36" s="122">
-        <f>F25</f>
-        <v>0</v>
-      </c>
-      <c r="AB36" s="123">
-        <f>F26</f>
-        <v>0</v>
-      </c>
-      <c r="AC36" s="76"/>
-      <c r="AD36" s="76"/>
-      <c r="AE36" s="76"/>
-      <c r="AF36" s="76"/>
-      <c r="AG36" s="76"/>
-      <c r="AH36" s="69"/>
-    </row>
-    <row r="37" spans="2:34" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B37" s="41"/>
-      <c r="C37" s="110">
-        <v>50000202</v>
-      </c>
-      <c r="D37" s="111" t="s">
-        <v>21</v>
-      </c>
-      <c r="E37" s="112" t="s">
-        <v>5</v>
-      </c>
-      <c r="G37" s="124">
-        <f>G5</f>
-        <v>0</v>
-      </c>
-      <c r="H37" s="8">
-        <f>G6</f>
-        <v>0</v>
-      </c>
-      <c r="I37" s="8">
-        <f>G7</f>
-        <v>0</v>
-      </c>
-      <c r="J37" s="8">
-        <f>G8</f>
-        <v>0</v>
-      </c>
-      <c r="K37" s="8">
-        <f>G9</f>
-        <v>0</v>
-      </c>
-      <c r="L37" s="8">
-        <f>G10</f>
-        <v>0</v>
-      </c>
-      <c r="M37" s="8">
-        <f>G11</f>
-        <v>0</v>
-      </c>
-      <c r="N37" s="8">
-        <f>G12</f>
-        <v>0</v>
-      </c>
-      <c r="O37" s="8">
-        <f>G13</f>
-        <v>0</v>
-      </c>
-      <c r="P37" s="8">
-        <f>G14</f>
-        <v>0</v>
-      </c>
-      <c r="Q37" s="8">
-        <f>G15</f>
-        <v>0</v>
-      </c>
-      <c r="R37" s="8">
-        <f>G16</f>
-        <v>0</v>
-      </c>
-      <c r="S37" s="8">
-        <f>G17</f>
-        <v>0</v>
-      </c>
-      <c r="T37" s="8">
-        <f>G18</f>
-        <v>0</v>
-      </c>
-      <c r="U37" s="8">
-        <f>G19</f>
-        <v>0</v>
-      </c>
-      <c r="V37" s="8">
-        <f>G20</f>
-        <v>0</v>
-      </c>
-      <c r="W37" s="83">
-        <f>G21</f>
-        <v>0</v>
-      </c>
-      <c r="Y37" s="121">
-        <f>G23</f>
-        <v>0</v>
-      </c>
-      <c r="Z37" s="122">
-        <f>G24</f>
-        <v>0</v>
-      </c>
-      <c r="AA37" s="122">
-        <f>G25</f>
-        <v>0</v>
-      </c>
-      <c r="AB37" s="123">
-        <f>G26</f>
-        <v>0</v>
-      </c>
-      <c r="AC37" s="76"/>
-      <c r="AD37" s="76"/>
-      <c r="AE37" s="76"/>
-      <c r="AF37" s="76"/>
-      <c r="AG37" s="76"/>
-      <c r="AH37" s="69"/>
-    </row>
-    <row r="38" spans="2:34" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B38" s="41"/>
-      <c r="C38" s="110">
-        <v>50000202</v>
-      </c>
-      <c r="D38" s="111" t="s">
-        <v>21</v>
-      </c>
-      <c r="E38" s="112" t="s">
-        <v>6</v>
-      </c>
-      <c r="G38" s="124">
-        <f>I5</f>
-        <v>0</v>
-      </c>
-      <c r="H38" s="8">
-        <f>I6</f>
-        <v>0</v>
-      </c>
-      <c r="I38" s="8">
-        <f>I7</f>
-        <v>0</v>
-      </c>
-      <c r="J38" s="8">
-        <f>I8</f>
-        <v>0</v>
-      </c>
-      <c r="K38" s="8">
-        <f>I9</f>
-        <v>0</v>
-      </c>
-      <c r="L38" s="8">
-        <f>I10</f>
-        <v>0</v>
-      </c>
-      <c r="M38" s="8">
-        <f>I11</f>
-        <v>0</v>
-      </c>
-      <c r="N38" s="8">
-        <f>I12</f>
-        <v>0</v>
-      </c>
-      <c r="O38" s="8">
-        <f>I13</f>
-        <v>0</v>
-      </c>
-      <c r="P38" s="8">
-        <f>I14</f>
-        <v>0</v>
-      </c>
-      <c r="Q38" s="8">
-        <f>I15</f>
-        <v>0</v>
-      </c>
-      <c r="R38" s="8">
-        <f>I16</f>
-        <v>0</v>
-      </c>
-      <c r="S38" s="8">
-        <f>I17</f>
-        <v>0</v>
-      </c>
-      <c r="T38" s="8">
-        <f>I18</f>
-        <v>0</v>
-      </c>
-      <c r="U38" s="8">
-        <f>I19</f>
-        <v>0</v>
-      </c>
-      <c r="V38" s="8">
-        <f>I20</f>
-        <v>0</v>
-      </c>
-      <c r="W38" s="83">
-        <f>I21</f>
-        <v>0</v>
-      </c>
-      <c r="Y38" s="121">
-        <f>I23</f>
-        <v>0</v>
-      </c>
-      <c r="Z38" s="122">
-        <f>I24</f>
-        <v>0</v>
-      </c>
-      <c r="AA38" s="122">
-        <f>I25</f>
-        <v>0</v>
-      </c>
-      <c r="AB38" s="123">
-        <f>I26</f>
-        <v>0</v>
-      </c>
-      <c r="AC38" s="76"/>
-      <c r="AD38" s="76"/>
-      <c r="AE38" s="76"/>
+      <c r="X38" s="63">
+        <f>D22</f>
+        <v>0</v>
+      </c>
+      <c r="Y38" s="63">
+        <f>D23</f>
+        <v>0</v>
+      </c>
+      <c r="Z38" s="82">
+        <f>D24</f>
+        <v>0</v>
+      </c>
+      <c r="AB38" s="116">
+        <f>D29</f>
+        <v>0</v>
+      </c>
+      <c r="AC38" s="117">
+        <f>D30</f>
+        <v>0</v>
+      </c>
+      <c r="AD38" s="117">
+        <f>D31</f>
+        <v>0</v>
+      </c>
+      <c r="AE38" s="118">
+        <f>D32</f>
+        <v>0</v>
+      </c>
       <c r="AF38" s="76"/>
       <c r="AG38" s="76"/>
-      <c r="AH38" s="69"/>
-    </row>
-    <row r="39" spans="2:34" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="AH38" s="76"/>
+      <c r="AI38" s="76"/>
+      <c r="AJ38" s="76"/>
+      <c r="AK38" s="69"/>
+    </row>
+    <row r="39" spans="2:37" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B39" s="41"/>
-      <c r="C39" s="110">
-        <v>50000203</v>
-      </c>
-      <c r="D39" s="111" t="s">
-        <v>22</v>
-      </c>
-      <c r="E39" s="112" t="s">
-        <v>7</v>
-      </c>
-      <c r="G39" s="124">
-        <f>H5</f>
+      <c r="C39" s="108">
+        <v>50000202</v>
+      </c>
+      <c r="D39" s="109" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G39" s="122">
+        <f>E5</f>
         <v>0</v>
       </c>
       <c r="H39" s="8">
-        <f>H6</f>
+        <f>E6</f>
         <v>0</v>
       </c>
       <c r="I39" s="8">
-        <f>H7</f>
+        <f>E7</f>
         <v>0</v>
       </c>
       <c r="J39" s="8">
-        <f>H8</f>
+        <f>E8</f>
         <v>0</v>
       </c>
       <c r="K39" s="8">
-        <f>H9</f>
+        <f>E9</f>
         <v>0</v>
       </c>
       <c r="L39" s="8">
-        <f>H10</f>
+        <f>E10</f>
         <v>0</v>
       </c>
       <c r="M39" s="8">
-        <f>H11</f>
+        <f>E11</f>
         <v>0</v>
       </c>
       <c r="N39" s="8">
-        <f>H12</f>
+        <f>E12</f>
         <v>0</v>
       </c>
       <c r="O39" s="8">
-        <f>H13</f>
+        <f>E13</f>
         <v>0</v>
       </c>
       <c r="P39" s="8">
-        <f>H14</f>
+        <f>E14</f>
         <v>0</v>
       </c>
       <c r="Q39" s="8">
-        <f>H15</f>
+        <f>E15</f>
         <v>0</v>
       </c>
       <c r="R39" s="8">
-        <f>H16</f>
+        <f>E16</f>
         <v>0</v>
       </c>
       <c r="S39" s="8">
-        <f>H17</f>
+        <f>E17</f>
         <v>0</v>
       </c>
       <c r="T39" s="8">
-        <f>H18</f>
+        <f>E17</f>
         <v>0</v>
       </c>
       <c r="U39" s="8">
-        <f>H19</f>
+        <f>E19</f>
         <v>0</v>
       </c>
       <c r="V39" s="8">
-        <f>H20</f>
-        <v>0</v>
-      </c>
-      <c r="W39" s="83">
-        <f>H21</f>
-        <v>0</v>
-      </c>
-      <c r="Y39" s="121">
-        <f>H23</f>
-        <v>0</v>
-      </c>
-      <c r="Z39" s="122">
-        <f>H24</f>
-        <v>0</v>
-      </c>
-      <c r="AA39" s="122">
-        <f>H25</f>
-        <v>0</v>
-      </c>
-      <c r="AB39" s="123">
-        <f>H26</f>
-        <v>0</v>
-      </c>
-      <c r="AC39" s="76"/>
-      <c r="AD39" s="76"/>
-      <c r="AE39" s="76"/>
+        <f>E20</f>
+        <v>0</v>
+      </c>
+      <c r="W39" s="8">
+        <f>E21</f>
+        <v>0</v>
+      </c>
+      <c r="X39" s="8">
+        <f>E22</f>
+        <v>0</v>
+      </c>
+      <c r="Y39" s="8">
+        <f>E23</f>
+        <v>0</v>
+      </c>
+      <c r="Z39" s="83">
+        <f>E24</f>
+        <v>0</v>
+      </c>
+      <c r="AB39" s="119">
+        <f>E29</f>
+        <v>0</v>
+      </c>
+      <c r="AC39" s="120">
+        <f>E30</f>
+        <v>0</v>
+      </c>
+      <c r="AD39" s="120">
+        <f>E31</f>
+        <v>0</v>
+      </c>
+      <c r="AE39" s="121">
+        <f>E32</f>
+        <v>0</v>
+      </c>
       <c r="AF39" s="76"/>
       <c r="AG39" s="76"/>
-      <c r="AH39" s="69"/>
-    </row>
-    <row r="40" spans="2:34" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="AH39" s="76"/>
+      <c r="AI39" s="76"/>
+      <c r="AJ39" s="76"/>
+      <c r="AK39" s="69"/>
+    </row>
+    <row r="40" spans="2:37" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B40" s="41"/>
-      <c r="C40" s="110">
-        <v>50000207</v>
-      </c>
-      <c r="D40" s="111" t="s">
-        <v>23</v>
-      </c>
-      <c r="E40" s="112" t="s">
-        <v>9</v>
-      </c>
-      <c r="G40" s="124">
-        <f>J5</f>
+      <c r="C40" s="108">
+        <v>50000202</v>
+      </c>
+      <c r="D40" s="109" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" s="110" t="s">
+        <v>6</v>
+      </c>
+      <c r="G40" s="122">
+        <f>F5</f>
         <v>0</v>
       </c>
       <c r="H40" s="8">
-        <f>J6</f>
+        <f>F6</f>
         <v>0</v>
       </c>
       <c r="I40" s="8">
-        <f>J7</f>
+        <f>F7</f>
         <v>0</v>
       </c>
       <c r="J40" s="8">
-        <f>J8</f>
+        <f>F8</f>
         <v>0</v>
       </c>
       <c r="K40" s="8">
-        <f>J9</f>
+        <f>F9</f>
         <v>0</v>
       </c>
       <c r="L40" s="8">
-        <f>J10</f>
+        <f>F10</f>
         <v>0</v>
       </c>
       <c r="M40" s="8">
-        <f>J11</f>
+        <f>F11</f>
         <v>0</v>
       </c>
       <c r="N40" s="8">
-        <f>J12</f>
+        <f>F12</f>
         <v>0</v>
       </c>
       <c r="O40" s="8">
-        <f>J13</f>
+        <f>F13</f>
         <v>0</v>
       </c>
       <c r="P40" s="8">
-        <f>J14</f>
+        <f>F14</f>
         <v>0</v>
       </c>
       <c r="Q40" s="8">
-        <f>J15</f>
+        <f>F15</f>
         <v>0</v>
       </c>
       <c r="R40" s="8">
-        <f>J16</f>
+        <f>F16</f>
         <v>0</v>
       </c>
       <c r="S40" s="8">
-        <f>J17</f>
+        <f>F17</f>
         <v>0</v>
       </c>
       <c r="T40" s="8">
-        <f>J18</f>
+        <f>F18</f>
         <v>0</v>
       </c>
       <c r="U40" s="8">
-        <f>J19</f>
+        <f>F19</f>
         <v>0</v>
       </c>
       <c r="V40" s="8">
-        <f>J20</f>
-        <v>0</v>
-      </c>
-      <c r="W40" s="87">
-        <f>J21</f>
-        <v>0</v>
-      </c>
-      <c r="Y40" s="121">
-        <f>J23</f>
-        <v>0</v>
-      </c>
-      <c r="Z40" s="122">
-        <f>J24</f>
-        <v>0</v>
-      </c>
-      <c r="AA40" s="122">
-        <f>J25</f>
-        <v>0</v>
-      </c>
-      <c r="AB40" s="123">
-        <f>J26</f>
-        <v>0</v>
-      </c>
-      <c r="AC40" s="76"/>
-      <c r="AD40" s="76"/>
-      <c r="AE40" s="76"/>
+        <f>F20</f>
+        <v>0</v>
+      </c>
+      <c r="W40" s="8">
+        <f>F21</f>
+        <v>0</v>
+      </c>
+      <c r="X40" s="8">
+        <f>F22</f>
+        <v>0</v>
+      </c>
+      <c r="Y40" s="8">
+        <f>F23</f>
+        <v>0</v>
+      </c>
+      <c r="Z40" s="83">
+        <f>F24</f>
+        <v>0</v>
+      </c>
+      <c r="AB40" s="119">
+        <f>F27</f>
+        <v>0</v>
+      </c>
+      <c r="AC40" s="120">
+        <f>F28</f>
+        <v>0</v>
+      </c>
+      <c r="AD40" s="120">
+        <f>F29</f>
+        <v>0</v>
+      </c>
+      <c r="AE40" s="121">
+        <f>F30</f>
+        <v>0</v>
+      </c>
       <c r="AF40" s="76"/>
       <c r="AG40" s="76"/>
-      <c r="AH40" s="69"/>
-    </row>
-    <row r="41" spans="2:34" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="AH40" s="76"/>
+      <c r="AI40" s="76"/>
+      <c r="AJ40" s="76"/>
+      <c r="AK40" s="69"/>
+    </row>
+    <row r="41" spans="2:37" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B41" s="41"/>
-      <c r="C41" s="110">
-        <v>50000205</v>
-      </c>
-      <c r="D41" s="111" t="s">
-        <v>24</v>
-      </c>
-      <c r="E41" s="112" t="s">
-        <v>8</v>
-      </c>
-      <c r="G41" s="10">
-        <f>L5</f>
-        <v>0</v>
-      </c>
-      <c r="H41" s="9">
-        <f>L6</f>
+      <c r="C41" s="108">
+        <v>50000203</v>
+      </c>
+      <c r="D41" s="109" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41" s="110" t="s">
+        <v>7</v>
+      </c>
+      <c r="G41" s="122">
+        <f>G5</f>
+        <v>0</v>
+      </c>
+      <c r="H41" s="8">
+        <f>G6</f>
         <v>0</v>
       </c>
       <c r="I41" s="8">
-        <f>L7</f>
+        <f>G7</f>
         <v>0</v>
       </c>
       <c r="J41" s="8">
-        <f>L8</f>
+        <f>G8</f>
         <v>0</v>
       </c>
       <c r="K41" s="8">
-        <f>L9</f>
+        <f>G9</f>
         <v>0</v>
       </c>
       <c r="L41" s="8">
-        <f>L10</f>
+        <f>G10</f>
         <v>0</v>
       </c>
       <c r="M41" s="8">
-        <f>L11</f>
+        <f>G11</f>
         <v>0</v>
       </c>
       <c r="N41" s="8">
-        <f>L12</f>
+        <f>G12</f>
         <v>0</v>
       </c>
       <c r="O41" s="8">
-        <f>L13</f>
+        <f>G13</f>
         <v>0</v>
       </c>
       <c r="P41" s="8">
-        <f>L14</f>
+        <f>G14</f>
         <v>0</v>
       </c>
       <c r="Q41" s="8">
-        <f>L15</f>
+        <f>G15</f>
         <v>0</v>
       </c>
       <c r="R41" s="8">
-        <f>L16</f>
+        <f>G16</f>
         <v>0</v>
       </c>
       <c r="S41" s="8">
-        <f>L17</f>
+        <f>G17</f>
         <v>0</v>
       </c>
       <c r="T41" s="8">
-        <f>L18</f>
+        <f>G18</f>
         <v>0</v>
       </c>
       <c r="U41" s="8">
-        <f>L19</f>
+        <f>G19</f>
         <v>0</v>
       </c>
       <c r="V41" s="8">
-        <f>L20</f>
-        <v>0</v>
-      </c>
-      <c r="W41" s="83">
-        <f>L21</f>
-        <v>0</v>
-      </c>
-      <c r="Y41" s="10">
-        <f>L23</f>
-        <v>0</v>
-      </c>
-      <c r="Z41" s="9">
-        <f>L24</f>
-        <v>0</v>
-      </c>
-      <c r="AA41" s="9">
-        <f>L25</f>
-        <v>0</v>
-      </c>
-      <c r="AB41" s="85">
-        <f>L26</f>
-        <v>0</v>
-      </c>
-      <c r="AC41" s="76"/>
-      <c r="AD41" s="76"/>
-      <c r="AE41" s="76"/>
+        <f>G20</f>
+        <v>0</v>
+      </c>
+      <c r="W41" s="8">
+        <f>G21</f>
+        <v>0</v>
+      </c>
+      <c r="X41" s="8">
+        <f>G22</f>
+        <v>0</v>
+      </c>
+      <c r="Y41" s="8">
+        <f>G23</f>
+        <v>0</v>
+      </c>
+      <c r="Z41" s="83">
+        <f>G24</f>
+        <v>0</v>
+      </c>
+      <c r="AB41" s="119">
+        <f>G27</f>
+        <v>0</v>
+      </c>
+      <c r="AC41" s="120">
+        <f>G28</f>
+        <v>0</v>
+      </c>
+      <c r="AD41" s="120">
+        <f>G29</f>
+        <v>0</v>
+      </c>
+      <c r="AE41" s="121">
+        <f>G30</f>
+        <v>0</v>
+      </c>
       <c r="AF41" s="76"/>
       <c r="AG41" s="76"/>
-      <c r="AH41" s="69"/>
-    </row>
-    <row r="42" spans="2:34" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B42" s="74"/>
-      <c r="C42" s="110">
-        <v>50000206</v>
-      </c>
-      <c r="D42" s="111" t="s">
-        <v>25</v>
-      </c>
-      <c r="E42" s="112" t="s">
-        <v>10</v>
-      </c>
-      <c r="G42" s="10">
-        <f>O5</f>
-        <v>0</v>
-      </c>
-      <c r="H42" s="9">
-        <f>O6</f>
+      <c r="AH41" s="76"/>
+      <c r="AI41" s="76"/>
+      <c r="AJ41" s="76"/>
+      <c r="AK41" s="69"/>
+    </row>
+    <row r="42" spans="2:37" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B42" s="41"/>
+      <c r="C42" s="108">
+        <v>50000207</v>
+      </c>
+      <c r="D42" s="109" t="s">
+        <v>23</v>
+      </c>
+      <c r="E42" s="110" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42" s="122">
+        <f>I5</f>
+        <v>0</v>
+      </c>
+      <c r="H42" s="8">
+        <f>I6</f>
         <v>0</v>
       </c>
       <c r="I42" s="8">
-        <f>O7</f>
+        <f>I7</f>
         <v>0</v>
       </c>
       <c r="J42" s="8">
-        <f>O8</f>
+        <f>I8</f>
         <v>0</v>
       </c>
       <c r="K42" s="8">
-        <f>O9</f>
+        <f>I9</f>
         <v>0</v>
       </c>
       <c r="L42" s="8">
-        <f>O10</f>
+        <f>I10</f>
         <v>0</v>
       </c>
       <c r="M42" s="8">
-        <f>O11</f>
+        <f>I11</f>
         <v>0</v>
       </c>
       <c r="N42" s="8">
-        <f>O12</f>
+        <f>I12</f>
         <v>0</v>
       </c>
       <c r="O42" s="8">
-        <f>O13</f>
+        <f>I13</f>
         <v>0</v>
       </c>
       <c r="P42" s="8">
-        <f>O14</f>
+        <f>I14</f>
         <v>0</v>
       </c>
       <c r="Q42" s="8">
-        <f>O15</f>
+        <f>I15</f>
         <v>0</v>
       </c>
       <c r="R42" s="8">
-        <f>O16</f>
+        <f>I16</f>
         <v>0</v>
       </c>
       <c r="S42" s="8">
-        <f>O17</f>
+        <f>I17</f>
         <v>0</v>
       </c>
       <c r="T42" s="8">
-        <f>O18</f>
+        <f>I18</f>
         <v>0</v>
       </c>
       <c r="U42" s="8">
-        <f>O19</f>
+        <f>I19</f>
         <v>0</v>
       </c>
       <c r="V42" s="8">
-        <f>O20</f>
-        <v>0</v>
-      </c>
-      <c r="W42" s="83">
-        <f>O21</f>
-        <v>0</v>
-      </c>
-      <c r="Y42" s="10">
-        <f>O23</f>
-        <v>0</v>
-      </c>
-      <c r="Z42" s="9">
-        <f>O24</f>
-        <v>0</v>
-      </c>
-      <c r="AA42" s="9">
-        <f>O25</f>
-        <v>0</v>
-      </c>
-      <c r="AB42" s="85">
-        <f>O26</f>
-        <v>0</v>
-      </c>
-      <c r="AC42" s="76"/>
-      <c r="AD42" s="76"/>
-      <c r="AE42" s="76"/>
+        <f>I20</f>
+        <v>0</v>
+      </c>
+      <c r="W42" s="8">
+        <f>I21</f>
+        <v>0</v>
+      </c>
+      <c r="X42" s="8">
+        <f>I22</f>
+        <v>0</v>
+      </c>
+      <c r="Y42" s="8">
+        <f>I23</f>
+        <v>0</v>
+      </c>
+      <c r="Z42" s="83">
+        <f>I24</f>
+        <v>0</v>
+      </c>
+      <c r="AB42" s="119">
+        <f>I27</f>
+        <v>0</v>
+      </c>
+      <c r="AC42" s="120">
+        <f>I28</f>
+        <v>0</v>
+      </c>
+      <c r="AD42" s="120">
+        <f>I29</f>
+        <v>0</v>
+      </c>
+      <c r="AE42" s="121">
+        <f>I30</f>
+        <v>0</v>
+      </c>
       <c r="AF42" s="76"/>
       <c r="AG42" s="76"/>
-      <c r="AH42" s="69"/>
-    </row>
-    <row r="43" spans="2:34" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="AH42" s="76"/>
+      <c r="AI42" s="76"/>
+      <c r="AJ42" s="76"/>
+      <c r="AK42" s="69"/>
+    </row>
+    <row r="43" spans="2:37" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B43" s="41"/>
-      <c r="C43" s="110">
-        <v>50000208</v>
-      </c>
-      <c r="D43" s="111" t="s">
-        <v>26</v>
-      </c>
-      <c r="E43" s="112" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" s="10">
-        <f>P5</f>
-        <v>0</v>
-      </c>
-      <c r="H43" s="9">
-        <f>P6</f>
+      <c r="C43" s="108">
+        <v>50000205</v>
+      </c>
+      <c r="D43" s="109" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" s="110" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" s="122">
+        <f>H5</f>
+        <v>0</v>
+      </c>
+      <c r="H43" s="8">
+        <f>H6</f>
         <v>0</v>
       </c>
       <c r="I43" s="8">
-        <f>P7</f>
+        <f>H7</f>
         <v>0</v>
       </c>
       <c r="J43" s="8">
-        <f>P8</f>
+        <f>H8</f>
         <v>0</v>
       </c>
       <c r="K43" s="8">
-        <f>P9</f>
+        <f>H9</f>
         <v>0</v>
       </c>
       <c r="L43" s="8">
-        <f>P10</f>
+        <f>H10</f>
         <v>0</v>
       </c>
       <c r="M43" s="8">
-        <f>P11</f>
+        <f>H11</f>
         <v>0</v>
       </c>
       <c r="N43" s="8">
-        <f>P12</f>
+        <f>H12</f>
         <v>0</v>
       </c>
       <c r="O43" s="8">
-        <f>P13</f>
+        <f>H13</f>
         <v>0</v>
       </c>
       <c r="P43" s="8">
-        <f>P14</f>
+        <f>H14</f>
         <v>0</v>
       </c>
       <c r="Q43" s="8">
-        <f>P15</f>
+        <f>H15</f>
         <v>0</v>
       </c>
       <c r="R43" s="8">
-        <f>P16</f>
+        <f>H16</f>
         <v>0</v>
       </c>
       <c r="S43" s="8">
-        <f>P17</f>
+        <f>H17</f>
         <v>0</v>
       </c>
       <c r="T43" s="8">
-        <f>P18</f>
+        <f>H18</f>
         <v>0</v>
       </c>
       <c r="U43" s="8">
-        <f>P19</f>
+        <f>H19</f>
         <v>0</v>
       </c>
       <c r="V43" s="8">
-        <f>P20</f>
-        <v>0</v>
-      </c>
-      <c r="W43" s="83">
-        <f>P21</f>
-        <v>0</v>
-      </c>
-      <c r="Y43" s="10">
-        <f>P23</f>
-        <v>0</v>
-      </c>
-      <c r="Z43" s="9">
-        <f>P24</f>
-        <v>0</v>
-      </c>
-      <c r="AA43" s="9">
-        <f>P25</f>
-        <v>0</v>
-      </c>
-      <c r="AB43" s="85">
-        <f>P26</f>
-        <v>0</v>
-      </c>
-      <c r="AC43" s="76"/>
-      <c r="AD43" s="76"/>
-      <c r="AE43" s="76"/>
+        <f>H20</f>
+        <v>0</v>
+      </c>
+      <c r="W43" s="8">
+        <f>H21</f>
+        <v>0</v>
+      </c>
+      <c r="X43" s="8">
+        <f>H22</f>
+        <v>0</v>
+      </c>
+      <c r="Y43" s="8">
+        <f>H23</f>
+        <v>0</v>
+      </c>
+      <c r="Z43" s="83">
+        <f>H24</f>
+        <v>0</v>
+      </c>
+      <c r="AB43" s="119">
+        <f>H27</f>
+        <v>0</v>
+      </c>
+      <c r="AC43" s="120">
+        <f>H28</f>
+        <v>0</v>
+      </c>
+      <c r="AD43" s="120">
+        <f>H29</f>
+        <v>0</v>
+      </c>
+      <c r="AE43" s="121">
+        <f>H30</f>
+        <v>0</v>
+      </c>
       <c r="AF43" s="76"/>
       <c r="AG43" s="76"/>
-      <c r="AH43" s="69"/>
-    </row>
-    <row r="44" spans="2:34" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="AH43" s="76"/>
+      <c r="AI43" s="76"/>
+      <c r="AJ43" s="76"/>
+      <c r="AK43" s="69"/>
+    </row>
+    <row r="44" spans="2:37" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B44" s="41"/>
-      <c r="C44" s="110"/>
-      <c r="D44" s="111" t="s">
-        <v>98</v>
-      </c>
-      <c r="E44" s="112"/>
-      <c r="G44" s="10">
-        <f>Q5</f>
-        <v>0</v>
-      </c>
-      <c r="H44" s="9">
-        <f>Q6</f>
+      <c r="C44" s="108">
+        <v>50000206</v>
+      </c>
+      <c r="D44" s="109" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" s="122">
+        <f>J5</f>
+        <v>0</v>
+      </c>
+      <c r="H44" s="8">
+        <f>J6</f>
         <v>0</v>
       </c>
       <c r="I44" s="8">
-        <f>Q7</f>
+        <f>J7</f>
         <v>0</v>
       </c>
       <c r="J44" s="8">
-        <f>Q8</f>
+        <f>J8</f>
         <v>0</v>
       </c>
       <c r="K44" s="8">
-        <f>Q9</f>
+        <f>J9</f>
         <v>0</v>
       </c>
       <c r="L44" s="8">
-        <f>Q10</f>
+        <f>J10</f>
         <v>0</v>
       </c>
       <c r="M44" s="8">
-        <f>Q11</f>
+        <f>J11</f>
         <v>0</v>
       </c>
       <c r="N44" s="8">
-        <f>Q12</f>
+        <f>J12</f>
         <v>0</v>
       </c>
       <c r="O44" s="8">
-        <f>Q13</f>
+        <f>J13</f>
         <v>0</v>
       </c>
       <c r="P44" s="8">
-        <f>Q14</f>
+        <f>J14</f>
         <v>0</v>
       </c>
       <c r="Q44" s="8">
-        <f>Q15</f>
+        <f>J15</f>
         <v>0</v>
       </c>
       <c r="R44" s="8">
-        <f>Q16</f>
+        <f>J16</f>
         <v>0</v>
       </c>
       <c r="S44" s="8">
-        <f>Q17</f>
+        <f>J17</f>
         <v>0</v>
       </c>
       <c r="T44" s="8">
-        <f>Q18</f>
+        <f>J18</f>
         <v>0</v>
       </c>
       <c r="U44" s="8">
-        <f>Q19</f>
+        <f>J19</f>
         <v>0</v>
       </c>
       <c r="V44" s="8">
-        <f>Q20</f>
-        <v>0</v>
-      </c>
-      <c r="W44" s="83">
-        <f>Q21</f>
-        <v>0</v>
-      </c>
-      <c r="Y44" s="10">
-        <f>Q23</f>
-        <v>0</v>
-      </c>
-      <c r="Z44" s="9">
-        <f>Q24</f>
-        <v>0</v>
-      </c>
-      <c r="AA44" s="9">
-        <f>Q25</f>
-        <v>0</v>
-      </c>
-      <c r="AB44" s="85">
-        <f>Q26</f>
-        <v>0</v>
-      </c>
-      <c r="AC44" s="76"/>
-      <c r="AD44" s="76"/>
-      <c r="AE44" s="76"/>
+        <f>J20</f>
+        <v>0</v>
+      </c>
+      <c r="W44" s="8">
+        <f>J21</f>
+        <v>0</v>
+      </c>
+      <c r="X44" s="8">
+        <f>J22</f>
+        <v>0</v>
+      </c>
+      <c r="Y44" s="8">
+        <f>J23</f>
+        <v>0</v>
+      </c>
+      <c r="Z44" s="87">
+        <f>J24</f>
+        <v>0</v>
+      </c>
+      <c r="AB44" s="119">
+        <f>J27</f>
+        <v>0</v>
+      </c>
+      <c r="AC44" s="120">
+        <f>J28</f>
+        <v>0</v>
+      </c>
+      <c r="AD44" s="120">
+        <f>J29</f>
+        <v>0</v>
+      </c>
+      <c r="AE44" s="121">
+        <f>J30</f>
+        <v>0</v>
+      </c>
       <c r="AF44" s="76"/>
       <c r="AG44" s="76"/>
-      <c r="AH44" s="69"/>
-    </row>
-    <row r="45" spans="2:34" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="C45" s="110">
-        <v>50000225</v>
-      </c>
-      <c r="D45" s="111" t="s">
-        <v>27</v>
-      </c>
-      <c r="E45" s="112" t="s">
-        <v>14</v>
+      <c r="AH44" s="76"/>
+      <c r="AI44" s="76"/>
+      <c r="AJ44" s="76"/>
+      <c r="AK44" s="69"/>
+    </row>
+    <row r="45" spans="2:37" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B45" s="41"/>
+      <c r="C45" s="108">
+        <v>50000208</v>
+      </c>
+      <c r="D45" s="109" t="s">
+        <v>26</v>
+      </c>
+      <c r="E45" s="110" t="s">
+        <v>11</v>
       </c>
       <c r="G45" s="10">
-        <f>R5</f>
+        <f>L5</f>
         <v>0</v>
       </c>
       <c r="H45" s="9">
-        <f>R6</f>
+        <f>L6</f>
         <v>0</v>
       </c>
       <c r="I45" s="8">
-        <f>R7</f>
+        <f>L7</f>
         <v>0</v>
       </c>
       <c r="J45" s="8">
-        <f>R8</f>
+        <f>L8</f>
         <v>0</v>
       </c>
       <c r="K45" s="8">
-        <f>R9</f>
+        <f>L9</f>
         <v>0</v>
       </c>
       <c r="L45" s="8">
-        <f>R10</f>
+        <f>L10</f>
         <v>0</v>
       </c>
       <c r="M45" s="8">
-        <f>R11</f>
+        <f>L11</f>
         <v>0</v>
       </c>
       <c r="N45" s="8">
-        <f>R12</f>
+        <f>L12</f>
         <v>0</v>
       </c>
       <c r="O45" s="8">
-        <f>R13</f>
+        <f>L13</f>
         <v>0</v>
       </c>
       <c r="P45" s="8">
-        <f>R14</f>
+        <f>L14</f>
         <v>0</v>
       </c>
       <c r="Q45" s="8">
-        <f>R15</f>
+        <f>L15</f>
         <v>0</v>
       </c>
       <c r="R45" s="8">
-        <f>R16</f>
+        <f>L16</f>
         <v>0</v>
       </c>
       <c r="S45" s="8">
-        <f>R17</f>
+        <f>L17</f>
         <v>0</v>
       </c>
       <c r="T45" s="8">
-        <f>R18</f>
+        <f>L18</f>
         <v>0</v>
       </c>
       <c r="U45" s="8">
-        <f>R19</f>
+        <f>L19</f>
         <v>0</v>
       </c>
       <c r="V45" s="8">
-        <f>R20</f>
-        <v>0</v>
-      </c>
-      <c r="W45" s="83">
-        <f>R21</f>
-        <v>0</v>
-      </c>
-      <c r="Y45" s="10">
-        <f>R23</f>
-        <v>0</v>
-      </c>
-      <c r="Z45" s="9">
-        <f>R24</f>
-        <v>0</v>
-      </c>
-      <c r="AA45" s="9">
-        <f>R25</f>
-        <v>0</v>
-      </c>
-      <c r="AB45" s="85">
-        <f>R26</f>
-        <v>0</v>
-      </c>
-      <c r="AC45" s="76"/>
-      <c r="AD45" s="76"/>
-      <c r="AE45" s="76"/>
+        <f>L20</f>
+        <v>0</v>
+      </c>
+      <c r="W45" s="8">
+        <f>L21</f>
+        <v>0</v>
+      </c>
+      <c r="X45" s="8">
+        <f>L22</f>
+        <v>0</v>
+      </c>
+      <c r="Y45" s="8">
+        <f>L23</f>
+        <v>0</v>
+      </c>
+      <c r="Z45" s="83">
+        <f>L24</f>
+        <v>0</v>
+      </c>
+      <c r="AB45" s="10">
+        <f>L27</f>
+        <v>0</v>
+      </c>
+      <c r="AC45" s="9">
+        <f>L28</f>
+        <v>0</v>
+      </c>
+      <c r="AD45" s="9">
+        <f>L29</f>
+        <v>0</v>
+      </c>
+      <c r="AE45" s="85">
+        <f>L30</f>
+        <v>0</v>
+      </c>
       <c r="AF45" s="76"/>
       <c r="AG45" s="76"/>
-      <c r="AH45" s="69"/>
-    </row>
-    <row r="46" spans="2:34" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="C46" s="110">
-        <v>50000230</v>
-      </c>
-      <c r="D46" s="111" t="s">
-        <v>28</v>
-      </c>
-      <c r="E46" s="112" t="s">
-        <v>14</v>
-      </c>
+      <c r="AH45" s="76"/>
+      <c r="AI45" s="76"/>
+      <c r="AJ45" s="76"/>
+      <c r="AK45" s="69"/>
+    </row>
+    <row r="46" spans="2:37" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B46" s="74"/>
+      <c r="C46" s="108"/>
+      <c r="D46" s="109" t="s">
+        <v>98</v>
+      </c>
+      <c r="E46" s="110"/>
       <c r="G46" s="10">
-        <f>S5</f>
+        <f>O5</f>
         <v>0</v>
       </c>
       <c r="H46" s="9">
-        <f>S6</f>
+        <f>O6</f>
         <v>0</v>
       </c>
       <c r="I46" s="8">
-        <f>S7</f>
+        <f>O7</f>
         <v>0</v>
       </c>
       <c r="J46" s="8">
-        <f>S8</f>
+        <f>O8</f>
         <v>0</v>
       </c>
       <c r="K46" s="8">
-        <f>S9</f>
+        <f>O9</f>
         <v>0</v>
       </c>
       <c r="L46" s="8">
-        <f>S10</f>
+        <f>O10</f>
         <v>0</v>
       </c>
       <c r="M46" s="8">
-        <f>S11</f>
+        <f>O11</f>
         <v>0</v>
       </c>
       <c r="N46" s="8">
-        <f>S12</f>
+        <f>O12</f>
         <v>0</v>
       </c>
       <c r="O46" s="8">
-        <f>S13</f>
+        <f>O13</f>
         <v>0</v>
       </c>
       <c r="P46" s="8">
-        <f>S14</f>
+        <f>O14</f>
         <v>0</v>
       </c>
       <c r="Q46" s="8">
-        <f>S15</f>
+        <f>O15</f>
         <v>0</v>
       </c>
       <c r="R46" s="8">
-        <f>S16</f>
+        <f>O16</f>
         <v>0</v>
       </c>
       <c r="S46" s="8">
-        <f>S17</f>
+        <f>O17</f>
         <v>0</v>
       </c>
       <c r="T46" s="8">
-        <f>S18</f>
+        <f>O18</f>
         <v>0</v>
       </c>
       <c r="U46" s="8">
-        <f>S19</f>
+        <f>O19</f>
         <v>0</v>
       </c>
       <c r="V46" s="8">
-        <f>S20</f>
-        <v>0</v>
-      </c>
-      <c r="W46" s="83">
-        <f>S21</f>
-        <v>0</v>
-      </c>
-      <c r="Y46" s="10">
-        <f>S23</f>
-        <v>0</v>
-      </c>
-      <c r="Z46" s="9">
-        <f>S24</f>
-        <v>0</v>
-      </c>
-      <c r="AA46" s="9">
-        <f>S25</f>
-        <v>0</v>
-      </c>
-      <c r="AB46" s="85">
-        <f>S26</f>
-        <v>0</v>
-      </c>
-      <c r="AC46" s="76"/>
-      <c r="AD46" s="76"/>
-      <c r="AE46" s="76"/>
+        <f>O20</f>
+        <v>0</v>
+      </c>
+      <c r="W46" s="8">
+        <f>O21</f>
+        <v>0</v>
+      </c>
+      <c r="X46" s="8">
+        <f>O22</f>
+        <v>0</v>
+      </c>
+      <c r="Y46" s="8">
+        <f>O23</f>
+        <v>0</v>
+      </c>
+      <c r="Z46" s="83">
+        <f>O24</f>
+        <v>0</v>
+      </c>
+      <c r="AB46" s="10">
+        <f>O27</f>
+        <v>0</v>
+      </c>
+      <c r="AC46" s="9">
+        <f>O28</f>
+        <v>0</v>
+      </c>
+      <c r="AD46" s="9">
+        <f>O29</f>
+        <v>0</v>
+      </c>
+      <c r="AE46" s="85">
+        <f>O30</f>
+        <v>0</v>
+      </c>
       <c r="AF46" s="76"/>
       <c r="AG46" s="76"/>
-      <c r="AH46" s="69"/>
-    </row>
-    <row r="47" spans="2:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C47" s="110">
-        <v>50000227</v>
-      </c>
-      <c r="D47" s="111" t="s">
-        <v>29</v>
-      </c>
-      <c r="E47" s="112" t="s">
+      <c r="AH46" s="76"/>
+      <c r="AI46" s="76"/>
+      <c r="AJ46" s="76"/>
+      <c r="AK46" s="69"/>
+    </row>
+    <row r="47" spans="2:37" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B47" s="41"/>
+      <c r="C47" s="108">
+        <v>50000225</v>
+      </c>
+      <c r="D47" s="109" t="s">
+        <v>27</v>
+      </c>
+      <c r="E47" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="G47" s="124">
-        <f>M5+N5</f>
-        <v>0</v>
-      </c>
-      <c r="H47" s="8">
-        <f>M6+N6</f>
+      <c r="G47" s="10">
+        <f>P5</f>
+        <v>0</v>
+      </c>
+      <c r="H47" s="9">
+        <f>P6</f>
         <v>0</v>
       </c>
       <c r="I47" s="8">
-        <f>M7+N7</f>
+        <f>P7</f>
         <v>0</v>
       </c>
       <c r="J47" s="8">
-        <f>M8+N8</f>
+        <f>P8</f>
         <v>0</v>
       </c>
       <c r="K47" s="8">
-        <f>M9+N9</f>
+        <f>P9</f>
         <v>0</v>
       </c>
       <c r="L47" s="8">
-        <f>M10+N10</f>
+        <f>P10</f>
         <v>0</v>
       </c>
       <c r="M47" s="8">
-        <f>M11+N11</f>
+        <f>P11</f>
         <v>0</v>
       </c>
       <c r="N47" s="8">
-        <f>M12+N12</f>
+        <f>P12</f>
         <v>0</v>
       </c>
       <c r="O47" s="8">
-        <f>M13+N13</f>
+        <f>P13</f>
         <v>0</v>
       </c>
       <c r="P47" s="8">
-        <f>M14+N14</f>
+        <f>P14</f>
         <v>0</v>
       </c>
       <c r="Q47" s="8">
-        <f>M15+N15</f>
+        <f>P15</f>
         <v>0</v>
       </c>
       <c r="R47" s="8">
-        <f>M16+N16</f>
+        <f>P16</f>
         <v>0</v>
       </c>
       <c r="S47" s="8">
-        <f>M17+N17</f>
+        <f>P17</f>
         <v>0</v>
       </c>
       <c r="T47" s="8">
-        <f>M18+N18</f>
+        <f>P18</f>
         <v>0</v>
       </c>
       <c r="U47" s="8">
-        <f>M19+N19</f>
+        <f>P19</f>
         <v>0</v>
       </c>
       <c r="V47" s="8">
-        <f>M20+N20</f>
-        <v>0</v>
-      </c>
-      <c r="W47" s="83">
-        <f>M21+N21</f>
-        <v>0</v>
-      </c>
-      <c r="Y47" s="124">
-        <f>M23+N23</f>
-        <v>0</v>
-      </c>
-      <c r="Z47" s="8">
-        <f>M24+N24</f>
-        <v>0</v>
-      </c>
-      <c r="AA47" s="8">
-        <f>M25+N25</f>
-        <v>0</v>
-      </c>
-      <c r="AB47" s="83">
-        <f>M26+N26</f>
-        <v>0</v>
-      </c>
-      <c r="AC47" s="76"/>
-      <c r="AD47" s="76"/>
-      <c r="AE47" s="76"/>
+        <f>P20</f>
+        <v>0</v>
+      </c>
+      <c r="W47" s="8">
+        <f>P21</f>
+        <v>0</v>
+      </c>
+      <c r="X47" s="8">
+        <f>P22</f>
+        <v>0</v>
+      </c>
+      <c r="Y47" s="8">
+        <f>P23</f>
+        <v>0</v>
+      </c>
+      <c r="Z47" s="83">
+        <f>P24</f>
+        <v>0</v>
+      </c>
+      <c r="AB47" s="10">
+        <f>P27</f>
+        <v>0</v>
+      </c>
+      <c r="AC47" s="9">
+        <f>P28</f>
+        <v>0</v>
+      </c>
+      <c r="AD47" s="9">
+        <f>P29</f>
+        <v>0</v>
+      </c>
+      <c r="AE47" s="85">
+        <f>P30</f>
+        <v>0</v>
+      </c>
       <c r="AF47" s="76"/>
       <c r="AG47" s="76"/>
-      <c r="AH47" s="69"/>
-    </row>
-    <row r="48" spans="2:34" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="C48" s="110">
-        <v>50000228</v>
-      </c>
-      <c r="D48" s="111" t="s">
-        <v>30</v>
-      </c>
-      <c r="E48" s="112" t="s">
+      <c r="AH47" s="76"/>
+      <c r="AI47" s="76"/>
+      <c r="AJ47" s="76"/>
+      <c r="AK47" s="69"/>
+    </row>
+    <row r="48" spans="2:37" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B48" s="41"/>
+      <c r="C48" s="108">
+        <v>50000230</v>
+      </c>
+      <c r="D48" s="109" t="s">
+        <v>28</v>
+      </c>
+      <c r="E48" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="G48" s="42">
-        <f t="shared" ref="G48:L48" si="5">SUM(G34:G47)</f>
-        <v>0</v>
-      </c>
-      <c r="H48" s="61">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I48" s="63">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J48" s="63">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K48" s="63">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L48" s="63">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M48" s="63">
-        <f t="shared" ref="M48:W48" si="6">SUM(M34:M47)</f>
-        <v>0</v>
-      </c>
-      <c r="N48" s="63">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O48" s="63">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P48" s="63">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q48" s="63">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R48" s="63">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S48" s="63">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="T48" s="63">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U48" s="63">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V48" s="63">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W48" s="88">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Y48" s="42">
-        <f>SUM(Y34:Y47)</f>
-        <v>0</v>
-      </c>
-      <c r="Z48" s="61">
-        <f>SUM(Z34:Z47)</f>
-        <v>0</v>
-      </c>
-      <c r="AA48" s="61">
-        <f>SUM(AA34:AA47)</f>
-        <v>0</v>
-      </c>
-      <c r="AB48" s="91">
-        <f>SUM(AB34:AB47)</f>
-        <v>0</v>
-      </c>
-      <c r="AC48" s="76"/>
-      <c r="AD48" s="76"/>
-      <c r="AE48" s="76"/>
+      <c r="G48" s="10">
+        <f>Q5</f>
+        <v>0</v>
+      </c>
+      <c r="H48" s="9">
+        <f>Q6</f>
+        <v>0</v>
+      </c>
+      <c r="I48" s="8">
+        <f>Q7</f>
+        <v>0</v>
+      </c>
+      <c r="J48" s="8">
+        <f>Q8</f>
+        <v>0</v>
+      </c>
+      <c r="K48" s="8">
+        <f>Q9</f>
+        <v>0</v>
+      </c>
+      <c r="L48" s="8">
+        <f>Q10</f>
+        <v>0</v>
+      </c>
+      <c r="M48" s="8">
+        <f>Q11</f>
+        <v>0</v>
+      </c>
+      <c r="N48" s="8">
+        <f>Q12</f>
+        <v>0</v>
+      </c>
+      <c r="O48" s="8">
+        <f>Q13</f>
+        <v>0</v>
+      </c>
+      <c r="P48" s="8">
+        <f>Q14</f>
+        <v>0</v>
+      </c>
+      <c r="Q48" s="8">
+        <f>Q15</f>
+        <v>0</v>
+      </c>
+      <c r="R48" s="8">
+        <f>Q16</f>
+        <v>0</v>
+      </c>
+      <c r="S48" s="8">
+        <f>Q17</f>
+        <v>0</v>
+      </c>
+      <c r="T48" s="8">
+        <f>Q18</f>
+        <v>0</v>
+      </c>
+      <c r="U48" s="8">
+        <f>Q19</f>
+        <v>0</v>
+      </c>
+      <c r="V48" s="8">
+        <f>Q20</f>
+        <v>0</v>
+      </c>
+      <c r="W48" s="8">
+        <f>Q21</f>
+        <v>0</v>
+      </c>
+      <c r="X48" s="8">
+        <f>Q22</f>
+        <v>0</v>
+      </c>
+      <c r="Y48" s="8">
+        <f>Q23</f>
+        <v>0</v>
+      </c>
+      <c r="Z48" s="83">
+        <f>Q24</f>
+        <v>0</v>
+      </c>
+      <c r="AB48" s="10">
+        <f>Q27</f>
+        <v>0</v>
+      </c>
+      <c r="AC48" s="9">
+        <f>Q28</f>
+        <v>0</v>
+      </c>
+      <c r="AD48" s="9">
+        <f>Q29</f>
+        <v>0</v>
+      </c>
+      <c r="AE48" s="85">
+        <f>Q30</f>
+        <v>0</v>
+      </c>
       <c r="AF48" s="76"/>
       <c r="AG48" s="76"/>
-      <c r="AH48" s="69"/>
-    </row>
-    <row r="49" spans="3:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C49" s="110">
-        <v>50000259</v>
-      </c>
-      <c r="D49" s="111" t="s">
-        <v>31</v>
-      </c>
-      <c r="E49" s="113" t="s">
-        <v>32</v>
-      </c>
-      <c r="G49" s="11">
-        <f t="shared" ref="G49:L49" si="7">G48*16%</f>
-        <v>0</v>
-      </c>
-      <c r="H49" s="62">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I49" s="64">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J49" s="64">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K49" s="64">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L49" s="64">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M49" s="64">
-        <f t="shared" ref="M49:W49" si="8">M48*16%</f>
-        <v>0</v>
-      </c>
-      <c r="N49" s="64">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O49" s="64">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P49" s="64">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q49" s="64">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R49" s="64">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S49" s="64">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T49" s="64">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U49" s="64">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="V49" s="64">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W49" s="89">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Y49" s="11">
-        <f>Y48*16%</f>
-        <v>0</v>
-      </c>
-      <c r="Z49" s="62">
-        <f>Z48*16%</f>
-        <v>0</v>
-      </c>
-      <c r="AA49" s="62">
-        <f>AA48*16%</f>
-        <v>0</v>
-      </c>
-      <c r="AB49" s="92">
-        <f>AB48*16%</f>
-        <v>0</v>
-      </c>
-      <c r="AC49" s="76"/>
-      <c r="AD49" s="76"/>
-      <c r="AE49" s="76"/>
+      <c r="AH48" s="76"/>
+      <c r="AI48" s="76"/>
+      <c r="AJ48" s="76"/>
+      <c r="AK48" s="69"/>
+    </row>
+    <row r="49" spans="3:37" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="C49" s="108">
+        <v>50000227</v>
+      </c>
+      <c r="D49" s="109" t="s">
+        <v>29</v>
+      </c>
+      <c r="E49" s="110" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" s="10">
+        <f>R5</f>
+        <v>0</v>
+      </c>
+      <c r="H49" s="9">
+        <f>R6</f>
+        <v>0</v>
+      </c>
+      <c r="I49" s="8">
+        <f>R7</f>
+        <v>0</v>
+      </c>
+      <c r="J49" s="8">
+        <f>R8</f>
+        <v>0</v>
+      </c>
+      <c r="K49" s="8">
+        <f>R9</f>
+        <v>0</v>
+      </c>
+      <c r="L49" s="8">
+        <f>R10</f>
+        <v>0</v>
+      </c>
+      <c r="M49" s="8">
+        <f>R11</f>
+        <v>0</v>
+      </c>
+      <c r="N49" s="8">
+        <f>R12</f>
+        <v>0</v>
+      </c>
+      <c r="O49" s="8">
+        <f>R13</f>
+        <v>0</v>
+      </c>
+      <c r="P49" s="8">
+        <f>R14</f>
+        <v>0</v>
+      </c>
+      <c r="Q49" s="8">
+        <f>R15</f>
+        <v>0</v>
+      </c>
+      <c r="R49" s="8">
+        <f>R16</f>
+        <v>0</v>
+      </c>
+      <c r="S49" s="8">
+        <f>R17</f>
+        <v>0</v>
+      </c>
+      <c r="T49" s="8">
+        <f>R18</f>
+        <v>0</v>
+      </c>
+      <c r="U49" s="8">
+        <f>R19</f>
+        <v>0</v>
+      </c>
+      <c r="V49" s="8">
+        <f>R20</f>
+        <v>0</v>
+      </c>
+      <c r="W49" s="8">
+        <f>R21</f>
+        <v>0</v>
+      </c>
+      <c r="X49" s="8">
+        <f>R22</f>
+        <v>0</v>
+      </c>
+      <c r="Y49" s="8">
+        <f>R23</f>
+        <v>0</v>
+      </c>
+      <c r="Z49" s="83">
+        <f>R24</f>
+        <v>0</v>
+      </c>
+      <c r="AB49" s="10">
+        <f>R27</f>
+        <v>0</v>
+      </c>
+      <c r="AC49" s="9">
+        <f>R28</f>
+        <v>0</v>
+      </c>
+      <c r="AD49" s="9">
+        <f>R29</f>
+        <v>0</v>
+      </c>
+      <c r="AE49" s="85">
+        <f>R30</f>
+        <v>0</v>
+      </c>
       <c r="AF49" s="76"/>
       <c r="AG49" s="76"/>
-      <c r="AH49" s="69"/>
-    </row>
-    <row r="50" spans="3:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C50" s="110"/>
-      <c r="D50" s="111" t="s">
+      <c r="AH49" s="76"/>
+      <c r="AI49" s="76"/>
+      <c r="AJ49" s="76"/>
+      <c r="AK49" s="69"/>
+    </row>
+    <row r="50" spans="3:37" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="C50" s="108">
+        <v>50000228</v>
+      </c>
+      <c r="D50" s="109" t="s">
+        <v>30</v>
+      </c>
+      <c r="E50" s="110" t="s">
+        <v>14</v>
+      </c>
+      <c r="G50" s="10">
+        <f>S5</f>
+        <v>0</v>
+      </c>
+      <c r="H50" s="9">
+        <f>S6</f>
+        <v>0</v>
+      </c>
+      <c r="I50" s="8">
+        <f>S7</f>
+        <v>0</v>
+      </c>
+      <c r="J50" s="8">
+        <f>S8</f>
+        <v>0</v>
+      </c>
+      <c r="K50" s="8">
+        <f>S9</f>
+        <v>0</v>
+      </c>
+      <c r="L50" s="8">
+        <f>S10</f>
+        <v>0</v>
+      </c>
+      <c r="M50" s="8">
+        <f>S11</f>
+        <v>0</v>
+      </c>
+      <c r="N50" s="8">
+        <f>S12</f>
+        <v>0</v>
+      </c>
+      <c r="O50" s="8">
+        <f>S13</f>
+        <v>0</v>
+      </c>
+      <c r="P50" s="8">
+        <f>S14</f>
+        <v>0</v>
+      </c>
+      <c r="Q50" s="8">
+        <f>S15</f>
+        <v>0</v>
+      </c>
+      <c r="R50" s="8">
+        <f>S16</f>
+        <v>0</v>
+      </c>
+      <c r="S50" s="8">
+        <f>S17</f>
+        <v>0</v>
+      </c>
+      <c r="T50" s="8">
+        <f>S18</f>
+        <v>0</v>
+      </c>
+      <c r="U50" s="8">
+        <f>S19</f>
+        <v>0</v>
+      </c>
+      <c r="V50" s="8">
+        <f>S20</f>
+        <v>0</v>
+      </c>
+      <c r="W50" s="8">
+        <f>S21</f>
+        <v>0</v>
+      </c>
+      <c r="X50" s="8">
+        <f>S22</f>
+        <v>0</v>
+      </c>
+      <c r="Y50" s="8">
+        <f>S23</f>
+        <v>0</v>
+      </c>
+      <c r="Z50" s="83">
+        <f>S24</f>
+        <v>0</v>
+      </c>
+      <c r="AB50" s="10">
+        <f>S27</f>
+        <v>0</v>
+      </c>
+      <c r="AC50" s="9">
+        <f>S28</f>
+        <v>0</v>
+      </c>
+      <c r="AD50" s="9">
+        <f>S29</f>
+        <v>0</v>
+      </c>
+      <c r="AE50" s="85">
+        <f>S30</f>
+        <v>0</v>
+      </c>
+      <c r="AF50" s="76"/>
+      <c r="AG50" s="76"/>
+      <c r="AH50" s="76"/>
+      <c r="AI50" s="76"/>
+      <c r="AJ50" s="76"/>
+      <c r="AK50" s="69"/>
+    </row>
+    <row r="51" spans="3:37" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C51" s="108">
+        <v>50000259</v>
+      </c>
+      <c r="D51" s="109" t="s">
+        <v>31</v>
+      </c>
+      <c r="E51" s="111" t="s">
+        <v>32</v>
+      </c>
+      <c r="G51" s="122">
+        <f>M5+N5</f>
+        <v>0</v>
+      </c>
+      <c r="H51" s="8">
+        <f>M6+N6</f>
+        <v>0</v>
+      </c>
+      <c r="I51" s="8">
+        <f>M7+N7</f>
+        <v>0</v>
+      </c>
+      <c r="J51" s="8">
+        <f>M8+N8</f>
+        <v>0</v>
+      </c>
+      <c r="K51" s="8">
+        <f>M9+N9</f>
+        <v>0</v>
+      </c>
+      <c r="L51" s="8">
+        <f>M10+N10</f>
+        <v>0</v>
+      </c>
+      <c r="M51" s="8">
+        <f>M11+N11</f>
+        <v>0</v>
+      </c>
+      <c r="N51" s="8">
+        <f>M12+N12</f>
+        <v>0</v>
+      </c>
+      <c r="O51" s="8">
+        <f>M13+N13</f>
+        <v>0</v>
+      </c>
+      <c r="P51" s="8">
+        <f>M14+N14</f>
+        <v>0</v>
+      </c>
+      <c r="Q51" s="8">
+        <f>M15+N15</f>
+        <v>0</v>
+      </c>
+      <c r="R51" s="8">
+        <f>M16+N16</f>
+        <v>0</v>
+      </c>
+      <c r="S51" s="8">
+        <f>M17+N17</f>
+        <v>0</v>
+      </c>
+      <c r="T51" s="8">
+        <f>M18+N18</f>
+        <v>0</v>
+      </c>
+      <c r="U51" s="8">
+        <f>M19+N19</f>
+        <v>0</v>
+      </c>
+      <c r="V51" s="8">
+        <f>M20+N20</f>
+        <v>0</v>
+      </c>
+      <c r="W51" s="8">
+        <f>M21+N21</f>
+        <v>0</v>
+      </c>
+      <c r="X51" s="8">
+        <f>M22+N22</f>
+        <v>0</v>
+      </c>
+      <c r="Y51" s="8">
+        <f>M23+N23</f>
+        <v>0</v>
+      </c>
+      <c r="Z51" s="83">
+        <f>M24+N24</f>
+        <v>0</v>
+      </c>
+      <c r="AB51" s="122">
+        <f>M27+N27</f>
+        <v>0</v>
+      </c>
+      <c r="AC51" s="8">
+        <f>M28+N28</f>
+        <v>0</v>
+      </c>
+      <c r="AD51" s="8">
+        <f>M29+N29</f>
+        <v>0</v>
+      </c>
+      <c r="AE51" s="83">
+        <f>M30+N30</f>
+        <v>0</v>
+      </c>
+      <c r="AF51" s="76"/>
+      <c r="AG51" s="76"/>
+      <c r="AH51" s="76"/>
+      <c r="AI51" s="76"/>
+      <c r="AJ51" s="76"/>
+      <c r="AK51" s="69"/>
+    </row>
+    <row r="52" spans="3:37" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="C52" s="108"/>
+      <c r="D52" s="109" t="s">
         <v>33</v>
       </c>
-      <c r="E50" s="114"/>
-      <c r="G50" s="93">
-        <f t="shared" ref="G50:W50" si="9">SUM(G48:G49)</f>
-        <v>0</v>
-      </c>
-      <c r="H50" s="94">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I50" s="94">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="J50" s="94">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K50" s="94">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L50" s="94">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M50" s="94">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="N50" s="94">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="O50" s="94">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="P50" s="94">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Q50" s="94">
-        <f t="shared" ref="Q50:R50" si="10">SUM(Q48:Q49)</f>
-        <v>0</v>
-      </c>
-      <c r="R50" s="94">
+      <c r="E52" s="112"/>
+      <c r="G52" s="42">
+        <f t="shared" ref="G52:L52" si="5">SUM(G38:G51)</f>
+        <v>0</v>
+      </c>
+      <c r="H52" s="61">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I52" s="63">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J52" s="63">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K52" s="63">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L52" s="63">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M52" s="63">
+        <f t="shared" ref="M52:V52" si="6">SUM(M38:M51)</f>
+        <v>0</v>
+      </c>
+      <c r="N52" s="63">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O52" s="63">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P52" s="63">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q52" s="63">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R52" s="63">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S52" s="63">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T52" s="63">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U52" s="63">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V52" s="63">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W52" s="63">
+        <f>SUM(W38:W51)</f>
+        <v>0</v>
+      </c>
+      <c r="X52" s="63">
+        <f>SUM(X38:X51)</f>
+        <v>0</v>
+      </c>
+      <c r="Y52" s="63">
+        <f>SUM(Y38:Y51)</f>
+        <v>0</v>
+      </c>
+      <c r="Z52" s="88">
+        <f>SUM(Z38:Z51)</f>
+        <v>0</v>
+      </c>
+      <c r="AB52" s="42">
+        <f>SUM(AB38:AB51)</f>
+        <v>0</v>
+      </c>
+      <c r="AC52" s="61">
+        <f>SUM(AC38:AC51)</f>
+        <v>0</v>
+      </c>
+      <c r="AD52" s="61">
+        <f>SUM(AD38:AD51)</f>
+        <v>0</v>
+      </c>
+      <c r="AE52" s="91">
+        <f>SUM(AE38:AE51)</f>
+        <v>0</v>
+      </c>
+      <c r="AF52" s="76"/>
+      <c r="AG52" s="76"/>
+      <c r="AH52" s="76"/>
+      <c r="AI52" s="76"/>
+      <c r="AJ52" s="76"/>
+      <c r="AK52" s="69"/>
+    </row>
+    <row r="53" spans="3:37" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C53" s="108"/>
+      <c r="D53" s="109" t="s">
+        <v>2</v>
+      </c>
+      <c r="E53" s="112"/>
+      <c r="G53" s="11">
+        <f t="shared" ref="G53:L53" si="7">G52*16%</f>
+        <v>0</v>
+      </c>
+      <c r="H53" s="62">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I53" s="64">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J53" s="64">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K53" s="64">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L53" s="64">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M53" s="64">
+        <f t="shared" ref="M53:V53" si="8">M52*16%</f>
+        <v>0</v>
+      </c>
+      <c r="N53" s="64">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O53" s="64">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P53" s="64">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q53" s="64">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R53" s="64">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S53" s="64">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T53" s="64">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U53" s="64">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V53" s="64">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W53" s="64">
+        <f t="shared" ref="W53" si="9">W52*16%</f>
+        <v>0</v>
+      </c>
+      <c r="X53" s="64">
+        <f>X52*16%</f>
+        <v>0</v>
+      </c>
+      <c r="Y53" s="64">
+        <f>Y52*16%</f>
+        <v>0</v>
+      </c>
+      <c r="Z53" s="89">
+        <f>Z52*16%</f>
+        <v>0</v>
+      </c>
+      <c r="AB53" s="11">
+        <f>AB52*16%</f>
+        <v>0</v>
+      </c>
+      <c r="AC53" s="62">
+        <f>AC52*16%</f>
+        <v>0</v>
+      </c>
+      <c r="AD53" s="62">
+        <f>AD52*16%</f>
+        <v>0</v>
+      </c>
+      <c r="AE53" s="92">
+        <f>AE52*16%</f>
+        <v>0</v>
+      </c>
+      <c r="AF53" s="76"/>
+      <c r="AG53" s="76"/>
+      <c r="AH53" s="76"/>
+      <c r="AI53" s="76"/>
+      <c r="AJ53" s="76"/>
+      <c r="AK53" s="69"/>
+    </row>
+    <row r="54" spans="3:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C54" s="113"/>
+      <c r="D54" s="114" t="s">
+        <v>34</v>
+      </c>
+      <c r="E54" s="115"/>
+      <c r="G54" s="93">
+        <f t="shared" ref="G54:P54" si="10">SUM(G52:G53)</f>
+        <v>0</v>
+      </c>
+      <c r="H54" s="94">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="S50" s="94">
-        <f t="shared" ref="S50:T50" si="11">SUM(S48:S49)</f>
-        <v>0</v>
-      </c>
-      <c r="T50" s="94">
+      <c r="I54" s="94">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J54" s="94">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K54" s="94">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L54" s="94">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M54" s="94">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N54" s="94">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O54" s="94">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P54" s="94">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q54" s="94">
+        <f t="shared" ref="Q54:R54" si="11">SUM(Q52:Q53)</f>
+        <v>0</v>
+      </c>
+      <c r="R54" s="94">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="U50" s="94">
-        <f t="shared" ref="U50:V50" si="12">SUM(U48:U49)</f>
-        <v>0</v>
-      </c>
-      <c r="V50" s="94">
+      <c r="S54" s="94">
+        <f t="shared" ref="S54:T54" si="12">SUM(S52:S53)</f>
+        <v>0</v>
+      </c>
+      <c r="T54" s="94">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="W50" s="95">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Y50" s="93">
-        <f>SUM(Y48:Y49)</f>
-        <v>0</v>
-      </c>
-      <c r="Z50" s="94">
-        <f>SUM(Z48:Z49)</f>
-        <v>0</v>
-      </c>
-      <c r="AA50" s="94">
-        <f>SUM(AA48:AA49)</f>
-        <v>0</v>
-      </c>
-      <c r="AB50" s="95">
-        <f>SUM(AB48:AB49)</f>
-        <v>0</v>
-      </c>
-      <c r="AC50" s="77"/>
-      <c r="AD50" s="77"/>
-      <c r="AE50" s="79"/>
-      <c r="AF50" s="77"/>
-      <c r="AG50" s="77"/>
-      <c r="AH50" s="69"/>
-    </row>
-    <row r="51" spans="3:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C51" s="110"/>
-      <c r="D51" s="111" t="s">
-        <v>2</v>
-      </c>
-      <c r="E51" s="114"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="46"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
-      <c r="L51" s="46"/>
-      <c r="M51" s="50"/>
-      <c r="N51" s="52"/>
-      <c r="O51" s="6"/>
-      <c r="R51" s="71"/>
-      <c r="S51" s="71"/>
-      <c r="T51" s="71"/>
-      <c r="U51" s="70"/>
-      <c r="V51" s="70"/>
-      <c r="W51" s="69"/>
-    </row>
-    <row r="52" spans="3:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C52" s="115"/>
-      <c r="D52" s="116" t="s">
-        <v>34</v>
-      </c>
-      <c r="E52" s="117"/>
-      <c r="F52" s="96"/>
-      <c r="G52" s="96"/>
-      <c r="H52" s="96"/>
-      <c r="I52" s="51"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="51"/>
-      <c r="M52" s="2"/>
-      <c r="N52" s="70"/>
-      <c r="O52" s="51"/>
-      <c r="P52" s="51"/>
-      <c r="Q52" s="48"/>
-      <c r="R52" s="71"/>
-      <c r="S52" s="71"/>
-      <c r="T52" s="71"/>
-      <c r="U52" s="70"/>
-      <c r="V52" s="70"/>
-      <c r="W52" s="69"/>
-    </row>
-    <row r="53" spans="3:34" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="C53" s="4"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="48"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="48"/>
-      <c r="M53" s="3"/>
-      <c r="N53" s="48"/>
-      <c r="O53" s="48"/>
-      <c r="P53" s="48"/>
-      <c r="Q53" s="48"/>
-      <c r="R53" s="71"/>
-      <c r="S53" s="71"/>
-      <c r="T53" s="71"/>
-      <c r="U53" s="70"/>
-      <c r="V53" s="70"/>
-      <c r="W53" s="69"/>
-    </row>
-    <row r="54" spans="3:34" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="C54" s="4"/>
-      <c r="D54" s="96" t="s">
-        <v>35</v>
-      </c>
-      <c r="E54" s="96"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="39"/>
-      <c r="I54" s="48"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="3"/>
-      <c r="N54" s="48"/>
-      <c r="O54" s="48"/>
-      <c r="P54" s="48"/>
-      <c r="Q54" s="48"/>
-      <c r="R54" s="48"/>
-      <c r="S54" s="48"/>
-      <c r="T54" s="3"/>
-      <c r="U54" s="2"/>
-      <c r="V54" s="2"/>
-    </row>
-    <row r="55" spans="3:34" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="C55" s="4"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="38"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="3"/>
-      <c r="N55" s="48"/>
-      <c r="O55" s="48"/>
-      <c r="P55" s="48"/>
-      <c r="Q55" s="48"/>
-      <c r="R55" s="48"/>
-      <c r="S55" s="3"/>
-      <c r="T55" s="3"/>
-      <c r="U55" s="2"/>
-      <c r="V55" s="2"/>
-    </row>
-    <row r="56" spans="3:34" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="C56" s="4"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
+      <c r="U54" s="94">
+        <f t="shared" ref="U54:V54" si="13">SUM(U52:U53)</f>
+        <v>0</v>
+      </c>
+      <c r="V54" s="94">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="W54" s="94">
+        <f>SUM(W52:W53)</f>
+        <v>0</v>
+      </c>
+      <c r="X54" s="94">
+        <f>SUM(X52:X53)</f>
+        <v>0</v>
+      </c>
+      <c r="Y54" s="94">
+        <f>SUM(Y52:Y53)</f>
+        <v>0</v>
+      </c>
+      <c r="Z54" s="124">
+        <f>SUM(Z52:Z53)</f>
+        <v>0</v>
+      </c>
+      <c r="AB54" s="93">
+        <f>SUM(AB52:AB53)</f>
+        <v>0</v>
+      </c>
+      <c r="AC54" s="94">
+        <f>SUM(AC52:AC53)</f>
+        <v>0</v>
+      </c>
+      <c r="AD54" s="94">
+        <f>SUM(AD52:AD53)</f>
+        <v>0</v>
+      </c>
+      <c r="AE54" s="95">
+        <f>SUM(AE52:AE53)</f>
+        <v>0</v>
+      </c>
+      <c r="AF54" s="77"/>
+      <c r="AG54" s="77"/>
+      <c r="AH54" s="79"/>
+      <c r="AI54" s="77"/>
+      <c r="AJ54" s="77"/>
+      <c r="AK54" s="69"/>
+    </row>
+    <row r="55" spans="3:37" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="46"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="46"/>
+      <c r="M55" s="50"/>
+      <c r="N55" s="52"/>
+      <c r="O55" s="6"/>
+      <c r="R55" s="71"/>
+      <c r="S55" s="71"/>
+      <c r="T55" s="71"/>
+      <c r="U55" s="70"/>
+      <c r="V55" s="70"/>
+      <c r="W55" s="70"/>
+      <c r="X55" s="70"/>
+      <c r="Y55" s="70"/>
+      <c r="Z55" s="69"/>
+    </row>
+    <row r="56" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="F56" s="96"/>
+      <c r="G56" s="96"/>
+      <c r="H56" s="96"/>
+      <c r="I56" s="51"/>
+      <c r="J56" s="2"/>
       <c r="K56" s="2"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
-      <c r="N56" s="3"/>
-      <c r="O56" s="3"/>
-      <c r="P56" s="3"/>
-      <c r="Q56" s="3"/>
-      <c r="R56" s="3"/>
-      <c r="S56" s="3"/>
-      <c r="T56" s="3"/>
-      <c r="U56" s="2"/>
-      <c r="V56" s="2"/>
-    </row>
-    <row r="57" spans="3:34" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="L56" s="51"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="70"/>
+      <c r="O56" s="51"/>
+      <c r="P56" s="51"/>
+      <c r="Q56" s="48"/>
+      <c r="R56" s="71"/>
+      <c r="S56" s="71"/>
+      <c r="T56" s="71"/>
+      <c r="U56" s="70"/>
+      <c r="V56" s="70"/>
+      <c r="W56" s="70"/>
+      <c r="X56" s="70"/>
+      <c r="Y56" s="70"/>
+      <c r="Z56" s="69"/>
+    </row>
+    <row r="57" spans="3:37" ht="15.75" x14ac:dyDescent="0.3">
       <c r="C57" s="4"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
+      <c r="I57" s="48"/>
       <c r="J57" s="3"/>
       <c r="K57" s="2"/>
-      <c r="L57" s="3"/>
+      <c r="L57" s="48"/>
       <c r="M57" s="3"/>
-      <c r="N57" s="3"/>
-      <c r="O57" s="3"/>
-      <c r="P57" s="3"/>
-      <c r="Q57" s="3"/>
-      <c r="R57" s="3"/>
-      <c r="S57" s="3"/>
-      <c r="T57" s="3"/>
-      <c r="U57" s="2"/>
-      <c r="V57" s="2"/>
-    </row>
-    <row r="58" spans="3:34" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="N57" s="48"/>
+      <c r="O57" s="48"/>
+      <c r="P57" s="48"/>
+      <c r="Q57" s="48"/>
+      <c r="R57" s="71"/>
+      <c r="S57" s="71"/>
+      <c r="T57" s="71"/>
+      <c r="U57" s="70"/>
+      <c r="V57" s="70"/>
+      <c r="W57" s="70"/>
+      <c r="X57" s="70"/>
+      <c r="Y57" s="70"/>
+      <c r="Z57" s="69"/>
+    </row>
+    <row r="58" spans="3:37" ht="15.75" x14ac:dyDescent="0.3">
       <c r="C58" s="4"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-    </row>
-    <row r="59" spans="3:34" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="D58" s="96" t="s">
+        <v>35</v>
+      </c>
+      <c r="E58" s="96"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="39"/>
+      <c r="I58" s="48"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="48"/>
+      <c r="O58" s="48"/>
+      <c r="P58" s="48"/>
+      <c r="Q58" s="48"/>
+      <c r="R58" s="48"/>
+      <c r="S58" s="48"/>
+      <c r="T58" s="3"/>
+      <c r="U58" s="2"/>
+      <c r="V58" s="2"/>
+      <c r="W58" s="2"/>
+      <c r="X58" s="2"/>
+      <c r="Y58" s="2"/>
+    </row>
+    <row r="59" spans="3:37" ht="15.75" x14ac:dyDescent="0.3">
       <c r="C59" s="4"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="38"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="48"/>
+      <c r="O59" s="48"/>
+      <c r="P59" s="48"/>
+      <c r="Q59" s="48"/>
+      <c r="R59" s="48"/>
+      <c r="S59" s="3"/>
+      <c r="T59" s="3"/>
+      <c r="U59" s="2"/>
+      <c r="V59" s="2"/>
+      <c r="W59" s="2"/>
+      <c r="X59" s="2"/>
+      <c r="Y59" s="2"/>
+    </row>
+    <row r="60" spans="3:37" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="C60" s="4"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
+      <c r="O60" s="3"/>
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3"/>
+      <c r="R60" s="3"/>
+      <c r="S60" s="3"/>
+      <c r="T60" s="3"/>
+      <c r="U60" s="2"/>
+      <c r="V60" s="2"/>
+      <c r="W60" s="2"/>
+      <c r="X60" s="2"/>
+      <c r="Y60" s="2"/>
+    </row>
+    <row r="61" spans="3:37" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="C61" s="4"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="3"/>
+      <c r="M61" s="3"/>
+      <c r="N61" s="3"/>
+      <c r="O61" s="3"/>
+      <c r="P61" s="3"/>
+      <c r="Q61" s="3"/>
+      <c r="R61" s="3"/>
+      <c r="S61" s="3"/>
+      <c r="T61" s="3"/>
+      <c r="U61" s="2"/>
+      <c r="V61" s="2"/>
+      <c r="W61" s="2"/>
+      <c r="X61" s="2"/>
+      <c r="Y61" s="2"/>
+    </row>
+    <row r="62" spans="3:37" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="C62" s="4"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+    </row>
+    <row r="63" spans="3:37" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="C63" s="4"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="AD31:AE31"/>
-    <mergeCell ref="B5:B21"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="G31:P31"/>
+    <mergeCell ref="AG35:AH35"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="G35:P35"/>
+    <mergeCell ref="B5:B25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6213,7 +6834,7 @@
   <dimension ref="A1:Z1"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
     </sheetView>
@@ -6337,11 +6958,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD42"/>
+  <dimension ref="A1:AG42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB36" sqref="AB36:AC36"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M17" sqref="M17:W17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6351,54 +6972,57 @@
     <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="16" customWidth="1"/>
     <col min="8" max="8" width="18.140625" customWidth="1"/>
-    <col min="9" max="20" width="20.140625" customWidth="1"/>
-    <col min="21" max="21" width="21.28515625" customWidth="1"/>
-    <col min="22" max="22" width="2.5703125" customWidth="1"/>
-    <col min="23" max="23" width="14" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.85546875" customWidth="1"/>
-    <col min="25" max="25" width="18.7109375" customWidth="1"/>
-    <col min="26" max="26" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="29" width="18.28515625" customWidth="1"/>
-    <col min="30" max="30" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="3.42578125" customWidth="1"/>
-    <col min="32" max="32" width="18.28515625" customWidth="1"/>
+    <col min="9" max="23" width="20.140625" customWidth="1"/>
+    <col min="24" max="24" width="21.28515625" customWidth="1"/>
+    <col min="25" max="25" width="2.5703125" customWidth="1"/>
+    <col min="26" max="26" width="14" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.85546875" customWidth="1"/>
+    <col min="28" max="28" width="18.7109375" customWidth="1"/>
+    <col min="29" max="29" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="32" width="18.28515625" customWidth="1"/>
+    <col min="33" max="33" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="3.42578125" customWidth="1"/>
+    <col min="35" max="35" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="130" t="s">
-        <v>110</v>
-      </c>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
-      <c r="K1" s="130"/>
-      <c r="L1" s="130"/>
-      <c r="M1" s="130"/>
-      <c r="N1" s="130"/>
-      <c r="O1" s="130"/>
-      <c r="P1" s="130"/>
-      <c r="Q1" s="130"/>
-      <c r="R1" s="130"/>
-      <c r="S1" s="130"/>
-      <c r="T1" s="130"/>
-      <c r="U1" s="130"/>
-      <c r="X1" s="130" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y1" s="130"/>
-      <c r="Z1" s="130"/>
-      <c r="AA1" s="130"/>
-      <c r="AB1" s="130"/>
-      <c r="AC1" s="130"/>
-      <c r="AD1" s="130"/>
-    </row>
-    <row r="2" spans="1:30" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:30" s="56" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="129" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
+      <c r="N1" s="129"/>
+      <c r="O1" s="129"/>
+      <c r="P1" s="129"/>
+      <c r="Q1" s="129"/>
+      <c r="R1" s="129"/>
+      <c r="S1" s="129"/>
+      <c r="T1" s="129"/>
+      <c r="U1" s="129"/>
+      <c r="V1" s="129"/>
+      <c r="W1" s="129"/>
+      <c r="X1" s="129"/>
+      <c r="AA1" s="129" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB1" s="129"/>
+      <c r="AC1" s="129"/>
+      <c r="AD1" s="129"/>
+      <c r="AE1" s="129"/>
+      <c r="AF1" s="129"/>
+      <c r="AG1" s="129"/>
+    </row>
+    <row r="2" spans="1:33" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:33" s="56" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="57" t="s">
         <v>54</v>
       </c>
@@ -6409,19 +7033,19 @@
         <v>100</v>
       </c>
       <c r="E3" s="58" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F3" s="58" t="s">
         <v>38</v>
       </c>
       <c r="G3" s="58" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H3" s="58" t="s">
         <v>97</v>
       </c>
       <c r="I3" s="58" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J3" s="58" t="s">
         <v>101</v>
@@ -6436,53 +7060,62 @@
         <v>95</v>
       </c>
       <c r="N3" s="58" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O3" s="58" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P3" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q3" s="58" t="s">
         <v>115</v>
       </c>
-      <c r="Q3" s="58" t="s">
+      <c r="R3" s="58" t="s">
         <v>116</v>
       </c>
-      <c r="R3" s="58" t="s">
+      <c r="S3" s="58" t="s">
         <v>117</v>
       </c>
-      <c r="S3" s="58" t="s">
+      <c r="T3" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="T3" s="58" t="s">
-        <v>119</v>
-      </c>
       <c r="U3" s="58" t="s">
+        <v>129</v>
+      </c>
+      <c r="V3" s="58" t="s">
+        <v>130</v>
+      </c>
+      <c r="W3" s="58" t="s">
+        <v>131</v>
+      </c>
+      <c r="X3" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="V3" s="59"/>
-      <c r="X3" s="57" t="s">
+      <c r="Y3" s="59"/>
+      <c r="AA3" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="Y3" s="57" t="s">
+      <c r="AB3" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="Z3" s="58" t="s">
+      <c r="AC3" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="AA3" s="58" t="s">
+      <c r="AD3" s="58" t="s">
         <v>101</v>
       </c>
-      <c r="AB3" s="58" t="s">
+      <c r="AE3" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="AC3" s="58" t="s">
+      <c r="AF3" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="AD3" s="58" t="s">
+      <c r="AG3" s="58" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
         <v>57</v>
       </c>
@@ -6508,65 +7141,74 @@
         <v>94</v>
       </c>
       <c r="J4" s="80" t="s">
+        <v>104</v>
+      </c>
+      <c r="K4" s="80" t="s">
+        <v>103</v>
+      </c>
+      <c r="L4" s="84" t="s">
+        <v>111</v>
+      </c>
+      <c r="M4" s="84" t="s">
+        <v>110</v>
+      </c>
+      <c r="N4" s="84" t="s">
+        <v>121</v>
+      </c>
+      <c r="O4" s="84" t="s">
+        <v>124</v>
+      </c>
+      <c r="P4" s="84" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q4" s="84" t="s">
+        <v>127</v>
+      </c>
+      <c r="R4" s="84" t="s">
+        <v>126</v>
+      </c>
+      <c r="S4" s="84" t="s">
+        <v>125</v>
+      </c>
+      <c r="T4" s="84" t="s">
+        <v>122</v>
+      </c>
+      <c r="U4" s="84" t="s">
+        <v>134</v>
+      </c>
+      <c r="V4" s="84" t="s">
+        <v>133</v>
+      </c>
+      <c r="W4" s="84" t="s">
+        <v>132</v>
+      </c>
+      <c r="X4" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y4" s="18"/>
+      <c r="AA4" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB4" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC4" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD4" s="80" t="s">
         <v>105</v>
       </c>
-      <c r="K4" s="80" t="s">
-        <v>104</v>
-      </c>
-      <c r="L4" s="84" t="s">
+      <c r="AE4" s="84" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF4" s="84" t="s">
         <v>112</v>
       </c>
-      <c r="M4" s="84" t="s">
-        <v>111</v>
-      </c>
-      <c r="N4" s="84" t="s">
-        <v>122</v>
-      </c>
-      <c r="O4" s="84" t="s">
-        <v>125</v>
-      </c>
-      <c r="P4" s="84" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q4" s="84" t="s">
-        <v>128</v>
-      </c>
-      <c r="R4" s="84" t="s">
-        <v>127</v>
-      </c>
-      <c r="S4" s="84" t="s">
-        <v>126</v>
-      </c>
-      <c r="T4" s="84" t="s">
-        <v>123</v>
-      </c>
-      <c r="U4" s="18" t="s">
+      <c r="AG4" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="V4" s="18"/>
-      <c r="X4" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y4" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z4" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA4" s="80" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB4" s="84" t="s">
-        <v>114</v>
-      </c>
-      <c r="AC4" s="84" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD4" s="18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:33" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
@@ -6589,29 +7231,32 @@
       <c r="R5" s="84"/>
       <c r="S5" s="84"/>
       <c r="T5" s="84"/>
-      <c r="U5" s="18" t="e">
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
+      <c r="W5" s="84"/>
+      <c r="X5" s="18" t="e">
         <f>RESUMEN!$D5+RESUMEN!#REF!+RESUMEN!#REF!+RESUMEN!#REF!+RESUMEN!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="V5" s="18"/>
-      <c r="X5" s="18"/>
       <c r="Y5" s="18"/>
-      <c r="Z5" s="18"/>
-      <c r="AA5" s="80"/>
-      <c r="AB5" s="84">
-        <f>MES!D26</f>
-        <v>0</v>
-      </c>
-      <c r="AC5" s="84">
-        <f>MES!D27</f>
-        <v>0</v>
-      </c>
-      <c r="AD5" s="18" t="e">
-        <f>RESUMEN!$Z5+RESUMEN!#REF!+RESUMEN!#REF!+RESUMEN!#REF!+RESUMEN!#REF!</f>
+      <c r="AA5" s="18"/>
+      <c r="AB5" s="18"/>
+      <c r="AC5" s="18"/>
+      <c r="AD5" s="80"/>
+      <c r="AE5" s="84">
+        <f>MES!D30</f>
+        <v>0</v>
+      </c>
+      <c r="AF5" s="84">
+        <f>MES!D31</f>
+        <v>0</v>
+      </c>
+      <c r="AG5" s="18" t="e">
+        <f>RESUMEN!$AC5+RESUMEN!#REF!+RESUMEN!#REF!+RESUMEN!#REF!+RESUMEN!#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -6668,42 +7313,45 @@
       <c r="R6" s="84"/>
       <c r="S6" s="84"/>
       <c r="T6" s="84"/>
-      <c r="U6" s="80">
-        <f>SUM(D6:M6)</f>
-        <v>0</v>
-      </c>
-      <c r="V6" s="18"/>
-      <c r="W6" s="3" t="s">
+      <c r="U6" s="84"/>
+      <c r="V6" s="84"/>
+      <c r="W6" s="84"/>
+      <c r="X6" s="80">
+        <f t="shared" ref="X6:X13" si="0">SUM(D6:M6)</f>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="18"/>
+      <c r="Z6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X6" s="19" t="s">
+      <c r="AA6" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="Y6" s="20" t="s">
+      <c r="AB6" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="Z6" s="18">
-        <f>MES!D25</f>
-        <v>0</v>
-      </c>
-      <c r="AA6" s="80">
-        <f>MES!D26</f>
-        <v>0</v>
-      </c>
-      <c r="AB6" s="84">
-        <f>MES!D27</f>
-        <v>0</v>
-      </c>
-      <c r="AC6" s="84">
-        <f>MES!D28</f>
+      <c r="AC6" s="18">
+        <f>MES!D29</f>
         <v>0</v>
       </c>
       <c r="AD6" s="80">
-        <f>RESUMEN!$Z6+RESUMEN!$AA6+AB6+AC6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+        <f>MES!D30</f>
+        <v>0</v>
+      </c>
+      <c r="AE6" s="84">
+        <f>MES!D31</f>
+        <v>0</v>
+      </c>
+      <c r="AF6" s="84">
+        <f>MES!D32</f>
+        <v>0</v>
+      </c>
+      <c r="AG6" s="80">
+        <f>RESUMEN!$AC6+RESUMEN!$AD6+AE6+AF6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -6760,42 +7408,45 @@
       <c r="R7" s="84"/>
       <c r="S7" s="84"/>
       <c r="T7" s="84"/>
-      <c r="U7" s="84">
-        <f t="shared" ref="U7:U13" si="0">SUM(D7:M7)</f>
-        <v>0</v>
-      </c>
-      <c r="V7" s="18"/>
-      <c r="W7" s="3" t="s">
+      <c r="U7" s="84"/>
+      <c r="V7" s="84"/>
+      <c r="W7" s="84"/>
+      <c r="X7" s="84">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="18"/>
+      <c r="Z7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X7" s="19" t="s">
+      <c r="AA7" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="Y7" s="20" t="s">
+      <c r="AB7" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="Z7" s="18">
-        <f>MES!E25</f>
-        <v>0</v>
-      </c>
-      <c r="AA7" s="80">
-        <f>MES!E26</f>
-        <v>0</v>
-      </c>
-      <c r="AB7" s="84">
-        <f>MES!E27</f>
-        <v>0</v>
-      </c>
-      <c r="AC7" s="84">
-        <f>MES!E28</f>
-        <v>0</v>
-      </c>
-      <c r="AD7" s="84">
-        <f>RESUMEN!$Z7+RESUMEN!$AA7+AB7+AC7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AC7" s="18">
+        <f>MES!E29</f>
+        <v>0</v>
+      </c>
+      <c r="AD7" s="80">
+        <f>MES!E30</f>
+        <v>0</v>
+      </c>
+      <c r="AE7" s="84">
+        <f>MES!E31</f>
+        <v>0</v>
+      </c>
+      <c r="AF7" s="84">
+        <f>MES!E32</f>
+        <v>0</v>
+      </c>
+      <c r="AG7" s="84">
+        <f>RESUMEN!$AC7+RESUMEN!$AD7+AE7+AF7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -6852,42 +7503,45 @@
       <c r="R8" s="84"/>
       <c r="S8" s="84"/>
       <c r="T8" s="84"/>
-      <c r="U8" s="84">
+      <c r="U8" s="84"/>
+      <c r="V8" s="84"/>
+      <c r="W8" s="84"/>
+      <c r="X8" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V8" s="18"/>
-      <c r="W8" s="3" t="s">
+      <c r="Y8" s="18"/>
+      <c r="Z8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="X8" s="19" t="s">
+      <c r="AA8" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="Y8" s="20" t="s">
+      <c r="AB8" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="Z8" s="18">
-        <f>MES!F23</f>
-        <v>0</v>
-      </c>
-      <c r="AA8" s="80">
-        <f>MES!F24</f>
-        <v>0</v>
-      </c>
-      <c r="AB8" s="84">
-        <f>MES!F25</f>
-        <v>0</v>
-      </c>
-      <c r="AC8" s="84">
-        <f>MES!F26</f>
-        <v>0</v>
-      </c>
-      <c r="AD8" s="84">
-        <f>RESUMEN!$Z8+RESUMEN!$AA8+AB8+AC8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AC8" s="18">
+        <f>MES!F27</f>
+        <v>0</v>
+      </c>
+      <c r="AD8" s="80">
+        <f>MES!F28</f>
+        <v>0</v>
+      </c>
+      <c r="AE8" s="84">
+        <f>MES!F29</f>
+        <v>0</v>
+      </c>
+      <c r="AF8" s="84">
+        <f>MES!F30</f>
+        <v>0</v>
+      </c>
+      <c r="AG8" s="84">
+        <f>RESUMEN!$AC8+RESUMEN!$AD8+AE8+AF8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -6944,42 +7598,45 @@
       <c r="R9" s="84"/>
       <c r="S9" s="84"/>
       <c r="T9" s="84"/>
-      <c r="U9" s="84">
+      <c r="U9" s="84"/>
+      <c r="V9" s="84"/>
+      <c r="W9" s="84"/>
+      <c r="X9" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V9" s="18"/>
-      <c r="W9" s="3" t="s">
+      <c r="Y9" s="18"/>
+      <c r="Z9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="X9" s="19" t="s">
+      <c r="AA9" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="Y9" s="18" t="s">
+      <c r="AB9" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="Z9" s="18">
-        <f>MES!G23</f>
-        <v>0</v>
-      </c>
-      <c r="AA9" s="80">
-        <f>MES!G24</f>
-        <v>0</v>
-      </c>
-      <c r="AB9" s="84">
-        <f>MES!G25</f>
-        <v>0</v>
-      </c>
-      <c r="AC9" s="84">
-        <f>MES!G26</f>
-        <v>0</v>
-      </c>
-      <c r="AD9" s="84">
-        <f>RESUMEN!$Z9+RESUMEN!$AA9+AB9+AC9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AC9" s="18">
+        <f>MES!G27</f>
+        <v>0</v>
+      </c>
+      <c r="AD9" s="80">
+        <f>MES!G28</f>
+        <v>0</v>
+      </c>
+      <c r="AE9" s="84">
+        <f>MES!G29</f>
+        <v>0</v>
+      </c>
+      <c r="AF9" s="84">
+        <f>MES!G30</f>
+        <v>0</v>
+      </c>
+      <c r="AG9" s="84">
+        <f>RESUMEN!$AC9+RESUMEN!$AD9+AE9+AF9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
       <c r="D10" s="21"/>
@@ -6999,20 +7656,23 @@
       <c r="R10" s="84"/>
       <c r="S10" s="84"/>
       <c r="T10" s="84"/>
-      <c r="U10" s="84">
+      <c r="U10" s="84"/>
+      <c r="V10" s="84"/>
+      <c r="W10" s="84"/>
+      <c r="X10" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V10" s="18"/>
-      <c r="X10" s="21"/>
-      <c r="Y10" s="21"/>
-      <c r="Z10" s="21"/>
-      <c r="AA10" s="80"/>
-      <c r="AB10" s="84"/>
-      <c r="AC10" s="84"/>
-      <c r="AD10" s="84"/>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="Y10" s="18"/>
+      <c r="AA10" s="21"/>
+      <c r="AB10" s="21"/>
+      <c r="AC10" s="21"/>
+      <c r="AD10" s="80"/>
+      <c r="AE10" s="84"/>
+      <c r="AF10" s="84"/>
+      <c r="AG10" s="84"/>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -7069,42 +7729,45 @@
       <c r="R11" s="84"/>
       <c r="S11" s="84"/>
       <c r="T11" s="84"/>
-      <c r="U11" s="84">
+      <c r="U11" s="84"/>
+      <c r="V11" s="84"/>
+      <c r="W11" s="84"/>
+      <c r="X11" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V11" s="18"/>
-      <c r="W11" s="3" t="s">
+      <c r="Y11" s="18"/>
+      <c r="Z11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="X11" s="19" t="s">
+      <c r="AA11" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="Y11" s="18" t="s">
+      <c r="AB11" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="Z11" s="18">
-        <f>MES!I23</f>
-        <v>0</v>
-      </c>
-      <c r="AA11" s="80">
-        <f>MES!I24</f>
-        <v>0</v>
-      </c>
-      <c r="AB11" s="84">
-        <f>MES!I25</f>
-        <v>0</v>
-      </c>
-      <c r="AC11" s="84">
-        <f>MES!I26</f>
-        <v>0</v>
-      </c>
-      <c r="AD11" s="84">
-        <f>RESUMEN!$Z11+RESUMEN!$AA11+AB11+AC11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AC11" s="18">
+        <f>MES!I27</f>
+        <v>0</v>
+      </c>
+      <c r="AD11" s="80">
+        <f>MES!I28</f>
+        <v>0</v>
+      </c>
+      <c r="AE11" s="84">
+        <f>MES!I29</f>
+        <v>0</v>
+      </c>
+      <c r="AF11" s="84">
+        <f>MES!I30</f>
+        <v>0</v>
+      </c>
+      <c r="AG11" s="84">
+        <f>RESUMEN!$AC11+RESUMEN!$AD11+AE11+AF11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
@@ -7161,42 +7824,45 @@
       <c r="R12" s="84"/>
       <c r="S12" s="84"/>
       <c r="T12" s="84"/>
-      <c r="U12" s="84">
+      <c r="U12" s="84"/>
+      <c r="V12" s="84"/>
+      <c r="W12" s="84"/>
+      <c r="X12" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V12" s="18"/>
-      <c r="W12" s="3" t="s">
+      <c r="Y12" s="18"/>
+      <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X12" s="19" t="s">
+      <c r="AA12" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="Y12" s="18" t="s">
+      <c r="AB12" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="Z12" s="18">
-        <f>MES!H23</f>
-        <v>0</v>
-      </c>
-      <c r="AA12" s="80">
-        <f>MES!H24</f>
-        <v>0</v>
-      </c>
-      <c r="AB12" s="84">
-        <f>MES!H25</f>
-        <v>0</v>
-      </c>
-      <c r="AC12" s="84">
-        <f>MES!H26</f>
-        <v>0</v>
-      </c>
-      <c r="AD12" s="84">
-        <f>RESUMEN!$Z12+RESUMEN!$AA12+AB12+AC12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AC12" s="18">
+        <f>MES!H27</f>
+        <v>0</v>
+      </c>
+      <c r="AD12" s="80">
+        <f>MES!H28</f>
+        <v>0</v>
+      </c>
+      <c r="AE12" s="84">
+        <f>MES!H29</f>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="84">
+        <f>MES!H30</f>
+        <v>0</v>
+      </c>
+      <c r="AG12" s="84">
+        <f>RESUMEN!$AC12+RESUMEN!$AD12+AE12+AF12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
@@ -7253,48 +7919,51 @@
       <c r="R13" s="43"/>
       <c r="S13" s="43"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="84">
+      <c r="U13" s="43"/>
+      <c r="V13" s="43"/>
+      <c r="W13" s="43"/>
+      <c r="X13" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V13" s="18"/>
-      <c r="W13" s="3" t="s">
+      <c r="Y13" s="18"/>
+      <c r="Z13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X13" s="19" t="s">
+      <c r="AA13" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="Y13" s="18" t="s">
+      <c r="AB13" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="Z13" s="22">
-        <f>MES!J23</f>
-        <v>0</v>
-      </c>
-      <c r="AA13" s="24">
-        <f>MES!J24</f>
-        <v>0</v>
-      </c>
-      <c r="AB13" s="24">
-        <f>MES!J25</f>
-        <v>0</v>
-      </c>
-      <c r="AC13" s="24">
-        <f>MES!J26</f>
-        <v>0</v>
-      </c>
-      <c r="AD13" s="84">
-        <f>RESUMEN!$Z13+RESUMEN!$AA13+AB13+AC13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AC13" s="22">
+        <f>MES!J27</f>
+        <v>0</v>
+      </c>
+      <c r="AD13" s="24">
+        <f>MES!J28</f>
+        <v>0</v>
+      </c>
+      <c r="AE13" s="24">
+        <f>MES!J29</f>
+        <v>0</v>
+      </c>
+      <c r="AF13" s="24">
+        <f>MES!J30</f>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="84">
+        <f>RESUMEN!$AC13+RESUMEN!$AD13+AE13+AF13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B14" s="21"/>
       <c r="C14" s="21" t="s">
         <v>37</v>
       </c>
       <c r="D14" s="23">
-        <f t="shared" ref="D14:T14" si="1">D6+D7+D8+D9+D11+D12+D13</f>
+        <f t="shared" ref="D14:W14" si="1">D6+D7+D8+D9+D11+D12+D13</f>
         <v>0</v>
       </c>
       <c r="E14" s="72">
@@ -7362,36 +8031,48 @@
         <v>0</v>
       </c>
       <c r="U14" s="72">
-        <f>U6+U7+U8+U9+U10+U11+U12+U13</f>
-        <v>0</v>
-      </c>
-      <c r="V14" s="30"/>
-      <c r="X14" s="21"/>
-      <c r="Y14" s="21" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V14" s="72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W14" s="72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X14" s="72">
+        <f>X6+X7+X8+X9+X10+X11+X12+X13</f>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="30"/>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="Z14" s="23">
-        <f>Z6+Z7+Z8+Z9+Z11+Z12+Z13</f>
-        <v>0</v>
-      </c>
-      <c r="AA14" s="72">
-        <f>AA6+AA7+AA8+AA9+AA11+AA12+AA13</f>
-        <v>0</v>
-      </c>
-      <c r="AB14" s="72">
-        <f>AB6+AB7+AB8+AB9+AB11+AB12+AB13</f>
-        <v>0</v>
-      </c>
-      <c r="AC14" s="72">
+      <c r="AC14" s="23">
         <f>AC6+AC7+AC8+AC9+AC11+AC12+AC13</f>
         <v>0</v>
       </c>
       <c r="AD14" s="72">
-        <f>RESUMEN!$Z14+RESUMEN!$AA14+AB14+AC14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+        <f>AD6+AD7+AD8+AD9+AD11+AD12+AD13</f>
+        <v>0</v>
+      </c>
+      <c r="AE14" s="72">
+        <f>AE6+AE7+AE8+AE9+AE11+AE12+AE13</f>
+        <v>0</v>
+      </c>
+      <c r="AF14" s="72">
+        <f>AF6+AF7+AF8+AF9+AF11+AF12+AF13</f>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="72">
+        <f>RESUMEN!$AC14+RESUMEN!$AD14+AE14+AF14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>88</v>
       </c>
@@ -7453,37 +8134,46 @@
         <v>0</v>
       </c>
       <c r="U15" s="72">
+        <v>0</v>
+      </c>
+      <c r="V15" s="72">
+        <v>0</v>
+      </c>
+      <c r="W15" s="72">
+        <v>0</v>
+      </c>
+      <c r="X15" s="72">
         <f>RESUMEN!$D15+RESUMEN!$E15+RESUMEN!$F15+RESUMEN!$G15+RESUMEN!$H15+RESUMEN!$I15+RESUMEN!$J15+RESUMEN!$K15+L15+M15+Table43[[#This Row],[Column25222]]+Table43[[#This Row],[Column252223]]+Table43[[#This Row],[Column252222]]+Table43[[#This Row],[Column2522224]]+Table43[[#This Row],[Column2522223]]+Table43[[#This Row],[Column2522222]]+Table43[[#This Row],[Column25223]]</f>
         <v>0</v>
       </c>
-      <c r="V15" s="21"/>
-      <c r="W15" s="3" t="s">
+      <c r="Y15" s="21"/>
+      <c r="Z15" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="X15" s="19" t="s">
+      <c r="AA15" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="Y15" s="45" t="s">
+      <c r="AB15" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="Z15" s="45">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="45">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="45">
-        <v>0</v>
-      </c>
       <c r="AC15" s="45">
         <v>0</v>
       </c>
-      <c r="AD15" s="72">
-        <f>RESUMEN!$Z15+RESUMEN!$AA15+AB15+AC15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD15" s="45">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="45">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="45">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="72">
+        <f>RESUMEN!$AC15+RESUMEN!$AD15+AE15+AF15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
@@ -7540,42 +8230,45 @@
       <c r="R16" s="24"/>
       <c r="S16" s="24"/>
       <c r="T16" s="24"/>
-      <c r="U16" s="24">
+      <c r="U16" s="24"/>
+      <c r="V16" s="24"/>
+      <c r="W16" s="24"/>
+      <c r="X16" s="24">
         <f>RESUMEN!$D16+RESUMEN!$E16+RESUMEN!$F16+RESUMEN!$G16+RESUMEN!$H16+RESUMEN!$I16+RESUMEN!$J16+RESUMEN!$K16+L16+M16+Table43[[#This Row],[Column25222]]+Table43[[#This Row],[Column252223]]+Table43[[#This Row],[Column252222]]+Table43[[#This Row],[Column2522224]]+Table43[[#This Row],[Column2522223]]+Table43[[#This Row],[Column2522222]]+Table43[[#This Row],[Column25223]]</f>
         <v>0</v>
       </c>
-      <c r="V16" s="30"/>
-      <c r="W16" s="3" t="s">
+      <c r="Y16" s="30"/>
+      <c r="Z16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="X16" s="19" t="s">
+      <c r="AA16" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="Y16" s="21" t="s">
+      <c r="AB16" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="Z16" s="24">
-        <f>MES!P23</f>
-        <v>0</v>
-      </c>
-      <c r="AA16" s="24">
-        <f>MES!P24</f>
-        <v>0</v>
-      </c>
-      <c r="AB16" s="24">
-        <f>MES!P25</f>
-        <v>0</v>
-      </c>
       <c r="AC16" s="24">
-        <f>MES!P26</f>
-        <v>0</v>
-      </c>
-      <c r="AD16" s="72">
-        <f>RESUMEN!$Z16+RESUMEN!$AA16+AB16+AC16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+        <f>MES!P27</f>
+        <v>0</v>
+      </c>
+      <c r="AD16" s="24">
+        <f>MES!P28</f>
+        <v>0</v>
+      </c>
+      <c r="AE16" s="24">
+        <f>MES!P29</f>
+        <v>0</v>
+      </c>
+      <c r="AF16" s="24">
+        <f>MES!P30</f>
+        <v>0</v>
+      </c>
+      <c r="AG16" s="72">
+        <f>RESUMEN!$AC16+RESUMEN!$AD16+AE16+AF16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B17" s="21"/>
       <c r="C17" s="21" t="s">
         <v>70</v>
@@ -7585,7 +8278,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="84">
-        <f t="shared" ref="E17:M17" si="2">E14-E15-E16</f>
+        <f t="shared" ref="E17:W17" si="2">E14-E15-E16</f>
         <v>0</v>
       </c>
       <c r="F17" s="84">
@@ -7620,44 +8313,77 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N17" s="84"/>
-      <c r="O17" s="84"/>
-      <c r="P17" s="84"/>
-      <c r="Q17" s="84"/>
-      <c r="R17" s="84"/>
-      <c r="S17" s="84"/>
-      <c r="T17" s="84"/>
+      <c r="N17" s="84">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="84">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="84">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="84">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="84">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S17" s="84">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T17" s="84">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="U17" s="84">
-        <f>U14-U15-U16</f>
-        <v>0</v>
-      </c>
-      <c r="V17" s="21"/>
-      <c r="X17" s="21"/>
-      <c r="Y17" s="21" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V17" s="84">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W17" s="84">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X17" s="84">
+        <f>X14-X15-X16</f>
+        <v>0</v>
+      </c>
+      <c r="Y17" s="21"/>
+      <c r="AA17" s="21"/>
+      <c r="AB17" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="Z17" s="21">
-        <f>Z14-Z15-Z16</f>
-        <v>0</v>
-      </c>
-      <c r="AA17" s="84">
-        <f>AA14-AA15-AA16</f>
-        <v>0</v>
-      </c>
-      <c r="AB17" s="84">
-        <f>AB14-AB15-AB16</f>
-        <v>0</v>
-      </c>
-      <c r="AC17" s="84">
+      <c r="AC17" s="21">
         <f>AC14-AC15-AC16</f>
         <v>0</v>
       </c>
-      <c r="AD17" s="72">
-        <f>RESUMEN!$Z17+RESUMEN!$AA17+AB17+AC17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD17" s="84">
+        <f>AD14-AD15-AD16</f>
+        <v>0</v>
+      </c>
+      <c r="AE17" s="84">
+        <f>AE14-AE15-AE16</f>
+        <v>0</v>
+      </c>
+      <c r="AF17" s="84">
+        <f>AF14-AF15-AF16</f>
+        <v>0</v>
+      </c>
+      <c r="AG17" s="72">
+        <f>RESUMEN!$AC17+RESUMEN!$AD17+AE17+AF17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B18" s="25"/>
       <c r="C18" s="25" t="s">
         <v>71</v>
@@ -7679,25 +8405,28 @@
       <c r="R18" s="84"/>
       <c r="S18" s="84"/>
       <c r="T18" s="84"/>
-      <c r="U18" s="80">
+      <c r="U18" s="84"/>
+      <c r="V18" s="84"/>
+      <c r="W18" s="84"/>
+      <c r="X18" s="80">
         <f>RESUMEN!$D18+RESUMEN!$E18+RESUMEN!$F18+RESUMEN!$G18+RESUMEN!$H18+RESUMEN!$I18+RESUMEN!$J18+RESUMEN!$K18+Table43[[#This Row],[Column2523]]+Table43[[#This Row],[Column2522]]+Table43[[#This Row],[Column25222]]+Table43[[#This Row],[Column252223]]+Table43[[#This Row],[Column252222]]+Table43[[#This Row],[Column2522224]]+Table43[[#This Row],[Column2522223]]+Table43[[#This Row],[Column2522222]]+Table43[[#This Row],[Column25223]]</f>
         <v>0</v>
       </c>
-      <c r="V18" s="18"/>
-      <c r="X18" s="25"/>
-      <c r="Y18" s="25" t="s">
+      <c r="Y18" s="18"/>
+      <c r="AA18" s="25"/>
+      <c r="AB18" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="Z18" s="18"/>
-      <c r="AA18" s="80"/>
-      <c r="AB18" s="84"/>
-      <c r="AC18" s="84"/>
-      <c r="AD18" s="72">
-        <f>RESUMEN!$Z18+RESUMEN!$AA18+AB18+AC18</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AC18" s="18"/>
+      <c r="AD18" s="80"/>
+      <c r="AE18" s="84"/>
+      <c r="AF18" s="84"/>
+      <c r="AG18" s="72">
+        <f>RESUMEN!$AC18+RESUMEN!$AD18+AE18+AF18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>98</v>
       </c>
@@ -7748,36 +8477,39 @@
       <c r="R19" s="13"/>
       <c r="S19" s="13"/>
       <c r="T19" s="13"/>
-      <c r="U19" s="13">
+      <c r="U19" s="13"/>
+      <c r="V19" s="13"/>
+      <c r="W19" s="13"/>
+      <c r="X19" s="13">
         <f>RESUMEN!$D19+RESUMEN!$E19+RESUMEN!$F19+RESUMEN!$G19+RESUMEN!$H19+RESUMEN!$I19+RESUMEN!$J19+RESUMEN!$K19+L19+M19+Table43[[#This Row],[Column25222]]+Table43[[#This Row],[Column252223]]+Table43[[#This Row],[Column252222]]+Table43[[#This Row],[Column2522224]]+Table43[[#This Row],[Column2522223]]+Table43[[#This Row],[Column2522222]]+Table43[[#This Row],[Column25223]]</f>
         <v>0</v>
       </c>
-      <c r="V19" s="43"/>
-      <c r="Y19" t="s">
+      <c r="Y19" s="43"/>
+      <c r="AB19" t="s">
         <v>98</v>
       </c>
-      <c r="Z19" s="24">
-        <f>MES!O23</f>
-        <v>0</v>
-      </c>
-      <c r="AA19" s="24">
-        <f>MES!O24</f>
-        <v>0</v>
-      </c>
-      <c r="AB19" s="24">
-        <f>MES!O25</f>
-        <v>0</v>
-      </c>
       <c r="AC19" s="24">
-        <f>MES!O26</f>
-        <v>0</v>
-      </c>
-      <c r="AD19" s="72">
-        <f>RESUMEN!$Z19+RESUMEN!$AA19+AB19+AC19</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+        <f>MES!O27</f>
+        <v>0</v>
+      </c>
+      <c r="AD19" s="24">
+        <f>MES!O28</f>
+        <v>0</v>
+      </c>
+      <c r="AE19" s="24">
+        <f>MES!O29</f>
+        <v>0</v>
+      </c>
+      <c r="AF19" s="24">
+        <f>MES!O30</f>
+        <v>0</v>
+      </c>
+      <c r="AG19" s="72">
+        <f>RESUMEN!$AC19+RESUMEN!$AD19+AE19+AF19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>11</v>
       </c>
@@ -7834,42 +8566,45 @@
       <c r="R20" s="24"/>
       <c r="S20" s="24"/>
       <c r="T20" s="24"/>
-      <c r="U20" s="24">
+      <c r="U20" s="24"/>
+      <c r="V20" s="24"/>
+      <c r="W20" s="24"/>
+      <c r="X20" s="24">
         <f>RESUMEN!$D20+RESUMEN!$E20+RESUMEN!$F20+RESUMEN!$G20+RESUMEN!$H20+RESUMEN!$I20+RESUMEN!$J20+RESUMEN!$K20+L20+M20+Table43[[#This Row],[Column25222]]+Table43[[#This Row],[Column252223]]+Table43[[#This Row],[Column252222]]+Table43[[#This Row],[Column2522224]]+Table43[[#This Row],[Column2522223]]+Table43[[#This Row],[Column2522222]]+Table43[[#This Row],[Column25223]]</f>
         <v>0</v>
       </c>
-      <c r="V20" s="18"/>
-      <c r="W20" s="3" t="s">
+      <c r="Y20" s="18"/>
+      <c r="Z20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="X20" s="19" t="s">
+      <c r="AA20" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="Y20" s="18" t="s">
+      <c r="AB20" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="Z20" s="22">
-        <f>MES!L23</f>
-        <v>0</v>
-      </c>
-      <c r="AA20" s="24">
-        <f>MES!L24</f>
-        <v>0</v>
-      </c>
-      <c r="AB20" s="24">
-        <f>MES!L25</f>
-        <v>0</v>
-      </c>
-      <c r="AC20" s="24">
-        <f>MES!L26</f>
-        <v>0</v>
-      </c>
-      <c r="AD20" s="72">
-        <f>RESUMEN!$Z20+RESUMEN!$AA20+AB20+AC20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AC20" s="22">
+        <f>MES!L27</f>
+        <v>0</v>
+      </c>
+      <c r="AD20" s="24">
+        <f>MES!L28</f>
+        <v>0</v>
+      </c>
+      <c r="AE20" s="24">
+        <f>MES!L29</f>
+        <v>0</v>
+      </c>
+      <c r="AF20" s="24">
+        <f>MES!L30</f>
+        <v>0</v>
+      </c>
+      <c r="AG20" s="72">
+        <f>RESUMEN!$AC20+RESUMEN!$AD20+AE20+AF20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>7</v>
       </c>
@@ -7880,7 +8615,7 @@
         <v>22</v>
       </c>
       <c r="D21" s="18">
-        <f t="shared" ref="D21:T21" si="3">D14+D19+D20</f>
+        <f t="shared" ref="D21:W21" si="3">D14+D19+D20</f>
         <v>0</v>
       </c>
       <c r="E21" s="84">
@@ -7947,42 +8682,54 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U21" s="80">
+      <c r="U21" s="84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V21" s="84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W21" s="84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X21" s="80">
         <f>RESUMEN!$D21+RESUMEN!$E21+RESUMEN!$F21+RESUMEN!$G21+RESUMEN!$H21+RESUMEN!$I21+RESUMEN!$J21+RESUMEN!$K21+L21+M21+Table43[[#This Row],[Column25222]]+Table43[[#This Row],[Column252223]]+Table43[[#This Row],[Column252222]]+Table43[[#This Row],[Column2522224]]+Table43[[#This Row],[Column2522223]]+Table43[[#This Row],[Column2522222]]+Table43[[#This Row],[Column25223]]</f>
         <v>0</v>
       </c>
-      <c r="V21" s="31"/>
-      <c r="W21" s="3" t="s">
+      <c r="Y21" s="31"/>
+      <c r="Z21" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="X21" s="19" t="s">
+      <c r="AA21" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="Y21" s="18" t="s">
+      <c r="AB21" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="Z21" s="18">
-        <f>Z14+Z19+Z20</f>
-        <v>0</v>
-      </c>
-      <c r="AA21" s="84">
-        <f>AA14+AA19+AA20</f>
-        <v>0</v>
-      </c>
-      <c r="AB21" s="84">
-        <f>AB14+AB19+AB20</f>
-        <v>0</v>
-      </c>
-      <c r="AC21" s="84">
+      <c r="AC21" s="18">
         <f>AC14+AC19+AC20</f>
         <v>0</v>
       </c>
-      <c r="AD21" s="72">
-        <f>RESUMEN!$Z21+RESUMEN!$AA21+AB21+AC21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD21" s="84">
+        <f>AD14+AD19+AD20</f>
+        <v>0</v>
+      </c>
+      <c r="AE21" s="84">
+        <f>AE14+AE19+AE20</f>
+        <v>0</v>
+      </c>
+      <c r="AF21" s="84">
+        <f>AF14+AF19+AF20</f>
+        <v>0</v>
+      </c>
+      <c r="AG21" s="72">
+        <f>RESUMEN!$AC21+RESUMEN!$AD21+AE21+AF21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B22" s="26" t="s">
         <v>4</v>
       </c>
@@ -7990,7 +8737,7 @@
         <v>73</v>
       </c>
       <c r="D22" s="27">
-        <f t="shared" ref="D22:T22" si="4">D35</f>
+        <f t="shared" ref="D22:W22" si="4">D35</f>
         <v>0</v>
       </c>
       <c r="E22" s="27">
@@ -8058,38 +8805,50 @@
         <v>0</v>
       </c>
       <c r="U22" s="27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V22" s="27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W22" s="27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X22" s="27">
         <f>RESUMEN!$D22+RESUMEN!$E22+RESUMEN!$F22+RESUMEN!$G22+RESUMEN!$H22+RESUMEN!$I22+RESUMEN!$J22+RESUMEN!$K22+L22+M22+Table43[[#This Row],[Column25222]]+Table43[[#This Row],[Column252223]]+Table43[[#This Row],[Column252222]]+Table43[[#This Row],[Column2522224]]+Table43[[#This Row],[Column2522223]]+Table43[[#This Row],[Column2522222]]+Table43[[#This Row],[Column25223]]</f>
         <v>0</v>
       </c>
-      <c r="V22" s="21"/>
-      <c r="X22" s="26" t="s">
+      <c r="Y22" s="21"/>
+      <c r="AA22" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="Y22" s="18" t="s">
+      <c r="AB22" s="18" t="s">
         <v>73</v>
-      </c>
-      <c r="Z22" s="27">
-        <f>Z35</f>
-        <v>0</v>
-      </c>
-      <c r="AA22" s="27">
-        <f>AA35</f>
-        <v>0</v>
-      </c>
-      <c r="AB22" s="27">
-        <f>AB35</f>
-        <v>0</v>
       </c>
       <c r="AC22" s="27">
         <f>AC35</f>
         <v>0</v>
       </c>
-      <c r="AD22" s="72">
-        <f>RESUMEN!$Z22+RESUMEN!$AA22+AB22+AC22</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD22" s="27">
+        <f>AD35</f>
+        <v>0</v>
+      </c>
+      <c r="AE22" s="27">
+        <f>AE35</f>
+        <v>0</v>
+      </c>
+      <c r="AF22" s="27">
+        <f>AF35</f>
+        <v>0</v>
+      </c>
+      <c r="AG22" s="72">
+        <f>RESUMEN!$AC22+RESUMEN!$AD22+AE22+AF22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B23" s="21"/>
       <c r="C23" s="21" t="s">
         <v>37</v>
@@ -8099,7 +8858,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="84">
-        <f t="shared" ref="E23:T23" si="5">E22+E21</f>
+        <f t="shared" ref="E23:W23" si="5">E22+E21</f>
         <v>0</v>
       </c>
       <c r="F23" s="84">
@@ -8162,37 +8921,49 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U23" s="80">
+      <c r="U23" s="84">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V23" s="84">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W23" s="84">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X23" s="80">
         <f>RESUMEN!$D23+RESUMEN!$E23+RESUMEN!$F23+RESUMEN!$G23+RESUMEN!$H23+RESUMEN!$I23+RESUMEN!$J23+RESUMEN!$K23+L23+M23+Table43[[#This Row],[Column25222]]+Table43[[#This Row],[Column252223]]+Table43[[#This Row],[Column252222]]+Table43[[#This Row],[Column2522224]]+Table43[[#This Row],[Column2522223]]+Table43[[#This Row],[Column2522222]]+Table43[[#This Row],[Column25223]]</f>
         <v>0</v>
       </c>
-      <c r="V23" s="43"/>
-      <c r="X23" s="21"/>
-      <c r="Y23" s="21" t="s">
+      <c r="Y23" s="43"/>
+      <c r="AA23" s="21"/>
+      <c r="AB23" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="Z23" s="21">
-        <f>Z22+Z21</f>
-        <v>0</v>
-      </c>
-      <c r="AA23" s="84">
-        <f>AA22+AA21</f>
-        <v>0</v>
-      </c>
-      <c r="AB23" s="84">
-        <f>AB22+AB21</f>
-        <v>0</v>
-      </c>
-      <c r="AC23" s="84">
+      <c r="AC23" s="21">
         <f>AC22+AC21</f>
         <v>0</v>
       </c>
-      <c r="AD23" s="72">
-        <f>RESUMEN!$Z23+RESUMEN!$AA23+AB23+AC23</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD23" s="84">
+        <f>AD22+AD21</f>
+        <v>0</v>
+      </c>
+      <c r="AE23" s="84">
+        <f>AE22+AE21</f>
+        <v>0</v>
+      </c>
+      <c r="AF23" s="84">
+        <f>AF22+AF21</f>
+        <v>0</v>
+      </c>
+      <c r="AG23" s="72">
+        <f>RESUMEN!$AC23+RESUMEN!$AD23+AE23+AF23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>32</v>
       </c>
@@ -8207,7 +8978,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="24">
-        <f t="shared" ref="E24:T24" si="6">E21*4%</f>
+        <f t="shared" ref="E24:W24" si="6">E21*4%</f>
         <v>0</v>
       </c>
       <c r="F24" s="24">
@@ -8271,41 +9042,53 @@
         <v>0</v>
       </c>
       <c r="U24" s="24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V24" s="24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W24" s="24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X24" s="24">
         <f>RESUMEN!$D24+RESUMEN!$E24+RESUMEN!$F24+RESUMEN!$G24+RESUMEN!$H24+RESUMEN!$I24+RESUMEN!$J24+RESUMEN!$K24+L24+M24+Table43[[#This Row],[Column25222]]+Table43[[#This Row],[Column252223]]+Table43[[#This Row],[Column252222]]+Table43[[#This Row],[Column2522224]]+Table43[[#This Row],[Column2522223]]+Table43[[#This Row],[Column2522222]]+Table43[[#This Row],[Column25223]]</f>
         <v>0</v>
       </c>
-      <c r="V24" s="18"/>
-      <c r="W24" s="3" t="s">
+      <c r="Y24" s="18"/>
+      <c r="Z24" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="X24" s="19" t="s">
+      <c r="AA24" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="Y24" s="18" t="s">
+      <c r="AB24" s="18" t="s">
         <v>31</v>
-      </c>
-      <c r="Z24" s="24">
-        <f>Z21*4%</f>
-        <v>0</v>
-      </c>
-      <c r="AA24" s="24">
-        <f>AA21*4%</f>
-        <v>0</v>
-      </c>
-      <c r="AB24" s="24">
-        <f>AB21*4%</f>
-        <v>0</v>
       </c>
       <c r="AC24" s="24">
         <f>AC21*4%</f>
         <v>0</v>
       </c>
-      <c r="AD24" s="72">
-        <f>RESUMEN!$Z24+RESUMEN!$AA24+AB24+AC24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD24" s="24">
+        <f>AD21*4%</f>
+        <v>0</v>
+      </c>
+      <c r="AE24" s="24">
+        <f>AE21*4%</f>
+        <v>0</v>
+      </c>
+      <c r="AF24" s="24">
+        <f>AF21*4%</f>
+        <v>0</v>
+      </c>
+      <c r="AG24" s="72">
+        <f>RESUMEN!$AC24+RESUMEN!$AD24+AE24+AF24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B25" s="18"/>
       <c r="C25" s="18" t="s">
         <v>33</v>
@@ -8351,7 +9134,7 @@
         <v>0</v>
       </c>
       <c r="N25" s="84">
-        <f t="shared" ref="N25:T25" si="8">N23+N24</f>
+        <f t="shared" ref="N25:W25" si="8">N23+N24</f>
         <v>0</v>
       </c>
       <c r="O25" s="84">
@@ -8378,43 +9161,55 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U25" s="80">
+      <c r="U25" s="84">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V25" s="84">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W25" s="84">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X25" s="80">
         <f>RESUMEN!$D25+RESUMEN!$E25+RESUMEN!$F25+RESUMEN!$G25+RESUMEN!$H25+RESUMEN!$I25+RESUMEN!$J25+RESUMEN!$K25+L25+M25+Table43[[#This Row],[Column25222]]+Table43[[#This Row],[Column252223]]+Table43[[#This Row],[Column252222]]+Table43[[#This Row],[Column2522224]]+Table43[[#This Row],[Column2522223]]+Table43[[#This Row],[Column2522222]]+Table43[[#This Row],[Column25223]]</f>
         <v>0</v>
       </c>
-      <c r="V25" s="18"/>
-      <c r="X25" s="18"/>
-      <c r="Y25" s="18" t="s">
+      <c r="Y25" s="18"/>
+      <c r="AA25" s="18"/>
+      <c r="AB25" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="Z25" s="18">
-        <f>Z23+Z24</f>
-        <v>0</v>
-      </c>
-      <c r="AA25" s="84">
-        <f>AA23+AA24</f>
-        <v>0</v>
-      </c>
-      <c r="AB25" s="84">
-        <f>AB23+AB24</f>
-        <v>0</v>
-      </c>
-      <c r="AC25" s="84">
+      <c r="AC25" s="18">
         <f>AC23+AC24</f>
         <v>0</v>
       </c>
-      <c r="AD25" s="72">
-        <f>RESUMEN!$Z25+RESUMEN!$AA25+AB25+AC25</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD25" s="84">
+        <f>AD23+AD24</f>
+        <v>0</v>
+      </c>
+      <c r="AE25" s="84">
+        <f>AE23+AE24</f>
+        <v>0</v>
+      </c>
+      <c r="AF25" s="84">
+        <f>AF23+AF24</f>
+        <v>0</v>
+      </c>
+      <c r="AG25" s="72">
+        <f>RESUMEN!$AC25+RESUMEN!$AD25+AE25+AF25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B26" s="18"/>
       <c r="C26" s="18" t="s">
         <v>2</v>
       </c>
       <c r="D26" s="18">
-        <f t="shared" ref="D26:T26" si="9">D25*16%</f>
+        <f t="shared" ref="D26:W26" si="9">D25*16%</f>
         <v>0</v>
       </c>
       <c r="E26" s="84">
@@ -8481,43 +9276,55 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U26" s="80">
+      <c r="U26" s="84">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V26" s="84">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W26" s="84">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X26" s="80">
         <f>RESUMEN!$D26+RESUMEN!$E26+RESUMEN!$F26+RESUMEN!$G26+RESUMEN!$H26+RESUMEN!$I26+RESUMEN!$J26+RESUMEN!$K26+L26+M26+Table43[[#This Row],[Column25222]]+Table43[[#This Row],[Column252223]]+Table43[[#This Row],[Column252222]]+Table43[[#This Row],[Column2522224]]+Table43[[#This Row],[Column2522223]]+Table43[[#This Row],[Column2522222]]+Table43[[#This Row],[Column25223]]</f>
         <v>0</v>
       </c>
-      <c r="V26" s="31"/>
-      <c r="X26" s="18"/>
-      <c r="Y26" s="18" t="s">
+      <c r="Y26" s="31"/>
+      <c r="AA26" s="18"/>
+      <c r="AB26" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="Z26" s="18">
-        <f>Z25*16%</f>
-        <v>0</v>
-      </c>
-      <c r="AA26" s="84">
-        <f>AA25*16%</f>
-        <v>0</v>
-      </c>
-      <c r="AB26" s="84">
-        <f>AB25*16%</f>
-        <v>0</v>
-      </c>
-      <c r="AC26" s="84">
+      <c r="AC26" s="18">
         <f>AC25*16%</f>
         <v>0</v>
       </c>
-      <c r="AD26" s="72">
-        <f>RESUMEN!$Z26+RESUMEN!$AA26+AB26+AC26</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD26" s="84">
+        <f>AD25*16%</f>
+        <v>0</v>
+      </c>
+      <c r="AE26" s="84">
+        <f>AE25*16%</f>
+        <v>0</v>
+      </c>
+      <c r="AF26" s="84">
+        <f>AF25*16%</f>
+        <v>0</v>
+      </c>
+      <c r="AG26" s="72">
+        <f>RESUMEN!$AC26+RESUMEN!$AD26+AE26+AF26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="28"/>
       <c r="C27" s="28" t="s">
         <v>75</v>
       </c>
       <c r="D27" s="29">
-        <f t="shared" ref="D27:T27" si="10">D25+D26</f>
+        <f t="shared" ref="D27:W27" si="10">D25+D26</f>
         <v>0</v>
       </c>
       <c r="E27" s="29">
@@ -8585,36 +9392,48 @@
         <v>0</v>
       </c>
       <c r="U27" s="29">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V27" s="29">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W27" s="29">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X27" s="29">
         <f>RESUMEN!$D27+RESUMEN!$E27+RESUMEN!$F27+RESUMEN!$G27+RESUMEN!$H27+RESUMEN!$I27+RESUMEN!$J27+RESUMEN!$K27+L27+M27+Table43[[#This Row],[Column25222]]+Table43[[#This Row],[Column252223]]+Table43[[#This Row],[Column252222]]+Table43[[#This Row],[Column2522224]]+Table43[[#This Row],[Column2522223]]+Table43[[#This Row],[Column2522222]]+Table43[[#This Row],[Column25223]]</f>
         <v>0</v>
       </c>
-      <c r="V27" s="30"/>
-      <c r="X27" s="28"/>
-      <c r="Y27" s="28" t="s">
+      <c r="Y27" s="30"/>
+      <c r="AA27" s="28"/>
+      <c r="AB27" s="28" t="s">
         <v>75</v>
-      </c>
-      <c r="Z27" s="29">
-        <f>Z25+Z26</f>
-        <v>0</v>
-      </c>
-      <c r="AA27" s="29">
-        <f>AA25+AA26</f>
-        <v>0</v>
-      </c>
-      <c r="AB27" s="29">
-        <f>AB25+AB26</f>
-        <v>0</v>
       </c>
       <c r="AC27" s="29">
         <f>AC25+AC26</f>
         <v>0</v>
       </c>
       <c r="AD27" s="29">
-        <f>RESUMEN!$Z27+RESUMEN!$AA27</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:30" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+        <f>AD25+AD26</f>
+        <v>0</v>
+      </c>
+      <c r="AE27" s="29">
+        <f>AE25+AE26</f>
+        <v>0</v>
+      </c>
+      <c r="AF27" s="29">
+        <f>AF25+AF26</f>
+        <v>0</v>
+      </c>
+      <c r="AG27" s="29">
+        <f>RESUMEN!$AC27+RESUMEN!$AD27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B28" s="21"/>
       <c r="C28" s="21"/>
       <c r="D28" s="30"/>
@@ -8634,23 +9453,26 @@
       <c r="R28" s="43"/>
       <c r="S28" s="43"/>
       <c r="T28" s="43"/>
-      <c r="U28" s="43">
+      <c r="U28" s="43"/>
+      <c r="V28" s="43"/>
+      <c r="W28" s="43"/>
+      <c r="X28" s="43">
         <f>RESUMEN!$D28+RESUMEN!$E28+RESUMEN!$F28+RESUMEN!$G28+RESUMEN!$H28+RESUMEN!$I28+RESUMEN!$J28+RESUMEN!$K28+L28+M28+Table43[[#This Row],[Column25222]]+Table43[[#This Row],[Column252223]]+Table43[[#This Row],[Column252222]]+Table43[[#This Row],[Column2522224]]+Table43[[#This Row],[Column2522223]]+Table43[[#This Row],[Column2522222]]+Table43[[#This Row],[Column25223]]</f>
         <v>0</v>
       </c>
-      <c r="V28" s="30"/>
-      <c r="X28" s="21"/>
-      <c r="Y28" s="21"/>
-      <c r="Z28" s="30"/>
-      <c r="AA28" s="43"/>
-      <c r="AB28" s="43"/>
-      <c r="AC28" s="43"/>
-      <c r="AD28" s="43">
-        <f>RESUMEN!$Z28+RESUMEN!$AA28</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="Y28" s="30"/>
+      <c r="AA28" s="21"/>
+      <c r="AB28" s="21"/>
+      <c r="AC28" s="30"/>
+      <c r="AD28" s="43"/>
+      <c r="AE28" s="43"/>
+      <c r="AF28" s="43"/>
+      <c r="AG28" s="43">
+        <f>RESUMEN!$AC28+RESUMEN!$AD28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B29" s="21"/>
       <c r="C29" s="21"/>
       <c r="D29" s="30"/>
@@ -8670,23 +9492,26 @@
       <c r="R29" s="43"/>
       <c r="S29" s="43"/>
       <c r="T29" s="43"/>
-      <c r="U29" s="43">
+      <c r="U29" s="43"/>
+      <c r="V29" s="43"/>
+      <c r="W29" s="43"/>
+      <c r="X29" s="43">
         <f>RESUMEN!$D29+RESUMEN!$E29+RESUMEN!$F29+RESUMEN!$G29+RESUMEN!$H29+RESUMEN!$I29+RESUMEN!$J29+RESUMEN!$K29+L29+M29+Table43[[#This Row],[Column25222]]+Table43[[#This Row],[Column252223]]+Table43[[#This Row],[Column252222]]+Table43[[#This Row],[Column2522224]]+Table43[[#This Row],[Column2522223]]+Table43[[#This Row],[Column2522222]]+Table43[[#This Row],[Column25223]]</f>
         <v>0</v>
       </c>
-      <c r="V29" s="31"/>
-      <c r="X29" s="21"/>
-      <c r="Y29" s="21"/>
-      <c r="Z29" s="30"/>
-      <c r="AA29" s="43"/>
-      <c r="AB29" s="43"/>
-      <c r="AC29" s="43"/>
-      <c r="AD29" s="43">
-        <f>RESUMEN!$Z29+RESUMEN!$AA29</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="Y29" s="31"/>
+      <c r="AA29" s="21"/>
+      <c r="AB29" s="21"/>
+      <c r="AC29" s="30"/>
+      <c r="AD29" s="43"/>
+      <c r="AE29" s="43"/>
+      <c r="AF29" s="43"/>
+      <c r="AG29" s="43">
+        <f>RESUMEN!$AC29+RESUMEN!$AD29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B30" s="26" t="s">
         <v>4</v>
       </c>
@@ -8708,25 +9533,28 @@
       <c r="R30" s="31"/>
       <c r="S30" s="31"/>
       <c r="T30" s="31"/>
-      <c r="U30" s="31">
+      <c r="U30" s="31"/>
+      <c r="V30" s="31"/>
+      <c r="W30" s="31"/>
+      <c r="X30" s="31">
         <f>RESUMEN!$D30+RESUMEN!$E30+RESUMEN!$F30+RESUMEN!$G30+RESUMEN!$H30+RESUMEN!$I30+RESUMEN!$J30+RESUMEN!$K30+Table43[[#This Row],[Column2523]]+Table43[[#This Row],[Column2522]]+Table43[[#This Row],[Column25222]]+Table43[[#This Row],[Column252223]]+Table43[[#This Row],[Column252222]]+Table43[[#This Row],[Column2522224]]+Table43[[#This Row],[Column2522223]]+Table43[[#This Row],[Column2522222]]+Table43[[#This Row],[Column25223]]</f>
         <v>0</v>
       </c>
-      <c r="V30" s="30"/>
-      <c r="X30" s="26" t="s">
+      <c r="Y30" s="30"/>
+      <c r="AA30" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="Y30" s="21"/>
-      <c r="Z30" s="31"/>
-      <c r="AA30" s="31"/>
-      <c r="AB30" s="31"/>
+      <c r="AB30" s="21"/>
       <c r="AC30" s="31"/>
-      <c r="AD30" s="31">
-        <f>RESUMEN!$Z30+RESUMEN!$AA30</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD30" s="31"/>
+      <c r="AE30" s="31"/>
+      <c r="AF30" s="31"/>
+      <c r="AG30" s="31">
+        <f>RESUMEN!$AC30+RESUMEN!$AD30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>14</v>
       </c>
@@ -8783,42 +9611,45 @@
       <c r="R31" s="43"/>
       <c r="S31" s="43"/>
       <c r="T31" s="43"/>
-      <c r="U31" s="43">
+      <c r="U31" s="43"/>
+      <c r="V31" s="43"/>
+      <c r="W31" s="43"/>
+      <c r="X31" s="43">
         <f>RESUMEN!$D31+RESUMEN!$E31+RESUMEN!$F31+RESUMEN!$G31+RESUMEN!$H31+RESUMEN!$I31+RESUMEN!$J31+RESUMEN!$K31+L31+M31+Table43[[#This Row],[Column25222]]+Table43[[#This Row],[Column252223]]+Table43[[#This Row],[Column252222]]+Table43[[#This Row],[Column2522224]]+Table43[[#This Row],[Column2522223]]+Table43[[#This Row],[Column2522222]]+Table43[[#This Row],[Column25223]]</f>
         <v>0</v>
       </c>
-      <c r="V31" s="30"/>
-      <c r="W31" s="3" t="s">
+      <c r="Y31" s="30"/>
+      <c r="Z31" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="X31" s="19" t="s">
+      <c r="AA31" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="Y31" s="18" t="s">
+      <c r="AB31" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="Z31" s="30">
-        <f>MES!P23</f>
-        <v>0</v>
-      </c>
-      <c r="AA31" s="43">
-        <f>MES!P24</f>
-        <v>0</v>
-      </c>
-      <c r="AB31" s="43">
-        <f>MES!P25</f>
-        <v>0</v>
-      </c>
-      <c r="AC31" s="43">
-        <f>MES!P26</f>
+      <c r="AC31" s="30">
+        <f>MES!P27</f>
         <v>0</v>
       </c>
       <c r="AD31" s="43">
-        <f>RESUMEN!$Z31+RESUMEN!$AA31</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+        <f>MES!P28</f>
+        <v>0</v>
+      </c>
+      <c r="AE31" s="43">
+        <f>MES!P29</f>
+        <v>0</v>
+      </c>
+      <c r="AF31" s="43">
+        <f>MES!P30</f>
+        <v>0</v>
+      </c>
+      <c r="AG31" s="43">
+        <f>RESUMEN!$AC31+RESUMEN!$AD31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>14</v>
       </c>
@@ -8875,42 +9706,45 @@
       <c r="R32" s="43"/>
       <c r="S32" s="43"/>
       <c r="T32" s="43"/>
-      <c r="U32" s="43">
+      <c r="U32" s="43"/>
+      <c r="V32" s="43"/>
+      <c r="W32" s="43"/>
+      <c r="X32" s="43">
         <f>RESUMEN!$D32+RESUMEN!$E32+RESUMEN!$F32+RESUMEN!$G32+RESUMEN!$H32+RESUMEN!$I32+RESUMEN!$J32+RESUMEN!$K32+L32+M32+Table43[[#This Row],[Column25222]]+Table43[[#This Row],[Column252223]]+Table43[[#This Row],[Column252222]]+Table43[[#This Row],[Column2522224]]+Table43[[#This Row],[Column2522223]]+Table43[[#This Row],[Column2522222]]+Table43[[#This Row],[Column25223]]</f>
         <v>0</v>
       </c>
-      <c r="V32" s="30"/>
-      <c r="W32" s="3" t="s">
+      <c r="Y32" s="30"/>
+      <c r="Z32" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="X32" s="19" t="s">
+      <c r="AA32" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="Y32" s="21" t="s">
+      <c r="AB32" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="Z32" s="30">
-        <f>MES!Q23</f>
-        <v>0</v>
-      </c>
-      <c r="AA32" s="43">
-        <f>MES!Q24</f>
-        <v>0</v>
-      </c>
-      <c r="AB32" s="43">
-        <f>MES!Q25</f>
-        <v>0</v>
-      </c>
-      <c r="AC32" s="43">
-        <f>MES!Q26</f>
+      <c r="AC32" s="30">
+        <f>MES!Q27</f>
         <v>0</v>
       </c>
       <c r="AD32" s="43">
-        <f>RESUMEN!$Z32+RESUMEN!$AA32</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+        <f>MES!Q28</f>
+        <v>0</v>
+      </c>
+      <c r="AE32" s="43">
+        <f>MES!Q29</f>
+        <v>0</v>
+      </c>
+      <c r="AF32" s="43">
+        <f>MES!Q30</f>
+        <v>0</v>
+      </c>
+      <c r="AG32" s="43">
+        <f>RESUMEN!$AC32+RESUMEN!$AD32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>14</v>
       </c>
@@ -8967,42 +9801,45 @@
       <c r="R33" s="43"/>
       <c r="S33" s="43"/>
       <c r="T33" s="43"/>
-      <c r="U33" s="43">
+      <c r="U33" s="43"/>
+      <c r="V33" s="43"/>
+      <c r="W33" s="43"/>
+      <c r="X33" s="43">
         <f>RESUMEN!$D33+RESUMEN!$E33+RESUMEN!$F33+RESUMEN!$G33+RESUMEN!$H33+RESUMEN!$I33+RESUMEN!$J33+RESUMEN!$K33+L33+M33+Table43[[#This Row],[Column25222]]+Table43[[#This Row],[Column252223]]+Table43[[#This Row],[Column252222]]+Table43[[#This Row],[Column2522224]]+Table43[[#This Row],[Column2522223]]+Table43[[#This Row],[Column2522222]]+Table43[[#This Row],[Column25223]]</f>
         <v>0</v>
       </c>
-      <c r="V33" s="30"/>
-      <c r="W33" s="3" t="s">
+      <c r="Y33" s="30"/>
+      <c r="Z33" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="X33" s="19" t="s">
+      <c r="AA33" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="Y33" s="21" t="s">
+      <c r="AB33" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="Z33" s="30">
-        <f>MES!R23</f>
-        <v>0</v>
-      </c>
-      <c r="AA33" s="43">
-        <f>MES!R24</f>
-        <v>0</v>
-      </c>
-      <c r="AB33" s="43">
-        <f>MES!R25</f>
-        <v>0</v>
-      </c>
-      <c r="AC33" s="43">
-        <f>MES!R26</f>
+      <c r="AC33" s="30">
+        <f>MES!R27</f>
         <v>0</v>
       </c>
       <c r="AD33" s="43">
-        <f>RESUMEN!$Z33+RESUMEN!$AA33</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+        <f>MES!R28</f>
+        <v>0</v>
+      </c>
+      <c r="AE33" s="43">
+        <f>MES!R29</f>
+        <v>0</v>
+      </c>
+      <c r="AF33" s="43">
+        <f>MES!R30</f>
+        <v>0</v>
+      </c>
+      <c r="AG33" s="43">
+        <f>RESUMEN!$AC33+RESUMEN!$AD33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>14</v>
       </c>
@@ -9059,48 +9896,51 @@
       <c r="R34" s="43"/>
       <c r="S34" s="43"/>
       <c r="T34" s="43"/>
-      <c r="U34" s="43">
+      <c r="U34" s="43"/>
+      <c r="V34" s="43"/>
+      <c r="W34" s="43"/>
+      <c r="X34" s="43">
         <f>RESUMEN!$D34+RESUMEN!$E34+RESUMEN!$F34+RESUMEN!$G34+RESUMEN!$H34+RESUMEN!$I34+RESUMEN!$J34+RESUMEN!$K34+L34+M34+Table43[[#This Row],[Column25222]]+Table43[[#This Row],[Column252223]]+Table43[[#This Row],[Column252222]]+Table43[[#This Row],[Column2522224]]+Table43[[#This Row],[Column2522223]]+Table43[[#This Row],[Column2522222]]+Table43[[#This Row],[Column25223]]</f>
         <v>0</v>
       </c>
-      <c r="V34" s="31"/>
-      <c r="W34" s="3" t="s">
+      <c r="Y34" s="31"/>
+      <c r="Z34" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="X34" s="19" t="s">
+      <c r="AA34" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="Y34" s="21" t="s">
+      <c r="AB34" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="Z34" s="30">
-        <f>MES!S23</f>
-        <v>0</v>
-      </c>
-      <c r="AA34" s="43">
-        <f>MES!S24</f>
-        <v>0</v>
-      </c>
-      <c r="AB34" s="43">
-        <f>MES!S25</f>
-        <v>0</v>
-      </c>
-      <c r="AC34" s="43">
-        <f>MES!S26</f>
+      <c r="AC34" s="30">
+        <f>MES!S27</f>
         <v>0</v>
       </c>
       <c r="AD34" s="43">
-        <f>RESUMEN!$Z34+RESUMEN!$AA34</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+        <f>MES!S28</f>
+        <v>0</v>
+      </c>
+      <c r="AE34" s="43">
+        <f>MES!S29</f>
+        <v>0</v>
+      </c>
+      <c r="AF34" s="43">
+        <f>MES!S30</f>
+        <v>0</v>
+      </c>
+      <c r="AG34" s="43">
+        <f>RESUMEN!$AC34+RESUMEN!$AD34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B35" s="32"/>
       <c r="C35" s="32" t="s">
         <v>1</v>
       </c>
       <c r="D35" s="32">
-        <f t="shared" ref="D35:T35" si="11">D31+D32+D33+D34</f>
+        <f t="shared" ref="D35:W35" si="11">D31+D32+D33+D34</f>
         <v>0</v>
       </c>
       <c r="E35" s="32">
@@ -9168,36 +10008,48 @@
         <v>0</v>
       </c>
       <c r="U35" s="32">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="V35" s="32">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W35" s="32">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X35" s="32">
         <f>RESUMEN!$D35+RESUMEN!$E35+RESUMEN!$F35+RESUMEN!$G35+RESUMEN!$H35+RESUMEN!$I35+RESUMEN!$J35+RESUMEN!$K35+L35+M35+Table43[[#This Row],[Column25222]]+Table43[[#This Row],[Column252223]]+Table43[[#This Row],[Column252222]]+Table43[[#This Row],[Column2522224]]+Table43[[#This Row],[Column2522223]]+Table43[[#This Row],[Column2522222]]+Table43[[#This Row],[Column25223]]</f>
         <v>0</v>
       </c>
-      <c r="V35" s="36"/>
-      <c r="X35" s="32"/>
-      <c r="Y35" s="32" t="s">
+      <c r="Y35" s="36"/>
+      <c r="AA35" s="32"/>
+      <c r="AB35" s="32" t="s">
         <v>1</v>
-      </c>
-      <c r="Z35" s="32">
-        <f>Z31+Z32+Z33+Z34</f>
-        <v>0</v>
-      </c>
-      <c r="AA35" s="32">
-        <f>AA31+AA32+AA33+AA34</f>
-        <v>0</v>
-      </c>
-      <c r="AB35" s="32">
-        <f>AB31+AB32+AB33+AB34</f>
-        <v>0</v>
       </c>
       <c r="AC35" s="32">
         <f>AC31+AC32+AC33+AC34</f>
         <v>0</v>
       </c>
       <c r="AD35" s="32">
-        <f>RESUMEN!$Z35+RESUMEN!$AA35</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+        <f>AD31+AD32+AD33+AD34</f>
+        <v>0</v>
+      </c>
+      <c r="AE35" s="32">
+        <f>AE31+AE32+AE33+AE34</f>
+        <v>0</v>
+      </c>
+      <c r="AF35" s="32">
+        <f>AF31+AF32+AF33+AF34</f>
+        <v>0</v>
+      </c>
+      <c r="AG35" s="32">
+        <f>RESUMEN!$AC35+RESUMEN!$AD35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B36" s="33"/>
       <c r="C36" s="33"/>
       <c r="D36" s="33"/>
@@ -9207,7 +10059,7 @@
       <c r="H36" s="33"/>
       <c r="I36" s="33"/>
       <c r="J36" s="36" t="str">
-        <f>MES!D54</f>
+        <f>MES!D58</f>
         <v>El concepto de IMSS, SAR, Infonavit, impuesto a la nómina, deberá desglosarse.</v>
       </c>
       <c r="K36" s="33"/>
@@ -9221,16 +10073,19 @@
       <c r="S36" s="33"/>
       <c r="T36" s="33"/>
       <c r="U36" s="33"/>
-      <c r="V36" s="36"/>
+      <c r="V36" s="33"/>
+      <c r="W36" s="33"/>
       <c r="X36" s="33"/>
-      <c r="Y36" s="33"/>
-      <c r="Z36" s="33"/>
+      <c r="Y36" s="36"/>
       <c r="AA36" s="33"/>
-      <c r="AB36" s="36"/>
-      <c r="AC36" s="36"/>
+      <c r="AB36" s="33"/>
+      <c r="AC36" s="33"/>
       <c r="AD36" s="33"/>
-    </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE36" s="36"/>
+      <c r="AF36" s="36"/>
+      <c r="AG36" s="33"/>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" s="34" t="s">
         <v>79</v>
       </c>
@@ -9256,20 +10111,23 @@
       <c r="S37" s="33"/>
       <c r="T37" s="33"/>
       <c r="U37" s="33"/>
-      <c r="W37" s="34" t="s">
+      <c r="V37" s="33"/>
+      <c r="W37" s="33"/>
+      <c r="X37" s="33"/>
+      <c r="Z37" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="X37" s="33" t="s">
+      <c r="AA37" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="Y37" s="21"/>
-      <c r="Z37" s="33"/>
-      <c r="AA37" s="33"/>
-      <c r="AB37" s="33"/>
+      <c r="AB37" s="21"/>
       <c r="AC37" s="33"/>
       <c r="AD37" s="33"/>
-    </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE37" s="33"/>
+      <c r="AF37" s="33"/>
+      <c r="AG37" s="33"/>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D38" s="13"/>
       <c r="E38" s="13"/>
       <c r="F38" s="13"/>
@@ -9287,28 +10145,31 @@
       <c r="R38" s="13"/>
       <c r="S38" s="13"/>
       <c r="T38" s="13"/>
-    </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="U38" s="13"/>
+      <c r="V38" s="13"/>
+      <c r="W38" s="13"/>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B39" s="35" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="G40" s="13"/>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="F42" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="X1:AD1"/>
-    <mergeCell ref="B1:U1"/>
+    <mergeCell ref="AA1:AG1"/>
+    <mergeCell ref="B1:X1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="I22 H33:I33 D28:E30 I28:I30 H31:I32 G31:G32 AD39 AD40 AD36:AD37 Z26 F31:F32 F28:F30 G28:G30 H28:H30 H22 F22:G22 K28 AA24 AA36 D26 D27 AA28:AA30 Z28:Z33" formula="1"/>
-    <ignoredError sqref="AD38" formula="1" calculatedColumn="1"/>
+    <ignoredError sqref="I22 H33:I33 D28:E30 I28:I30 H31:I32 G31:G32 AG39 AG40 AG36:AG37 AC26 F31:F32 F28:F30 G28:G30 H28:H30 H22 F22:G22 K28 AD24 AD36 D26 D27 AD28:AD30 AC28:AC33" formula="1"/>
+    <ignoredError sqref="AG38" formula="1" calculatedColumn="1"/>
     <ignoredError sqref="J10:J13 J20 J32:J34 J22 J31 J28:J30 J16 J18:J19 J36" calculatedColumn="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>

--- a/OperadoraNominas/bin/Debug/Archivos/Reporte.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/Reporte.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="MES" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="138">
   <si>
     <t>TOTAL PERCEPCIONES</t>
   </si>
@@ -426,6 +426,15 @@
   </si>
   <si>
     <t>Column252234</t>
+  </si>
+  <si>
+    <t>DESCUENTO ASIMILADOS</t>
+  </si>
+  <si>
+    <t>PRESTAMO ASIMILADOS</t>
+  </si>
+  <si>
+    <t>Prestamo Asimilado</t>
   </si>
 </sst>
 </file>
@@ -2448,11 +2457,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK63"/>
+  <dimension ref="A1:AK64"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T41" sqref="T41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2479,8 +2488,8 @@
     <col min="26" max="27" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:28" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:29" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
       <c r="B2" s="14"/>
       <c r="C2" s="1" t="s">
@@ -2523,28 +2532,31 @@
         <v>96</v>
       </c>
       <c r="P2" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="15.75" x14ac:dyDescent="0.3">
       <c r="C3" s="4"/>
       <c r="D3" s="3" t="s">
         <v>4</v>
@@ -2578,20 +2590,21 @@
         <v>13</v>
       </c>
       <c r="O3" s="3"/>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
-      <c r="U3" s="2"/>
+      <c r="U3" s="3"/>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
     </row>
-    <row r="4" spans="1:28" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="4"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -2610,13 +2623,14 @@
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
-      <c r="U4" s="2"/>
+      <c r="U4" s="3"/>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
     </row>
-    <row r="5" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="128"/>
       <c r="C5" s="6" t="s">
         <v>100</v>
@@ -2657,9 +2671,7 @@
       <c r="O5" s="7">
         <v>0</v>
       </c>
-      <c r="P5" s="7">
-        <v>0</v>
-      </c>
+      <c r="P5" s="7"/>
       <c r="Q5" s="7">
         <v>0</v>
       </c>
@@ -2670,25 +2682,28 @@
         <v>0</v>
       </c>
       <c r="T5" s="7">
-        <f>SUM(K5:S5)</f>
         <v>0</v>
       </c>
       <c r="U5" s="7">
-        <f t="shared" ref="U5:U24" si="0">T5*16%</f>
-        <v>0</v>
-      </c>
-      <c r="V5" s="15">
-        <f t="shared" ref="V5:V24" si="1">T5+U5</f>
-        <v>0</v>
-      </c>
-      <c r="W5" s="15"/>
+        <f t="shared" ref="U5:U24" si="0">SUM(K5:T5)</f>
+        <v>0</v>
+      </c>
+      <c r="V5" s="7">
+        <f t="shared" ref="V5:V24" si="1">U5*16%</f>
+        <v>0</v>
+      </c>
+      <c r="W5" s="15">
+        <f t="shared" ref="W5:W24" si="2">U5+V5</f>
+        <v>0</v>
+      </c>
       <c r="X5" s="15"/>
       <c r="Y5" s="15"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="4"/>
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="4"/>
     </row>
-    <row r="6" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="128"/>
       <c r="C6" s="6" t="s">
         <v>106</v>
@@ -2729,9 +2744,7 @@
       <c r="O6" s="7">
         <v>0</v>
       </c>
-      <c r="P6" s="7">
-        <v>0</v>
-      </c>
+      <c r="P6" s="7"/>
       <c r="Q6" s="7">
         <v>0</v>
       </c>
@@ -2742,25 +2755,28 @@
         <v>0</v>
       </c>
       <c r="T6" s="7">
-        <f t="shared" ref="T6:T24" si="2">SUM(K6:S6)</f>
         <v>0</v>
       </c>
       <c r="U6" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V6" s="15">
+      <c r="V6" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W6" s="15"/>
+      <c r="W6" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="X6" s="15"/>
       <c r="Y6" s="15"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="4"/>
+      <c r="Z6" s="15"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="4"/>
     </row>
-    <row r="7" spans="1:28" s="81" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" s="81" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="128"/>
       <c r="C7" s="65" t="s">
         <v>38</v>
@@ -2801,9 +2817,7 @@
       <c r="O7" s="7">
         <v>0</v>
       </c>
-      <c r="P7" s="7">
-        <v>0</v>
-      </c>
+      <c r="P7" s="7"/>
       <c r="Q7" s="7">
         <v>0</v>
       </c>
@@ -2814,25 +2828,28 @@
         <v>0</v>
       </c>
       <c r="T7" s="7">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U7" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V7" s="15">
+      <c r="V7" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W7" s="15"/>
+      <c r="W7" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="X7" s="15"/>
       <c r="Y7" s="15"/>
-      <c r="Z7" s="44"/>
-      <c r="AA7" s="66"/>
-      <c r="AB7" s="67"/>
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="44"/>
+      <c r="AB7" s="66"/>
+      <c r="AC7" s="67"/>
     </row>
-    <row r="8" spans="1:28" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="128"/>
       <c r="C8" s="65" t="s">
         <v>107</v>
@@ -2873,9 +2890,7 @@
       <c r="O8" s="7">
         <v>0</v>
       </c>
-      <c r="P8" s="7">
-        <v>0</v>
-      </c>
+      <c r="P8" s="7"/>
       <c r="Q8" s="7">
         <v>0</v>
       </c>
@@ -2886,25 +2901,28 @@
         <v>0</v>
       </c>
       <c r="T8" s="7">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U8" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V8" s="15">
+      <c r="V8" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W8" s="15"/>
+      <c r="W8" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="X8" s="15"/>
       <c r="Y8" s="15"/>
-      <c r="Z8" s="44"/>
-      <c r="AA8" s="66"/>
-      <c r="AB8" s="67"/>
+      <c r="Z8" s="15"/>
+      <c r="AA8" s="44"/>
+      <c r="AB8" s="66"/>
+      <c r="AC8" s="67"/>
     </row>
-    <row r="9" spans="1:28" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="128"/>
       <c r="C9" s="65" t="s">
         <v>97</v>
@@ -2945,9 +2963,7 @@
       <c r="O9" s="7">
         <v>0</v>
       </c>
-      <c r="P9" s="7">
-        <v>0</v>
-      </c>
+      <c r="P9" s="7"/>
       <c r="Q9" s="7">
         <v>0</v>
       </c>
@@ -2958,25 +2974,28 @@
         <v>0</v>
       </c>
       <c r="T9" s="7">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U9" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V9" s="15">
+      <c r="V9" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W9" s="15"/>
+      <c r="W9" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="X9" s="15"/>
       <c r="Y9" s="15"/>
-      <c r="Z9" s="44"/>
-      <c r="AA9" s="66"/>
-      <c r="AB9" s="67"/>
+      <c r="Z9" s="15"/>
+      <c r="AA9" s="44"/>
+      <c r="AB9" s="66"/>
+      <c r="AC9" s="67"/>
     </row>
-    <row r="10" spans="1:28" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="128"/>
       <c r="C10" s="65" t="s">
         <v>108</v>
@@ -3017,9 +3036,7 @@
       <c r="O10" s="7">
         <v>0</v>
       </c>
-      <c r="P10" s="7">
-        <v>0</v>
-      </c>
+      <c r="P10" s="7"/>
       <c r="Q10" s="7">
         <v>0</v>
       </c>
@@ -3030,25 +3047,28 @@
         <v>0</v>
       </c>
       <c r="T10" s="7">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U10" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V10" s="15">
+      <c r="V10" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W10" s="15"/>
+      <c r="W10" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="X10" s="15"/>
       <c r="Y10" s="15"/>
-      <c r="Z10" s="44"/>
-      <c r="AA10" s="66"/>
-      <c r="AB10" s="67"/>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="44"/>
+      <c r="AB10" s="66"/>
+      <c r="AC10" s="67"/>
     </row>
-    <row r="11" spans="1:28" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="128"/>
       <c r="C11" s="65" t="s">
         <v>101</v>
@@ -3089,9 +3109,7 @@
       <c r="O11" s="7">
         <v>0</v>
       </c>
-      <c r="P11" s="7">
-        <v>0</v>
-      </c>
+      <c r="P11" s="7"/>
       <c r="Q11" s="7">
         <v>0</v>
       </c>
@@ -3102,25 +3120,28 @@
         <v>0</v>
       </c>
       <c r="T11" s="7">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U11" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V11" s="15">
+      <c r="V11" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W11" s="15"/>
+      <c r="W11" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="X11" s="15"/>
       <c r="Y11" s="15"/>
-      <c r="Z11" s="44"/>
-      <c r="AA11" s="66"/>
-      <c r="AB11" s="67"/>
+      <c r="Z11" s="15"/>
+      <c r="AA11" s="44"/>
+      <c r="AB11" s="66"/>
+      <c r="AC11" s="67"/>
     </row>
-    <row r="12" spans="1:28" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="128"/>
       <c r="C12" s="65" t="s">
         <v>99</v>
@@ -3161,9 +3182,7 @@
       <c r="O12" s="7">
         <v>0</v>
       </c>
-      <c r="P12" s="7">
-        <v>0</v>
-      </c>
+      <c r="P12" s="7"/>
       <c r="Q12" s="7">
         <v>0</v>
       </c>
@@ -3174,25 +3193,28 @@
         <v>0</v>
       </c>
       <c r="T12" s="7">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U12" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V12" s="15">
+      <c r="V12" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W12" s="15"/>
+      <c r="W12" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="X12" s="15"/>
       <c r="Y12" s="15"/>
-      <c r="Z12" s="44"/>
-      <c r="AA12" s="66"/>
-      <c r="AB12" s="67"/>
+      <c r="Z12" s="15"/>
+      <c r="AA12" s="44"/>
+      <c r="AB12" s="66"/>
+      <c r="AC12" s="67"/>
     </row>
-    <row r="13" spans="1:28" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="128"/>
       <c r="C13" s="65" t="s">
         <v>89</v>
@@ -3233,9 +3255,7 @@
       <c r="O13" s="7">
         <v>0</v>
       </c>
-      <c r="P13" s="7">
-        <v>0</v>
-      </c>
+      <c r="P13" s="7"/>
       <c r="Q13" s="7">
         <v>0</v>
       </c>
@@ -3246,25 +3266,28 @@
         <v>0</v>
       </c>
       <c r="T13" s="7">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V13" s="15">
+      <c r="V13" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W13" s="15"/>
+      <c r="W13" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="X13" s="15"/>
       <c r="Y13" s="15"/>
-      <c r="Z13" s="44"/>
-      <c r="AA13" s="66"/>
-      <c r="AB13" s="67"/>
+      <c r="Z13" s="15"/>
+      <c r="AA13" s="44"/>
+      <c r="AB13" s="66"/>
+      <c r="AC13" s="67"/>
     </row>
-    <row r="14" spans="1:28" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="128"/>
       <c r="C14" s="65" t="s">
         <v>95</v>
@@ -3305,9 +3328,7 @@
       <c r="O14" s="7">
         <v>0</v>
       </c>
-      <c r="P14" s="7">
-        <v>0</v>
-      </c>
+      <c r="P14" s="7"/>
       <c r="Q14" s="7">
         <v>0</v>
       </c>
@@ -3318,25 +3339,28 @@
         <v>0</v>
       </c>
       <c r="T14" s="7">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U14" s="7">
-        <f t="shared" ref="U14:U20" si="3">T14*16%</f>
-        <v>0</v>
-      </c>
-      <c r="V14" s="15">
-        <f t="shared" ref="V14:V20" si="4">T14+U14</f>
-        <v>0</v>
-      </c>
-      <c r="W14" s="15"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V14" s="7">
+        <f t="shared" ref="V14:V20" si="3">U14*16%</f>
+        <v>0</v>
+      </c>
+      <c r="W14" s="15">
+        <f t="shared" ref="W14:W20" si="4">U14+V14</f>
+        <v>0</v>
+      </c>
       <c r="X14" s="15"/>
       <c r="Y14" s="15"/>
-      <c r="Z14" s="44"/>
-      <c r="AA14" s="66"/>
-      <c r="AB14" s="67"/>
+      <c r="Z14" s="15"/>
+      <c r="AA14" s="44"/>
+      <c r="AB14" s="66"/>
+      <c r="AC14" s="67"/>
     </row>
-    <row r="15" spans="1:28" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="128"/>
       <c r="C15" s="65" t="s">
         <v>120</v>
@@ -3377,9 +3401,7 @@
       <c r="O15" s="7">
         <v>0</v>
       </c>
-      <c r="P15" s="7">
-        <v>0</v>
-      </c>
+      <c r="P15" s="7"/>
       <c r="Q15" s="7">
         <v>0</v>
       </c>
@@ -3390,25 +3412,28 @@
         <v>0</v>
       </c>
       <c r="T15" s="7">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U15" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V15" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V15" s="15">
+      <c r="W15" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W15" s="15"/>
       <c r="X15" s="15"/>
       <c r="Y15" s="15"/>
-      <c r="Z15" s="44"/>
-      <c r="AA15" s="66"/>
-      <c r="AB15" s="67"/>
+      <c r="Z15" s="15"/>
+      <c r="AA15" s="44"/>
+      <c r="AB15" s="66"/>
+      <c r="AC15" s="67"/>
     </row>
-    <row r="16" spans="1:28" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="128"/>
       <c r="C16" s="65" t="s">
         <v>119</v>
@@ -3449,9 +3474,7 @@
       <c r="O16" s="7">
         <v>0</v>
       </c>
-      <c r="P16" s="7">
-        <v>0</v>
-      </c>
+      <c r="P16" s="7"/>
       <c r="Q16" s="7">
         <v>0</v>
       </c>
@@ -3462,25 +3485,28 @@
         <v>0</v>
       </c>
       <c r="T16" s="7">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U16" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V16" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V16" s="15">
+      <c r="W16" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W16" s="15"/>
       <c r="X16" s="15"/>
       <c r="Y16" s="15"/>
-      <c r="Z16" s="44"/>
-      <c r="AA16" s="66"/>
-      <c r="AB16" s="67"/>
+      <c r="Z16" s="15"/>
+      <c r="AA16" s="44"/>
+      <c r="AB16" s="66"/>
+      <c r="AC16" s="67"/>
     </row>
-    <row r="17" spans="2:28" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:29" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="128"/>
       <c r="C17" s="65" t="s">
         <v>114</v>
@@ -3521,9 +3547,7 @@
       <c r="O17" s="7">
         <v>0</v>
       </c>
-      <c r="P17" s="7">
-        <v>0</v>
-      </c>
+      <c r="P17" s="7"/>
       <c r="Q17" s="7">
         <v>0</v>
       </c>
@@ -3534,25 +3558,28 @@
         <v>0</v>
       </c>
       <c r="T17" s="7">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U17" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V17" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V17" s="15">
+      <c r="W17" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W17" s="15"/>
       <c r="X17" s="15"/>
       <c r="Y17" s="15"/>
-      <c r="Z17" s="44"/>
-      <c r="AA17" s="66"/>
-      <c r="AB17" s="67"/>
+      <c r="Z17" s="15"/>
+      <c r="AA17" s="44"/>
+      <c r="AB17" s="66"/>
+      <c r="AC17" s="67"/>
     </row>
-    <row r="18" spans="2:28" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:29" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="128"/>
       <c r="C18" s="65" t="s">
         <v>115</v>
@@ -3593,9 +3620,7 @@
       <c r="O18" s="7">
         <v>0</v>
       </c>
-      <c r="P18" s="7">
-        <v>0</v>
-      </c>
+      <c r="P18" s="7"/>
       <c r="Q18" s="7">
         <v>0</v>
       </c>
@@ -3606,25 +3631,28 @@
         <v>0</v>
       </c>
       <c r="T18" s="7">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U18" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V18" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V18" s="15">
+      <c r="W18" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W18" s="15"/>
       <c r="X18" s="15"/>
       <c r="Y18" s="15"/>
-      <c r="Z18" s="44"/>
-      <c r="AA18" s="66"/>
-      <c r="AB18" s="67"/>
+      <c r="Z18" s="15"/>
+      <c r="AA18" s="44"/>
+      <c r="AB18" s="66"/>
+      <c r="AC18" s="67"/>
     </row>
-    <row r="19" spans="2:28" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:29" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="128"/>
       <c r="C19" s="65" t="s">
         <v>116</v>
@@ -3665,9 +3693,7 @@
       <c r="O19" s="7">
         <v>0</v>
       </c>
-      <c r="P19" s="7">
-        <v>0</v>
-      </c>
+      <c r="P19" s="7"/>
       <c r="Q19" s="7">
         <v>0</v>
       </c>
@@ -3678,25 +3704,28 @@
         <v>0</v>
       </c>
       <c r="T19" s="7">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U19" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V19" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V19" s="15">
+      <c r="W19" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W19" s="15"/>
       <c r="X19" s="15"/>
       <c r="Y19" s="15"/>
-      <c r="Z19" s="44"/>
-      <c r="AA19" s="66"/>
-      <c r="AB19" s="67"/>
+      <c r="Z19" s="15"/>
+      <c r="AA19" s="44"/>
+      <c r="AB19" s="66"/>
+      <c r="AC19" s="67"/>
     </row>
-    <row r="20" spans="2:28" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:29" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="128"/>
       <c r="C20" s="65" t="s">
         <v>117</v>
@@ -3737,9 +3766,7 @@
       <c r="O20" s="7">
         <v>0</v>
       </c>
-      <c r="P20" s="7">
-        <v>0</v>
-      </c>
+      <c r="P20" s="7"/>
       <c r="Q20" s="7">
         <v>0</v>
       </c>
@@ -3750,25 +3777,28 @@
         <v>0</v>
       </c>
       <c r="T20" s="7">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U20" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V20" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V20" s="15">
+      <c r="W20" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W20" s="15"/>
       <c r="X20" s="15"/>
       <c r="Y20" s="15"/>
-      <c r="Z20" s="44"/>
-      <c r="AA20" s="66"/>
-      <c r="AB20" s="67"/>
+      <c r="Z20" s="15"/>
+      <c r="AA20" s="44"/>
+      <c r="AB20" s="66"/>
+      <c r="AC20" s="67"/>
     </row>
-    <row r="21" spans="2:28" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:29" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="128"/>
       <c r="C21" s="65" t="s">
         <v>118</v>
@@ -3809,9 +3839,7 @@
       <c r="O21" s="7">
         <v>0</v>
       </c>
-      <c r="P21" s="7">
-        <v>0</v>
-      </c>
+      <c r="P21" s="7"/>
       <c r="Q21" s="7">
         <v>0</v>
       </c>
@@ -3822,25 +3850,28 @@
         <v>0</v>
       </c>
       <c r="T21" s="7">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U21" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V21" s="15">
+      <c r="V21" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W21" s="15"/>
+      <c r="W21" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="X21" s="15"/>
       <c r="Y21" s="15"/>
-      <c r="Z21" s="44"/>
-      <c r="AA21" s="66"/>
-      <c r="AB21" s="67"/>
+      <c r="Z21" s="15"/>
+      <c r="AA21" s="44"/>
+      <c r="AB21" s="66"/>
+      <c r="AC21" s="67"/>
     </row>
-    <row r="22" spans="2:28" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:29" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="128"/>
       <c r="C22" s="65" t="s">
         <v>129</v>
@@ -3881,9 +3912,7 @@
       <c r="O22" s="7">
         <v>0</v>
       </c>
-      <c r="P22" s="7">
-        <v>0</v>
-      </c>
+      <c r="P22" s="7"/>
       <c r="Q22" s="7">
         <v>0</v>
       </c>
@@ -3894,25 +3923,28 @@
         <v>0</v>
       </c>
       <c r="T22" s="7">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U22" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V22" s="15">
+      <c r="V22" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W22" s="15"/>
+      <c r="W22" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="X22" s="15"/>
       <c r="Y22" s="15"/>
-      <c r="Z22" s="44"/>
-      <c r="AA22" s="66"/>
-      <c r="AB22" s="67"/>
+      <c r="Z22" s="15"/>
+      <c r="AA22" s="44"/>
+      <c r="AB22" s="66"/>
+      <c r="AC22" s="67"/>
     </row>
-    <row r="23" spans="2:28" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:29" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="128"/>
       <c r="C23" s="65" t="s">
         <v>130</v>
@@ -3953,9 +3985,7 @@
       <c r="O23" s="7">
         <v>0</v>
       </c>
-      <c r="P23" s="7">
-        <v>0</v>
-      </c>
+      <c r="P23" s="7"/>
       <c r="Q23" s="7">
         <v>0</v>
       </c>
@@ -3966,25 +3996,28 @@
         <v>0</v>
       </c>
       <c r="T23" s="7">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U23" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V23" s="15">
+      <c r="V23" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W23" s="15"/>
+      <c r="W23" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="X23" s="15"/>
       <c r="Y23" s="15"/>
-      <c r="Z23" s="44"/>
-      <c r="AA23" s="66"/>
-      <c r="AB23" s="67"/>
+      <c r="Z23" s="15"/>
+      <c r="AA23" s="44"/>
+      <c r="AB23" s="66"/>
+      <c r="AC23" s="67"/>
     </row>
-    <row r="24" spans="2:28" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:29" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="128"/>
       <c r="C24" s="65" t="s">
         <v>131</v>
@@ -4025,9 +4058,7 @@
       <c r="O24" s="7">
         <v>0</v>
       </c>
-      <c r="P24" s="7">
-        <v>0</v>
-      </c>
+      <c r="P24" s="7"/>
       <c r="Q24" s="7">
         <v>0</v>
       </c>
@@ -4038,25 +4069,28 @@
         <v>0</v>
       </c>
       <c r="T24" s="7">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U24" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V24" s="15">
+      <c r="V24" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W24" s="15"/>
+      <c r="W24" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="X24" s="15"/>
       <c r="Y24" s="15"/>
-      <c r="Z24" s="44"/>
-      <c r="AA24" s="66"/>
-      <c r="AB24" s="67"/>
+      <c r="Z24" s="15"/>
+      <c r="AA24" s="44"/>
+      <c r="AB24" s="66"/>
+      <c r="AC24" s="67"/>
     </row>
-    <row r="25" spans="2:28" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:29" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="128"/>
       <c r="C25" s="65"/>
       <c r="D25" s="7"/>
@@ -4077,15 +4111,16 @@
       <c r="S25" s="7"/>
       <c r="T25" s="7"/>
       <c r="U25" s="7"/>
-      <c r="V25" s="15"/>
+      <c r="V25" s="7"/>
       <c r="W25" s="15"/>
       <c r="X25" s="15"/>
       <c r="Y25" s="15"/>
-      <c r="Z25" s="44"/>
-      <c r="AA25" s="66"/>
-      <c r="AB25" s="67"/>
+      <c r="Z25" s="15"/>
+      <c r="AA25" s="44"/>
+      <c r="AB25" s="66"/>
+      <c r="AC25" s="67"/>
     </row>
-    <row r="26" spans="2:28" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:29" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="60"/>
       <c r="C26" s="65"/>
       <c r="D26" s="7"/>
@@ -4106,15 +4141,16 @@
       <c r="S26" s="7"/>
       <c r="T26" s="7"/>
       <c r="U26" s="7"/>
-      <c r="V26" s="15"/>
+      <c r="V26" s="7"/>
       <c r="W26" s="15"/>
       <c r="X26" s="15"/>
       <c r="Y26" s="15"/>
-      <c r="Z26" s="7"/>
-      <c r="AA26" s="5"/>
-      <c r="AB26" s="4"/>
+      <c r="Z26" s="15"/>
+      <c r="AA26" s="7"/>
+      <c r="AB26" s="5"/>
+      <c r="AC26" s="4"/>
     </row>
-    <row r="27" spans="2:28" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:29" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B27" s="126" t="s">
         <v>128</v>
       </c>
@@ -4169,10 +4205,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="P27" s="7">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="P27" s="7"/>
       <c r="Q27" s="7">
         <f>0</f>
         <v>0</v>
@@ -4197,14 +4230,18 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="W27" s="7"/>
+      <c r="W27" s="7">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="X27" s="7"/>
       <c r="Y27" s="7"/>
       <c r="Z27" s="7"/>
-      <c r="AA27" s="5"/>
-      <c r="AB27" s="4"/>
+      <c r="AA27" s="7"/>
+      <c r="AB27" s="5"/>
+      <c r="AC27" s="4"/>
     </row>
-    <row r="28" spans="2:28" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:29" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B28" s="126"/>
       <c r="C28" s="65" t="s">
         <v>101</v>
@@ -4257,10 +4294,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="P28" s="7">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="P28" s="7"/>
       <c r="Q28" s="7">
         <f>0</f>
         <v>0</v>
@@ -4285,14 +4319,18 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="W28" s="7"/>
+      <c r="W28" s="7">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="X28" s="7"/>
       <c r="Y28" s="7"/>
       <c r="Z28" s="7"/>
-      <c r="AA28" s="5"/>
-      <c r="AB28" s="4"/>
+      <c r="AA28" s="7"/>
+      <c r="AB28" s="5"/>
+      <c r="AC28" s="4"/>
     </row>
-    <row r="29" spans="2:28" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:29" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B29" s="126"/>
       <c r="C29" s="6" t="s">
         <v>95</v>
@@ -4345,10 +4383,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="P29" s="7">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="P29" s="7"/>
       <c r="Q29" s="7">
         <f>0</f>
         <v>0</v>
@@ -4373,14 +4408,18 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="W29" s="7"/>
+      <c r="W29" s="7">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="X29" s="7"/>
       <c r="Y29" s="7"/>
       <c r="Z29" s="7"/>
-      <c r="AA29" s="5"/>
-      <c r="AB29" s="4"/>
+      <c r="AA29" s="7"/>
+      <c r="AB29" s="5"/>
+      <c r="AC29" s="4"/>
     </row>
-    <row r="30" spans="2:28" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:29" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B30" s="126"/>
       <c r="C30" s="6" t="s">
         <v>97</v>
@@ -4433,10 +4472,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="P30" s="7">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="P30" s="7"/>
       <c r="Q30" s="7">
         <f>0</f>
         <v>0</v>
@@ -4461,14 +4497,18 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="W30" s="7"/>
+      <c r="W30" s="7">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="X30" s="7"/>
       <c r="Y30" s="7"/>
       <c r="Z30" s="7"/>
-      <c r="AA30" s="5"/>
-      <c r="AB30" s="4"/>
+      <c r="AA30" s="7"/>
+      <c r="AB30" s="5"/>
+      <c r="AC30" s="4"/>
     </row>
-    <row r="31" spans="2:28" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:29" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B31" s="73"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
@@ -4488,15 +4528,16 @@
       <c r="S31" s="7"/>
       <c r="T31" s="7"/>
       <c r="U31" s="7"/>
-      <c r="V31" s="15"/>
+      <c r="V31" s="7"/>
       <c r="W31" s="15"/>
       <c r="X31" s="15"/>
       <c r="Y31" s="15"/>
-      <c r="Z31" s="7"/>
-      <c r="AA31" s="5"/>
-      <c r="AB31" s="4"/>
+      <c r="Z31" s="15"/>
+      <c r="AA31" s="7"/>
+      <c r="AB31" s="5"/>
+      <c r="AC31" s="4"/>
     </row>
-    <row r="32" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="35"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -4510,19 +4551,20 @@
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
       <c r="O32" s="7"/>
-      <c r="P32" s="53"/>
+      <c r="P32" s="7"/>
       <c r="Q32" s="53"/>
       <c r="R32" s="53"/>
       <c r="S32" s="53"/>
-      <c r="T32" s="7"/>
+      <c r="T32" s="53"/>
       <c r="U32" s="7"/>
-      <c r="V32" s="15"/>
+      <c r="V32" s="7"/>
       <c r="W32" s="15"/>
       <c r="X32" s="15"/>
       <c r="Y32" s="15"/>
-      <c r="Z32" s="7"/>
-      <c r="AA32" s="5"/>
-      <c r="AB32" s="4"/>
+      <c r="Z32" s="15"/>
+      <c r="AA32" s="7"/>
+      <c r="AB32" s="5"/>
+      <c r="AC32" s="4"/>
     </row>
     <row r="33" spans="2:37" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B33" s="41"/>
@@ -4542,10 +4584,11 @@
       <c r="S33" s="7"/>
       <c r="T33" s="7"/>
       <c r="U33" s="7"/>
-      <c r="V33" s="15"/>
+      <c r="V33" s="7"/>
       <c r="W33" s="15"/>
       <c r="X33" s="15"/>
       <c r="Y33" s="15"/>
+      <c r="Z33" s="15"/>
     </row>
     <row r="34" spans="2:37" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B34" s="41"/>
@@ -5741,21 +5784,17 @@
       <c r="AK46" s="69"/>
     </row>
     <row r="47" spans="2:37" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B47" s="41"/>
-      <c r="C47" s="108">
-        <v>50000225</v>
-      </c>
+      <c r="B47" s="74"/>
+      <c r="C47" s="108"/>
       <c r="D47" s="109" t="s">
-        <v>27</v>
-      </c>
-      <c r="E47" s="110" t="s">
-        <v>14</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="E47" s="110"/>
       <c r="G47" s="10">
         <f>P5</f>
         <v>0</v>
       </c>
-      <c r="H47" s="9">
+      <c r="H47" s="8">
         <f>P6</f>
         <v>0</v>
       </c>
@@ -5831,22 +5870,10 @@
         <f>P24</f>
         <v>0</v>
       </c>
-      <c r="AB47" s="10">
-        <f>P27</f>
-        <v>0</v>
-      </c>
-      <c r="AC47" s="9">
-        <f>P28</f>
-        <v>0</v>
-      </c>
-      <c r="AD47" s="9">
-        <f>P29</f>
-        <v>0</v>
-      </c>
-      <c r="AE47" s="85">
-        <f>P30</f>
-        <v>0</v>
-      </c>
+      <c r="AB47" s="10"/>
+      <c r="AC47" s="9"/>
+      <c r="AD47" s="9"/>
+      <c r="AE47" s="85"/>
       <c r="AF47" s="76"/>
       <c r="AG47" s="76"/>
       <c r="AH47" s="76"/>
@@ -5857,10 +5884,10 @@
     <row r="48" spans="2:37" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B48" s="41"/>
       <c r="C48" s="108">
-        <v>50000230</v>
+        <v>50000225</v>
       </c>
       <c r="D48" s="109" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E48" s="110" t="s">
         <v>14</v>
@@ -5968,12 +5995,13 @@
       <c r="AJ48" s="76"/>
       <c r="AK48" s="69"/>
     </row>
-    <row r="49" spans="3:37" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:37" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B49" s="41"/>
       <c r="C49" s="108">
-        <v>50000227</v>
+        <v>50000230</v>
       </c>
       <c r="D49" s="109" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E49" s="110" t="s">
         <v>14</v>
@@ -6081,12 +6109,12 @@
       <c r="AJ49" s="76"/>
       <c r="AK49" s="69"/>
     </row>
-    <row r="50" spans="3:37" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:37" ht="15.75" x14ac:dyDescent="0.3">
       <c r="C50" s="108">
-        <v>50000228</v>
+        <v>50000227</v>
       </c>
       <c r="D50" s="109" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E50" s="110" t="s">
         <v>14</v>
@@ -6194,110 +6222,110 @@
       <c r="AJ50" s="76"/>
       <c r="AK50" s="69"/>
     </row>
-    <row r="51" spans="3:37" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:37" ht="15.75" x14ac:dyDescent="0.3">
       <c r="C51" s="108">
-        <v>50000259</v>
+        <v>50000228</v>
       </c>
       <c r="D51" s="109" t="s">
-        <v>31</v>
-      </c>
-      <c r="E51" s="111" t="s">
-        <v>32</v>
-      </c>
-      <c r="G51" s="122">
-        <f>M5+N5</f>
-        <v>0</v>
-      </c>
-      <c r="H51" s="8">
-        <f>M6+N6</f>
+        <v>30</v>
+      </c>
+      <c r="E51" s="110" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" s="10">
+        <f>T5</f>
+        <v>0</v>
+      </c>
+      <c r="H51" s="9">
+        <f>T6</f>
         <v>0</v>
       </c>
       <c r="I51" s="8">
-        <f>M7+N7</f>
+        <f>T7</f>
         <v>0</v>
       </c>
       <c r="J51" s="8">
-        <f>M8+N8</f>
+        <f>T8</f>
         <v>0</v>
       </c>
       <c r="K51" s="8">
-        <f>M9+N9</f>
+        <f>T9</f>
         <v>0</v>
       </c>
       <c r="L51" s="8">
-        <f>M10+N10</f>
+        <f>T10</f>
         <v>0</v>
       </c>
       <c r="M51" s="8">
-        <f>M11+N11</f>
+        <f>T11</f>
         <v>0</v>
       </c>
       <c r="N51" s="8">
-        <f>M12+N12</f>
+        <f>T12</f>
         <v>0</v>
       </c>
       <c r="O51" s="8">
-        <f>M13+N13</f>
+        <f>T13</f>
         <v>0</v>
       </c>
       <c r="P51" s="8">
-        <f>M14+N14</f>
+        <f>T14</f>
         <v>0</v>
       </c>
       <c r="Q51" s="8">
-        <f>M15+N15</f>
+        <f>T15</f>
         <v>0</v>
       </c>
       <c r="R51" s="8">
-        <f>M16+N16</f>
+        <f>T16</f>
         <v>0</v>
       </c>
       <c r="S51" s="8">
-        <f>M17+N17</f>
+        <f>T17</f>
         <v>0</v>
       </c>
       <c r="T51" s="8">
-        <f>M18+N18</f>
+        <f>T18</f>
         <v>0</v>
       </c>
       <c r="U51" s="8">
-        <f>M19+N19</f>
+        <f>T19</f>
         <v>0</v>
       </c>
       <c r="V51" s="8">
-        <f>M20+N20</f>
+        <f>T20</f>
         <v>0</v>
       </c>
       <c r="W51" s="8">
-        <f>M21+N21</f>
+        <f>T21</f>
         <v>0</v>
       </c>
       <c r="X51" s="8">
-        <f>M22+N22</f>
+        <f>T22</f>
         <v>0</v>
       </c>
       <c r="Y51" s="8">
-        <f>M23+N23</f>
+        <f>T23</f>
         <v>0</v>
       </c>
       <c r="Z51" s="83">
-        <f>M24+N24</f>
-        <v>0</v>
-      </c>
-      <c r="AB51" s="122">
-        <f>M27+N27</f>
-        <v>0</v>
-      </c>
-      <c r="AC51" s="8">
-        <f>M28+N28</f>
-        <v>0</v>
-      </c>
-      <c r="AD51" s="8">
-        <f>M29+N29</f>
-        <v>0</v>
-      </c>
-      <c r="AE51" s="83">
-        <f>M30+N30</f>
+        <f>T24</f>
+        <v>0</v>
+      </c>
+      <c r="AB51" s="10">
+        <f>T27</f>
+        <v>0</v>
+      </c>
+      <c r="AC51" s="9">
+        <f>T28</f>
+        <v>0</v>
+      </c>
+      <c r="AD51" s="9">
+        <f>T29</f>
+        <v>0</v>
+      </c>
+      <c r="AE51" s="85">
+        <f>T30</f>
         <v>0</v>
       </c>
       <c r="AF51" s="76"/>
@@ -6307,106 +6335,110 @@
       <c r="AJ51" s="76"/>
       <c r="AK51" s="69"/>
     </row>
-    <row r="52" spans="3:37" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="C52" s="108"/>
+    <row r="52" spans="2:37" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C52" s="108">
+        <v>50000259</v>
+      </c>
       <c r="D52" s="109" t="s">
-        <v>33</v>
-      </c>
-      <c r="E52" s="112"/>
-      <c r="G52" s="42">
-        <f t="shared" ref="G52:L52" si="5">SUM(G38:G51)</f>
-        <v>0</v>
-      </c>
-      <c r="H52" s="61">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I52" s="63">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J52" s="63">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K52" s="63">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L52" s="63">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M52" s="63">
-        <f t="shared" ref="M52:V52" si="6">SUM(M38:M51)</f>
-        <v>0</v>
-      </c>
-      <c r="N52" s="63">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O52" s="63">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P52" s="63">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q52" s="63">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R52" s="63">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S52" s="63">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="T52" s="63">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U52" s="63">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V52" s="63">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W52" s="63">
-        <f>SUM(W38:W51)</f>
-        <v>0</v>
-      </c>
-      <c r="X52" s="63">
-        <f>SUM(X38:X51)</f>
-        <v>0</v>
-      </c>
-      <c r="Y52" s="63">
-        <f>SUM(Y38:Y51)</f>
-        <v>0</v>
-      </c>
-      <c r="Z52" s="88">
-        <f>SUM(Z38:Z51)</f>
-        <v>0</v>
-      </c>
-      <c r="AB52" s="42">
-        <f>SUM(AB38:AB51)</f>
-        <v>0</v>
-      </c>
-      <c r="AC52" s="61">
-        <f>SUM(AC38:AC51)</f>
-        <v>0</v>
-      </c>
-      <c r="AD52" s="61">
-        <f>SUM(AD38:AD51)</f>
-        <v>0</v>
-      </c>
-      <c r="AE52" s="91">
-        <f>SUM(AE38:AE51)</f>
+        <v>31</v>
+      </c>
+      <c r="E52" s="111" t="s">
+        <v>32</v>
+      </c>
+      <c r="G52" s="122">
+        <f>M5+N5</f>
+        <v>0</v>
+      </c>
+      <c r="H52" s="8">
+        <f>M6+N6</f>
+        <v>0</v>
+      </c>
+      <c r="I52" s="8">
+        <f>M7+N7</f>
+        <v>0</v>
+      </c>
+      <c r="J52" s="8">
+        <f>M8+N8</f>
+        <v>0</v>
+      </c>
+      <c r="K52" s="8">
+        <f>M9+N9</f>
+        <v>0</v>
+      </c>
+      <c r="L52" s="8">
+        <f>M10+N10</f>
+        <v>0</v>
+      </c>
+      <c r="M52" s="8">
+        <f>M11+N11</f>
+        <v>0</v>
+      </c>
+      <c r="N52" s="8">
+        <f>M12+N12</f>
+        <v>0</v>
+      </c>
+      <c r="O52" s="8">
+        <f>M13+N13</f>
+        <v>0</v>
+      </c>
+      <c r="P52" s="8">
+        <f>M14+N14</f>
+        <v>0</v>
+      </c>
+      <c r="Q52" s="8">
+        <f>M15+N15</f>
+        <v>0</v>
+      </c>
+      <c r="R52" s="8">
+        <f>M16+N16</f>
+        <v>0</v>
+      </c>
+      <c r="S52" s="8">
+        <f>M17+N17</f>
+        <v>0</v>
+      </c>
+      <c r="T52" s="8">
+        <f>M18+N18</f>
+        <v>0</v>
+      </c>
+      <c r="U52" s="8">
+        <f>M19+N19</f>
+        <v>0</v>
+      </c>
+      <c r="V52" s="8">
+        <f>M20+N20</f>
+        <v>0</v>
+      </c>
+      <c r="W52" s="8">
+        <f>M21+N21</f>
+        <v>0</v>
+      </c>
+      <c r="X52" s="8">
+        <f>M22+N22</f>
+        <v>0</v>
+      </c>
+      <c r="Y52" s="8">
+        <f>M23+N23</f>
+        <v>0</v>
+      </c>
+      <c r="Z52" s="83">
+        <f>M24+N24</f>
+        <v>0</v>
+      </c>
+      <c r="AB52" s="122">
+        <f>M27+N27</f>
+        <v>0</v>
+      </c>
+      <c r="AC52" s="8">
+        <f>M28+N28</f>
+        <v>0</v>
+      </c>
+      <c r="AD52" s="8">
+        <f>M29+N29</f>
+        <v>0</v>
+      </c>
+      <c r="AE52" s="83">
+        <f>M30+N30</f>
         <v>0</v>
       </c>
       <c r="AF52" s="76"/>
@@ -6416,106 +6448,106 @@
       <c r="AJ52" s="76"/>
       <c r="AK52" s="69"/>
     </row>
-    <row r="53" spans="3:37" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:37" ht="15.75" x14ac:dyDescent="0.3">
       <c r="C53" s="108"/>
       <c r="D53" s="109" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="E53" s="112"/>
-      <c r="G53" s="11">
-        <f t="shared" ref="G53:L53" si="7">G52*16%</f>
-        <v>0</v>
-      </c>
-      <c r="H53" s="62">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I53" s="64">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J53" s="64">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K53" s="64">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L53" s="64">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M53" s="64">
-        <f t="shared" ref="M53:V53" si="8">M52*16%</f>
-        <v>0</v>
-      </c>
-      <c r="N53" s="64">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O53" s="64">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P53" s="64">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q53" s="64">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R53" s="64">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S53" s="64">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T53" s="64">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U53" s="64">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="V53" s="64">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W53" s="64">
-        <f t="shared" ref="W53" si="9">W52*16%</f>
-        <v>0</v>
-      </c>
-      <c r="X53" s="64">
-        <f>X52*16%</f>
-        <v>0</v>
-      </c>
-      <c r="Y53" s="64">
-        <f>Y52*16%</f>
-        <v>0</v>
-      </c>
-      <c r="Z53" s="89">
-        <f>Z52*16%</f>
-        <v>0</v>
-      </c>
-      <c r="AB53" s="11">
-        <f>AB52*16%</f>
-        <v>0</v>
-      </c>
-      <c r="AC53" s="62">
-        <f>AC52*16%</f>
-        <v>0</v>
-      </c>
-      <c r="AD53" s="62">
-        <f>AD52*16%</f>
-        <v>0</v>
-      </c>
-      <c r="AE53" s="92">
-        <f>AE52*16%</f>
+      <c r="G53" s="42">
+        <f t="shared" ref="G53:Z53" si="5">SUM(G38:G52)</f>
+        <v>0</v>
+      </c>
+      <c r="H53" s="61">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I53" s="63">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J53" s="63">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K53" s="63">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L53" s="63">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M53" s="63">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N53" s="63">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O53" s="63">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P53" s="63">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q53" s="63">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R53" s="63">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S53" s="63">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T53" s="63">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U53" s="63">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V53" s="63">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W53" s="63">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X53" s="63">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y53" s="63">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Z53" s="88">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB53" s="42">
+        <f>SUM(AB38:AB52)</f>
+        <v>0</v>
+      </c>
+      <c r="AC53" s="61">
+        <f>SUM(AC38:AC52)</f>
+        <v>0</v>
+      </c>
+      <c r="AD53" s="61">
+        <f>SUM(AD38:AD52)</f>
+        <v>0</v>
+      </c>
+      <c r="AE53" s="91">
+        <f>SUM(AE38:AE52)</f>
         <v>0</v>
       </c>
       <c r="AF53" s="76"/>
@@ -6525,149 +6557,235 @@
       <c r="AJ53" s="76"/>
       <c r="AK53" s="69"/>
     </row>
-    <row r="54" spans="3:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C54" s="113"/>
-      <c r="D54" s="114" t="s">
-        <v>34</v>
-      </c>
-      <c r="E54" s="115"/>
-      <c r="G54" s="93">
-        <f t="shared" ref="G54:P54" si="10">SUM(G52:G53)</f>
-        <v>0</v>
-      </c>
-      <c r="H54" s="94">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I54" s="94">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J54" s="94">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="K54" s="94">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L54" s="94">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="M54" s="94">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="N54" s="94">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="O54" s="94">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P54" s="94">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Q54" s="94">
-        <f t="shared" ref="Q54:R54" si="11">SUM(Q52:Q53)</f>
-        <v>0</v>
-      </c>
-      <c r="R54" s="94">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="S54" s="94">
-        <f t="shared" ref="S54:T54" si="12">SUM(S52:S53)</f>
-        <v>0</v>
-      </c>
-      <c r="T54" s="94">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="U54" s="94">
-        <f t="shared" ref="U54:V54" si="13">SUM(U52:U53)</f>
-        <v>0</v>
-      </c>
-      <c r="V54" s="94">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="W54" s="94">
-        <f>SUM(W52:W53)</f>
-        <v>0</v>
-      </c>
-      <c r="X54" s="94">
-        <f>SUM(X52:X53)</f>
-        <v>0</v>
-      </c>
-      <c r="Y54" s="94">
-        <f>SUM(Y52:Y53)</f>
-        <v>0</v>
-      </c>
-      <c r="Z54" s="124">
-        <f>SUM(Z52:Z53)</f>
-        <v>0</v>
-      </c>
-      <c r="AB54" s="93">
-        <f>SUM(AB52:AB53)</f>
-        <v>0</v>
-      </c>
-      <c r="AC54" s="94">
-        <f>SUM(AC52:AC53)</f>
-        <v>0</v>
-      </c>
-      <c r="AD54" s="94">
-        <f>SUM(AD52:AD53)</f>
-        <v>0</v>
-      </c>
-      <c r="AE54" s="95">
-        <f>SUM(AE52:AE53)</f>
-        <v>0</v>
-      </c>
-      <c r="AF54" s="77"/>
-      <c r="AG54" s="77"/>
-      <c r="AH54" s="79"/>
-      <c r="AI54" s="77"/>
-      <c r="AJ54" s="77"/>
+    <row r="54" spans="2:37" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C54" s="108"/>
+      <c r="D54" s="109" t="s">
+        <v>2</v>
+      </c>
+      <c r="E54" s="112"/>
+      <c r="G54" s="11">
+        <f t="shared" ref="G54:L54" si="6">G53*16%</f>
+        <v>0</v>
+      </c>
+      <c r="H54" s="62">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I54" s="64">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J54" s="64">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K54" s="64">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L54" s="64">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M54" s="64">
+        <f t="shared" ref="M54:V54" si="7">M53*16%</f>
+        <v>0</v>
+      </c>
+      <c r="N54" s="64">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O54" s="64">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P54" s="64">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q54" s="64">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R54" s="64">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S54" s="64">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T54" s="64">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U54" s="64">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V54" s="64">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W54" s="64">
+        <f t="shared" ref="W54" si="8">W53*16%</f>
+        <v>0</v>
+      </c>
+      <c r="X54" s="64">
+        <f>X53*16%</f>
+        <v>0</v>
+      </c>
+      <c r="Y54" s="64">
+        <f>Y53*16%</f>
+        <v>0</v>
+      </c>
+      <c r="Z54" s="89">
+        <f>Z53*16%</f>
+        <v>0</v>
+      </c>
+      <c r="AB54" s="11">
+        <f>AB53*16%</f>
+        <v>0</v>
+      </c>
+      <c r="AC54" s="62">
+        <f>AC53*16%</f>
+        <v>0</v>
+      </c>
+      <c r="AD54" s="62">
+        <f>AD53*16%</f>
+        <v>0</v>
+      </c>
+      <c r="AE54" s="92">
+        <f>AE53*16%</f>
+        <v>0</v>
+      </c>
+      <c r="AF54" s="76"/>
+      <c r="AG54" s="76"/>
+      <c r="AH54" s="76"/>
+      <c r="AI54" s="76"/>
+      <c r="AJ54" s="76"/>
       <c r="AK54" s="69"/>
     </row>
-    <row r="55" spans="3:37" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="46"/>
-      <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
-      <c r="L55" s="46"/>
-      <c r="M55" s="50"/>
-      <c r="N55" s="52"/>
-      <c r="O55" s="6"/>
-      <c r="R55" s="71"/>
-      <c r="S55" s="71"/>
-      <c r="T55" s="71"/>
-      <c r="U55" s="70"/>
-      <c r="V55" s="70"/>
-      <c r="W55" s="70"/>
-      <c r="X55" s="70"/>
-      <c r="Y55" s="70"/>
-      <c r="Z55" s="69"/>
+    <row r="55" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C55" s="113"/>
+      <c r="D55" s="114" t="s">
+        <v>34</v>
+      </c>
+      <c r="E55" s="115"/>
+      <c r="G55" s="93">
+        <f t="shared" ref="G55:P55" si="9">SUM(G53:G54)</f>
+        <v>0</v>
+      </c>
+      <c r="H55" s="94">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I55" s="94">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J55" s="94">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K55" s="94">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L55" s="94">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M55" s="94">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N55" s="94">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O55" s="94">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P55" s="94">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q55" s="94">
+        <f t="shared" ref="Q55:R55" si="10">SUM(Q53:Q54)</f>
+        <v>0</v>
+      </c>
+      <c r="R55" s="94">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S55" s="94">
+        <f t="shared" ref="S55:T55" si="11">SUM(S53:S54)</f>
+        <v>0</v>
+      </c>
+      <c r="T55" s="94">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="U55" s="94">
+        <f t="shared" ref="U55:V55" si="12">SUM(U53:U54)</f>
+        <v>0</v>
+      </c>
+      <c r="V55" s="94">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="W55" s="94">
+        <f>SUM(W53:W54)</f>
+        <v>0</v>
+      </c>
+      <c r="X55" s="94">
+        <f>SUM(X53:X54)</f>
+        <v>0</v>
+      </c>
+      <c r="Y55" s="94">
+        <f>SUM(Y53:Y54)</f>
+        <v>0</v>
+      </c>
+      <c r="Z55" s="124">
+        <f>SUM(Z53:Z54)</f>
+        <v>0</v>
+      </c>
+      <c r="AB55" s="93">
+        <f>SUM(AB53:AB54)</f>
+        <v>0</v>
+      </c>
+      <c r="AC55" s="94">
+        <f>SUM(AC53:AC54)</f>
+        <v>0</v>
+      </c>
+      <c r="AD55" s="94">
+        <f>SUM(AD53:AD54)</f>
+        <v>0</v>
+      </c>
+      <c r="AE55" s="95">
+        <f>SUM(AE53:AE54)</f>
+        <v>0</v>
+      </c>
+      <c r="AF55" s="77"/>
+      <c r="AG55" s="77"/>
+      <c r="AH55" s="79"/>
+      <c r="AI55" s="77"/>
+      <c r="AJ55" s="77"/>
+      <c r="AK55" s="69"/>
     </row>
-    <row r="56" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="F56" s="96"/>
-      <c r="G56" s="96"/>
-      <c r="H56" s="96"/>
-      <c r="I56" s="51"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
-      <c r="L56" s="51"/>
-      <c r="M56" s="2"/>
-      <c r="N56" s="70"/>
-      <c r="O56" s="51"/>
-      <c r="P56" s="51"/>
-      <c r="Q56" s="48"/>
+    <row r="56" spans="2:37" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="46"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="46"/>
+      <c r="M56" s="50"/>
+      <c r="N56" s="52"/>
+      <c r="O56" s="6"/>
       <c r="R56" s="71"/>
       <c r="S56" s="71"/>
       <c r="T56" s="71"/>
@@ -6678,21 +6796,18 @@
       <c r="Y56" s="70"/>
       <c r="Z56" s="69"/>
     </row>
-    <row r="57" spans="3:37" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="C57" s="4"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="48"/>
-      <c r="J57" s="3"/>
+    <row r="57" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="F57" s="96"/>
+      <c r="G57" s="96"/>
+      <c r="H57" s="96"/>
+      <c r="I57" s="51"/>
+      <c r="J57" s="2"/>
       <c r="K57" s="2"/>
-      <c r="L57" s="48"/>
-      <c r="M57" s="3"/>
-      <c r="N57" s="48"/>
-      <c r="O57" s="48"/>
-      <c r="P57" s="48"/>
+      <c r="L57" s="51"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="70"/>
+      <c r="O57" s="51"/>
+      <c r="P57" s="51"/>
       <c r="Q57" s="48"/>
       <c r="R57" s="71"/>
       <c r="S57" s="71"/>
@@ -6704,41 +6819,42 @@
       <c r="Y57" s="70"/>
       <c r="Z57" s="69"/>
     </row>
-    <row r="58" spans="3:37" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:37" ht="15.75" x14ac:dyDescent="0.3">
       <c r="C58" s="4"/>
-      <c r="D58" s="96" t="s">
-        <v>35</v>
-      </c>
-      <c r="E58" s="96"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
-      <c r="H58" s="39"/>
+      <c r="H58" s="3"/>
       <c r="I58" s="48"/>
       <c r="J58" s="3"/>
       <c r="K58" s="2"/>
-      <c r="L58" s="3"/>
+      <c r="L58" s="48"/>
       <c r="M58" s="3"/>
       <c r="N58" s="48"/>
       <c r="O58" s="48"/>
       <c r="P58" s="48"/>
       <c r="Q58" s="48"/>
-      <c r="R58" s="48"/>
-      <c r="S58" s="48"/>
-      <c r="T58" s="3"/>
-      <c r="U58" s="2"/>
-      <c r="V58" s="2"/>
-      <c r="W58" s="2"/>
-      <c r="X58" s="2"/>
-      <c r="Y58" s="2"/>
+      <c r="R58" s="71"/>
+      <c r="S58" s="71"/>
+      <c r="T58" s="71"/>
+      <c r="U58" s="70"/>
+      <c r="V58" s="70"/>
+      <c r="W58" s="70"/>
+      <c r="X58" s="70"/>
+      <c r="Y58" s="70"/>
+      <c r="Z58" s="69"/>
     </row>
-    <row r="59" spans="3:37" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:37" ht="15.75" x14ac:dyDescent="0.3">
       <c r="C59" s="4"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
+      <c r="D59" s="96" t="s">
+        <v>35</v>
+      </c>
+      <c r="E59" s="96"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
-      <c r="H59" s="38"/>
-      <c r="I59" s="3"/>
+      <c r="H59" s="39"/>
+      <c r="I59" s="48"/>
       <c r="J59" s="3"/>
       <c r="K59" s="2"/>
       <c r="L59" s="3"/>
@@ -6748,7 +6864,7 @@
       <c r="P59" s="48"/>
       <c r="Q59" s="48"/>
       <c r="R59" s="48"/>
-      <c r="S59" s="3"/>
+      <c r="S59" s="48"/>
       <c r="T59" s="3"/>
       <c r="U59" s="2"/>
       <c r="V59" s="2"/>
@@ -6756,23 +6872,23 @@
       <c r="X59" s="2"/>
       <c r="Y59" s="2"/>
     </row>
-    <row r="60" spans="3:37" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:37" ht="15.75" x14ac:dyDescent="0.3">
       <c r="C60" s="4"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
+      <c r="H60" s="38"/>
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
       <c r="K60" s="2"/>
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
-      <c r="N60" s="3"/>
-      <c r="O60" s="3"/>
-      <c r="P60" s="3"/>
-      <c r="Q60" s="3"/>
-      <c r="R60" s="3"/>
+      <c r="N60" s="48"/>
+      <c r="O60" s="48"/>
+      <c r="P60" s="48"/>
+      <c r="Q60" s="48"/>
+      <c r="R60" s="48"/>
       <c r="S60" s="3"/>
       <c r="T60" s="3"/>
       <c r="U60" s="2"/>
@@ -6781,7 +6897,7 @@
       <c r="X60" s="2"/>
       <c r="Y60" s="2"/>
     </row>
-    <row r="61" spans="3:37" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:37" ht="15.75" x14ac:dyDescent="0.3">
       <c r="C61" s="4"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -6806,15 +6922,40 @@
       <c r="X61" s="2"/>
       <c r="Y61" s="2"/>
     </row>
-    <row r="62" spans="3:37" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:37" ht="15.75" x14ac:dyDescent="0.3">
       <c r="C62" s="4"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3"/>
+      <c r="N62" s="3"/>
+      <c r="O62" s="3"/>
+      <c r="P62" s="3"/>
+      <c r="Q62" s="3"/>
+      <c r="R62" s="3"/>
+      <c r="S62" s="3"/>
+      <c r="T62" s="3"/>
+      <c r="U62" s="2"/>
+      <c r="V62" s="2"/>
+      <c r="W62" s="2"/>
+      <c r="X62" s="2"/>
+      <c r="Y62" s="2"/>
     </row>
-    <row r="63" spans="3:37" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:37" ht="15.75" x14ac:dyDescent="0.3">
       <c r="C63" s="4"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
+    </row>
+    <row r="64" spans="2:37" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="C64" s="4"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6831,12 +6972,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z1"/>
+  <dimension ref="A1:AA1"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="I1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
+      <selection pane="bottomLeft" activeCell="Y11" sqref="Y11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6859,18 +7000,19 @@
     <col min="16" max="16" width="13.42578125" customWidth="1"/>
     <col min="17" max="17" width="11.85546875" customWidth="1"/>
     <col min="18" max="19" width="11.7109375" customWidth="1"/>
-    <col min="20" max="20" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.5703125" customWidth="1"/>
-    <col min="22" max="22" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.140625" customWidth="1"/>
-    <col min="25" max="25" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.85546875" customWidth="1"/>
-    <col min="27" max="27" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.28515625" customWidth="1"/>
+    <col min="21" max="21" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.5703125" customWidth="1"/>
+    <col min="23" max="23" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.140625" customWidth="1"/>
+    <col min="26" max="26" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.85546875" customWidth="1"/>
+    <col min="28" max="28" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="51" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>82</v>
       </c>
@@ -6929,24 +7071,27 @@
         <v>96</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6960,7 +7105,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M17" sqref="M17:W17"/>
     </sheetView>
@@ -8184,43 +8329,43 @@
         <v>69</v>
       </c>
       <c r="D16" s="24">
-        <f>MES!P5</f>
+        <f>MES!Q5</f>
         <v>0</v>
       </c>
       <c r="E16" s="24">
-        <f>MES!P6</f>
+        <f>MES!Q6</f>
         <v>0</v>
       </c>
       <c r="F16" s="24">
-        <f>MES!P7</f>
+        <f>MES!Q7</f>
         <v>0</v>
       </c>
       <c r="G16" s="24">
-        <f>MES!P8</f>
+        <f>MES!Q8</f>
         <v>0</v>
       </c>
       <c r="H16" s="24">
-        <f>MES!P9</f>
+        <f>MES!Q9</f>
         <v>0</v>
       </c>
       <c r="I16" s="24">
-        <f>MES!P10</f>
+        <f>MES!Q10</f>
         <v>0</v>
       </c>
       <c r="J16" s="24">
-        <f>MES!P11</f>
+        <f>MES!Q11</f>
         <v>0</v>
       </c>
       <c r="K16" s="24">
-        <f>MES!P12</f>
+        <f>MES!Q12</f>
         <v>0</v>
       </c>
       <c r="L16" s="24">
-        <f>MES!P13</f>
+        <f>MES!Q13</f>
         <v>0</v>
       </c>
       <c r="M16" s="24">
-        <f>MES!P21</f>
+        <f>MES!Q21</f>
         <v>0</v>
       </c>
       <c r="N16" s="24"/>
@@ -8248,19 +8393,19 @@
         <v>69</v>
       </c>
       <c r="AC16" s="24">
-        <f>MES!P27</f>
+        <f>MES!Q27</f>
         <v>0</v>
       </c>
       <c r="AD16" s="24">
-        <f>MES!P28</f>
+        <f>MES!Q28</f>
         <v>0</v>
       </c>
       <c r="AE16" s="24">
-        <f>MES!P29</f>
+        <f>MES!Q29</f>
         <v>0</v>
       </c>
       <c r="AF16" s="24">
-        <f>MES!P30</f>
+        <f>MES!Q30</f>
         <v>0</v>
       </c>
       <c r="AG16" s="72">
@@ -9565,43 +9710,43 @@
         <v>27</v>
       </c>
       <c r="D31" s="30">
-        <f>MES!P5</f>
+        <f>MES!Q5</f>
         <v>0</v>
       </c>
       <c r="E31" s="43">
-        <f>MES!P6</f>
+        <f>MES!Q6</f>
         <v>0</v>
       </c>
       <c r="F31" s="43">
-        <f>MES!P7</f>
+        <f>MES!Q7</f>
         <v>0</v>
       </c>
       <c r="G31" s="43">
-        <f>MES!P8</f>
+        <f>MES!Q8</f>
         <v>0</v>
       </c>
       <c r="H31" s="43">
-        <f>MES!P9</f>
+        <f>MES!Q9</f>
         <v>0</v>
       </c>
       <c r="I31" s="43">
-        <f>MES!P10</f>
+        <f>MES!Q10</f>
         <v>0</v>
       </c>
       <c r="J31" s="43">
-        <f>MES!P11</f>
+        <f>MES!Q11</f>
         <v>0</v>
       </c>
       <c r="K31" s="43">
-        <f>MES!P12</f>
+        <f>MES!Q12</f>
         <v>0</v>
       </c>
       <c r="L31" s="43">
-        <f>MES!P13</f>
+        <f>MES!Q13</f>
         <v>0</v>
       </c>
       <c r="M31" s="43">
-        <f>MES!P21</f>
+        <f>MES!Q21</f>
         <v>0</v>
       </c>
       <c r="N31" s="43"/>
@@ -9629,19 +9774,19 @@
         <v>27</v>
       </c>
       <c r="AC31" s="30">
-        <f>MES!P27</f>
+        <f>MES!Q27</f>
         <v>0</v>
       </c>
       <c r="AD31" s="43">
-        <f>MES!P28</f>
+        <f>MES!Q28</f>
         <v>0</v>
       </c>
       <c r="AE31" s="43">
-        <f>MES!P29</f>
+        <f>MES!Q29</f>
         <v>0</v>
       </c>
       <c r="AF31" s="43">
-        <f>MES!P30</f>
+        <f>MES!Q30</f>
         <v>0</v>
       </c>
       <c r="AG31" s="43">
@@ -9660,43 +9805,43 @@
         <v>28</v>
       </c>
       <c r="D32" s="30">
-        <f>MES!Q5</f>
+        <f>MES!R5</f>
         <v>0</v>
       </c>
       <c r="E32" s="43">
-        <f>MES!Q6</f>
+        <f>MES!R6</f>
         <v>0</v>
       </c>
       <c r="F32" s="43">
-        <f>MES!Q7</f>
+        <f>MES!R7</f>
         <v>0</v>
       </c>
       <c r="G32" s="43">
-        <f>MES!Q8</f>
+        <f>MES!R8</f>
         <v>0</v>
       </c>
       <c r="H32" s="43">
-        <f>MES!Q9</f>
+        <f>MES!R9</f>
         <v>0</v>
       </c>
       <c r="I32" s="43">
-        <f>MES!Q10</f>
+        <f>MES!R10</f>
         <v>0</v>
       </c>
       <c r="J32" s="43">
-        <f>MES!Q11</f>
+        <f>MES!R11</f>
         <v>0</v>
       </c>
       <c r="K32" s="43">
-        <f>MES!Q12</f>
+        <f>MES!R12</f>
         <v>0</v>
       </c>
       <c r="L32" s="43">
-        <f>MES!Q13</f>
+        <f>MES!R13</f>
         <v>0</v>
       </c>
       <c r="M32" s="43">
-        <f>MES!Q21</f>
+        <f>MES!R21</f>
         <v>0</v>
       </c>
       <c r="N32" s="43"/>
@@ -9724,19 +9869,19 @@
         <v>28</v>
       </c>
       <c r="AC32" s="30">
-        <f>MES!Q27</f>
+        <f>MES!R27</f>
         <v>0</v>
       </c>
       <c r="AD32" s="43">
-        <f>MES!Q28</f>
+        <f>MES!R28</f>
         <v>0</v>
       </c>
       <c r="AE32" s="43">
-        <f>MES!Q29</f>
+        <f>MES!R29</f>
         <v>0</v>
       </c>
       <c r="AF32" s="43">
-        <f>MES!Q30</f>
+        <f>MES!R30</f>
         <v>0</v>
       </c>
       <c r="AG32" s="43">
@@ -9755,43 +9900,43 @@
         <v>29</v>
       </c>
       <c r="D33" s="30">
-        <f>MES!R5</f>
+        <f>MES!S5</f>
         <v>0</v>
       </c>
       <c r="E33" s="43">
-        <f>MES!R6</f>
+        <f>MES!S6</f>
         <v>0</v>
       </c>
       <c r="F33" s="43">
-        <f>MES!R7</f>
+        <f>MES!S7</f>
         <v>0</v>
       </c>
       <c r="G33" s="43">
-        <f>MES!R8</f>
+        <f>MES!S8</f>
         <v>0</v>
       </c>
       <c r="H33" s="43">
-        <f>MES!R9</f>
+        <f>MES!S9</f>
         <v>0</v>
       </c>
       <c r="I33" s="43">
-        <f>MES!R10</f>
+        <f>MES!S10</f>
         <v>0</v>
       </c>
       <c r="J33" s="43">
-        <f>MES!R11</f>
+        <f>MES!S11</f>
         <v>0</v>
       </c>
       <c r="K33" s="43">
-        <f>MES!R12</f>
+        <f>MES!S12</f>
         <v>0</v>
       </c>
       <c r="L33" s="43">
-        <f>MES!R13</f>
+        <f>MES!S13</f>
         <v>0</v>
       </c>
       <c r="M33" s="43">
-        <f>MES!R21</f>
+        <f>MES!S21</f>
         <v>0</v>
       </c>
       <c r="N33" s="43"/>
@@ -9819,19 +9964,19 @@
         <v>29</v>
       </c>
       <c r="AC33" s="30">
-        <f>MES!R27</f>
+        <f>MES!S27</f>
         <v>0</v>
       </c>
       <c r="AD33" s="43">
-        <f>MES!R28</f>
+        <f>MES!S28</f>
         <v>0</v>
       </c>
       <c r="AE33" s="43">
-        <f>MES!R29</f>
+        <f>MES!S29</f>
         <v>0</v>
       </c>
       <c r="AF33" s="43">
-        <f>MES!R30</f>
+        <f>MES!S30</f>
         <v>0</v>
       </c>
       <c r="AG33" s="43">
@@ -9850,43 +9995,43 @@
         <v>30</v>
       </c>
       <c r="D34" s="30">
-        <f>MES!S5</f>
+        <f>MES!T5</f>
         <v>0</v>
       </c>
       <c r="E34" s="43">
-        <f>MES!S6</f>
+        <f>MES!T6</f>
         <v>0</v>
       </c>
       <c r="F34" s="43">
-        <f>MES!S7</f>
+        <f>MES!T7</f>
         <v>0</v>
       </c>
       <c r="G34" s="43">
-        <f>MES!S8</f>
+        <f>MES!T8</f>
         <v>0</v>
       </c>
       <c r="H34" s="43">
-        <f>MES!S9</f>
+        <f>MES!T9</f>
         <v>0</v>
       </c>
       <c r="I34" s="43">
-        <f>MES!S10</f>
+        <f>MES!T10</f>
         <v>0</v>
       </c>
       <c r="J34" s="43">
-        <f>MES!S11</f>
+        <f>MES!T11</f>
         <v>0</v>
       </c>
       <c r="K34" s="43">
-        <f>MES!S12</f>
+        <f>MES!T12</f>
         <v>0</v>
       </c>
       <c r="L34" s="43">
-        <f>MES!S13</f>
+        <f>MES!T13</f>
         <v>0</v>
       </c>
       <c r="M34" s="43">
-        <f>MES!S21</f>
+        <f>MES!T21</f>
         <v>0</v>
       </c>
       <c r="N34" s="43"/>
@@ -9914,19 +10059,19 @@
         <v>30</v>
       </c>
       <c r="AC34" s="30">
-        <f>MES!S27</f>
+        <f>MES!T27</f>
         <v>0</v>
       </c>
       <c r="AD34" s="43">
-        <f>MES!S28</f>
+        <f>MES!T28</f>
         <v>0</v>
       </c>
       <c r="AE34" s="43">
-        <f>MES!S29</f>
+        <f>MES!T29</f>
         <v>0</v>
       </c>
       <c r="AF34" s="43">
-        <f>MES!S30</f>
+        <f>MES!T30</f>
         <v>0</v>
       </c>
       <c r="AG34" s="43">
@@ -10059,7 +10204,7 @@
       <c r="H36" s="33"/>
       <c r="I36" s="33"/>
       <c r="J36" s="36" t="str">
-        <f>MES!D58</f>
+        <f>MES!D59</f>
         <v>El concepto de IMSS, SAR, Infonavit, impuesto a la nómina, deberá desglosarse.</v>
       </c>
       <c r="K36" s="33"/>

--- a/OperadoraNominas/bin/Debug/Archivos/Reporte.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/Reporte.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="146">
   <si>
     <t>TOTAL PERCEPCIONES</t>
   </si>
@@ -453,6 +453,12 @@
   </si>
   <si>
     <t>Otras deduccinoes Asim</t>
+  </si>
+  <si>
+    <t>NEVADO DE COLIMA</t>
+  </si>
+  <si>
+    <t>Column2522323</t>
   </si>
 </sst>
 </file>
@@ -1155,6 +1161,7 @@
     <xf numFmtId="43" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="43" fontId="14" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1170,14 +1177,30 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Título 2" xfId="2" builtinId="17"/>
   </cellStyles>
-  <dxfs count="37">
+  <dxfs count="38">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1811,13 +1834,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1879,13 +1902,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2052,13 +2075,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>635000</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>10584</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>889000</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
@@ -2103,13 +2126,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>635000</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>10584</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>889000</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
@@ -2156,49 +2179,50 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table43" displayName="Table43" ref="B4:Y36" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35" tableBorderDxfId="34">
-  <autoFilter ref="B4:Y36"/>
-  <tableColumns count="24">
-    <tableColumn id="1" name="Column1" dataDxfId="33"/>
-    <tableColumn id="7" name="Column12" dataDxfId="32"/>
-    <tableColumn id="2" name="Column2" dataDxfId="31"/>
-    <tableColumn id="3" name="Column22" dataDxfId="30"/>
-    <tableColumn id="5" name="Column222" dataDxfId="29"/>
-    <tableColumn id="4" name="Column23" dataDxfId="28"/>
-    <tableColumn id="8" name="Column24" dataDxfId="27"/>
-    <tableColumn id="9" name="Column25" dataDxfId="26"/>
-    <tableColumn id="15" name="Column253" dataDxfId="25"/>
-    <tableColumn id="14" name="Column252" dataDxfId="24"/>
-    <tableColumn id="17" name="Column2523" dataDxfId="23" dataCellStyle="Millares"/>
-    <tableColumn id="16" name="Column2522" dataDxfId="22" dataCellStyle="Millares"/>
-    <tableColumn id="10" name="Column25222" dataDxfId="21" dataCellStyle="Millares"/>
-    <tableColumn id="13" name="Column252223" dataDxfId="20" dataCellStyle="Millares"/>
-    <tableColumn id="12" name="Column252222" dataDxfId="19" dataCellStyle="Millares"/>
-    <tableColumn id="20" name="Column2522224" dataDxfId="18" dataCellStyle="Millares"/>
-    <tableColumn id="19" name="Column2522223" dataDxfId="17" dataCellStyle="Millares"/>
-    <tableColumn id="18" name="Column2522222" dataDxfId="16" dataCellStyle="Millares"/>
-    <tableColumn id="11" name="Column25223" dataDxfId="15" dataCellStyle="Millares"/>
-    <tableColumn id="25" name="Column252234" dataDxfId="14" dataCellStyle="Millares"/>
-    <tableColumn id="24" name="Column252233" dataDxfId="13" dataCellStyle="Millares"/>
-    <tableColumn id="23" name="Column252232" dataDxfId="12" dataCellStyle="Millares"/>
-    <tableColumn id="21" name="Column2522322" dataDxfId="11" dataCellStyle="Millares"/>
-    <tableColumn id="6" name="Column6" dataDxfId="10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table43" displayName="Table43" ref="B4:Z36" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36" tableBorderDxfId="35">
+  <autoFilter ref="B4:Z36"/>
+  <tableColumns count="25">
+    <tableColumn id="1" name="Column1" dataDxfId="34"/>
+    <tableColumn id="7" name="Column12" dataDxfId="33"/>
+    <tableColumn id="2" name="Column2" dataDxfId="32"/>
+    <tableColumn id="3" name="Column22" dataDxfId="31"/>
+    <tableColumn id="5" name="Column222" dataDxfId="30"/>
+    <tableColumn id="4" name="Column23" dataDxfId="29"/>
+    <tableColumn id="8" name="Column24" dataDxfId="28"/>
+    <tableColumn id="9" name="Column25" dataDxfId="27"/>
+    <tableColumn id="15" name="Column253" dataDxfId="26"/>
+    <tableColumn id="14" name="Column252" dataDxfId="25"/>
+    <tableColumn id="17" name="Column2523" dataDxfId="24" dataCellStyle="Millares"/>
+    <tableColumn id="16" name="Column2522" dataDxfId="23" dataCellStyle="Millares"/>
+    <tableColumn id="10" name="Column25222" dataDxfId="22" dataCellStyle="Millares"/>
+    <tableColumn id="13" name="Column252223" dataDxfId="21" dataCellStyle="Millares"/>
+    <tableColumn id="12" name="Column252222" dataDxfId="20" dataCellStyle="Millares"/>
+    <tableColumn id="20" name="Column2522224" dataDxfId="19" dataCellStyle="Millares"/>
+    <tableColumn id="19" name="Column2522223" dataDxfId="18" dataCellStyle="Millares"/>
+    <tableColumn id="18" name="Column2522222" dataDxfId="17" dataCellStyle="Millares"/>
+    <tableColumn id="11" name="Column25223" dataDxfId="16" dataCellStyle="Millares"/>
+    <tableColumn id="25" name="Column252234" dataDxfId="15" dataCellStyle="Millares"/>
+    <tableColumn id="24" name="Column252233" dataDxfId="14" dataCellStyle="Millares"/>
+    <tableColumn id="23" name="Column252232" dataDxfId="13" dataCellStyle="Millares"/>
+    <tableColumn id="21" name="Column2522322" dataDxfId="12" dataCellStyle="Millares"/>
+    <tableColumn id="22" name="Column2522323" dataDxfId="0" dataCellStyle="Millares"/>
+    <tableColumn id="6" name="Column6" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table432" displayName="Table432" ref="AB4:AH36" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" tableBorderDxfId="7">
-  <autoFilter ref="AB4:AH36"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table432" displayName="Table432" ref="AC4:AI36" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" tableBorderDxfId="8">
+  <autoFilter ref="AC4:AI36"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Column1" dataDxfId="6"/>
-    <tableColumn id="7" name="Column12" dataDxfId="5"/>
-    <tableColumn id="2" name="Column2" dataDxfId="4"/>
-    <tableColumn id="11" name="Column3" dataDxfId="3"/>
-    <tableColumn id="13" name="Column32" dataDxfId="2" dataCellStyle="Millares"/>
-    <tableColumn id="12" name="Column4" dataDxfId="1" dataCellStyle="Millares"/>
-    <tableColumn id="6" name="Column6" dataDxfId="0"/>
+    <tableColumn id="1" name="Column1" dataDxfId="7"/>
+    <tableColumn id="7" name="Column12" dataDxfId="6"/>
+    <tableColumn id="2" name="Column2" dataDxfId="5"/>
+    <tableColumn id="11" name="Column3" dataDxfId="4"/>
+    <tableColumn id="13" name="Column32" dataDxfId="3" dataCellStyle="Millares"/>
+    <tableColumn id="12" name="Column4" dataDxfId="2" dataCellStyle="Millares"/>
+    <tableColumn id="6" name="Column6" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2491,11 +2515,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL66"/>
+  <dimension ref="A1:AM67"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
+    <sheetView topLeftCell="P1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AB58" sqref="AB58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2518,12 +2542,12 @@
     <col min="16" max="19" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="26" width="11.140625" customWidth="1"/>
-    <col min="27" max="28" width="11.7109375" customWidth="1"/>
+    <col min="22" max="27" width="11.140625" customWidth="1"/>
+    <col min="28" max="29" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:30" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:31" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
       <c r="B2" s="14"/>
       <c r="C2" s="1" t="s">
@@ -2590,7 +2614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" ht="15.75" x14ac:dyDescent="0.3">
       <c r="C3" s="4"/>
       <c r="D3" s="3" t="s">
         <v>4</v>
@@ -2638,8 +2662,9 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
-    </row>
-    <row r="4" spans="1:30" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB3" s="2"/>
+    </row>
+    <row r="4" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="4"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -2665,9 +2690,10 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
-    </row>
-    <row r="5" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="124"/>
+      <c r="AB4" s="2"/>
+    </row>
+    <row r="5" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="125"/>
       <c r="C5" s="6" t="s">
         <v>100</v>
       </c>
@@ -2721,11 +2747,11 @@
         <v>0</v>
       </c>
       <c r="U5" s="7">
-        <f t="shared" ref="U5:U25" si="0">SUM(K5:T5)</f>
+        <f t="shared" ref="U5:U26" si="0">SUM(K5:T5)</f>
         <v>0</v>
       </c>
       <c r="V5" s="7">
-        <f t="shared" ref="V5:V25" si="1">U5*16%</f>
+        <f t="shared" ref="V5:V26" si="1">U5*16%</f>
         <v>0</v>
       </c>
       <c r="W5" s="15">
@@ -2736,12 +2762,13 @@
       <c r="Y5" s="15"/>
       <c r="Z5" s="15"/>
       <c r="AA5" s="15"/>
-      <c r="AB5" s="7"/>
-      <c r="AC5" s="5"/>
-      <c r="AD5" s="4"/>
-    </row>
-    <row r="6" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="124"/>
+      <c r="AB5" s="15"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="4"/>
+    </row>
+    <row r="6" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="125"/>
       <c r="C6" s="6" t="s">
         <v>106</v>
       </c>
@@ -2810,12 +2837,13 @@
       <c r="Y6" s="15"/>
       <c r="Z6" s="15"/>
       <c r="AA6" s="15"/>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="5"/>
-      <c r="AD6" s="4"/>
-    </row>
-    <row r="7" spans="1:30" s="79" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="124"/>
+      <c r="AB6" s="15"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="4"/>
+    </row>
+    <row r="7" spans="1:31" s="79" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="125"/>
       <c r="C7" s="64" t="s">
         <v>38</v>
       </c>
@@ -2884,12 +2912,13 @@
       <c r="Y7" s="15"/>
       <c r="Z7" s="15"/>
       <c r="AA7" s="15"/>
-      <c r="AB7" s="43"/>
-      <c r="AC7" s="65"/>
-      <c r="AD7" s="66"/>
-    </row>
-    <row r="8" spans="1:30" s="54" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="124"/>
+      <c r="AB7" s="15"/>
+      <c r="AC7" s="43"/>
+      <c r="AD7" s="65"/>
+      <c r="AE7" s="66"/>
+    </row>
+    <row r="8" spans="1:31" s="54" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="125"/>
       <c r="C8" s="64" t="s">
         <v>107</v>
       </c>
@@ -2958,12 +2987,13 @@
       <c r="Y8" s="15"/>
       <c r="Z8" s="15"/>
       <c r="AA8" s="15"/>
-      <c r="AB8" s="43"/>
-      <c r="AC8" s="65"/>
-      <c r="AD8" s="66"/>
-    </row>
-    <row r="9" spans="1:30" s="54" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="124"/>
+      <c r="AB8" s="15"/>
+      <c r="AC8" s="43"/>
+      <c r="AD8" s="65"/>
+      <c r="AE8" s="66"/>
+    </row>
+    <row r="9" spans="1:31" s="54" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="125"/>
       <c r="C9" s="64" t="s">
         <v>97</v>
       </c>
@@ -3032,12 +3062,13 @@
       <c r="Y9" s="15"/>
       <c r="Z9" s="15"/>
       <c r="AA9" s="15"/>
-      <c r="AB9" s="43"/>
-      <c r="AC9" s="65"/>
-      <c r="AD9" s="66"/>
-    </row>
-    <row r="10" spans="1:30" s="54" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="124"/>
+      <c r="AB9" s="15"/>
+      <c r="AC9" s="43"/>
+      <c r="AD9" s="65"/>
+      <c r="AE9" s="66"/>
+    </row>
+    <row r="10" spans="1:31" s="54" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="125"/>
       <c r="C10" s="64" t="s">
         <v>108</v>
       </c>
@@ -3106,12 +3137,13 @@
       <c r="Y10" s="15"/>
       <c r="Z10" s="15"/>
       <c r="AA10" s="15"/>
-      <c r="AB10" s="43"/>
-      <c r="AC10" s="65"/>
-      <c r="AD10" s="66"/>
-    </row>
-    <row r="11" spans="1:30" s="54" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="124"/>
+      <c r="AB10" s="15"/>
+      <c r="AC10" s="43"/>
+      <c r="AD10" s="65"/>
+      <c r="AE10" s="66"/>
+    </row>
+    <row r="11" spans="1:31" s="54" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="125"/>
       <c r="C11" s="64" t="s">
         <v>101</v>
       </c>
@@ -3180,12 +3212,13 @@
       <c r="Y11" s="15"/>
       <c r="Z11" s="15"/>
       <c r="AA11" s="15"/>
-      <c r="AB11" s="43"/>
-      <c r="AC11" s="65"/>
-      <c r="AD11" s="66"/>
-    </row>
-    <row r="12" spans="1:30" s="54" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="124"/>
+      <c r="AB11" s="15"/>
+      <c r="AC11" s="43"/>
+      <c r="AD11" s="65"/>
+      <c r="AE11" s="66"/>
+    </row>
+    <row r="12" spans="1:31" s="54" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="125"/>
       <c r="C12" s="64" t="s">
         <v>99</v>
       </c>
@@ -3254,12 +3287,13 @@
       <c r="Y12" s="15"/>
       <c r="Z12" s="15"/>
       <c r="AA12" s="15"/>
-      <c r="AB12" s="43"/>
-      <c r="AC12" s="65"/>
-      <c r="AD12" s="66"/>
-    </row>
-    <row r="13" spans="1:30" s="54" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="124"/>
+      <c r="AB12" s="15"/>
+      <c r="AC12" s="43"/>
+      <c r="AD12" s="65"/>
+      <c r="AE12" s="66"/>
+    </row>
+    <row r="13" spans="1:31" s="54" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="125"/>
       <c r="C13" s="64" t="s">
         <v>89</v>
       </c>
@@ -3328,12 +3362,13 @@
       <c r="Y13" s="15"/>
       <c r="Z13" s="15"/>
       <c r="AA13" s="15"/>
-      <c r="AB13" s="43"/>
-      <c r="AC13" s="65"/>
-      <c r="AD13" s="66"/>
-    </row>
-    <row r="14" spans="1:30" s="54" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="124"/>
+      <c r="AB13" s="15"/>
+      <c r="AC13" s="43"/>
+      <c r="AD13" s="65"/>
+      <c r="AE13" s="66"/>
+    </row>
+    <row r="14" spans="1:31" s="54" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="125"/>
       <c r="C14" s="64" t="s">
         <v>95</v>
       </c>
@@ -3402,12 +3437,13 @@
       <c r="Y14" s="15"/>
       <c r="Z14" s="15"/>
       <c r="AA14" s="15"/>
-      <c r="AB14" s="43"/>
-      <c r="AC14" s="65"/>
-      <c r="AD14" s="66"/>
-    </row>
-    <row r="15" spans="1:30" s="54" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="124"/>
+      <c r="AB14" s="15"/>
+      <c r="AC14" s="43"/>
+      <c r="AD14" s="65"/>
+      <c r="AE14" s="66"/>
+    </row>
+    <row r="15" spans="1:31" s="54" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="125"/>
       <c r="C15" s="64" t="s">
         <v>119</v>
       </c>
@@ -3476,12 +3512,13 @@
       <c r="Y15" s="15"/>
       <c r="Z15" s="15"/>
       <c r="AA15" s="15"/>
-      <c r="AB15" s="43"/>
-      <c r="AC15" s="65"/>
-      <c r="AD15" s="66"/>
-    </row>
-    <row r="16" spans="1:30" s="54" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="124"/>
+      <c r="AB15" s="15"/>
+      <c r="AC15" s="43"/>
+      <c r="AD15" s="65"/>
+      <c r="AE15" s="66"/>
+    </row>
+    <row r="16" spans="1:31" s="54" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="125"/>
       <c r="C16" s="64" t="s">
         <v>118</v>
       </c>
@@ -3550,12 +3587,13 @@
       <c r="Y16" s="15"/>
       <c r="Z16" s="15"/>
       <c r="AA16" s="15"/>
-      <c r="AB16" s="43"/>
-      <c r="AC16" s="65"/>
-      <c r="AD16" s="66"/>
-    </row>
-    <row r="17" spans="2:30" s="54" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="124"/>
+      <c r="AB16" s="15"/>
+      <c r="AC16" s="43"/>
+      <c r="AD16" s="65"/>
+      <c r="AE16" s="66"/>
+    </row>
+    <row r="17" spans="2:31" s="54" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="125"/>
       <c r="C17" s="64" t="s">
         <v>113</v>
       </c>
@@ -3624,12 +3662,13 @@
       <c r="Y17" s="15"/>
       <c r="Z17" s="15"/>
       <c r="AA17" s="15"/>
-      <c r="AB17" s="43"/>
-      <c r="AC17" s="65"/>
-      <c r="AD17" s="66"/>
-    </row>
-    <row r="18" spans="2:30" s="54" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="124"/>
+      <c r="AB17" s="15"/>
+      <c r="AC17" s="43"/>
+      <c r="AD17" s="65"/>
+      <c r="AE17" s="66"/>
+    </row>
+    <row r="18" spans="2:31" s="54" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="125"/>
       <c r="C18" s="64" t="s">
         <v>114</v>
       </c>
@@ -3698,12 +3737,13 @@
       <c r="Y18" s="15"/>
       <c r="Z18" s="15"/>
       <c r="AA18" s="15"/>
-      <c r="AB18" s="43"/>
-      <c r="AC18" s="65"/>
-      <c r="AD18" s="66"/>
-    </row>
-    <row r="19" spans="2:30" s="54" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="124"/>
+      <c r="AB18" s="15"/>
+      <c r="AC18" s="43"/>
+      <c r="AD18" s="65"/>
+      <c r="AE18" s="66"/>
+    </row>
+    <row r="19" spans="2:31" s="54" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="125"/>
       <c r="C19" s="64" t="s">
         <v>115</v>
       </c>
@@ -3772,12 +3812,13 @@
       <c r="Y19" s="15"/>
       <c r="Z19" s="15"/>
       <c r="AA19" s="15"/>
-      <c r="AB19" s="43"/>
-      <c r="AC19" s="65"/>
-      <c r="AD19" s="66"/>
-    </row>
-    <row r="20" spans="2:30" s="54" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="124"/>
+      <c r="AB19" s="15"/>
+      <c r="AC19" s="43"/>
+      <c r="AD19" s="65"/>
+      <c r="AE19" s="66"/>
+    </row>
+    <row r="20" spans="2:31" s="54" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="125"/>
       <c r="C20" s="64" t="s">
         <v>116</v>
       </c>
@@ -3846,12 +3887,13 @@
       <c r="Y20" s="15"/>
       <c r="Z20" s="15"/>
       <c r="AA20" s="15"/>
-      <c r="AB20" s="43"/>
-      <c r="AC20" s="65"/>
-      <c r="AD20" s="66"/>
-    </row>
-    <row r="21" spans="2:30" s="54" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="124"/>
+      <c r="AB20" s="15"/>
+      <c r="AC20" s="43"/>
+      <c r="AD20" s="65"/>
+      <c r="AE20" s="66"/>
+    </row>
+    <row r="21" spans="2:31" s="54" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="125"/>
       <c r="C21" s="64" t="s">
         <v>117</v>
       </c>
@@ -3920,12 +3962,13 @@
       <c r="Y21" s="15"/>
       <c r="Z21" s="15"/>
       <c r="AA21" s="15"/>
-      <c r="AB21" s="43"/>
-      <c r="AC21" s="65"/>
-      <c r="AD21" s="66"/>
-    </row>
-    <row r="22" spans="2:30" s="54" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="124"/>
+      <c r="AB21" s="15"/>
+      <c r="AC21" s="43"/>
+      <c r="AD21" s="65"/>
+      <c r="AE21" s="66"/>
+    </row>
+    <row r="22" spans="2:31" s="54" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="125"/>
       <c r="C22" s="64" t="s">
         <v>127</v>
       </c>
@@ -3994,12 +4037,13 @@
       <c r="Y22" s="15"/>
       <c r="Z22" s="15"/>
       <c r="AA22" s="15"/>
-      <c r="AB22" s="43"/>
-      <c r="AC22" s="65"/>
-      <c r="AD22" s="66"/>
-    </row>
-    <row r="23" spans="2:30" s="54" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="124"/>
+      <c r="AB22" s="15"/>
+      <c r="AC22" s="43"/>
+      <c r="AD22" s="65"/>
+      <c r="AE22" s="66"/>
+    </row>
+    <row r="23" spans="2:31" s="54" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="125"/>
       <c r="C23" s="64" t="s">
         <v>128</v>
       </c>
@@ -4068,12 +4112,13 @@
       <c r="Y23" s="15"/>
       <c r="Z23" s="15"/>
       <c r="AA23" s="15"/>
-      <c r="AB23" s="43"/>
-      <c r="AC23" s="65"/>
-      <c r="AD23" s="66"/>
-    </row>
-    <row r="24" spans="2:30" s="54" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="124"/>
+      <c r="AB23" s="15"/>
+      <c r="AC23" s="43"/>
+      <c r="AD23" s="65"/>
+      <c r="AE23" s="66"/>
+    </row>
+    <row r="24" spans="2:31" s="54" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="125"/>
       <c r="C24" s="64" t="s">
         <v>129</v>
       </c>
@@ -4142,12 +4187,13 @@
       <c r="Y24" s="15"/>
       <c r="Z24" s="15"/>
       <c r="AA24" s="15"/>
-      <c r="AB24" s="43"/>
-      <c r="AC24" s="65"/>
-      <c r="AD24" s="66"/>
-    </row>
-    <row r="25" spans="2:30" s="54" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="124"/>
+      <c r="AB24" s="15"/>
+      <c r="AC24" s="43"/>
+      <c r="AD24" s="65"/>
+      <c r="AE24" s="66"/>
+    </row>
+    <row r="25" spans="2:31" s="54" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="125"/>
       <c r="C25" s="64" t="s">
         <v>136</v>
       </c>
@@ -4214,134 +4260,180 @@
       <c r="Y25" s="15"/>
       <c r="Z25" s="15"/>
       <c r="AA25" s="15"/>
-      <c r="AB25" s="43"/>
-      <c r="AC25" s="65"/>
-      <c r="AD25" s="66"/>
-    </row>
-    <row r="26" spans="2:30" s="112" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="124"/>
-      <c r="C26" s="113"/>
-      <c r="D26" s="118">
-        <f>SUM(D5:D25)</f>
-        <v>0</v>
-      </c>
-      <c r="E26" s="118">
-        <f t="shared" ref="E26:W26" si="5">SUM(E5:E25)</f>
-        <v>0</v>
-      </c>
-      <c r="F26" s="118">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="118">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H26" s="118">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I26" s="118">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J26" s="118">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K26" s="118">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L26" s="118">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M26" s="118">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N26" s="118">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O26" s="118">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P26" s="118">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q26" s="118">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R26" s="118">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S26" s="118">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T26" s="118">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U26" s="118">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V26" s="118">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="W26" s="119">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X26" s="114"/>
-      <c r="Y26" s="114"/>
-      <c r="Z26" s="114"/>
-      <c r="AA26" s="114"/>
-      <c r="AB26" s="115"/>
-      <c r="AC26" s="116"/>
-      <c r="AD26" s="117"/>
-    </row>
-    <row r="27" spans="2:30" s="54" customFormat="1" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="124"/>
-      <c r="C27" s="64"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="7"/>
-      <c r="T27" s="7"/>
-      <c r="U27" s="7"/>
-      <c r="V27" s="7"/>
-      <c r="W27" s="15"/>
-      <c r="X27" s="15"/>
-      <c r="Y27" s="15"/>
-      <c r="Z27" s="15"/>
-      <c r="AA27" s="15"/>
-      <c r="AB27" s="43"/>
-      <c r="AC27" s="65"/>
-      <c r="AD27" s="66"/>
-    </row>
-    <row r="28" spans="2:30" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="59"/>
+      <c r="AB25" s="15"/>
+      <c r="AC25" s="43"/>
+      <c r="AD25" s="65"/>
+      <c r="AE25" s="66"/>
+    </row>
+    <row r="26" spans="2:31" s="54" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="125"/>
+      <c r="C26" s="64" t="s">
+        <v>144</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0</v>
+      </c>
+      <c r="E26" s="7">
+        <v>0</v>
+      </c>
+      <c r="F26" s="7">
+        <v>0</v>
+      </c>
+      <c r="G26" s="7">
+        <v>0</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7">
+        <v>0</v>
+      </c>
+      <c r="K26" s="7">
+        <v>0</v>
+      </c>
+      <c r="L26" s="7">
+        <v>0</v>
+      </c>
+      <c r="M26" s="7">
+        <v>0</v>
+      </c>
+      <c r="N26" s="7">
+        <v>0</v>
+      </c>
+      <c r="O26" s="7">
+        <v>0</v>
+      </c>
+      <c r="P26" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="7">
+        <v>0</v>
+      </c>
+      <c r="R26" s="7">
+        <v>0</v>
+      </c>
+      <c r="S26" s="115"/>
+      <c r="T26" s="115">
+        <v>0</v>
+      </c>
+      <c r="U26" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V26" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W26" s="15">
+        <f>U26+V26</f>
+        <v>0</v>
+      </c>
+      <c r="X26" s="15"/>
+      <c r="Y26" s="15"/>
+      <c r="Z26" s="15"/>
+      <c r="AA26" s="15"/>
+      <c r="AB26" s="15"/>
+      <c r="AC26" s="43"/>
+      <c r="AD26" s="65"/>
+      <c r="AE26" s="66"/>
+    </row>
+    <row r="27" spans="2:31" s="112" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="125"/>
+      <c r="C27" s="113"/>
+      <c r="D27" s="118">
+        <f>SUM(D5:D26)</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="118">
+        <f>SUM(E5:E26)</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="118">
+        <f>SUM(F5:F26)</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="118">
+        <f>SUM(G5:G26)</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="118">
+        <f>SUM(H5:H26)</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="118">
+        <f>SUM(I5:I26)</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="118">
+        <f>SUM(J5:J26)</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="118">
+        <f>SUM(K5:K26)</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="118">
+        <f>SUM(L5:L26)</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="118">
+        <f>SUM(M5:M26)</f>
+        <v>0</v>
+      </c>
+      <c r="N27" s="118">
+        <f>SUM(N5:N26)</f>
+        <v>0</v>
+      </c>
+      <c r="O27" s="118">
+        <f>SUM(O5:O26)</f>
+        <v>0</v>
+      </c>
+      <c r="P27" s="118">
+        <f>SUM(P5:P25)</f>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="118">
+        <f>SUM(Q5:Q26)</f>
+        <v>0</v>
+      </c>
+      <c r="R27" s="118">
+        <f>SUM(R5:R26)</f>
+        <v>0</v>
+      </c>
+      <c r="S27" s="118">
+        <f>SUM(S5:S25)</f>
+        <v>0</v>
+      </c>
+      <c r="T27" s="118">
+        <f>SUM(T5:T26)</f>
+        <v>0</v>
+      </c>
+      <c r="U27" s="118">
+        <f>SUM(U5:U26)</f>
+        <v>0</v>
+      </c>
+      <c r="V27" s="118">
+        <f>SUM(V5:V26)</f>
+        <v>0</v>
+      </c>
+      <c r="W27" s="119">
+        <f>SUM(W5:W26)</f>
+        <v>0</v>
+      </c>
+      <c r="X27" s="114"/>
+      <c r="Y27" s="114"/>
+      <c r="Z27" s="114"/>
+      <c r="AA27" s="114"/>
+      <c r="AB27" s="114"/>
+      <c r="AC27" s="115"/>
+      <c r="AD27" s="116"/>
+      <c r="AE27" s="117"/>
+    </row>
+    <row r="28" spans="2:31" s="54" customFormat="1" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="125"/>
       <c r="C28" s="64"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -4350,7 +4442,7 @@
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
-      <c r="K28" s="12"/>
+      <c r="K28" s="7"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
@@ -4367,12 +4459,13 @@
       <c r="Y28" s="15"/>
       <c r="Z28" s="15"/>
       <c r="AA28" s="15"/>
-      <c r="AB28" s="7"/>
-      <c r="AC28" s="5"/>
-      <c r="AD28" s="4"/>
-    </row>
-    <row r="29" spans="2:30" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B29" s="122"/>
+      <c r="AB28" s="15"/>
+      <c r="AC28" s="43"/>
+      <c r="AD28" s="65"/>
+      <c r="AE28" s="66"/>
+    </row>
+    <row r="29" spans="2:31" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="59"/>
       <c r="C29" s="64"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
@@ -4381,7 +4474,7 @@
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
+      <c r="K29" s="12"/>
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
@@ -4393,17 +4486,18 @@
       <c r="T29" s="7"/>
       <c r="U29" s="7"/>
       <c r="V29" s="7"/>
-      <c r="W29" s="7"/>
-      <c r="X29" s="7"/>
-      <c r="Y29" s="7"/>
-      <c r="Z29" s="7"/>
-      <c r="AA29" s="7"/>
-      <c r="AB29" s="7"/>
-      <c r="AC29" s="5"/>
-      <c r="AD29" s="4"/>
-    </row>
-    <row r="30" spans="2:30" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B30" s="122"/>
+      <c r="W29" s="15"/>
+      <c r="X29" s="15"/>
+      <c r="Y29" s="15"/>
+      <c r="Z29" s="15"/>
+      <c r="AA29" s="15"/>
+      <c r="AB29" s="15"/>
+      <c r="AC29" s="7"/>
+      <c r="AD29" s="5"/>
+      <c r="AE29" s="4"/>
+    </row>
+    <row r="30" spans="2:31" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B30" s="123"/>
       <c r="C30" s="64"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
@@ -4430,12 +4524,13 @@
       <c r="Z30" s="7"/>
       <c r="AA30" s="7"/>
       <c r="AB30" s="7"/>
-      <c r="AC30" s="5"/>
-      <c r="AD30" s="4"/>
-    </row>
-    <row r="31" spans="2:30" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B31" s="122"/>
-      <c r="C31" s="6"/>
+      <c r="AC30" s="7"/>
+      <c r="AD30" s="5"/>
+      <c r="AE30" s="4"/>
+    </row>
+    <row r="31" spans="2:31" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B31" s="123"/>
+      <c r="C31" s="64"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
@@ -4461,11 +4556,12 @@
       <c r="Z31" s="7"/>
       <c r="AA31" s="7"/>
       <c r="AB31" s="7"/>
-      <c r="AC31" s="5"/>
-      <c r="AD31" s="4"/>
-    </row>
-    <row r="32" spans="2:30" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B32" s="122"/>
+      <c r="AC31" s="7"/>
+      <c r="AD31" s="5"/>
+      <c r="AE31" s="4"/>
+    </row>
+    <row r="32" spans="2:31" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B32" s="123"/>
       <c r="C32" s="6"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -4492,11 +4588,13 @@
       <c r="Z32" s="7"/>
       <c r="AA32" s="7"/>
       <c r="AB32" s="7"/>
-      <c r="AC32" s="5"/>
-      <c r="AD32" s="4"/>
-    </row>
-    <row r="33" spans="2:38" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B33" s="72"/>
+      <c r="AC32" s="7"/>
+      <c r="AD32" s="5"/>
+      <c r="AE32" s="4"/>
+    </row>
+    <row r="33" spans="2:39" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B33" s="123"/>
+      <c r="C33" s="6"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
@@ -4504,7 +4602,7 @@
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
-      <c r="K33" s="12"/>
+      <c r="K33" s="7"/>
       <c r="L33" s="7"/>
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
@@ -4516,17 +4614,18 @@
       <c r="T33" s="7"/>
       <c r="U33" s="7"/>
       <c r="V33" s="7"/>
-      <c r="W33" s="15"/>
-      <c r="X33" s="15"/>
-      <c r="Y33" s="15"/>
-      <c r="Z33" s="15"/>
-      <c r="AA33" s="15"/>
+      <c r="W33" s="7"/>
+      <c r="X33" s="7"/>
+      <c r="Y33" s="7"/>
+      <c r="Z33" s="7"/>
+      <c r="AA33" s="7"/>
       <c r="AB33" s="7"/>
-      <c r="AC33" s="5"/>
-      <c r="AD33" s="4"/>
-    </row>
-    <row r="34" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="34"/>
+      <c r="AC33" s="7"/>
+      <c r="AD33" s="5"/>
+      <c r="AE33" s="4"/>
+    </row>
+    <row r="34" spans="2:39" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B34" s="72"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
@@ -4540,10 +4639,10 @@
       <c r="N34" s="7"/>
       <c r="O34" s="7"/>
       <c r="P34" s="7"/>
-      <c r="Q34" s="52"/>
-      <c r="R34" s="52"/>
-      <c r="S34" s="52"/>
-      <c r="T34" s="52"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
       <c r="U34" s="7"/>
       <c r="V34" s="7"/>
       <c r="W34" s="15"/>
@@ -4551,27 +4650,30 @@
       <c r="Y34" s="15"/>
       <c r="Z34" s="15"/>
       <c r="AA34" s="15"/>
-      <c r="AB34" s="7"/>
-      <c r="AC34" s="5"/>
-      <c r="AD34" s="4"/>
-    </row>
-    <row r="35" spans="2:38" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B35" s="40"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="38"/>
-      <c r="J35" s="38"/>
-      <c r="K35" s="39"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
+      <c r="AB34" s="15"/>
+      <c r="AC34" s="7"/>
+      <c r="AD34" s="5"/>
+      <c r="AE34" s="4"/>
+    </row>
+    <row r="35" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="34"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
       <c r="N35" s="7"/>
       <c r="O35" s="7"/>
       <c r="P35" s="7"/>
-      <c r="Q35" s="7"/>
-      <c r="R35" s="7"/>
-      <c r="S35" s="7"/>
-      <c r="T35" s="7"/>
+      <c r="Q35" s="52"/>
+      <c r="R35" s="52"/>
+      <c r="S35" s="52"/>
+      <c r="T35" s="52"/>
       <c r="U35" s="7"/>
       <c r="V35" s="7"/>
       <c r="W35" s="15"/>
@@ -4579,388 +4681,320 @@
       <c r="Y35" s="15"/>
       <c r="Z35" s="15"/>
       <c r="AA35" s="15"/>
-    </row>
-    <row r="36" spans="2:38" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="AB35" s="15"/>
+      <c r="AC35" s="7"/>
+      <c r="AD35" s="5"/>
+      <c r="AE35" s="4"/>
+    </row>
+    <row r="36" spans="2:39" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B36" s="40"/>
-      <c r="C36" s="91" t="s">
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="38"/>
+      <c r="K36" s="39"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="7"/>
+      <c r="T36" s="7"/>
+      <c r="U36" s="7"/>
+      <c r="V36" s="7"/>
+      <c r="W36" s="15"/>
+      <c r="X36" s="15"/>
+      <c r="Y36" s="15"/>
+      <c r="Z36" s="15"/>
+      <c r="AA36" s="15"/>
+      <c r="AB36" s="15"/>
+    </row>
+    <row r="37" spans="2:39" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B37" s="40"/>
+      <c r="C37" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="92"/>
-      <c r="E36" s="91" t="s">
+      <c r="D37" s="92"/>
+      <c r="E37" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="46"/>
-      <c r="S36" s="46"/>
-      <c r="U36" s="68"/>
-      <c r="V36" s="67"/>
-      <c r="W36" s="67"/>
-      <c r="X36" s="67"/>
-      <c r="Y36" s="67"/>
-      <c r="Z36" s="67"/>
-      <c r="AA36" s="68"/>
-    </row>
-    <row r="37" spans="2:38" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="40"/>
-      <c r="C37" s="93"/>
-      <c r="D37" s="92"/>
-      <c r="E37" s="94"/>
-      <c r="G37" s="123"/>
-      <c r="H37" s="123"/>
-      <c r="I37" s="123"/>
-      <c r="J37" s="123"/>
-      <c r="K37" s="123"/>
-      <c r="L37" s="123"/>
-      <c r="M37" s="123"/>
-      <c r="N37" s="123"/>
-      <c r="O37" s="123"/>
-      <c r="P37" s="123"/>
-      <c r="AC37" s="5"/>
-      <c r="AD37" s="5"/>
-      <c r="AE37" s="5"/>
-      <c r="AF37" s="5"/>
-      <c r="AG37" s="5"/>
-      <c r="AH37" s="121"/>
-      <c r="AI37" s="121"/>
-      <c r="AJ37" s="68"/>
-    </row>
-    <row r="38" spans="2:38" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="46"/>
+      <c r="S37" s="46"/>
+      <c r="U37" s="68"/>
+      <c r="V37" s="67"/>
+      <c r="W37" s="67"/>
+      <c r="X37" s="67"/>
+      <c r="Y37" s="67"/>
+      <c r="Z37" s="67"/>
+      <c r="AA37" s="67"/>
+      <c r="AB37" s="68"/>
+    </row>
+    <row r="38" spans="2:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="40"/>
-      <c r="C38" s="95" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" s="96" t="s">
-        <v>18</v>
-      </c>
-      <c r="E38" s="97" t="s">
-        <v>19</v>
-      </c>
-      <c r="G38" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="H38" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="I38" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="J38" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="K38" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="L38" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="M38" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="N38" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="O38" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="P38" s="83" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q38" s="83" t="s">
-        <v>119</v>
-      </c>
-      <c r="R38" s="83" t="s">
-        <v>118</v>
-      </c>
-      <c r="S38" s="83" t="s">
-        <v>113</v>
-      </c>
-      <c r="T38" s="83" t="s">
-        <v>114</v>
-      </c>
-      <c r="U38" s="83" t="s">
-        <v>115</v>
-      </c>
-      <c r="V38" s="83" t="s">
-        <v>116</v>
-      </c>
-      <c r="W38" s="83" t="s">
-        <v>117</v>
-      </c>
-      <c r="X38" s="83" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y38" s="83" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z38" s="83" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA38" s="83" t="s">
-        <v>129</v>
-      </c>
-      <c r="AB38" s="87"/>
-      <c r="AC38" s="5"/>
+      <c r="C38" s="93"/>
+      <c r="D38" s="92"/>
+      <c r="E38" s="94"/>
+      <c r="G38" s="124"/>
+      <c r="H38" s="124"/>
+      <c r="I38" s="124"/>
+      <c r="J38" s="124"/>
+      <c r="K38" s="124"/>
+      <c r="L38" s="124"/>
+      <c r="M38" s="124"/>
+      <c r="N38" s="124"/>
+      <c r="O38" s="124"/>
+      <c r="P38" s="124"/>
       <c r="AD38" s="5"/>
       <c r="AE38" s="5"/>
       <c r="AF38" s="5"/>
       <c r="AG38" s="5"/>
-      <c r="AH38" s="74"/>
-      <c r="AI38" s="74"/>
-      <c r="AJ38" s="74"/>
-      <c r="AK38" s="74"/>
-      <c r="AL38" s="68"/>
-    </row>
-    <row r="39" spans="2:38" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AH38" s="5"/>
+      <c r="AI38" s="122"/>
+      <c r="AJ38" s="122"/>
+      <c r="AK38" s="68"/>
+    </row>
+    <row r="39" spans="2:39" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="40"/>
-      <c r="C39" s="92"/>
-      <c r="D39" s="92"/>
-      <c r="E39" s="92"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="49"/>
-      <c r="M39" s="49"/>
-      <c r="N39" s="49"/>
-      <c r="O39" s="49"/>
-      <c r="P39" s="49"/>
-      <c r="Q39" s="49"/>
-      <c r="R39" s="49"/>
-      <c r="S39" s="49"/>
-      <c r="T39" s="49"/>
-      <c r="U39" s="49"/>
-      <c r="V39" s="49"/>
-      <c r="W39" s="49"/>
-      <c r="X39" s="49"/>
-      <c r="Y39" s="49"/>
-      <c r="Z39" s="49"/>
-      <c r="AA39" s="68"/>
-      <c r="AC39" s="5"/>
+      <c r="C39" s="95" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="96" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" s="97" t="s">
+        <v>19</v>
+      </c>
+      <c r="G39" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="H39" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="I39" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="J39" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="K39" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="L39" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="M39" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="N39" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="O39" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="P39" s="83" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q39" s="83" t="s">
+        <v>119</v>
+      </c>
+      <c r="R39" s="83" t="s">
+        <v>118</v>
+      </c>
+      <c r="S39" s="83" t="s">
+        <v>113</v>
+      </c>
+      <c r="T39" s="83" t="s">
+        <v>114</v>
+      </c>
+      <c r="U39" s="83" t="s">
+        <v>115</v>
+      </c>
+      <c r="V39" s="83" t="s">
+        <v>116</v>
+      </c>
+      <c r="W39" s="83" t="s">
+        <v>117</v>
+      </c>
+      <c r="X39" s="83" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y39" s="83" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z39" s="83" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA39" s="83" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB39" s="83" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC39" s="87"/>
       <c r="AD39" s="5"/>
       <c r="AE39" s="5"/>
       <c r="AF39" s="5"/>
       <c r="AG39" s="5"/>
-      <c r="AH39" s="68"/>
-      <c r="AI39" s="68"/>
-      <c r="AJ39" s="51"/>
-      <c r="AK39" s="67"/>
-      <c r="AL39" s="68"/>
-    </row>
-    <row r="40" spans="2:38" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="AH39" s="5"/>
+      <c r="AI39" s="74"/>
+      <c r="AJ39" s="74"/>
+      <c r="AK39" s="74"/>
+      <c r="AL39" s="74"/>
+      <c r="AM39" s="68"/>
+    </row>
+    <row r="40" spans="2:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="40"/>
-      <c r="C40" s="98">
-        <v>50000201</v>
-      </c>
-      <c r="D40" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="E40" s="100" t="s">
-        <v>4</v>
-      </c>
-      <c r="G40" s="110">
-        <f>D5</f>
-        <v>0</v>
-      </c>
-      <c r="H40" s="62">
-        <f>D6</f>
-        <v>0</v>
-      </c>
-      <c r="I40" s="62">
-        <f>D7</f>
-        <v>0</v>
-      </c>
-      <c r="J40" s="62">
-        <f>D8</f>
-        <v>0</v>
-      </c>
-      <c r="K40" s="62">
-        <f>D9</f>
-        <v>0</v>
-      </c>
-      <c r="L40" s="62">
-        <f>D10</f>
-        <v>0</v>
-      </c>
-      <c r="M40" s="62">
-        <f>D11</f>
-        <v>0</v>
-      </c>
-      <c r="N40" s="62">
-        <f>D12</f>
-        <v>0</v>
-      </c>
-      <c r="O40" s="62">
-        <f>D13</f>
-        <v>0</v>
-      </c>
-      <c r="P40" s="62">
-        <f>D14</f>
-        <v>0</v>
-      </c>
-      <c r="Q40" s="62">
-        <f>D15</f>
-        <v>0</v>
-      </c>
-      <c r="R40" s="62">
-        <f>D16</f>
-        <v>0</v>
-      </c>
-      <c r="S40" s="62">
-        <f>D17</f>
-        <v>0</v>
-      </c>
-      <c r="T40" s="62">
-        <f>D18</f>
-        <v>0</v>
-      </c>
-      <c r="U40" s="62">
-        <f>D19</f>
-        <v>0</v>
-      </c>
-      <c r="V40" s="62">
-        <f>D20</f>
-        <v>0</v>
-      </c>
-      <c r="W40" s="62">
-        <f>D21</f>
-        <v>0</v>
-      </c>
-      <c r="X40" s="62">
-        <f>D22</f>
-        <v>0</v>
-      </c>
-      <c r="Y40" s="62">
-        <f>D23</f>
-        <v>0</v>
-      </c>
-      <c r="Z40" s="62">
-        <f>D25</f>
-        <v>0</v>
-      </c>
-      <c r="AA40" s="80">
-        <f>D24</f>
-        <v>0</v>
-      </c>
-      <c r="AC40" s="5"/>
+      <c r="C40" s="92"/>
+      <c r="D40" s="92"/>
+      <c r="E40" s="92"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="49"/>
+      <c r="M40" s="49"/>
+      <c r="N40" s="49"/>
+      <c r="O40" s="49"/>
+      <c r="P40" s="49"/>
+      <c r="Q40" s="49"/>
+      <c r="R40" s="49"/>
+      <c r="S40" s="49"/>
+      <c r="T40" s="49"/>
+      <c r="U40" s="49"/>
+      <c r="V40" s="49"/>
+      <c r="W40" s="49"/>
+      <c r="X40" s="49"/>
+      <c r="Y40" s="49"/>
+      <c r="Z40" s="49"/>
+      <c r="AA40" s="49"/>
+      <c r="AB40" s="68"/>
       <c r="AD40" s="5"/>
       <c r="AE40" s="5"/>
       <c r="AF40" s="5"/>
       <c r="AG40" s="5"/>
-      <c r="AH40" s="75"/>
-      <c r="AI40" s="75"/>
-      <c r="AJ40" s="75"/>
-      <c r="AK40" s="75"/>
-      <c r="AL40" s="68"/>
-    </row>
-    <row r="41" spans="2:38" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="AH40" s="5"/>
+      <c r="AI40" s="68"/>
+      <c r="AJ40" s="68"/>
+      <c r="AK40" s="51"/>
+      <c r="AL40" s="67"/>
+      <c r="AM40" s="68"/>
+    </row>
+    <row r="41" spans="2:39" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B41" s="40"/>
-      <c r="C41" s="101">
-        <v>50000202</v>
-      </c>
-      <c r="D41" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="E41" s="103" t="s">
-        <v>5</v>
-      </c>
-      <c r="G41" s="109">
-        <f>E5</f>
-        <v>0</v>
-      </c>
-      <c r="H41" s="8">
-        <f>E6</f>
-        <v>0</v>
-      </c>
-      <c r="I41" s="8">
-        <f>E7</f>
-        <v>0</v>
-      </c>
-      <c r="J41" s="8">
-        <f>E8</f>
-        <v>0</v>
-      </c>
-      <c r="K41" s="8">
-        <f>E9</f>
-        <v>0</v>
-      </c>
-      <c r="L41" s="8">
-        <f>E10</f>
-        <v>0</v>
-      </c>
-      <c r="M41" s="8">
-        <f>E11</f>
-        <v>0</v>
-      </c>
-      <c r="N41" s="8">
-        <f>E12</f>
-        <v>0</v>
-      </c>
-      <c r="O41" s="8">
-        <f>E13</f>
-        <v>0</v>
-      </c>
-      <c r="P41" s="8">
-        <f>E14</f>
-        <v>0</v>
-      </c>
-      <c r="Q41" s="8">
-        <f>E15</f>
-        <v>0</v>
-      </c>
-      <c r="R41" s="8">
-        <f>E16</f>
-        <v>0</v>
-      </c>
-      <c r="S41" s="8">
-        <f>E17</f>
-        <v>0</v>
-      </c>
-      <c r="T41" s="8">
-        <f>E17</f>
-        <v>0</v>
-      </c>
-      <c r="U41" s="8">
-        <f>E19</f>
-        <v>0</v>
-      </c>
-      <c r="V41" s="8">
-        <f>E20</f>
-        <v>0</v>
-      </c>
-      <c r="W41" s="8">
-        <f>E21</f>
-        <v>0</v>
-      </c>
-      <c r="X41" s="8">
-        <f>E22</f>
-        <v>0</v>
-      </c>
-      <c r="Y41" s="8">
-        <f>E23</f>
-        <v>0</v>
-      </c>
-      <c r="Z41" s="8">
-        <f>E25</f>
-        <v>0</v>
-      </c>
-      <c r="AA41" s="81">
-        <f>E24</f>
-        <v>0</v>
-      </c>
-      <c r="AC41" s="5"/>
+      <c r="C41" s="98">
+        <v>50000201</v>
+      </c>
+      <c r="D41" s="99" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" s="100" t="s">
+        <v>4</v>
+      </c>
+      <c r="G41" s="110">
+        <f>D5</f>
+        <v>0</v>
+      </c>
+      <c r="H41" s="62">
+        <f>D6</f>
+        <v>0</v>
+      </c>
+      <c r="I41" s="62">
+        <f>D7</f>
+        <v>0</v>
+      </c>
+      <c r="J41" s="62">
+        <f>D8</f>
+        <v>0</v>
+      </c>
+      <c r="K41" s="62">
+        <f>D9</f>
+        <v>0</v>
+      </c>
+      <c r="L41" s="62">
+        <f>D10</f>
+        <v>0</v>
+      </c>
+      <c r="M41" s="62">
+        <f>D11</f>
+        <v>0</v>
+      </c>
+      <c r="N41" s="62">
+        <f>D12</f>
+        <v>0</v>
+      </c>
+      <c r="O41" s="62">
+        <f>D13</f>
+        <v>0</v>
+      </c>
+      <c r="P41" s="62">
+        <f>D14</f>
+        <v>0</v>
+      </c>
+      <c r="Q41" s="62">
+        <f>D15</f>
+        <v>0</v>
+      </c>
+      <c r="R41" s="62">
+        <f>D16</f>
+        <v>0</v>
+      </c>
+      <c r="S41" s="62">
+        <f>D17</f>
+        <v>0</v>
+      </c>
+      <c r="T41" s="62">
+        <f>D18</f>
+        <v>0</v>
+      </c>
+      <c r="U41" s="62">
+        <f>D19</f>
+        <v>0</v>
+      </c>
+      <c r="V41" s="62">
+        <f>D20</f>
+        <v>0</v>
+      </c>
+      <c r="W41" s="62">
+        <f>D21</f>
+        <v>0</v>
+      </c>
+      <c r="X41" s="62">
+        <f>D22</f>
+        <v>0</v>
+      </c>
+      <c r="Y41" s="62">
+        <f>D23</f>
+        <v>0</v>
+      </c>
+      <c r="Z41" s="62">
+        <f>D25</f>
+        <v>0</v>
+      </c>
+      <c r="AA41" s="62">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="80">
+        <f>D26</f>
+        <v>0</v>
+      </c>
       <c r="AD41" s="5"/>
       <c r="AE41" s="5"/>
       <c r="AF41" s="5"/>
       <c r="AG41" s="5"/>
-      <c r="AH41" s="75"/>
+      <c r="AH41" s="5"/>
       <c r="AI41" s="75"/>
       <c r="AJ41" s="75"/>
       <c r="AK41" s="75"/>
-      <c r="AL41" s="68"/>
-    </row>
-    <row r="42" spans="2:38" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="AL41" s="75"/>
+      <c r="AM41" s="68"/>
+    </row>
+    <row r="42" spans="2:39" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B42" s="40"/>
       <c r="C42" s="101">
         <v>50000202</v>
@@ -4969,1707 +5003,1838 @@
         <v>21</v>
       </c>
       <c r="E42" s="103" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G42" s="109">
-        <f>F5</f>
+        <f>E5</f>
         <v>0</v>
       </c>
       <c r="H42" s="8">
-        <f>F6</f>
+        <f>E6</f>
         <v>0</v>
       </c>
       <c r="I42" s="8">
-        <f>F7</f>
+        <f>E7</f>
         <v>0</v>
       </c>
       <c r="J42" s="8">
-        <f>F8</f>
+        <f>E8</f>
         <v>0</v>
       </c>
       <c r="K42" s="8">
-        <f>F9</f>
+        <f>E9</f>
         <v>0</v>
       </c>
       <c r="L42" s="8">
-        <f>F10</f>
+        <f>E10</f>
         <v>0</v>
       </c>
       <c r="M42" s="8">
-        <f>F11</f>
+        <f>E11</f>
         <v>0</v>
       </c>
       <c r="N42" s="8">
-        <f>F12</f>
+        <f>E12</f>
         <v>0</v>
       </c>
       <c r="O42" s="8">
-        <f>F13</f>
+        <f>E13</f>
         <v>0</v>
       </c>
       <c r="P42" s="8">
-        <f>F14</f>
+        <f>E14</f>
         <v>0</v>
       </c>
       <c r="Q42" s="8">
-        <f>F15</f>
+        <f>E15</f>
         <v>0</v>
       </c>
       <c r="R42" s="8">
-        <f>F16</f>
+        <f>E16</f>
         <v>0</v>
       </c>
       <c r="S42" s="8">
-        <f>F17</f>
+        <f>E17</f>
         <v>0</v>
       </c>
       <c r="T42" s="8">
-        <f>F18</f>
+        <f>E17</f>
         <v>0</v>
       </c>
       <c r="U42" s="8">
-        <f>F19</f>
+        <f>E19</f>
         <v>0</v>
       </c>
       <c r="V42" s="8">
-        <f>F20</f>
+        <f>E20</f>
         <v>0</v>
       </c>
       <c r="W42" s="8">
-        <f>F21</f>
+        <f>E21</f>
         <v>0</v>
       </c>
       <c r="X42" s="8">
-        <f>F22</f>
+        <f>E22</f>
         <v>0</v>
       </c>
       <c r="Y42" s="8">
-        <f>F23</f>
+        <f>E23</f>
         <v>0</v>
       </c>
       <c r="Z42" s="8">
-        <f>F25</f>
-        <v>0</v>
-      </c>
-      <c r="AA42" s="81">
-        <f>F24</f>
-        <v>0</v>
-      </c>
-      <c r="AC42" s="5"/>
+        <f>E25</f>
+        <v>0</v>
+      </c>
+      <c r="AA42" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="81">
+        <f>E26</f>
+        <v>0</v>
+      </c>
       <c r="AD42" s="5"/>
       <c r="AE42" s="5"/>
       <c r="AF42" s="5"/>
       <c r="AG42" s="5"/>
-      <c r="AH42" s="75"/>
+      <c r="AH42" s="5"/>
       <c r="AI42" s="75"/>
       <c r="AJ42" s="75"/>
       <c r="AK42" s="75"/>
-      <c r="AL42" s="68"/>
-    </row>
-    <row r="43" spans="2:38" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="AL42" s="75"/>
+      <c r="AM42" s="68"/>
+    </row>
+    <row r="43" spans="2:39" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B43" s="40"/>
       <c r="C43" s="101">
-        <v>50000203</v>
+        <v>50000202</v>
       </c>
       <c r="D43" s="102" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E43" s="103" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G43" s="109">
-        <f>G5</f>
+        <f>F5</f>
         <v>0</v>
       </c>
       <c r="H43" s="8">
-        <f>G6</f>
+        <f>F6</f>
         <v>0</v>
       </c>
       <c r="I43" s="8">
-        <f>G7</f>
+        <f>F7</f>
         <v>0</v>
       </c>
       <c r="J43" s="8">
-        <f>G8</f>
+        <f>F8</f>
         <v>0</v>
       </c>
       <c r="K43" s="8">
-        <f>G9</f>
+        <f>F9</f>
         <v>0</v>
       </c>
       <c r="L43" s="8">
-        <f>G10</f>
+        <f>F10</f>
         <v>0</v>
       </c>
       <c r="M43" s="8">
-        <f>G11</f>
+        <f>F11</f>
         <v>0</v>
       </c>
       <c r="N43" s="8">
-        <f>G12</f>
+        <f>F12</f>
         <v>0</v>
       </c>
       <c r="O43" s="8">
-        <f>G13</f>
+        <f>F13</f>
         <v>0</v>
       </c>
       <c r="P43" s="8">
-        <f>G14</f>
+        <f>F14</f>
         <v>0</v>
       </c>
       <c r="Q43" s="8">
-        <f>G15</f>
+        <f>F15</f>
         <v>0</v>
       </c>
       <c r="R43" s="8">
-        <f>G16</f>
+        <f>F16</f>
         <v>0</v>
       </c>
       <c r="S43" s="8">
-        <f>G17</f>
+        <f>F17</f>
         <v>0</v>
       </c>
       <c r="T43" s="8">
-        <f>G18</f>
+        <f>F18</f>
         <v>0</v>
       </c>
       <c r="U43" s="8">
-        <f>G19</f>
+        <f>F19</f>
         <v>0</v>
       </c>
       <c r="V43" s="8">
-        <f>G20</f>
+        <f>F20</f>
         <v>0</v>
       </c>
       <c r="W43" s="8">
-        <f>G21</f>
+        <f>F21</f>
         <v>0</v>
       </c>
       <c r="X43" s="8">
-        <f>G22</f>
+        <f>F22</f>
         <v>0</v>
       </c>
       <c r="Y43" s="8">
-        <f>G23</f>
+        <f>F23</f>
         <v>0</v>
       </c>
       <c r="Z43" s="8">
-        <f>G25</f>
-        <v>0</v>
-      </c>
-      <c r="AA43" s="81">
-        <f>G24</f>
-        <v>0</v>
-      </c>
-      <c r="AC43" s="5"/>
+        <f>F25</f>
+        <v>0</v>
+      </c>
+      <c r="AA43" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="81">
+        <f>F26</f>
+        <v>0</v>
+      </c>
       <c r="AD43" s="5"/>
       <c r="AE43" s="5"/>
       <c r="AF43" s="5"/>
       <c r="AG43" s="5"/>
-      <c r="AH43" s="75"/>
+      <c r="AH43" s="5"/>
       <c r="AI43" s="75"/>
       <c r="AJ43" s="75"/>
       <c r="AK43" s="75"/>
-      <c r="AL43" s="68"/>
-    </row>
-    <row r="44" spans="2:38" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="AL43" s="75"/>
+      <c r="AM43" s="68"/>
+    </row>
+    <row r="44" spans="2:39" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B44" s="40"/>
       <c r="C44" s="101">
-        <v>50000207</v>
+        <v>50000203</v>
       </c>
       <c r="D44" s="102" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E44" s="103" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G44" s="109">
-        <f>I5</f>
+        <f>G5</f>
         <v>0</v>
       </c>
       <c r="H44" s="8">
-        <f>I6</f>
+        <f>G6</f>
         <v>0</v>
       </c>
       <c r="I44" s="8">
-        <f>I7</f>
+        <f>G7</f>
         <v>0</v>
       </c>
       <c r="J44" s="8">
-        <f>I8</f>
+        <f>G8</f>
         <v>0</v>
       </c>
       <c r="K44" s="8">
-        <f>I9</f>
+        <f>G9</f>
         <v>0</v>
       </c>
       <c r="L44" s="8">
-        <f>I10</f>
+        <f>G10</f>
         <v>0</v>
       </c>
       <c r="M44" s="8">
-        <f>I11</f>
+        <f>G11</f>
         <v>0</v>
       </c>
       <c r="N44" s="8">
-        <f>I12</f>
+        <f>G12</f>
         <v>0</v>
       </c>
       <c r="O44" s="8">
-        <f>I13</f>
+        <f>G13</f>
         <v>0</v>
       </c>
       <c r="P44" s="8">
-        <f>I14</f>
+        <f>G14</f>
         <v>0</v>
       </c>
       <c r="Q44" s="8">
-        <f>I15</f>
+        <f>G15</f>
         <v>0</v>
       </c>
       <c r="R44" s="8">
-        <f>I16</f>
+        <f>G16</f>
         <v>0</v>
       </c>
       <c r="S44" s="8">
-        <f>I17</f>
+        <f>G17</f>
         <v>0</v>
       </c>
       <c r="T44" s="8">
-        <f>I18</f>
+        <f>G18</f>
         <v>0</v>
       </c>
       <c r="U44" s="8">
-        <f>I19</f>
+        <f>G19</f>
         <v>0</v>
       </c>
       <c r="V44" s="8">
-        <f>I20</f>
+        <f>G20</f>
         <v>0</v>
       </c>
       <c r="W44" s="8">
-        <f>I21</f>
+        <f>G21</f>
         <v>0</v>
       </c>
       <c r="X44" s="8">
-        <f>I22</f>
+        <f>G22</f>
         <v>0</v>
       </c>
       <c r="Y44" s="8">
-        <f>I23</f>
+        <f>G23</f>
         <v>0</v>
       </c>
       <c r="Z44" s="8">
-        <f>I25</f>
-        <v>0</v>
-      </c>
-      <c r="AA44" s="81">
-        <f>I24</f>
-        <v>0</v>
-      </c>
-      <c r="AC44" s="5"/>
+        <f>G25</f>
+        <v>0</v>
+      </c>
+      <c r="AA44" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="81">
+        <f>G26</f>
+        <v>0</v>
+      </c>
       <c r="AD44" s="5"/>
       <c r="AE44" s="5"/>
       <c r="AF44" s="5"/>
       <c r="AG44" s="5"/>
-      <c r="AH44" s="75"/>
+      <c r="AH44" s="5"/>
       <c r="AI44" s="75"/>
       <c r="AJ44" s="75"/>
       <c r="AK44" s="75"/>
-      <c r="AL44" s="68"/>
-    </row>
-    <row r="45" spans="2:38" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="AL44" s="75"/>
+      <c r="AM44" s="68"/>
+    </row>
+    <row r="45" spans="2:39" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B45" s="40"/>
       <c r="C45" s="101">
-        <v>50000205</v>
+        <v>50000207</v>
       </c>
       <c r="D45" s="102" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E45" s="103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G45" s="109">
-        <f>H5</f>
+        <f>I5</f>
         <v>0</v>
       </c>
       <c r="H45" s="8">
-        <f>H6</f>
+        <f>I6</f>
         <v>0</v>
       </c>
       <c r="I45" s="8">
-        <f>H7</f>
+        <f>I7</f>
         <v>0</v>
       </c>
       <c r="J45" s="8">
-        <f>H8</f>
+        <f>I8</f>
         <v>0</v>
       </c>
       <c r="K45" s="8">
-        <f>H9</f>
+        <f>I9</f>
         <v>0</v>
       </c>
       <c r="L45" s="8">
-        <f>H10</f>
+        <f>I10</f>
         <v>0</v>
       </c>
       <c r="M45" s="8">
-        <f>H11</f>
+        <f>I11</f>
         <v>0</v>
       </c>
       <c r="N45" s="8">
-        <f>H12</f>
+        <f>I12</f>
         <v>0</v>
       </c>
       <c r="O45" s="8">
-        <f>H13</f>
+        <f>I13</f>
         <v>0</v>
       </c>
       <c r="P45" s="8">
-        <f>H14</f>
+        <f>I14</f>
         <v>0</v>
       </c>
       <c r="Q45" s="8">
-        <f>H15</f>
+        <f>I15</f>
         <v>0</v>
       </c>
       <c r="R45" s="8">
-        <f>H16</f>
+        <f>I16</f>
         <v>0</v>
       </c>
       <c r="S45" s="8">
-        <f>H17</f>
+        <f>I17</f>
         <v>0</v>
       </c>
       <c r="T45" s="8">
-        <f>H18</f>
+        <f>I18</f>
         <v>0</v>
       </c>
       <c r="U45" s="8">
-        <f>H19</f>
+        <f>I19</f>
         <v>0</v>
       </c>
       <c r="V45" s="8">
-        <f>H20</f>
+        <f>I20</f>
         <v>0</v>
       </c>
       <c r="W45" s="8">
-        <f>H21</f>
+        <f>I21</f>
         <v>0</v>
       </c>
       <c r="X45" s="8">
-        <f>H22</f>
+        <f>I22</f>
         <v>0</v>
       </c>
       <c r="Y45" s="8">
-        <f>H23</f>
+        <f>I23</f>
         <v>0</v>
       </c>
       <c r="Z45" s="8">
-        <f>H25</f>
-        <v>0</v>
-      </c>
-      <c r="AA45" s="81">
-        <f>H24</f>
-        <v>0</v>
-      </c>
-      <c r="AC45" s="5"/>
+        <f>I25</f>
+        <v>0</v>
+      </c>
+      <c r="AA45" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="81">
+        <f>I26</f>
+        <v>0</v>
+      </c>
       <c r="AD45" s="5"/>
       <c r="AE45" s="5"/>
       <c r="AF45" s="5"/>
       <c r="AG45" s="5"/>
-      <c r="AH45" s="75"/>
+      <c r="AH45" s="5"/>
       <c r="AI45" s="75"/>
       <c r="AJ45" s="75"/>
       <c r="AK45" s="75"/>
-      <c r="AL45" s="68"/>
-    </row>
-    <row r="46" spans="2:38" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="AL45" s="75"/>
+      <c r="AM45" s="68"/>
+    </row>
+    <row r="46" spans="2:39" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B46" s="40"/>
       <c r="C46" s="101">
-        <v>50000206</v>
+        <v>50000205</v>
       </c>
       <c r="D46" s="102" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E46" s="103" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G46" s="109">
-        <f>J5</f>
+        <f>H5</f>
         <v>0</v>
       </c>
       <c r="H46" s="8">
-        <f>J6</f>
+        <f>H6</f>
         <v>0</v>
       </c>
       <c r="I46" s="8">
-        <f>J7</f>
+        <f>H7</f>
         <v>0</v>
       </c>
       <c r="J46" s="8">
-        <f>J8</f>
+        <f>H8</f>
         <v>0</v>
       </c>
       <c r="K46" s="8">
-        <f>J9</f>
+        <f>H9</f>
         <v>0</v>
       </c>
       <c r="L46" s="8">
-        <f>J10</f>
+        <f>H10</f>
         <v>0</v>
       </c>
       <c r="M46" s="8">
-        <f>J11</f>
+        <f>H11</f>
         <v>0</v>
       </c>
       <c r="N46" s="8">
-        <f>J12</f>
+        <f>H12</f>
         <v>0</v>
       </c>
       <c r="O46" s="8">
-        <f>J13</f>
+        <f>H13</f>
         <v>0</v>
       </c>
       <c r="P46" s="8">
-        <f>J14</f>
+        <f>H14</f>
         <v>0</v>
       </c>
       <c r="Q46" s="8">
-        <f>J15</f>
+        <f>H15</f>
         <v>0</v>
       </c>
       <c r="R46" s="8">
-        <f>J16</f>
+        <f>H16</f>
         <v>0</v>
       </c>
       <c r="S46" s="8">
-        <f>J17</f>
+        <f>H17</f>
         <v>0</v>
       </c>
       <c r="T46" s="8">
-        <f>J18</f>
+        <f>H18</f>
         <v>0</v>
       </c>
       <c r="U46" s="8">
-        <f>J19</f>
+        <f>H19</f>
         <v>0</v>
       </c>
       <c r="V46" s="8">
-        <f>J20</f>
+        <f>H20</f>
         <v>0</v>
       </c>
       <c r="W46" s="8">
-        <f>J21</f>
+        <f>H21</f>
         <v>0</v>
       </c>
       <c r="X46" s="8">
-        <f>J22</f>
+        <f>H22</f>
         <v>0</v>
       </c>
       <c r="Y46" s="8">
-        <f>J23</f>
+        <f>H23</f>
         <v>0</v>
       </c>
       <c r="Z46" s="8">
-        <f>J25</f>
-        <v>0</v>
-      </c>
-      <c r="AA46" s="84">
-        <f>J24</f>
-        <v>0</v>
-      </c>
-      <c r="AC46" s="5"/>
+        <f>H25</f>
+        <v>0</v>
+      </c>
+      <c r="AA46" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="81">
+        <f>H26</f>
+        <v>0</v>
+      </c>
       <c r="AD46" s="5"/>
       <c r="AE46" s="5"/>
       <c r="AF46" s="5"/>
       <c r="AG46" s="5"/>
-      <c r="AH46" s="75"/>
+      <c r="AH46" s="5"/>
       <c r="AI46" s="75"/>
       <c r="AJ46" s="75"/>
       <c r="AK46" s="75"/>
-      <c r="AL46" s="68"/>
-    </row>
-    <row r="47" spans="2:38" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="AL46" s="75"/>
+      <c r="AM46" s="68"/>
+    </row>
+    <row r="47" spans="2:39" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B47" s="40"/>
       <c r="C47" s="101">
-        <v>50000208</v>
+        <v>50000206</v>
       </c>
       <c r="D47" s="102" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E47" s="103" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" s="10">
-        <f>L5</f>
-        <v>0</v>
-      </c>
-      <c r="H47" s="9">
-        <f>L6</f>
+        <v>10</v>
+      </c>
+      <c r="G47" s="109">
+        <f>J5</f>
+        <v>0</v>
+      </c>
+      <c r="H47" s="8">
+        <f>J6</f>
         <v>0</v>
       </c>
       <c r="I47" s="8">
-        <f>L7</f>
+        <f>J7</f>
         <v>0</v>
       </c>
       <c r="J47" s="8">
-        <f>L8</f>
+        <f>J8</f>
         <v>0</v>
       </c>
       <c r="K47" s="8">
-        <f>L9</f>
+        <f>J9</f>
         <v>0</v>
       </c>
       <c r="L47" s="8">
-        <f>L10</f>
+        <f>J10</f>
         <v>0</v>
       </c>
       <c r="M47" s="8">
-        <f>L11</f>
+        <f>J11</f>
         <v>0</v>
       </c>
       <c r="N47" s="8">
-        <f>L12</f>
+        <f>J12</f>
         <v>0</v>
       </c>
       <c r="O47" s="8">
-        <f>L13</f>
+        <f>J13</f>
         <v>0</v>
       </c>
       <c r="P47" s="8">
-        <f>L14</f>
+        <f>J14</f>
         <v>0</v>
       </c>
       <c r="Q47" s="8">
-        <f>L15</f>
+        <f>J15</f>
         <v>0</v>
       </c>
       <c r="R47" s="8">
-        <f>L16</f>
+        <f>J16</f>
         <v>0</v>
       </c>
       <c r="S47" s="8">
-        <f>L17</f>
+        <f>J17</f>
         <v>0</v>
       </c>
       <c r="T47" s="8">
-        <f>L18</f>
+        <f>J18</f>
         <v>0</v>
       </c>
       <c r="U47" s="8">
-        <f>L19</f>
+        <f>J19</f>
         <v>0</v>
       </c>
       <c r="V47" s="8">
-        <f>L20</f>
+        <f>J20</f>
         <v>0</v>
       </c>
       <c r="W47" s="8">
-        <f>L21</f>
+        <f>J21</f>
         <v>0</v>
       </c>
       <c r="X47" s="8">
-        <f>L22</f>
+        <f>J22</f>
         <v>0</v>
       </c>
       <c r="Y47" s="8">
-        <f>L23</f>
+        <f>J23</f>
         <v>0</v>
       </c>
       <c r="Z47" s="8">
-        <f>L25</f>
-        <v>0</v>
-      </c>
-      <c r="AA47" s="81">
-        <f>L24</f>
-        <v>0</v>
-      </c>
-      <c r="AC47" s="5"/>
+        <f>J25</f>
+        <v>0</v>
+      </c>
+      <c r="AA47" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="84">
+        <f>J26</f>
+        <v>0</v>
+      </c>
       <c r="AD47" s="5"/>
       <c r="AE47" s="5"/>
       <c r="AF47" s="5"/>
       <c r="AG47" s="5"/>
-      <c r="AH47" s="75"/>
+      <c r="AH47" s="5"/>
       <c r="AI47" s="75"/>
       <c r="AJ47" s="75"/>
       <c r="AK47" s="75"/>
-      <c r="AL47" s="68"/>
-    </row>
-    <row r="48" spans="2:38" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B48" s="73"/>
-      <c r="C48" s="101"/>
+      <c r="AL47" s="75"/>
+      <c r="AM47" s="68"/>
+    </row>
+    <row r="48" spans="2:39" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B48" s="40"/>
+      <c r="C48" s="101">
+        <v>50000208</v>
+      </c>
       <c r="D48" s="102" t="s">
-        <v>98</v>
-      </c>
-      <c r="E48" s="103"/>
+        <v>26</v>
+      </c>
+      <c r="E48" s="103" t="s">
+        <v>11</v>
+      </c>
       <c r="G48" s="10">
-        <f>O5</f>
+        <f>L5</f>
         <v>0</v>
       </c>
       <c r="H48" s="9">
-        <f>O6</f>
+        <f>L6</f>
         <v>0</v>
       </c>
       <c r="I48" s="8">
-        <f>O7</f>
+        <f>L7</f>
         <v>0</v>
       </c>
       <c r="J48" s="8">
-        <f>O8</f>
+        <f>L8</f>
         <v>0</v>
       </c>
       <c r="K48" s="8">
-        <f>O9</f>
+        <f>L9</f>
         <v>0</v>
       </c>
       <c r="L48" s="8">
-        <f>O10</f>
+        <f>L10</f>
         <v>0</v>
       </c>
       <c r="M48" s="8">
-        <f>O11</f>
+        <f>L11</f>
         <v>0</v>
       </c>
       <c r="N48" s="8">
-        <f>O12</f>
+        <f>L12</f>
         <v>0</v>
       </c>
       <c r="O48" s="8">
-        <f>O13</f>
+        <f>L13</f>
         <v>0</v>
       </c>
       <c r="P48" s="8">
-        <f>O14</f>
+        <f>L14</f>
         <v>0</v>
       </c>
       <c r="Q48" s="8">
-        <f>O15</f>
+        <f>L15</f>
         <v>0</v>
       </c>
       <c r="R48" s="8">
-        <f>O16</f>
+        <f>L16</f>
         <v>0</v>
       </c>
       <c r="S48" s="8">
-        <f>O17</f>
+        <f>L17</f>
         <v>0</v>
       </c>
       <c r="T48" s="8">
-        <f>O18</f>
+        <f>L18</f>
         <v>0</v>
       </c>
       <c r="U48" s="8">
-        <f>O19</f>
+        <f>L19</f>
         <v>0</v>
       </c>
       <c r="V48" s="8">
-        <f>O20</f>
+        <f>L20</f>
         <v>0</v>
       </c>
       <c r="W48" s="8">
-        <f>O21</f>
+        <f>L21</f>
         <v>0</v>
       </c>
       <c r="X48" s="8">
-        <f>O22</f>
+        <f>L22</f>
         <v>0</v>
       </c>
       <c r="Y48" s="8">
-        <f>O23</f>
+        <f>L23</f>
         <v>0</v>
       </c>
       <c r="Z48" s="8">
-        <f>O25</f>
-        <v>0</v>
-      </c>
-      <c r="AA48" s="81">
-        <f>O24</f>
-        <v>0</v>
-      </c>
-      <c r="AC48" s="5"/>
+        <f>L25</f>
+        <v>0</v>
+      </c>
+      <c r="AA48" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="81">
+        <f>L26</f>
+        <v>0</v>
+      </c>
       <c r="AD48" s="5"/>
       <c r="AE48" s="5"/>
       <c r="AF48" s="5"/>
       <c r="AG48" s="5"/>
-      <c r="AH48" s="75"/>
+      <c r="AH48" s="5"/>
       <c r="AI48" s="75"/>
       <c r="AJ48" s="75"/>
       <c r="AK48" s="75"/>
-      <c r="AL48" s="68"/>
-    </row>
-    <row r="49" spans="2:38" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="AL48" s="75"/>
+      <c r="AM48" s="68"/>
+    </row>
+    <row r="49" spans="2:39" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B49" s="73"/>
       <c r="C49" s="101"/>
       <c r="D49" s="102" t="s">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="E49" s="103"/>
       <c r="G49" s="10">
-        <f>P5</f>
-        <v>0</v>
-      </c>
-      <c r="H49" s="8">
-        <f>P6</f>
+        <f>O5</f>
+        <v>0</v>
+      </c>
+      <c r="H49" s="9">
+        <f>O6</f>
         <v>0</v>
       </c>
       <c r="I49" s="8">
-        <f>P7</f>
+        <f>O7</f>
         <v>0</v>
       </c>
       <c r="J49" s="8">
-        <f>P8</f>
+        <f>O8</f>
         <v>0</v>
       </c>
       <c r="K49" s="8">
-        <f>P9</f>
+        <f>O9</f>
         <v>0</v>
       </c>
       <c r="L49" s="8">
-        <f>P10</f>
+        <f>O10</f>
         <v>0</v>
       </c>
       <c r="M49" s="8">
-        <f>P11</f>
+        <f>O11</f>
         <v>0</v>
       </c>
       <c r="N49" s="8">
-        <f>P12</f>
+        <f>O12</f>
         <v>0</v>
       </c>
       <c r="O49" s="8">
-        <f>P13</f>
+        <f>O13</f>
         <v>0</v>
       </c>
       <c r="P49" s="8">
-        <f>P14</f>
+        <f>O14</f>
         <v>0</v>
       </c>
       <c r="Q49" s="8">
-        <f>P15</f>
+        <f>O15</f>
         <v>0</v>
       </c>
       <c r="R49" s="8">
-        <f>P16</f>
+        <f>O16</f>
         <v>0</v>
       </c>
       <c r="S49" s="8">
-        <f>P17</f>
+        <f>O17</f>
         <v>0</v>
       </c>
       <c r="T49" s="8">
-        <f>P18</f>
+        <f>O18</f>
         <v>0</v>
       </c>
       <c r="U49" s="8">
-        <f>P19</f>
+        <f>O19</f>
         <v>0</v>
       </c>
       <c r="V49" s="8">
-        <f>P20</f>
+        <f>O20</f>
         <v>0</v>
       </c>
       <c r="W49" s="8">
-        <f>P21</f>
+        <f>O21</f>
         <v>0</v>
       </c>
       <c r="X49" s="8">
-        <f>P22</f>
+        <f>O22</f>
         <v>0</v>
       </c>
       <c r="Y49" s="8">
-        <f>P23</f>
+        <f>O23</f>
         <v>0</v>
       </c>
       <c r="Z49" s="8">
-        <f>P25</f>
-        <v>0</v>
-      </c>
-      <c r="AA49" s="81">
-        <f>P24</f>
-        <v>0</v>
-      </c>
-      <c r="AC49" s="5"/>
+        <f>O25</f>
+        <v>0</v>
+      </c>
+      <c r="AA49" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="81">
+        <f>O26</f>
+        <v>0</v>
+      </c>
       <c r="AD49" s="5"/>
       <c r="AE49" s="5"/>
       <c r="AF49" s="5"/>
       <c r="AG49" s="5"/>
-      <c r="AH49" s="75"/>
+      <c r="AH49" s="5"/>
       <c r="AI49" s="75"/>
       <c r="AJ49" s="75"/>
       <c r="AK49" s="75"/>
-      <c r="AL49" s="68"/>
-    </row>
-    <row r="50" spans="2:38" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B50" s="40"/>
-      <c r="C50" s="101">
-        <v>50000225</v>
-      </c>
+      <c r="AL49" s="75"/>
+      <c r="AM49" s="68"/>
+    </row>
+    <row r="50" spans="2:39" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B50" s="73"/>
+      <c r="C50" s="101"/>
       <c r="D50" s="102" t="s">
-        <v>27</v>
-      </c>
-      <c r="E50" s="103" t="s">
-        <v>14</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="E50" s="103"/>
       <c r="G50" s="10">
-        <f>Q5</f>
-        <v>0</v>
-      </c>
-      <c r="H50" s="9">
-        <f>Q6</f>
+        <f>P5</f>
+        <v>0</v>
+      </c>
+      <c r="H50" s="8">
+        <f>P6</f>
         <v>0</v>
       </c>
       <c r="I50" s="8">
-        <f>Q7</f>
+        <f>P7</f>
         <v>0</v>
       </c>
       <c r="J50" s="8">
-        <f>Q8</f>
+        <f>P8</f>
         <v>0</v>
       </c>
       <c r="K50" s="8">
-        <f>Q9</f>
+        <f>P9</f>
         <v>0</v>
       </c>
       <c r="L50" s="8">
-        <f>Q10</f>
+        <f>P10</f>
         <v>0</v>
       </c>
       <c r="M50" s="8">
-        <f>Q11</f>
+        <f>P11</f>
         <v>0</v>
       </c>
       <c r="N50" s="8">
-        <f>Q12</f>
+        <f>P12</f>
         <v>0</v>
       </c>
       <c r="O50" s="8">
-        <f>Q13</f>
+        <f>P13</f>
         <v>0</v>
       </c>
       <c r="P50" s="8">
-        <f>Q14</f>
+        <f>P14</f>
         <v>0</v>
       </c>
       <c r="Q50" s="8">
-        <f>Q15</f>
+        <f>P15</f>
         <v>0</v>
       </c>
       <c r="R50" s="8">
-        <f>Q16</f>
+        <f>P16</f>
         <v>0</v>
       </c>
       <c r="S50" s="8">
-        <f>Q17</f>
+        <f>P17</f>
         <v>0</v>
       </c>
       <c r="T50" s="8">
-        <f>Q18</f>
+        <f>P18</f>
         <v>0</v>
       </c>
       <c r="U50" s="8">
-        <f>Q19</f>
+        <f>P19</f>
         <v>0</v>
       </c>
       <c r="V50" s="8">
-        <f>Q20</f>
+        <f>P20</f>
         <v>0</v>
       </c>
       <c r="W50" s="8">
-        <f>Q21</f>
+        <f>P21</f>
         <v>0</v>
       </c>
       <c r="X50" s="8">
-        <f>Q22</f>
+        <f>P22</f>
         <v>0</v>
       </c>
       <c r="Y50" s="8">
-        <f>Q23</f>
+        <f>P23</f>
         <v>0</v>
       </c>
       <c r="Z50" s="8">
-        <f>Q25</f>
-        <v>0</v>
-      </c>
-      <c r="AA50" s="81">
-        <f>Q24</f>
-        <v>0</v>
-      </c>
-      <c r="AC50" s="5"/>
+        <f>P25</f>
+        <v>0</v>
+      </c>
+      <c r="AA50" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="81">
+        <f>P26</f>
+        <v>0</v>
+      </c>
       <c r="AD50" s="5"/>
       <c r="AE50" s="5"/>
       <c r="AF50" s="5"/>
       <c r="AG50" s="5"/>
-      <c r="AH50" s="75"/>
+      <c r="AH50" s="5"/>
       <c r="AI50" s="75"/>
       <c r="AJ50" s="75"/>
       <c r="AK50" s="75"/>
-      <c r="AL50" s="68"/>
-    </row>
-    <row r="51" spans="2:38" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="AL50" s="75"/>
+      <c r="AM50" s="68"/>
+    </row>
+    <row r="51" spans="2:39" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B51" s="40"/>
       <c r="C51" s="101">
-        <v>50000230</v>
+        <v>50000225</v>
       </c>
       <c r="D51" s="102" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E51" s="103" t="s">
         <v>14</v>
       </c>
       <c r="G51" s="10">
-        <f>R5</f>
+        <f>Q5</f>
         <v>0</v>
       </c>
       <c r="H51" s="9">
-        <f>R6</f>
+        <f>Q6</f>
         <v>0</v>
       </c>
       <c r="I51" s="8">
-        <f>R7</f>
+        <f>Q7</f>
         <v>0</v>
       </c>
       <c r="J51" s="8">
-        <f>R8</f>
+        <f>Q8</f>
         <v>0</v>
       </c>
       <c r="K51" s="8">
-        <f>R9</f>
+        <f>Q9</f>
         <v>0</v>
       </c>
       <c r="L51" s="8">
-        <f>R10</f>
+        <f>Q10</f>
         <v>0</v>
       </c>
       <c r="M51" s="8">
-        <f>R11</f>
+        <f>Q11</f>
         <v>0</v>
       </c>
       <c r="N51" s="8">
-        <f>R12</f>
+        <f>Q12</f>
         <v>0</v>
       </c>
       <c r="O51" s="8">
-        <f>R13</f>
+        <f>Q13</f>
         <v>0</v>
       </c>
       <c r="P51" s="8">
-        <f>R14</f>
+        <f>Q14</f>
         <v>0</v>
       </c>
       <c r="Q51" s="8">
-        <f>R15</f>
+        <f>Q15</f>
         <v>0</v>
       </c>
       <c r="R51" s="8">
-        <f>R16</f>
+        <f>Q16</f>
         <v>0</v>
       </c>
       <c r="S51" s="8">
-        <f>R17</f>
+        <f>Q17</f>
         <v>0</v>
       </c>
       <c r="T51" s="8">
-        <f>R18</f>
+        <f>Q18</f>
         <v>0</v>
       </c>
       <c r="U51" s="8">
-        <f>R19</f>
+        <f>Q19</f>
         <v>0</v>
       </c>
       <c r="V51" s="8">
-        <f>R20</f>
+        <f>Q20</f>
         <v>0</v>
       </c>
       <c r="W51" s="8">
-        <f>R21</f>
+        <f>Q21</f>
         <v>0</v>
       </c>
       <c r="X51" s="8">
-        <f>R22</f>
+        <f>Q22</f>
         <v>0</v>
       </c>
       <c r="Y51" s="8">
-        <f>R23</f>
+        <f>Q23</f>
         <v>0</v>
       </c>
       <c r="Z51" s="8">
-        <f>R25</f>
-        <v>0</v>
-      </c>
-      <c r="AA51" s="81">
-        <f>R24</f>
-        <v>0</v>
-      </c>
-      <c r="AC51" s="5"/>
+        <f>Q25</f>
+        <v>0</v>
+      </c>
+      <c r="AA51" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="81">
+        <f>Q26</f>
+        <v>0</v>
+      </c>
       <c r="AD51" s="5"/>
       <c r="AE51" s="5"/>
       <c r="AF51" s="5"/>
       <c r="AG51" s="5"/>
-      <c r="AH51" s="75"/>
+      <c r="AH51" s="5"/>
       <c r="AI51" s="75"/>
       <c r="AJ51" s="75"/>
       <c r="AK51" s="75"/>
-      <c r="AL51" s="68"/>
-    </row>
-    <row r="52" spans="2:38" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="AL51" s="75"/>
+      <c r="AM51" s="68"/>
+    </row>
+    <row r="52" spans="2:39" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B52" s="40"/>
       <c r="C52" s="101">
-        <v>50000227</v>
+        <v>50000230</v>
       </c>
       <c r="D52" s="102" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E52" s="103" t="s">
         <v>14</v>
       </c>
       <c r="G52" s="10">
-        <f>S5</f>
+        <f>R5</f>
         <v>0</v>
       </c>
       <c r="H52" s="9">
-        <f>S6</f>
+        <f>R6</f>
         <v>0</v>
       </c>
       <c r="I52" s="8">
-        <f>S7</f>
+        <f>R7</f>
         <v>0</v>
       </c>
       <c r="J52" s="8">
-        <f>S8</f>
+        <f>R8</f>
         <v>0</v>
       </c>
       <c r="K52" s="8">
-        <f>S9</f>
+        <f>R9</f>
         <v>0</v>
       </c>
       <c r="L52" s="8">
-        <f>S10</f>
+        <f>R10</f>
         <v>0</v>
       </c>
       <c r="M52" s="8">
-        <f>S11</f>
+        <f>R11</f>
         <v>0</v>
       </c>
       <c r="N52" s="8">
-        <f>S12</f>
+        <f>R12</f>
         <v>0</v>
       </c>
       <c r="O52" s="8">
-        <f>S13</f>
+        <f>R13</f>
         <v>0</v>
       </c>
       <c r="P52" s="8">
-        <f>S14</f>
+        <f>R14</f>
         <v>0</v>
       </c>
       <c r="Q52" s="8">
-        <f>S15</f>
+        <f>R15</f>
         <v>0</v>
       </c>
       <c r="R52" s="8">
-        <f>S16</f>
+        <f>R16</f>
         <v>0</v>
       </c>
       <c r="S52" s="8">
-        <f>S17</f>
+        <f>R17</f>
         <v>0</v>
       </c>
       <c r="T52" s="8">
-        <f>S18</f>
+        <f>R18</f>
         <v>0</v>
       </c>
       <c r="U52" s="8">
-        <f>S19</f>
+        <f>R19</f>
         <v>0</v>
       </c>
       <c r="V52" s="8">
-        <f>S20</f>
+        <f>R20</f>
         <v>0</v>
       </c>
       <c r="W52" s="8">
-        <f>S21</f>
+        <f>R21</f>
         <v>0</v>
       </c>
       <c r="X52" s="8">
-        <f>S22</f>
+        <f>R22</f>
         <v>0</v>
       </c>
       <c r="Y52" s="8">
-        <f>S23</f>
+        <f>R23</f>
         <v>0</v>
       </c>
       <c r="Z52" s="8">
-        <f>S25</f>
-        <v>0</v>
-      </c>
-      <c r="AA52" s="81">
-        <f>S24</f>
-        <v>0</v>
-      </c>
-      <c r="AC52" s="5"/>
+        <f>R25</f>
+        <v>0</v>
+      </c>
+      <c r="AA52" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="81">
+        <f>R26</f>
+        <v>0</v>
+      </c>
       <c r="AD52" s="5"/>
       <c r="AE52" s="5"/>
       <c r="AF52" s="5"/>
       <c r="AG52" s="5"/>
-      <c r="AH52" s="75"/>
+      <c r="AH52" s="5"/>
       <c r="AI52" s="75"/>
       <c r="AJ52" s="75"/>
       <c r="AK52" s="75"/>
-      <c r="AL52" s="68"/>
-    </row>
-    <row r="53" spans="2:38" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="AL52" s="75"/>
+      <c r="AM52" s="68"/>
+    </row>
+    <row r="53" spans="2:39" ht="15.75" x14ac:dyDescent="0.3">
       <c r="C53" s="101">
-        <v>50000228</v>
+        <v>50000227</v>
       </c>
       <c r="D53" s="102" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E53" s="103" t="s">
         <v>14</v>
       </c>
       <c r="G53" s="10">
-        <f>T5</f>
+        <f>S5</f>
         <v>0</v>
       </c>
       <c r="H53" s="9">
-        <f>T6</f>
+        <f>S6</f>
         <v>0</v>
       </c>
       <c r="I53" s="8">
-        <f>T7</f>
+        <f>S7</f>
         <v>0</v>
       </c>
       <c r="J53" s="8">
-        <f>T8</f>
+        <f>S8</f>
         <v>0</v>
       </c>
       <c r="K53" s="8">
-        <f>T9</f>
+        <f>S9</f>
         <v>0</v>
       </c>
       <c r="L53" s="8">
-        <f>T10</f>
+        <f>S10</f>
         <v>0</v>
       </c>
       <c r="M53" s="8">
-        <f>T11</f>
+        <f>S11</f>
         <v>0</v>
       </c>
       <c r="N53" s="8">
-        <f>T12</f>
+        <f>S12</f>
         <v>0</v>
       </c>
       <c r="O53" s="8">
-        <f>T13</f>
+        <f>S13</f>
         <v>0</v>
       </c>
       <c r="P53" s="8">
-        <f>T14</f>
+        <f>S14</f>
         <v>0</v>
       </c>
       <c r="Q53" s="8">
-        <f>T15</f>
+        <f>S15</f>
         <v>0</v>
       </c>
       <c r="R53" s="8">
-        <f>T16</f>
+        <f>S16</f>
         <v>0</v>
       </c>
       <c r="S53" s="8">
-        <f>T17</f>
+        <f>S17</f>
         <v>0</v>
       </c>
       <c r="T53" s="8">
-        <f>T18</f>
+        <f>S18</f>
         <v>0</v>
       </c>
       <c r="U53" s="8">
-        <f>T19</f>
+        <f>S19</f>
         <v>0</v>
       </c>
       <c r="V53" s="8">
-        <f>T20</f>
+        <f>S20</f>
         <v>0</v>
       </c>
       <c r="W53" s="8">
-        <f>T21</f>
+        <f>S21</f>
         <v>0</v>
       </c>
       <c r="X53" s="8">
-        <f>T22</f>
+        <f>S22</f>
         <v>0</v>
       </c>
       <c r="Y53" s="8">
-        <f>T23</f>
+        <f>S23</f>
         <v>0</v>
       </c>
       <c r="Z53" s="8">
-        <f>T25</f>
-        <v>0</v>
-      </c>
-      <c r="AA53" s="81">
-        <f>T24</f>
-        <v>0</v>
-      </c>
-      <c r="AC53" s="5"/>
+        <f>S25</f>
+        <v>0</v>
+      </c>
+      <c r="AA53" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="81">
+        <f>S26</f>
+        <v>0</v>
+      </c>
       <c r="AD53" s="5"/>
       <c r="AE53" s="5"/>
       <c r="AF53" s="5"/>
       <c r="AG53" s="5"/>
-      <c r="AH53" s="75"/>
+      <c r="AH53" s="5"/>
       <c r="AI53" s="75"/>
       <c r="AJ53" s="75"/>
       <c r="AK53" s="75"/>
-      <c r="AL53" s="68"/>
-    </row>
-    <row r="54" spans="2:38" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AL53" s="75"/>
+      <c r="AM53" s="68"/>
+    </row>
+    <row r="54" spans="2:39" ht="15.75" x14ac:dyDescent="0.3">
       <c r="C54" s="101">
-        <v>50000259</v>
+        <v>50000228</v>
       </c>
       <c r="D54" s="102" t="s">
-        <v>31</v>
-      </c>
-      <c r="E54" s="104" t="s">
-        <v>32</v>
-      </c>
-      <c r="G54" s="109">
-        <f>M5+N5</f>
-        <v>0</v>
-      </c>
-      <c r="H54" s="8">
-        <f>M6+N6</f>
+        <v>30</v>
+      </c>
+      <c r="E54" s="103" t="s">
+        <v>14</v>
+      </c>
+      <c r="G54" s="10">
+        <f>T5</f>
+        <v>0</v>
+      </c>
+      <c r="H54" s="9">
+        <f>T6</f>
         <v>0</v>
       </c>
       <c r="I54" s="8">
-        <f>M7+N7</f>
+        <f>T7</f>
         <v>0</v>
       </c>
       <c r="J54" s="8">
-        <f>M8+N8</f>
+        <f>T8</f>
         <v>0</v>
       </c>
       <c r="K54" s="8">
-        <f>M9+N9</f>
+        <f>T9</f>
         <v>0</v>
       </c>
       <c r="L54" s="8">
-        <f>M10+N10</f>
+        <f>T10</f>
         <v>0</v>
       </c>
       <c r="M54" s="8">
-        <f>M11+N11</f>
+        <f>T11</f>
         <v>0</v>
       </c>
       <c r="N54" s="8">
-        <f>M12+N12</f>
+        <f>T12</f>
         <v>0</v>
       </c>
       <c r="O54" s="8">
-        <f>M13+N13</f>
+        <f>T13</f>
         <v>0</v>
       </c>
       <c r="P54" s="8">
-        <f>M14+N14</f>
+        <f>T14</f>
         <v>0</v>
       </c>
       <c r="Q54" s="8">
-        <f>M15+N15</f>
+        <f>T15</f>
         <v>0</v>
       </c>
       <c r="R54" s="8">
-        <f>M16+N16</f>
+        <f>T16</f>
         <v>0</v>
       </c>
       <c r="S54" s="8">
-        <f>M17+N17</f>
+        <f>T17</f>
         <v>0</v>
       </c>
       <c r="T54" s="8">
-        <f>M18+N18</f>
+        <f>T18</f>
         <v>0</v>
       </c>
       <c r="U54" s="8">
-        <f>M19+N19</f>
+        <f>T19</f>
         <v>0</v>
       </c>
       <c r="V54" s="8">
-        <f>M20+N20</f>
+        <f>T20</f>
         <v>0</v>
       </c>
       <c r="W54" s="8">
-        <f>M21+N21</f>
+        <f>T21</f>
         <v>0</v>
       </c>
       <c r="X54" s="8">
-        <f>M22+N22</f>
+        <f>T22</f>
         <v>0</v>
       </c>
       <c r="Y54" s="8">
-        <f>M23+N23</f>
+        <f>T23</f>
         <v>0</v>
       </c>
       <c r="Z54" s="8">
-        <f>M25+N25</f>
-        <v>0</v>
-      </c>
-      <c r="AA54" s="81">
-        <f>M24+N24</f>
-        <v>0</v>
-      </c>
-      <c r="AC54" s="5"/>
+        <f>T25</f>
+        <v>0</v>
+      </c>
+      <c r="AA54" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="81">
+        <f>T26</f>
+        <v>0</v>
+      </c>
       <c r="AD54" s="5"/>
       <c r="AE54" s="5"/>
       <c r="AF54" s="5"/>
       <c r="AG54" s="5"/>
-      <c r="AH54" s="75"/>
+      <c r="AH54" s="5"/>
       <c r="AI54" s="75"/>
       <c r="AJ54" s="75"/>
       <c r="AK54" s="75"/>
-      <c r="AL54" s="68"/>
-    </row>
-    <row r="55" spans="2:38" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="C55" s="101"/>
+      <c r="AL54" s="75"/>
+      <c r="AM54" s="68"/>
+    </row>
+    <row r="55" spans="2:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C55" s="101">
+        <v>50000259</v>
+      </c>
       <c r="D55" s="102" t="s">
-        <v>33</v>
-      </c>
-      <c r="E55" s="105"/>
-      <c r="G55" s="41">
-        <f t="shared" ref="G55:AA55" si="6">SUM(G40:G54)</f>
-        <v>0</v>
-      </c>
-      <c r="H55" s="60">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I55" s="62">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J55" s="62">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K55" s="62">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L55" s="62">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M55" s="62">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N55" s="62">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O55" s="62">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P55" s="62">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q55" s="62">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R55" s="62">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S55" s="62">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="T55" s="62">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U55" s="62">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V55" s="62">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W55" s="62">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="X55" s="62">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Y55" s="62">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Z55" s="62">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AA55" s="85">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AC55" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="E55" s="104" t="s">
+        <v>32</v>
+      </c>
+      <c r="G55" s="109">
+        <f>M5+N5</f>
+        <v>0</v>
+      </c>
+      <c r="H55" s="8">
+        <f>M6+N6</f>
+        <v>0</v>
+      </c>
+      <c r="I55" s="8">
+        <f>M7+N7</f>
+        <v>0</v>
+      </c>
+      <c r="J55" s="8">
+        <f>M8+N8</f>
+        <v>0</v>
+      </c>
+      <c r="K55" s="8">
+        <f>M9+N9</f>
+        <v>0</v>
+      </c>
+      <c r="L55" s="8">
+        <f>M10+N10</f>
+        <v>0</v>
+      </c>
+      <c r="M55" s="8">
+        <f>M11+N11</f>
+        <v>0</v>
+      </c>
+      <c r="N55" s="8">
+        <f>M12+N12</f>
+        <v>0</v>
+      </c>
+      <c r="O55" s="8">
+        <f>M13+N13</f>
+        <v>0</v>
+      </c>
+      <c r="P55" s="8">
+        <f>M14+N14</f>
+        <v>0</v>
+      </c>
+      <c r="Q55" s="8">
+        <f>M15+N15</f>
+        <v>0</v>
+      </c>
+      <c r="R55" s="8">
+        <f>M16+N16</f>
+        <v>0</v>
+      </c>
+      <c r="S55" s="8">
+        <f>M17+N17</f>
+        <v>0</v>
+      </c>
+      <c r="T55" s="8">
+        <f>M18+N18</f>
+        <v>0</v>
+      </c>
+      <c r="U55" s="8">
+        <f>M19+N19</f>
+        <v>0</v>
+      </c>
+      <c r="V55" s="8">
+        <f>M20+N20</f>
+        <v>0</v>
+      </c>
+      <c r="W55" s="8">
+        <f>M21+N21</f>
+        <v>0</v>
+      </c>
+      <c r="X55" s="8">
+        <f>M22+N22</f>
+        <v>0</v>
+      </c>
+      <c r="Y55" s="8">
+        <f>M23+N23</f>
+        <v>0</v>
+      </c>
+      <c r="Z55" s="8">
+        <f>M25+N25</f>
+        <v>0</v>
+      </c>
+      <c r="AA55" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB55" s="81">
+        <f>M26+N26</f>
+        <v>0</v>
+      </c>
       <c r="AD55" s="5"/>
       <c r="AE55" s="5"/>
       <c r="AF55" s="5"/>
       <c r="AG55" s="5"/>
-      <c r="AH55" s="75"/>
+      <c r="AH55" s="5"/>
       <c r="AI55" s="75"/>
       <c r="AJ55" s="75"/>
       <c r="AK55" s="75"/>
-      <c r="AL55" s="68"/>
-    </row>
-    <row r="56" spans="2:38" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AL55" s="75"/>
+      <c r="AM55" s="68"/>
+    </row>
+    <row r="56" spans="2:39" ht="15.75" x14ac:dyDescent="0.3">
       <c r="C56" s="101"/>
       <c r="D56" s="102" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="E56" s="105"/>
-      <c r="G56" s="11">
-        <f t="shared" ref="G56:L56" si="7">G55*16%</f>
-        <v>0</v>
-      </c>
-      <c r="H56" s="61">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I56" s="63">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J56" s="63">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K56" s="63">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L56" s="63">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M56" s="63">
-        <f t="shared" ref="M56:V56" si="8">M55*16%</f>
-        <v>0</v>
-      </c>
-      <c r="N56" s="63">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O56" s="63">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P56" s="63">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q56" s="63">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R56" s="63">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S56" s="63">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T56" s="63">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U56" s="63">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="V56" s="63">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W56" s="63">
-        <f t="shared" ref="W56" si="9">W55*16%</f>
-        <v>0</v>
-      </c>
-      <c r="X56" s="63">
-        <f>X55*16%</f>
-        <v>0</v>
-      </c>
-      <c r="Y56" s="63">
-        <f>Y55*16%</f>
-        <v>0</v>
-      </c>
-      <c r="Z56" s="63">
-        <f>Z55*16%</f>
-        <v>0</v>
-      </c>
-      <c r="AA56" s="86">
-        <f>AA55*16%</f>
-        <v>0</v>
-      </c>
-      <c r="AC56" s="5"/>
+      <c r="G56" s="41">
+        <f t="shared" ref="G56:AB56" si="5">SUM(G41:G55)</f>
+        <v>0</v>
+      </c>
+      <c r="H56" s="60">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I56" s="62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J56" s="62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K56" s="62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L56" s="62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M56" s="62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N56" s="62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O56" s="62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P56" s="62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q56" s="62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R56" s="62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S56" s="62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T56" s="62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U56" s="62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V56" s="62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W56" s="62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X56" s="62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y56" s="62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Z56" s="62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AA56" s="62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB56" s="85">
+        <f>SUM(AB41:AB55)</f>
+        <v>0</v>
+      </c>
       <c r="AD56" s="5"/>
       <c r="AE56" s="5"/>
       <c r="AF56" s="5"/>
       <c r="AG56" s="5"/>
-      <c r="AH56" s="75"/>
+      <c r="AH56" s="5"/>
       <c r="AI56" s="75"/>
       <c r="AJ56" s="75"/>
       <c r="AK56" s="75"/>
-      <c r="AL56" s="68"/>
-    </row>
-    <row r="57" spans="2:38" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C57" s="106"/>
-      <c r="D57" s="107" t="s">
-        <v>34</v>
-      </c>
-      <c r="E57" s="108"/>
-      <c r="G57" s="88">
-        <f t="shared" ref="G57:P57" si="10">SUM(G55:G56)</f>
-        <v>0</v>
-      </c>
-      <c r="H57" s="89">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I57" s="89">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J57" s="89">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="K57" s="89">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L57" s="89">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="M57" s="89">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="N57" s="89">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="O57" s="89">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P57" s="89">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Q57" s="89">
-        <f t="shared" ref="Q57:R57" si="11">SUM(Q55:Q56)</f>
-        <v>0</v>
-      </c>
-      <c r="R57" s="89">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="S57" s="89">
-        <f t="shared" ref="S57:T57" si="12">SUM(S55:S56)</f>
-        <v>0</v>
-      </c>
-      <c r="T57" s="89">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="U57" s="89">
-        <f t="shared" ref="U57:V57" si="13">SUM(U55:U56)</f>
-        <v>0</v>
-      </c>
-      <c r="V57" s="89">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="W57" s="89">
-        <f>SUM(W55:W56)</f>
-        <v>0</v>
-      </c>
-      <c r="X57" s="89">
-        <f>SUM(X55:X56)</f>
-        <v>0</v>
-      </c>
-      <c r="Y57" s="89">
-        <f>SUM(Y55:Y56)</f>
-        <v>0</v>
-      </c>
-      <c r="Z57" s="89">
-        <f>SUM(Z55:Z56)</f>
-        <v>0</v>
-      </c>
-      <c r="AA57" s="111">
-        <f>SUM(AA55:AA56)</f>
-        <v>0</v>
-      </c>
-      <c r="AC57" s="5"/>
+      <c r="AL56" s="75"/>
+      <c r="AM56" s="68"/>
+    </row>
+    <row r="57" spans="2:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C57" s="101"/>
+      <c r="D57" s="102" t="s">
+        <v>2</v>
+      </c>
+      <c r="E57" s="105"/>
+      <c r="G57" s="11">
+        <f t="shared" ref="G57:L57" si="6">G56*16%</f>
+        <v>0</v>
+      </c>
+      <c r="H57" s="61">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I57" s="63">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J57" s="63">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K57" s="63">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L57" s="63">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M57" s="63">
+        <f t="shared" ref="M57:V57" si="7">M56*16%</f>
+        <v>0</v>
+      </c>
+      <c r="N57" s="63">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O57" s="63">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P57" s="63">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q57" s="63">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R57" s="63">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S57" s="63">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T57" s="63">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U57" s="63">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V57" s="63">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W57" s="63">
+        <f t="shared" ref="W57" si="8">W56*16%</f>
+        <v>0</v>
+      </c>
+      <c r="X57" s="63">
+        <f>X56*16%</f>
+        <v>0</v>
+      </c>
+      <c r="Y57" s="63">
+        <f>Y56*16%</f>
+        <v>0</v>
+      </c>
+      <c r="Z57" s="63">
+        <f>Z56*16%</f>
+        <v>0</v>
+      </c>
+      <c r="AA57" s="63">
+        <f>AA56*16%</f>
+        <v>0</v>
+      </c>
+      <c r="AB57" s="86">
+        <f>AB56*16%</f>
+        <v>0</v>
+      </c>
       <c r="AD57" s="5"/>
       <c r="AE57" s="5"/>
       <c r="AF57" s="5"/>
       <c r="AG57" s="5"/>
-      <c r="AH57" s="76"/>
-      <c r="AI57" s="77"/>
-      <c r="AJ57" s="76"/>
-      <c r="AK57" s="76"/>
-      <c r="AL57" s="68"/>
-    </row>
-    <row r="58" spans="2:38" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="45"/>
-      <c r="J58" s="6"/>
-      <c r="K58" s="6"/>
-      <c r="L58" s="45"/>
-      <c r="M58" s="49"/>
-      <c r="N58" s="51"/>
-      <c r="O58" s="6"/>
-      <c r="R58" s="70"/>
-      <c r="S58" s="70"/>
-      <c r="T58" s="70"/>
-      <c r="U58" s="69"/>
-      <c r="V58" s="69"/>
-      <c r="W58" s="69"/>
-      <c r="X58" s="69"/>
-      <c r="Y58" s="69"/>
-      <c r="Z58" s="69"/>
-      <c r="AA58" s="68"/>
-      <c r="AC58" s="5"/>
+      <c r="AH57" s="5"/>
+      <c r="AI57" s="75"/>
+      <c r="AJ57" s="75"/>
+      <c r="AK57" s="75"/>
+      <c r="AL57" s="75"/>
+      <c r="AM57" s="68"/>
+    </row>
+    <row r="58" spans="2:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C58" s="106"/>
+      <c r="D58" s="107" t="s">
+        <v>34</v>
+      </c>
+      <c r="E58" s="108"/>
+      <c r="G58" s="88">
+        <f t="shared" ref="G58:P58" si="9">SUM(G56:G57)</f>
+        <v>0</v>
+      </c>
+      <c r="H58" s="89">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I58" s="89">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J58" s="89">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K58" s="89">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L58" s="89">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M58" s="89">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N58" s="89">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O58" s="89">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P58" s="89">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q58" s="89">
+        <f t="shared" ref="Q58:R58" si="10">SUM(Q56:Q57)</f>
+        <v>0</v>
+      </c>
+      <c r="R58" s="89">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S58" s="89">
+        <f t="shared" ref="S58:T58" si="11">SUM(S56:S57)</f>
+        <v>0</v>
+      </c>
+      <c r="T58" s="89">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="U58" s="89">
+        <f t="shared" ref="U58:V58" si="12">SUM(U56:U57)</f>
+        <v>0</v>
+      </c>
+      <c r="V58" s="89">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="W58" s="89">
+        <f>SUM(W56:W57)</f>
+        <v>0</v>
+      </c>
+      <c r="X58" s="89">
+        <f>SUM(X56:X57)</f>
+        <v>0</v>
+      </c>
+      <c r="Y58" s="89">
+        <f>SUM(Y56:Y57)</f>
+        <v>0</v>
+      </c>
+      <c r="Z58" s="89">
+        <f>SUM(Z56:Z57)</f>
+        <v>0</v>
+      </c>
+      <c r="AA58" s="89">
+        <f>SUM(AA56:AA57)</f>
+        <v>0</v>
+      </c>
+      <c r="AB58" s="111">
+        <f>SUM(AB56:AB57)</f>
+        <v>0</v>
+      </c>
       <c r="AD58" s="5"/>
       <c r="AE58" s="5"/>
       <c r="AF58" s="5"/>
       <c r="AG58" s="5"/>
-    </row>
-    <row r="59" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="F59" s="90"/>
-      <c r="G59" s="90"/>
-      <c r="H59" s="90"/>
-      <c r="I59" s="50"/>
-      <c r="J59" s="2"/>
-      <c r="K59" s="2"/>
-      <c r="L59" s="50"/>
-      <c r="M59" s="2"/>
-      <c r="N59" s="69"/>
-      <c r="O59" s="50"/>
-      <c r="P59" s="50"/>
-      <c r="Q59" s="47"/>
+      <c r="AH58" s="5"/>
+      <c r="AI58" s="76"/>
+      <c r="AJ58" s="77"/>
+      <c r="AK58" s="76"/>
+      <c r="AL58" s="76"/>
+      <c r="AM58" s="68"/>
+    </row>
+    <row r="59" spans="2:39" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="45"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="45"/>
+      <c r="M59" s="49"/>
+      <c r="N59" s="51"/>
+      <c r="O59" s="6"/>
       <c r="R59" s="70"/>
       <c r="S59" s="70"/>
       <c r="T59" s="70"/>
@@ -6679,23 +6844,26 @@
       <c r="X59" s="69"/>
       <c r="Y59" s="69"/>
       <c r="Z59" s="69"/>
-      <c r="AA59" s="68"/>
-    </row>
-    <row r="60" spans="2:38" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="C60" s="4"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="47"/>
-      <c r="J60" s="3"/>
+      <c r="AA59" s="69"/>
+      <c r="AB59" s="68"/>
+      <c r="AD59" s="5"/>
+      <c r="AE59" s="5"/>
+      <c r="AF59" s="5"/>
+      <c r="AG59" s="5"/>
+      <c r="AH59" s="5"/>
+    </row>
+    <row r="60" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="F60" s="90"/>
+      <c r="G60" s="90"/>
+      <c r="H60" s="90"/>
+      <c r="I60" s="50"/>
+      <c r="J60" s="2"/>
       <c r="K60" s="2"/>
-      <c r="L60" s="47"/>
-      <c r="M60" s="3"/>
-      <c r="N60" s="47"/>
-      <c r="O60" s="47"/>
-      <c r="P60" s="47"/>
+      <c r="L60" s="50"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="69"/>
+      <c r="O60" s="50"/>
+      <c r="P60" s="50"/>
       <c r="Q60" s="47"/>
       <c r="R60" s="70"/>
       <c r="S60" s="70"/>
@@ -6706,44 +6874,47 @@
       <c r="X60" s="69"/>
       <c r="Y60" s="69"/>
       <c r="Z60" s="69"/>
-      <c r="AA60" s="68"/>
-    </row>
-    <row r="61" spans="2:38" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="AA60" s="69"/>
+      <c r="AB60" s="68"/>
+    </row>
+    <row r="61" spans="2:39" ht="15.75" x14ac:dyDescent="0.3">
       <c r="C61" s="4"/>
-      <c r="D61" s="90" t="s">
-        <v>35</v>
-      </c>
-      <c r="E61" s="90"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
-      <c r="H61" s="38"/>
+      <c r="H61" s="3"/>
       <c r="I61" s="47"/>
       <c r="J61" s="3"/>
       <c r="K61" s="2"/>
-      <c r="L61" s="3"/>
+      <c r="L61" s="47"/>
       <c r="M61" s="3"/>
       <c r="N61" s="47"/>
       <c r="O61" s="47"/>
       <c r="P61" s="47"/>
       <c r="Q61" s="47"/>
-      <c r="R61" s="47"/>
-      <c r="S61" s="47"/>
-      <c r="T61" s="3"/>
-      <c r="U61" s="2"/>
-      <c r="V61" s="2"/>
-      <c r="W61" s="2"/>
-      <c r="X61" s="2"/>
-      <c r="Y61" s="2"/>
-      <c r="Z61" s="2"/>
-    </row>
-    <row r="62" spans="2:38" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="R61" s="70"/>
+      <c r="S61" s="70"/>
+      <c r="T61" s="70"/>
+      <c r="U61" s="69"/>
+      <c r="V61" s="69"/>
+      <c r="W61" s="69"/>
+      <c r="X61" s="69"/>
+      <c r="Y61" s="69"/>
+      <c r="Z61" s="69"/>
+      <c r="AA61" s="69"/>
+      <c r="AB61" s="68"/>
+    </row>
+    <row r="62" spans="2:39" ht="15.75" x14ac:dyDescent="0.3">
       <c r="C62" s="4"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
+      <c r="D62" s="90" t="s">
+        <v>35</v>
+      </c>
+      <c r="E62" s="90"/>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
-      <c r="H62" s="37"/>
-      <c r="I62" s="3"/>
+      <c r="H62" s="38"/>
+      <c r="I62" s="47"/>
       <c r="J62" s="3"/>
       <c r="K62" s="2"/>
       <c r="L62" s="3"/>
@@ -6753,7 +6924,7 @@
       <c r="P62" s="47"/>
       <c r="Q62" s="47"/>
       <c r="R62" s="47"/>
-      <c r="S62" s="3"/>
+      <c r="S62" s="47"/>
       <c r="T62" s="3"/>
       <c r="U62" s="2"/>
       <c r="V62" s="2"/>
@@ -6761,24 +6932,25 @@
       <c r="X62" s="2"/>
       <c r="Y62" s="2"/>
       <c r="Z62" s="2"/>
-    </row>
-    <row r="63" spans="2:38" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="AA62" s="2"/>
+    </row>
+    <row r="63" spans="2:39" ht="15.75" x14ac:dyDescent="0.3">
       <c r="C63" s="4"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
+      <c r="H63" s="37"/>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
       <c r="K63" s="2"/>
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
-      <c r="N63" s="3"/>
-      <c r="O63" s="3"/>
-      <c r="P63" s="3"/>
-      <c r="Q63" s="3"/>
-      <c r="R63" s="3"/>
+      <c r="N63" s="47"/>
+      <c r="O63" s="47"/>
+      <c r="P63" s="47"/>
+      <c r="Q63" s="47"/>
+      <c r="R63" s="47"/>
       <c r="S63" s="3"/>
       <c r="T63" s="3"/>
       <c r="U63" s="2"/>
@@ -6787,8 +6959,9 @@
       <c r="X63" s="2"/>
       <c r="Y63" s="2"/>
       <c r="Z63" s="2"/>
-    </row>
-    <row r="64" spans="2:38" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="AA63" s="2"/>
+    </row>
+    <row r="64" spans="2:39" ht="15.75" x14ac:dyDescent="0.3">
       <c r="C64" s="4"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -6813,23 +6986,51 @@
       <c r="X64" s="2"/>
       <c r="Y64" s="2"/>
       <c r="Z64" s="2"/>
-    </row>
-    <row r="65" spans="3:5" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="AA64" s="2"/>
+    </row>
+    <row r="65" spans="3:27" ht="15.75" x14ac:dyDescent="0.3">
       <c r="C65" s="4"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
-    </row>
-    <row r="66" spans="3:5" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="3"/>
+      <c r="M65" s="3"/>
+      <c r="N65" s="3"/>
+      <c r="O65" s="3"/>
+      <c r="P65" s="3"/>
+      <c r="Q65" s="3"/>
+      <c r="R65" s="3"/>
+      <c r="S65" s="3"/>
+      <c r="T65" s="3"/>
+      <c r="U65" s="2"/>
+      <c r="V65" s="2"/>
+      <c r="W65" s="2"/>
+      <c r="X65" s="2"/>
+      <c r="Y65" s="2"/>
+      <c r="Z65" s="2"/>
+      <c r="AA65" s="2"/>
+    </row>
+    <row r="66" spans="3:27" ht="15.75" x14ac:dyDescent="0.3">
       <c r="C66" s="4"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
     </row>
+    <row r="67" spans="3:27" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="C67" s="4"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="AH37:AI37"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="G37:P37"/>
-    <mergeCell ref="B5:B27"/>
+    <mergeCell ref="AI38:AJ38"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="G38:P38"/>
+    <mergeCell ref="B5:B28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6985,11 +7186,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI42"/>
+  <dimension ref="A1:AJ42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y22" sqref="Y22"/>
+      <selection pane="bottomLeft" activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6999,57 +7200,58 @@
     <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="16" customWidth="1"/>
     <col min="8" max="8" width="18.140625" customWidth="1"/>
-    <col min="9" max="24" width="20.140625" customWidth="1"/>
-    <col min="25" max="25" width="21.28515625" customWidth="1"/>
-    <col min="26" max="26" width="2.5703125" customWidth="1"/>
-    <col min="27" max="27" width="14" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="17.85546875" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="18.7109375" hidden="1" customWidth="1"/>
-    <col min="30" max="33" width="18.28515625" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="18.5703125" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="3.42578125" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="18.28515625" customWidth="1"/>
+    <col min="9" max="25" width="20.140625" customWidth="1"/>
+    <col min="26" max="26" width="21.28515625" customWidth="1"/>
+    <col min="27" max="27" width="2.5703125" customWidth="1"/>
+    <col min="28" max="28" width="14" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="17.85546875" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="18.7109375" hidden="1" customWidth="1"/>
+    <col min="31" max="34" width="18.28515625" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="18.5703125" hidden="1" customWidth="1"/>
+    <col min="36" max="36" width="3.42578125" hidden="1" customWidth="1"/>
+    <col min="37" max="37" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="125" t="s">
+    <row r="1" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="126" t="s">
         <v>138</v>
       </c>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="125"/>
-      <c r="K1" s="125"/>
-      <c r="L1" s="125"/>
-      <c r="M1" s="125"/>
-      <c r="N1" s="125"/>
-      <c r="O1" s="125"/>
-      <c r="P1" s="125"/>
-      <c r="Q1" s="125"/>
-      <c r="R1" s="125"/>
-      <c r="S1" s="125"/>
-      <c r="T1" s="125"/>
-      <c r="U1" s="125"/>
-      <c r="V1" s="125"/>
-      <c r="W1" s="125"/>
-      <c r="X1" s="125"/>
-      <c r="Y1" s="125"/>
-      <c r="AB1" s="125" t="s">
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="126"/>
+      <c r="M1" s="126"/>
+      <c r="N1" s="126"/>
+      <c r="O1" s="126"/>
+      <c r="P1" s="126"/>
+      <c r="Q1" s="126"/>
+      <c r="R1" s="126"/>
+      <c r="S1" s="126"/>
+      <c r="T1" s="126"/>
+      <c r="U1" s="126"/>
+      <c r="V1" s="126"/>
+      <c r="W1" s="126"/>
+      <c r="X1" s="126"/>
+      <c r="Y1" s="126"/>
+      <c r="Z1" s="126"/>
+      <c r="AC1" s="126" t="s">
         <v>102</v>
       </c>
-      <c r="AC1" s="125"/>
-      <c r="AD1" s="125"/>
-      <c r="AE1" s="125"/>
-      <c r="AF1" s="125"/>
-      <c r="AG1" s="125"/>
-      <c r="AH1" s="125"/>
-    </row>
-    <row r="2" spans="1:34" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:34" s="55" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD1" s="126"/>
+      <c r="AE1" s="126"/>
+      <c r="AF1" s="126"/>
+      <c r="AG1" s="126"/>
+      <c r="AH1" s="126"/>
+      <c r="AI1" s="126"/>
+    </row>
+    <row r="2" spans="1:35" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:35" s="55" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="56" t="s">
         <v>54</v>
       </c>
@@ -7120,32 +7322,35 @@
         <v>136</v>
       </c>
       <c r="Y3" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z3" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="Z3" s="58"/>
-      <c r="AB3" s="56" t="s">
+      <c r="AA3" s="58"/>
+      <c r="AC3" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="AC3" s="56" t="s">
+      <c r="AD3" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="AD3" s="57" t="s">
+      <c r="AE3" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="AE3" s="57" t="s">
+      <c r="AF3" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="AF3" s="57" t="s">
+      <c r="AG3" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="AG3" s="57" t="s">
+      <c r="AH3" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="AH3" s="57" t="s">
+      <c r="AI3" s="57" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:34" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="17" t="s">
         <v>57</v>
       </c>
@@ -7215,33 +7420,36 @@
       <c r="X4" s="82" t="s">
         <v>137</v>
       </c>
-      <c r="Y4" s="17" t="s">
+      <c r="Y4" s="82" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z4" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="Z4" s="17"/>
-      <c r="AB4" s="17" t="s">
+      <c r="AA4" s="17"/>
+      <c r="AC4" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="AC4" s="17" t="s">
+      <c r="AD4" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="AD4" s="17" t="s">
+      <c r="AE4" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AE4" s="78" t="s">
+      <c r="AF4" s="78" t="s">
         <v>105</v>
       </c>
-      <c r="AF4" s="82" t="s">
+      <c r="AG4" s="82" t="s">
         <v>112</v>
       </c>
-      <c r="AG4" s="82" t="s">
+      <c r="AH4" s="82" t="s">
         <v>111</v>
       </c>
-      <c r="AH4" s="17" t="s">
+      <c r="AI4" s="17" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:34" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
@@ -7268,29 +7476,30 @@
       <c r="V5" s="82"/>
       <c r="W5" s="82"/>
       <c r="X5" s="82"/>
-      <c r="Y5" s="17" t="e">
+      <c r="Y5" s="82"/>
+      <c r="Z5" s="17" t="e">
         <f>RESUMEN!$D5+RESUMEN!#REF!+RESUMEN!#REF!+RESUMEN!#REF!+RESUMEN!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="Z5" s="17"/>
-      <c r="AB5" s="17"/>
+      <c r="AA5" s="17"/>
       <c r="AC5" s="17"/>
       <c r="AD5" s="17"/>
-      <c r="AE5" s="78"/>
-      <c r="AF5" s="82">
-        <f>MES!D32</f>
-        <v>0</v>
-      </c>
+      <c r="AE5" s="17"/>
+      <c r="AF5" s="78"/>
       <c r="AG5" s="82">
         <f>MES!D33</f>
         <v>0</v>
       </c>
-      <c r="AH5" s="17" t="e">
-        <f>RESUMEN!$AD5+RESUMEN!#REF!+RESUMEN!#REF!+RESUMEN!#REF!+RESUMEN!#REF!</f>
+      <c r="AH5" s="82">
+        <f>MES!D34</f>
+        <v>0</v>
+      </c>
+      <c r="AI5" s="17" t="e">
+        <f>RESUMEN!$AE5+RESUMEN!#REF!+RESUMEN!#REF!+RESUMEN!#REF!+RESUMEN!#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -7351,29 +7560,26 @@
       <c r="V6" s="82"/>
       <c r="W6" s="82"/>
       <c r="X6" s="82"/>
-      <c r="Y6" s="78">
-        <f>SUM(D6:X6)</f>
-        <v>0</v>
-      </c>
-      <c r="Z6" s="17"/>
-      <c r="AA6" s="3" t="s">
+      <c r="Y6" s="82"/>
+      <c r="Z6" s="78">
+        <f>SUM(D6:Y6)</f>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="17"/>
+      <c r="AB6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AB6" s="18" t="s">
+      <c r="AC6" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="AC6" s="19" t="s">
+      <c r="AD6" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="AD6" s="17">
-        <f>MES!D31</f>
-        <v>0</v>
-      </c>
-      <c r="AE6" s="78">
+      <c r="AE6" s="17">
         <f>MES!D32</f>
         <v>0</v>
       </c>
-      <c r="AF6" s="82">
+      <c r="AF6" s="78">
         <f>MES!D33</f>
         <v>0</v>
       </c>
@@ -7381,12 +7587,16 @@
         <f>MES!D34</f>
         <v>0</v>
       </c>
-      <c r="AH6" s="78">
-        <f>RESUMEN!$AD6+RESUMEN!$AE6+AF6+AG6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AH6" s="82">
+        <f>MES!D35</f>
+        <v>0</v>
+      </c>
+      <c r="AI6" s="78">
+        <f>RESUMEN!$AE6+RESUMEN!$AF6+AG6+AH6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -7447,29 +7657,26 @@
       <c r="V7" s="82"/>
       <c r="W7" s="82"/>
       <c r="X7" s="82"/>
-      <c r="Y7" s="82">
-        <f t="shared" ref="Y7:Y13" si="0">SUM(D7:X7)</f>
-        <v>0</v>
-      </c>
-      <c r="Z7" s="17"/>
-      <c r="AA7" s="3" t="s">
+      <c r="Y7" s="82"/>
+      <c r="Z7" s="82">
+        <f>SUM(D7:Y7)</f>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="17"/>
+      <c r="AB7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AB7" s="18" t="s">
+      <c r="AC7" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="AC7" s="19" t="s">
+      <c r="AD7" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="AD7" s="17">
-        <f>MES!E31</f>
-        <v>0</v>
-      </c>
-      <c r="AE7" s="78">
+      <c r="AE7" s="17">
         <f>MES!E32</f>
         <v>0</v>
       </c>
-      <c r="AF7" s="82">
+      <c r="AF7" s="78">
         <f>MES!E33</f>
         <v>0</v>
       </c>
@@ -7478,11 +7685,15 @@
         <v>0</v>
       </c>
       <c r="AH7" s="82">
-        <f>RESUMEN!$AD7+RESUMEN!$AE7+AF7+AG7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+        <f>MES!E35</f>
+        <v>0</v>
+      </c>
+      <c r="AI7" s="82">
+        <f>RESUMEN!$AE7+RESUMEN!$AF7+AG7+AH7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -7543,29 +7754,26 @@
       <c r="V8" s="82"/>
       <c r="W8" s="82"/>
       <c r="X8" s="82"/>
-      <c r="Y8" s="82">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z8" s="17"/>
-      <c r="AA8" s="3" t="s">
+      <c r="Y8" s="82"/>
+      <c r="Z8" s="82">
+        <f t="shared" ref="Z8:Z13" si="0">SUM(D8:Y8)</f>
+        <v>0</v>
+      </c>
+      <c r="AA8" s="17"/>
+      <c r="AB8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AB8" s="18" t="s">
+      <c r="AC8" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="AC8" s="19" t="s">
+      <c r="AD8" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="AD8" s="17">
-        <f>MES!F29</f>
-        <v>0</v>
-      </c>
-      <c r="AE8" s="78">
+      <c r="AE8" s="17">
         <f>MES!F30</f>
         <v>0</v>
       </c>
-      <c r="AF8" s="82">
+      <c r="AF8" s="78">
         <f>MES!F31</f>
         <v>0</v>
       </c>
@@ -7574,11 +7782,15 @@
         <v>0</v>
       </c>
       <c r="AH8" s="82">
-        <f>RESUMEN!$AD8+RESUMEN!$AE8+AF8+AG8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+        <f>MES!F33</f>
+        <v>0</v>
+      </c>
+      <c r="AI8" s="82">
+        <f>RESUMEN!$AE8+RESUMEN!$AF8+AG8+AH8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -7639,29 +7851,26 @@
       <c r="V9" s="82"/>
       <c r="W9" s="82"/>
       <c r="X9" s="82"/>
-      <c r="Y9" s="82">
-        <f>SUM(D9:X9)</f>
-        <v>0</v>
-      </c>
-      <c r="Z9" s="17"/>
-      <c r="AA9" s="3" t="s">
+      <c r="Y9" s="82"/>
+      <c r="Z9" s="82">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="17"/>
+      <c r="AB9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AB9" s="18" t="s">
+      <c r="AC9" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="AC9" s="17" t="s">
+      <c r="AD9" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="AD9" s="17">
-        <f>MES!G29</f>
-        <v>0</v>
-      </c>
-      <c r="AE9" s="78">
+      <c r="AE9" s="17">
         <f>MES!G30</f>
         <v>0</v>
       </c>
-      <c r="AF9" s="82">
+      <c r="AF9" s="78">
         <f>MES!G31</f>
         <v>0</v>
       </c>
@@ -7670,11 +7879,15 @@
         <v>0</v>
       </c>
       <c r="AH9" s="82">
-        <f>RESUMEN!$AD9+RESUMEN!$AE9+AF9+AG9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+        <f>MES!G33</f>
+        <v>0</v>
+      </c>
+      <c r="AI9" s="82">
+        <f>RESUMEN!$AE9+RESUMEN!$AF9+AG9+AH9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
@@ -7698,20 +7911,21 @@
       <c r="V10" s="82"/>
       <c r="W10" s="82"/>
       <c r="X10" s="82"/>
-      <c r="Y10" s="82">
+      <c r="Y10" s="82"/>
+      <c r="Z10" s="82">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z10" s="17"/>
-      <c r="AB10" s="20"/>
+      <c r="AA10" s="17"/>
       <c r="AC10" s="20"/>
       <c r="AD10" s="20"/>
-      <c r="AE10" s="78"/>
-      <c r="AF10" s="82"/>
+      <c r="AE10" s="20"/>
+      <c r="AF10" s="78"/>
       <c r="AG10" s="82"/>
       <c r="AH10" s="82"/>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI10" s="82"/>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -7772,29 +7986,26 @@
       <c r="V11" s="82"/>
       <c r="W11" s="82"/>
       <c r="X11" s="82"/>
-      <c r="Y11" s="82">
+      <c r="Y11" s="82"/>
+      <c r="Z11" s="82">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z11" s="17"/>
-      <c r="AA11" s="3" t="s">
+      <c r="AA11" s="17"/>
+      <c r="AB11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AB11" s="18" t="s">
+      <c r="AC11" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="AC11" s="17" t="s">
+      <c r="AD11" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="AD11" s="17">
-        <f>MES!I29</f>
-        <v>0</v>
-      </c>
-      <c r="AE11" s="78">
+      <c r="AE11" s="17">
         <f>MES!I30</f>
         <v>0</v>
       </c>
-      <c r="AF11" s="82">
+      <c r="AF11" s="78">
         <f>MES!I31</f>
         <v>0</v>
       </c>
@@ -7803,11 +8014,15 @@
         <v>0</v>
       </c>
       <c r="AH11" s="82">
-        <f>RESUMEN!$AD11+RESUMEN!$AE11+AF11+AG11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+        <f>MES!I33</f>
+        <v>0</v>
+      </c>
+      <c r="AI11" s="82">
+        <f>RESUMEN!$AE11+RESUMEN!$AF11+AG11+AH11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
@@ -7868,29 +8083,26 @@
       <c r="V12" s="82"/>
       <c r="W12" s="82"/>
       <c r="X12" s="82"/>
-      <c r="Y12" s="82">
+      <c r="Y12" s="82"/>
+      <c r="Z12" s="82">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z12" s="17"/>
-      <c r="AA12" s="3" t="s">
+      <c r="AA12" s="17"/>
+      <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB12" s="18" t="s">
+      <c r="AC12" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="AC12" s="17" t="s">
+      <c r="AD12" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="AD12" s="17">
-        <f>MES!H29</f>
-        <v>0</v>
-      </c>
-      <c r="AE12" s="78">
+      <c r="AE12" s="17">
         <f>MES!H30</f>
         <v>0</v>
       </c>
-      <c r="AF12" s="82">
+      <c r="AF12" s="78">
         <f>MES!H31</f>
         <v>0</v>
       </c>
@@ -7899,11 +8111,15 @@
         <v>0</v>
       </c>
       <c r="AH12" s="82">
-        <f>RESUMEN!$AD12+RESUMEN!$AE12+AF12+AG12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+        <f>MES!H33</f>
+        <v>0</v>
+      </c>
+      <c r="AI12" s="82">
+        <f>RESUMEN!$AE12+RESUMEN!$AF12+AG12+AH12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
@@ -7964,25 +8180,22 @@
       <c r="V13" s="42"/>
       <c r="W13" s="42"/>
       <c r="X13" s="42"/>
-      <c r="Y13" s="82">
+      <c r="Y13" s="42"/>
+      <c r="Z13" s="82">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z13" s="17"/>
-      <c r="AA13" s="3" t="s">
+      <c r="AA13" s="17"/>
+      <c r="AB13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AB13" s="18" t="s">
+      <c r="AC13" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="AC13" s="17" t="s">
+      <c r="AD13" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="AD13" s="21">
-        <f>MES!J29</f>
-        <v>0</v>
-      </c>
-      <c r="AE13" s="23">
+      <c r="AE13" s="21">
         <f>MES!J30</f>
         <v>0</v>
       </c>
@@ -7994,18 +8207,22 @@
         <f>MES!J32</f>
         <v>0</v>
       </c>
-      <c r="AH13" s="82">
-        <f>RESUMEN!$AD13+RESUMEN!$AE13+AF13+AG13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AH13" s="23">
+        <f>MES!J33</f>
+        <v>0</v>
+      </c>
+      <c r="AI13" s="82">
+        <f>RESUMEN!$AE13+RESUMEN!$AF13+AG13+AH13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B14" s="20"/>
       <c r="C14" s="20" t="s">
         <v>37</v>
       </c>
       <c r="D14" s="22">
-        <f t="shared" ref="D14:X14" si="1">D6+D7+D8+D9+D11+D12+D13</f>
+        <f t="shared" ref="D14:Y14" si="1">D6+D7+D8+D9+D11+D12+D13</f>
         <v>0</v>
       </c>
       <c r="E14" s="71">
@@ -8089,19 +8306,19 @@
         <v>0</v>
       </c>
       <c r="Y14" s="71">
-        <f>Y6+Y7+Y8+Y9+Y10+Y11+Y12+Y13</f>
-        <v>0</v>
-      </c>
-      <c r="Z14" s="29"/>
-      <c r="AB14" s="20"/>
-      <c r="AC14" s="20" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="71">
+        <f>Z6+Z7+Z8+Z9+Z10+Z11+Z12+Z13</f>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="29"/>
+      <c r="AC14" s="20"/>
+      <c r="AD14" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="AD14" s="22">
-        <f>AD6+AD7+AD8+AD9+AD11+AD12+AD13</f>
-        <v>0</v>
-      </c>
-      <c r="AE14" s="71">
+      <c r="AE14" s="22">
         <f>AE6+AE7+AE8+AE9+AE11+AE12+AE13</f>
         <v>0</v>
       </c>
@@ -8114,11 +8331,15 @@
         <v>0</v>
       </c>
       <c r="AH14" s="71">
-        <f>RESUMEN!$AD14+RESUMEN!$AE14+AF14+AG14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+        <f>AH6+AH7+AH8+AH9+AH11+AH12+AH13</f>
+        <v>0</v>
+      </c>
+      <c r="AI14" s="71">
+        <f>RESUMEN!$AE14+RESUMEN!$AF14+AG14+AH14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>88</v>
       </c>
@@ -8189,23 +8410,21 @@
         <v>0</v>
       </c>
       <c r="X15" s="71"/>
-      <c r="Y15" s="71">
-        <f>SUM(D15:X15)</f>
-        <v>0</v>
-      </c>
-      <c r="Z15" s="20"/>
-      <c r="AA15" s="3" t="s">
+      <c r="Y15" s="71"/>
+      <c r="Z15" s="71">
+        <f>SUM(D15:Y15)</f>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="20"/>
+      <c r="AB15" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="AB15" s="18" t="s">
+      <c r="AC15" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="AC15" s="44" t="s">
+      <c r="AD15" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="AD15" s="44">
-        <v>0</v>
-      </c>
       <c r="AE15" s="44">
         <v>0</v>
       </c>
@@ -8215,12 +8434,15 @@
       <c r="AG15" s="44">
         <v>0</v>
       </c>
-      <c r="AH15" s="71">
-        <f>RESUMEN!$AD15+RESUMEN!$AE15+AF15+AG15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AH15" s="44">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="71">
+        <f>RESUMEN!$AE15+RESUMEN!$AF15+AG15+AH15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
@@ -8281,23 +8503,20 @@
       <c r="V16" s="23"/>
       <c r="W16" s="23"/>
       <c r="X16" s="23"/>
-      <c r="Y16" s="23">
-        <f>SUM(D16:X16)</f>
-        <v>0</v>
-      </c>
-      <c r="Z16" s="29"/>
-      <c r="AA16" s="3" t="s">
+      <c r="Y16" s="23"/>
+      <c r="Z16" s="23">
+        <f>SUM(D16:Y16)</f>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="29"/>
+      <c r="AB16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AB16" s="18" t="s">
+      <c r="AC16" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="AC16" s="20" t="s">
+      <c r="AD16" s="20" t="s">
         <v>69</v>
-      </c>
-      <c r="AD16" s="23">
-        <f>MES!Q29</f>
-        <v>0</v>
       </c>
       <c r="AE16" s="23">
         <f>MES!Q30</f>
@@ -8311,12 +8530,16 @@
         <f>MES!Q32</f>
         <v>0</v>
       </c>
-      <c r="AH16" s="71">
-        <f>RESUMEN!$AD16+RESUMEN!$AE16+AF16+AG16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AH16" s="23">
+        <f>MES!Q33</f>
+        <v>0</v>
+      </c>
+      <c r="AI16" s="71">
+        <f>RESUMEN!$AE16+RESUMEN!$AF16+AG16+AH16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B17" s="20"/>
       <c r="C17" s="20" t="s">
         <v>70</v>
@@ -8326,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="82">
-        <f t="shared" ref="E17:X17" si="2">E14-E15-E16</f>
+        <f t="shared" ref="E17:Y17" si="2">E14-E15-E16</f>
         <v>0</v>
       </c>
       <c r="F17" s="82">
@@ -8406,19 +8629,19 @@
         <v>0</v>
       </c>
       <c r="Y17" s="82">
-        <f>Y14-Y15-Y16</f>
-        <v>0</v>
-      </c>
-      <c r="Z17" s="20"/>
-      <c r="AB17" s="20"/>
-      <c r="AC17" s="20" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z17" s="82">
+        <f>Z14-Z15-Z16</f>
+        <v>0</v>
+      </c>
+      <c r="AA17" s="20"/>
+      <c r="AC17" s="20"/>
+      <c r="AD17" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="AD17" s="20">
-        <f>AD14-AD15-AD16</f>
-        <v>0</v>
-      </c>
-      <c r="AE17" s="82">
+      <c r="AE17" s="20">
         <f>AE14-AE15-AE16</f>
         <v>0</v>
       </c>
@@ -8430,14 +8653,18 @@
         <f>AG14-AG15-AG16</f>
         <v>0</v>
       </c>
-      <c r="AH17" s="71">
-        <f>RESUMEN!$AD17+RESUMEN!$AE17+AF17+AG17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AH17" s="82">
+        <f>AH14-AH15-AH16</f>
+        <v>0</v>
+      </c>
+      <c r="AI17" s="71">
+        <f>RESUMEN!$AE17+RESUMEN!$AF17+AG17+AH17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B18" s="24"/>
-      <c r="C18" s="126" t="s">
+      <c r="C18" s="121" t="s">
         <v>143</v>
       </c>
       <c r="D18" s="17"/>
@@ -8461,25 +8688,26 @@
       <c r="V18" s="82"/>
       <c r="W18" s="82"/>
       <c r="X18" s="82"/>
-      <c r="Y18" s="82">
-        <f t="shared" ref="Y18:Y27" si="3">SUM(D18:X18)</f>
-        <v>0</v>
-      </c>
-      <c r="Z18" s="17"/>
-      <c r="AB18" s="24"/>
-      <c r="AC18" s="24" t="s">
+      <c r="Y18" s="82"/>
+      <c r="Z18" s="82">
+        <f>SUM(D18:Y18)</f>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="17"/>
+      <c r="AC18" s="24"/>
+      <c r="AD18" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="AD18" s="17"/>
-      <c r="AE18" s="78"/>
-      <c r="AF18" s="82"/>
+      <c r="AE18" s="17"/>
+      <c r="AF18" s="78"/>
       <c r="AG18" s="82"/>
-      <c r="AH18" s="71">
-        <f>RESUMEN!$AD18+RESUMEN!$AE18+AF18+AG18</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AH18" s="82"/>
+      <c r="AI18" s="71">
+        <f>RESUMEN!$AE18+RESUMEN!$AF18+AG18+AH18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>98</v>
       </c>
@@ -8534,17 +8762,14 @@
       <c r="V19" s="13"/>
       <c r="W19" s="13"/>
       <c r="X19" s="13"/>
-      <c r="Y19" s="82">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z19" s="42"/>
-      <c r="AC19" t="s">
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="82">
+        <f>SUM(D19:Y19)</f>
+        <v>0</v>
+      </c>
+      <c r="AA19" s="42"/>
+      <c r="AD19" t="s">
         <v>98</v>
-      </c>
-      <c r="AD19" s="23">
-        <f>MES!O29</f>
-        <v>0</v>
       </c>
       <c r="AE19" s="23">
         <f>MES!O30</f>
@@ -8558,12 +8783,16 @@
         <f>MES!O32</f>
         <v>0</v>
       </c>
-      <c r="AH19" s="71">
-        <f>RESUMEN!$AD19+RESUMEN!$AE19+AF19+AG19</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AH19" s="23">
+        <f>MES!O33</f>
+        <v>0</v>
+      </c>
+      <c r="AI19" s="71">
+        <f>RESUMEN!$AE19+RESUMEN!$AF19+AG19+AH19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>11</v>
       </c>
@@ -8624,25 +8853,22 @@
       <c r="V20" s="23"/>
       <c r="W20" s="23"/>
       <c r="X20" s="23"/>
-      <c r="Y20" s="23">
-        <f>SUM(D20:X20)</f>
-        <v>0</v>
-      </c>
-      <c r="Z20" s="17"/>
-      <c r="AA20" s="3" t="s">
+      <c r="Y20" s="23"/>
+      <c r="Z20" s="23">
+        <f>SUM(D20:Y20)</f>
+        <v>0</v>
+      </c>
+      <c r="AA20" s="17"/>
+      <c r="AB20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AB20" s="18" t="s">
+      <c r="AC20" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="AC20" s="17" t="s">
+      <c r="AD20" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="AD20" s="21">
-        <f>MES!L29</f>
-        <v>0</v>
-      </c>
-      <c r="AE20" s="23">
+      <c r="AE20" s="21">
         <f>MES!L30</f>
         <v>0</v>
       </c>
@@ -8654,12 +8880,16 @@
         <f>MES!L32</f>
         <v>0</v>
       </c>
-      <c r="AH20" s="71">
-        <f>RESUMEN!$AD20+RESUMEN!$AE20+AF20+AG20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AH20" s="23">
+        <f>MES!L33</f>
+        <v>0</v>
+      </c>
+      <c r="AI20" s="71">
+        <f>RESUMEN!$AE20+RESUMEN!$AF20+AG20+AH20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>7</v>
       </c>
@@ -8682,96 +8912,96 @@
         <v>0</v>
       </c>
       <c r="G21" s="82">
-        <f t="shared" ref="G21:X21" si="4">G14+G19+G20+G18</f>
+        <f t="shared" ref="G21:Y21" si="3">G14+G19+G20+G18</f>
         <v>0</v>
       </c>
       <c r="H21" s="82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I21" s="82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J21" s="82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K21" s="82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L21" s="82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M21" s="82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N21" s="82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O21" s="82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P21" s="82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q21" s="82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R21" s="82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S21" s="82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T21" s="82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U21" s="82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V21" s="82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W21" s="82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X21" s="82">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y21" s="78">
-        <f>SUM(D21:X21)</f>
-        <v>0</v>
-      </c>
-      <c r="Z21" s="30"/>
-      <c r="AA21" s="3" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y21" s="82">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="78">
+        <f>SUM(D21:Y21)</f>
+        <v>0</v>
+      </c>
+      <c r="AA21" s="30"/>
+      <c r="AB21" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AB21" s="18" t="s">
+      <c r="AC21" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="AC21" s="17" t="s">
+      <c r="AD21" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="AD21" s="17">
-        <f>AD14+AD19+AD20</f>
-        <v>0</v>
-      </c>
-      <c r="AE21" s="82">
+      <c r="AE21" s="17">
         <f>AE14+AE19+AE20</f>
         <v>0</v>
       </c>
@@ -8783,12 +9013,16 @@
         <f>AG14+AG19+AG20</f>
         <v>0</v>
       </c>
-      <c r="AH21" s="71">
-        <f>RESUMEN!$AD21+RESUMEN!$AE21+AF21+AG21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AH21" s="82">
+        <f>AH14+AH19+AH20</f>
+        <v>0</v>
+      </c>
+      <c r="AI21" s="71">
+        <f>RESUMEN!$AE21+RESUMEN!$AF21+AG21+AH21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B22" s="25" t="s">
         <v>4</v>
       </c>
@@ -8796,103 +9030,103 @@
         <v>73</v>
       </c>
       <c r="D22" s="26">
-        <f t="shared" ref="D22:X22" si="5">D35</f>
+        <f t="shared" ref="D22:Y22" si="4">D35</f>
         <v>0</v>
       </c>
       <c r="E22" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F22" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G22" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H22" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I22" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J22" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K22" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L22" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M22" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N22" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O22" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P22" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q22" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R22" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S22" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T22" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U22" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V22" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W22" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X22" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y22" s="26">
-        <f>SUM(D22:X22)</f>
-        <v>0</v>
-      </c>
-      <c r="Z22" s="20"/>
-      <c r="AB22" s="25" t="s">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z22" s="26">
+        <f>SUM(D22:Y22)</f>
+        <v>0</v>
+      </c>
+      <c r="AA22" s="20"/>
+      <c r="AC22" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="AC22" s="17" t="s">
+      <c r="AD22" s="17" t="s">
         <v>73</v>
-      </c>
-      <c r="AD22" s="26">
-        <f>AD35</f>
-        <v>0</v>
       </c>
       <c r="AE22" s="26">
         <f>AE35</f>
@@ -8906,12 +9140,16 @@
         <f>AG35</f>
         <v>0</v>
       </c>
-      <c r="AH22" s="71">
-        <f>RESUMEN!$AD22+RESUMEN!$AE22+AF22+AG22</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AH22" s="26">
+        <f>AH35</f>
+        <v>0</v>
+      </c>
+      <c r="AI22" s="71">
+        <f>RESUMEN!$AE22+RESUMEN!$AF22+AG22+AH22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B23" s="20"/>
       <c r="C23" s="20" t="s">
         <v>37</v>
@@ -8921,99 +9159,99 @@
         <v>0</v>
       </c>
       <c r="E23" s="82">
-        <f t="shared" ref="E23:X23" si="6">E22+E21</f>
+        <f t="shared" ref="E23:Y23" si="5">E22+E21</f>
         <v>0</v>
       </c>
       <c r="F23" s="82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G23" s="82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H23" s="82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I23" s="82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J23" s="82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K23" s="82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L23" s="82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M23" s="82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N23" s="82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O23" s="82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P23" s="82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q23" s="82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R23" s="82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S23" s="82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T23" s="82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U23" s="82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V23" s="82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W23" s="82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X23" s="82">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Y23" s="78">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z23" s="42"/>
-      <c r="AB23" s="20"/>
-      <c r="AC23" s="20" t="s">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y23" s="82">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Z23" s="78">
+        <f>SUM(D23:Y23)</f>
+        <v>0</v>
+      </c>
+      <c r="AA23" s="42"/>
+      <c r="AC23" s="20"/>
+      <c r="AD23" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="AD23" s="20">
-        <f>AD22+AD21</f>
-        <v>0</v>
-      </c>
-      <c r="AE23" s="82">
+      <c r="AE23" s="20">
         <f>AE22+AE21</f>
         <v>0</v>
       </c>
@@ -9025,12 +9263,16 @@
         <f>AG22+AG21</f>
         <v>0</v>
       </c>
-      <c r="AH23" s="71">
-        <f>RESUMEN!$AD23+RESUMEN!$AE23+AF23+AG23</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AH23" s="82">
+        <f>AH22+AH21</f>
+        <v>0</v>
+      </c>
+      <c r="AI23" s="71">
+        <f>RESUMEN!$AE23+RESUMEN!$AF23+AG23+AH23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>32</v>
       </c>
@@ -9041,106 +9283,106 @@
         <v>139</v>
       </c>
       <c r="D24" s="21">
-        <f t="shared" ref="D24:X24" si="7">D21*2%</f>
+        <f t="shared" ref="D24:Y24" si="6">D21*2%</f>
         <v>0</v>
       </c>
       <c r="E24" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F24" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G24" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H24" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I24" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J24" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K24" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L24" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M24" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N24" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O24" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P24" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q24" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R24" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S24" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T24" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U24" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V24" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W24" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X24" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y24" s="23">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z24" s="17"/>
-      <c r="AA24" s="3" t="s">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z24" s="23">
+        <f>SUM(D24:Y24)</f>
+        <v>0</v>
+      </c>
+      <c r="AA24" s="17"/>
+      <c r="AB24" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AB24" s="18" t="s">
+      <c r="AC24" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="AC24" s="17" t="s">
+      <c r="AD24" s="17" t="s">
         <v>31</v>
-      </c>
-      <c r="AD24" s="23">
-        <f>AD21*4%</f>
-        <v>0</v>
       </c>
       <c r="AE24" s="23">
         <f>AE21*4%</f>
@@ -9154,12 +9396,16 @@
         <f>AG21*4%</f>
         <v>0</v>
       </c>
-      <c r="AH24" s="71">
-        <f>RESUMEN!$AD24+RESUMEN!$AE24+AF24+AG24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AH24" s="23">
+        <f>AH21*4%</f>
+        <v>0</v>
+      </c>
+      <c r="AI24" s="71">
+        <f>RESUMEN!$AE24+RESUMEN!$AF24+AG24+AH24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B25" s="17"/>
       <c r="C25" s="17" t="s">
         <v>33</v>
@@ -9169,35 +9415,35 @@
         <v>0</v>
       </c>
       <c r="E25" s="48">
-        <f t="shared" ref="E25:L25" si="8">E23+E24</f>
+        <f t="shared" ref="E25:L25" si="7">E23+E24</f>
         <v>0</v>
       </c>
       <c r="F25" s="82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G25" s="82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H25" s="82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I25" s="82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J25" s="82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K25" s="82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L25" s="82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M25" s="82">
@@ -9205,63 +9451,63 @@
         <v>0</v>
       </c>
       <c r="N25" s="82">
-        <f t="shared" ref="N25:X25" si="9">N23+N24</f>
+        <f t="shared" ref="N25:Y25" si="8">N23+N24</f>
         <v>0</v>
       </c>
       <c r="O25" s="82">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P25" s="82">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q25" s="82">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R25" s="82">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S25" s="82">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T25" s="82">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U25" s="82">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V25" s="82">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W25" s="82">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X25" s="82">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Y25" s="78">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z25" s="17"/>
-      <c r="AB25" s="17"/>
-      <c r="AC25" s="17" t="s">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Y25" s="82">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z25" s="78">
+        <f>SUM(D25:Y25)</f>
+        <v>0</v>
+      </c>
+      <c r="AA25" s="17"/>
+      <c r="AC25" s="17"/>
+      <c r="AD25" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="AD25" s="17">
-        <f>AD23+AD24</f>
-        <v>0</v>
-      </c>
-      <c r="AE25" s="82">
+      <c r="AE25" s="17">
         <f>AE23+AE24</f>
         <v>0</v>
       </c>
@@ -9273,114 +9519,118 @@
         <f>AG23+AG24</f>
         <v>0</v>
       </c>
-      <c r="AH25" s="71">
-        <f>RESUMEN!$AD25+RESUMEN!$AE25+AF25+AG25</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AH25" s="82">
+        <f>AH23+AH24</f>
+        <v>0</v>
+      </c>
+      <c r="AI25" s="71">
+        <f>RESUMEN!$AE25+RESUMEN!$AF25+AG25+AH25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B26" s="17"/>
       <c r="C26" s="17" t="s">
         <v>2</v>
       </c>
       <c r="D26" s="17">
-        <f t="shared" ref="D26:X26" si="10">D25*16%</f>
+        <f t="shared" ref="D26:Y26" si="9">D25*16%</f>
         <v>0</v>
       </c>
       <c r="E26" s="82">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F26" s="82">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G26" s="82">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H26" s="82">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I26" s="82">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J26" s="82">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K26" s="82">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L26" s="82">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M26" s="82">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N26" s="82">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O26" s="82">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P26" s="82">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q26" s="82">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R26" s="82">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S26" s="82">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="T26" s="82">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U26" s="82">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V26" s="82">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W26" s="82">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X26" s="82">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Y26" s="78">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z26" s="30"/>
-      <c r="AB26" s="17"/>
-      <c r="AC26" s="17" t="s">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y26" s="82">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Z26" s="78">
+        <f>SUM(D26:Y26)</f>
+        <v>0</v>
+      </c>
+      <c r="AA26" s="30"/>
+      <c r="AC26" s="17"/>
+      <c r="AD26" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="AD26" s="17">
-        <f>AD25*16%</f>
-        <v>0</v>
-      </c>
-      <c r="AE26" s="82">
+      <c r="AE26" s="17">
         <f>AE25*16%</f>
         <v>0</v>
       </c>
@@ -9392,112 +9642,116 @@
         <f>AG25*16%</f>
         <v>0</v>
       </c>
-      <c r="AH26" s="71">
-        <f>RESUMEN!$AD26+RESUMEN!$AE26+AF26+AG26</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AH26" s="82">
+        <f>AH25*16%</f>
+        <v>0</v>
+      </c>
+      <c r="AI26" s="71">
+        <f>RESUMEN!$AE26+RESUMEN!$AF26+AG26+AH26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="27"/>
       <c r="C27" s="27" t="s">
         <v>75</v>
       </c>
       <c r="D27" s="28">
-        <f t="shared" ref="D27:X27" si="11">D25+D26</f>
+        <f t="shared" ref="D27:Y27" si="10">D25+D26</f>
         <v>0</v>
       </c>
       <c r="E27" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F27" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G27" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H27" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I27" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J27" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K27" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L27" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M27" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N27" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O27" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P27" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q27" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="R27" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S27" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T27" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U27" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V27" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="W27" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="X27" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y27" s="28">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z27" s="29"/>
-      <c r="AB27" s="27"/>
-      <c r="AC27" s="27" t="s">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z27" s="28">
+        <f>SUM(D27:Y27)</f>
+        <v>0</v>
+      </c>
+      <c r="AA27" s="29"/>
+      <c r="AC27" s="27"/>
+      <c r="AD27" s="27" t="s">
         <v>75</v>
-      </c>
-      <c r="AD27" s="28">
-        <f>AD25+AD26</f>
-        <v>0</v>
       </c>
       <c r="AE27" s="28">
         <f>AE25+AE26</f>
@@ -9512,11 +9766,15 @@
         <v>0</v>
       </c>
       <c r="AH27" s="28">
-        <f>RESUMEN!$AD27+RESUMEN!$AE27</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:34" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+        <f>AH25+AH26</f>
+        <v>0</v>
+      </c>
+      <c r="AI27" s="28">
+        <f>RESUMEN!$AE27+RESUMEN!$AF27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
       <c r="D28" s="29"/>
@@ -9540,23 +9798,24 @@
       <c r="V28" s="42"/>
       <c r="W28" s="42"/>
       <c r="X28" s="42"/>
-      <c r="Y28" s="42">
-        <f t="shared" ref="Y28:Y34" si="12">SUM(D28:X28)</f>
-        <v>0</v>
-      </c>
-      <c r="Z28" s="29"/>
-      <c r="AB28" s="20"/>
+      <c r="Y28" s="42"/>
+      <c r="Z28" s="42">
+        <f>SUM(D28:Y28)</f>
+        <v>0</v>
+      </c>
+      <c r="AA28" s="29"/>
       <c r="AC28" s="20"/>
-      <c r="AD28" s="29"/>
-      <c r="AE28" s="42"/>
+      <c r="AD28" s="20"/>
+      <c r="AE28" s="29"/>
       <c r="AF28" s="42"/>
       <c r="AG28" s="42"/>
-      <c r="AH28" s="42">
-        <f>RESUMEN!$AD28+RESUMEN!$AE28</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AH28" s="42"/>
+      <c r="AI28" s="42">
+        <f>RESUMEN!$AE28+RESUMEN!$AF28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B29" s="20"/>
       <c r="C29" s="20"/>
       <c r="D29" s="29"/>
@@ -9580,23 +9839,24 @@
       <c r="V29" s="42"/>
       <c r="W29" s="42"/>
       <c r="X29" s="42"/>
-      <c r="Y29" s="42">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Z29" s="30"/>
-      <c r="AB29" s="20"/>
+      <c r="Y29" s="42"/>
+      <c r="Z29" s="42">
+        <f>SUM(D29:Y29)</f>
+        <v>0</v>
+      </c>
+      <c r="AA29" s="30"/>
       <c r="AC29" s="20"/>
-      <c r="AD29" s="29"/>
-      <c r="AE29" s="42"/>
+      <c r="AD29" s="20"/>
+      <c r="AE29" s="29"/>
       <c r="AF29" s="42"/>
       <c r="AG29" s="42"/>
-      <c r="AH29" s="42">
-        <f>RESUMEN!$AD29+RESUMEN!$AE29</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AH29" s="42"/>
+      <c r="AI29" s="42">
+        <f>RESUMEN!$AE29+RESUMEN!$AF29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B30" s="25" t="s">
         <v>4</v>
       </c>
@@ -9622,25 +9882,26 @@
       <c r="V30" s="30"/>
       <c r="W30" s="30"/>
       <c r="X30" s="30"/>
-      <c r="Y30" s="30">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Z30" s="29"/>
-      <c r="AB30" s="25" t="s">
+      <c r="Y30" s="30"/>
+      <c r="Z30" s="30">
+        <f>SUM(D30:Y30)</f>
+        <v>0</v>
+      </c>
+      <c r="AA30" s="29"/>
+      <c r="AC30" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="AC30" s="20"/>
-      <c r="AD30" s="30"/>
+      <c r="AD30" s="20"/>
       <c r="AE30" s="30"/>
       <c r="AF30" s="30"/>
       <c r="AG30" s="30"/>
-      <c r="AH30" s="30">
-        <f>RESUMEN!$AD30+RESUMEN!$AE30</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AH30" s="30"/>
+      <c r="AI30" s="30">
+        <f>RESUMEN!$AE30+RESUMEN!$AF30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>14</v>
       </c>
@@ -9701,25 +9962,22 @@
       <c r="V31" s="42"/>
       <c r="W31" s="42"/>
       <c r="X31" s="42"/>
-      <c r="Y31" s="42">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Z31" s="29"/>
-      <c r="AA31" s="3" t="s">
+      <c r="Y31" s="42"/>
+      <c r="Z31" s="42">
+        <f>SUM(D31:Y31)</f>
+        <v>0</v>
+      </c>
+      <c r="AA31" s="29"/>
+      <c r="AB31" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AB31" s="18" t="s">
+      <c r="AC31" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="AC31" s="17" t="s">
+      <c r="AD31" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="AD31" s="29">
-        <f>MES!Q29</f>
-        <v>0</v>
-      </c>
-      <c r="AE31" s="42">
+      <c r="AE31" s="29">
         <f>MES!Q30</f>
         <v>0</v>
       </c>
@@ -9732,11 +9990,15 @@
         <v>0</v>
       </c>
       <c r="AH31" s="42">
-        <f>RESUMEN!$AD31+RESUMEN!$AE31</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+        <f>MES!Q33</f>
+        <v>0</v>
+      </c>
+      <c r="AI31" s="42">
+        <f>RESUMEN!$AE31+RESUMEN!$AF31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>14</v>
       </c>
@@ -9797,25 +10059,22 @@
       <c r="V32" s="42"/>
       <c r="W32" s="42"/>
       <c r="X32" s="42"/>
-      <c r="Y32" s="42">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Z32" s="29"/>
-      <c r="AA32" s="3" t="s">
+      <c r="Y32" s="42"/>
+      <c r="Z32" s="42">
+        <f>SUM(D32:Y32)</f>
+        <v>0</v>
+      </c>
+      <c r="AA32" s="29"/>
+      <c r="AB32" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AB32" s="18" t="s">
+      <c r="AC32" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="AC32" s="20" t="s">
+      <c r="AD32" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="AD32" s="29">
-        <f>MES!R29</f>
-        <v>0</v>
-      </c>
-      <c r="AE32" s="42">
+      <c r="AE32" s="29">
         <f>MES!R30</f>
         <v>0</v>
       </c>
@@ -9828,11 +10087,15 @@
         <v>0</v>
       </c>
       <c r="AH32" s="42">
-        <f>RESUMEN!$AD32+RESUMEN!$AE32</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+        <f>MES!R33</f>
+        <v>0</v>
+      </c>
+      <c r="AI32" s="42">
+        <f>RESUMEN!$AE32+RESUMEN!$AF32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>14</v>
       </c>
@@ -9893,25 +10156,22 @@
       <c r="V33" s="42"/>
       <c r="W33" s="42"/>
       <c r="X33" s="42"/>
-      <c r="Y33" s="42">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Z33" s="29"/>
-      <c r="AA33" s="3" t="s">
+      <c r="Y33" s="42"/>
+      <c r="Z33" s="42">
+        <f>SUM(D33:Y33)</f>
+        <v>0</v>
+      </c>
+      <c r="AA33" s="29"/>
+      <c r="AB33" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AB33" s="18" t="s">
+      <c r="AC33" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="AC33" s="20" t="s">
+      <c r="AD33" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="AD33" s="29">
-        <f>MES!S29</f>
-        <v>0</v>
-      </c>
-      <c r="AE33" s="42">
+      <c r="AE33" s="29">
         <f>MES!S30</f>
         <v>0</v>
       </c>
@@ -9924,11 +10184,15 @@
         <v>0</v>
       </c>
       <c r="AH33" s="42">
-        <f>RESUMEN!$AD33+RESUMEN!$AE33</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+        <f>MES!S33</f>
+        <v>0</v>
+      </c>
+      <c r="AI33" s="42">
+        <f>RESUMEN!$AE33+RESUMEN!$AF33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>14</v>
       </c>
@@ -9989,25 +10253,22 @@
       <c r="V34" s="42"/>
       <c r="W34" s="42"/>
       <c r="X34" s="42"/>
-      <c r="Y34" s="42">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Z34" s="30"/>
-      <c r="AA34" s="3" t="s">
+      <c r="Y34" s="42"/>
+      <c r="Z34" s="42">
+        <f>SUM(D34:Y34)</f>
+        <v>0</v>
+      </c>
+      <c r="AA34" s="30"/>
+      <c r="AB34" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AB34" s="18" t="s">
+      <c r="AC34" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="AC34" s="20" t="s">
+      <c r="AD34" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="AD34" s="29">
-        <f>MES!T29</f>
-        <v>0</v>
-      </c>
-      <c r="AE34" s="42">
+      <c r="AE34" s="29">
         <f>MES!T30</f>
         <v>0</v>
       </c>
@@ -10020,111 +10281,115 @@
         <v>0</v>
       </c>
       <c r="AH34" s="42">
-        <f>RESUMEN!$AD34+RESUMEN!$AE34</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+        <f>MES!T33</f>
+        <v>0</v>
+      </c>
+      <c r="AI34" s="42">
+        <f>RESUMEN!$AE34+RESUMEN!$AF34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B35" s="31"/>
       <c r="C35" s="31" t="s">
         <v>1</v>
       </c>
       <c r="D35" s="31">
-        <f t="shared" ref="D35:X35" si="13">D31+D32+D33+D34</f>
+        <f t="shared" ref="D35:Y35" si="11">D31+D32+D33+D34</f>
         <v>0</v>
       </c>
       <c r="E35" s="31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F35" s="31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G35" s="31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H35" s="31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I35" s="31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J35" s="31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K35" s="31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L35" s="31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M35" s="31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N35" s="31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O35" s="31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P35" s="31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q35" s="31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R35" s="31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S35" s="31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T35" s="31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U35" s="31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V35" s="31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W35" s="31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="X35" s="31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Y35" s="31">
-        <f>SUM(D35:X35)</f>
-        <v>0</v>
-      </c>
-      <c r="Z35" s="35"/>
-      <c r="AB35" s="31"/>
-      <c r="AC35" s="31" t="s">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Z35" s="31">
+        <f>SUM(D35:Y35)</f>
+        <v>0</v>
+      </c>
+      <c r="AA35" s="35"/>
+      <c r="AC35" s="31"/>
+      <c r="AD35" s="31" t="s">
         <v>1</v>
-      </c>
-      <c r="AD35" s="31">
-        <f>AD31+AD32+AD33+AD34</f>
-        <v>0</v>
       </c>
       <c r="AE35" s="31">
         <f>AE31+AE32+AE33+AE34</f>
@@ -10139,11 +10404,15 @@
         <v>0</v>
       </c>
       <c r="AH35" s="31">
-        <f>RESUMEN!$AD35+RESUMEN!$AE35</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+        <f>AH31+AH32+AH33+AH34</f>
+        <v>0</v>
+      </c>
+      <c r="AI35" s="31">
+        <f>RESUMEN!$AE35+RESUMEN!$AF35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B36" s="32"/>
       <c r="C36" s="32"/>
       <c r="D36" s="32"/>
@@ -10152,9 +10421,8 @@
       <c r="G36" s="32"/>
       <c r="H36" s="32"/>
       <c r="I36" s="32"/>
-      <c r="J36" s="35" t="str">
-        <f>MES!D61</f>
-        <v>El concepto de IMSS, SAR, Infonavit, impuesto a la nómina, deberá desglosarse.</v>
+      <c r="J36" s="35" t="s">
+        <v>35</v>
       </c>
       <c r="K36" s="32"/>
       <c r="L36" s="32"/>
@@ -10171,16 +10439,17 @@
       <c r="W36" s="32"/>
       <c r="X36" s="32"/>
       <c r="Y36" s="32"/>
-      <c r="Z36" s="35"/>
-      <c r="AB36" s="32"/>
+      <c r="Z36" s="32"/>
+      <c r="AA36" s="35"/>
       <c r="AC36" s="32"/>
       <c r="AD36" s="32"/>
       <c r="AE36" s="32"/>
-      <c r="AF36" s="35"/>
+      <c r="AF36" s="32"/>
       <c r="AG36" s="35"/>
-      <c r="AH36" s="32"/>
-    </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AH36" s="35"/>
+      <c r="AI36" s="32"/>
+    </row>
+    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A37" s="33" t="s">
         <v>79</v>
       </c>
@@ -10210,20 +10479,21 @@
       <c r="W37" s="32"/>
       <c r="X37" s="32"/>
       <c r="Y37" s="32"/>
-      <c r="AA37" s="33" t="s">
+      <c r="Z37" s="32"/>
+      <c r="AB37" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="AB37" s="32" t="s">
+      <c r="AC37" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="AC37" s="20"/>
-      <c r="AD37" s="32"/>
+      <c r="AD37" s="20"/>
       <c r="AE37" s="32"/>
       <c r="AF37" s="32"/>
       <c r="AG37" s="32"/>
       <c r="AH37" s="32"/>
-    </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI37" s="32"/>
+    </row>
+    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
       <c r="D38" s="13"/>
       <c r="E38" s="13"/>
       <c r="F38" s="13"/>
@@ -10245,29 +10515,30 @@
       <c r="V38" s="13"/>
       <c r="W38" s="13"/>
       <c r="X38" s="13"/>
-    </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="Y38" s="13"/>
+    </row>
+    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B39" s="34" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
       <c r="G40" s="13"/>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
       <c r="F42" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="AB1:AH1"/>
-    <mergeCell ref="B1:Y1"/>
+    <mergeCell ref="AC1:AI1"/>
+    <mergeCell ref="B1:Z1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="I22 H33:I33 D28:E30 I28:I30 H31:I32 G31:G32 AH39 AH40 AH36:AH37 AD26 F31:F32 F28:F30 G28:G30 H28:H30 H22 F22:G22 K28 AE24 AE36 D26 D27 AE28:AE30 AD28:AD33" formula="1"/>
-    <ignoredError sqref="AH38" formula="1" calculatedColumn="1"/>
-    <ignoredError sqref="J10:J13 J20 J32:J34 J22 J31 J28:J30 J16 J18:J19 J36" calculatedColumn="1"/>
+    <ignoredError sqref="I22 H33:I33 D28:E30 I28:I30 H31:I32 G31:G32 AI39 AI40 AI36:AI37 AE26 F31:F32 F28:F30 G28:G30 H28:H30 H22 F22:G22 K28 AF24 AF36 D26 D27 AF28:AF30 AE28:AE33" formula="1"/>
+    <ignoredError sqref="AI38" formula="1" calculatedColumn="1"/>
+    <ignoredError sqref="J10:J13 J20 J32:J34 J22 J31 J28:J30 J16 J18:J19" calculatedColumn="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
   <tableParts count="2">

--- a/OperadoraNominas/bin/Debug/Archivos/Reporte.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/Reporte.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="469"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="469" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="MES" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="151">
   <si>
     <t>TOTAL PERCEPCIONES</t>
   </si>
@@ -425,9 +425,6 @@
     <t>DESCUENTO ASIMILADOS</t>
   </si>
   <si>
-    <t>PRESTAMO ASIMILADOS</t>
-  </si>
-  <si>
     <t>Prestamo Asimilado</t>
   </si>
   <si>
@@ -471,6 +468,12 @@
   </si>
   <si>
     <t>RETENCIONES</t>
+  </si>
+  <si>
+    <t>INFONAVIT ASIM</t>
+  </si>
+  <si>
+    <t>DESC ASIMILADOS</t>
   </si>
 </sst>
 </file>
@@ -2609,9 +2612,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA58" sqref="Z58:AA58"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2631,7 +2634,8 @@
     <col min="13" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.7109375" customWidth="1"/>
     <col min="15" max="15" width="11.28515625" customWidth="1"/>
-    <col min="16" max="19" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.85546875" customWidth="1"/>
+    <col min="17" max="19" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11.140625" customWidth="1"/>
@@ -2685,7 +2689,7 @@
         <v>96</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>47</v>
@@ -2706,7 +2710,7 @@
         <v>2</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="X2" s="1" t="s">
         <v>3</v>
@@ -4315,7 +4319,7 @@
     <row r="25" spans="2:32" s="53" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="145"/>
       <c r="C25" s="63" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D25" s="7">
         <v>0</v>
@@ -4389,7 +4393,7 @@
     <row r="26" spans="2:32" s="53" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="145"/>
       <c r="C26" s="63" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D26" s="7">
         <v>0</v>
@@ -4957,13 +4961,13 @@
         <v>128</v>
       </c>
       <c r="Z39" s="82" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AA39" s="82" t="s">
         <v>129</v>
       </c>
       <c r="AB39" s="82" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AC39" s="111" t="s">
         <v>3</v>
@@ -6031,7 +6035,7 @@
       <c r="B50" s="72"/>
       <c r="C50" s="94"/>
       <c r="D50" s="95" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E50" s="96"/>
       <c r="G50" s="10">
@@ -6922,7 +6926,7 @@
       <c r="B58" s="119"/>
       <c r="C58" s="122"/>
       <c r="D58" s="116" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E58" s="123"/>
       <c r="G58" s="141">
@@ -7356,12 +7360,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ229"/>
+  <dimension ref="A1:AK229"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="R1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="V15" sqref="V15"/>
+      <selection pane="bottomLeft" activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7386,22 +7390,24 @@
     <col min="18" max="18" width="14.42578125" customWidth="1"/>
     <col min="19" max="19" width="14.5703125" customWidth="1"/>
     <col min="20" max="20" width="11.7109375" customWidth="1"/>
-    <col min="21" max="26" width="18.28515625" customWidth="1"/>
-    <col min="27" max="27" width="18.28515625" style="112" customWidth="1"/>
-    <col min="28" max="28" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.5703125" customWidth="1"/>
-    <col min="30" max="30" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.85546875" style="112" customWidth="1"/>
-    <col min="33" max="33" width="14.140625" customWidth="1"/>
-    <col min="34" max="34" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="13.42578125" customWidth="1"/>
-    <col min="36" max="36" width="13.85546875" customWidth="1"/>
-    <col min="37" max="37" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.28515625" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" customWidth="1"/>
+    <col min="23" max="27" width="18.28515625" customWidth="1"/>
+    <col min="28" max="28" width="18.28515625" style="112" customWidth="1"/>
+    <col min="29" max="29" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.5703125" customWidth="1"/>
+    <col min="31" max="31" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.85546875" style="112" customWidth="1"/>
+    <col min="34" max="34" width="14.140625" customWidth="1"/>
+    <col min="35" max="35" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="13.42578125" customWidth="1"/>
+    <col min="37" max="37" width="13.85546875" customWidth="1"/>
+    <col min="38" max="38" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>82</v>
       </c>
@@ -7451,7 +7457,7 @@
         <v>46</v>
       </c>
       <c r="Q1" s="124" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>51</v>
@@ -7466,1172 +7472,1175 @@
         <v>133</v>
       </c>
       <c r="V1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA1" s="124" t="s">
-        <v>149</v>
-      </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="124" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AF1" s="124" t="s">
+      <c r="AG1" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AI1" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="AJ1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AK1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="Q2" s="125"/>
-      <c r="AA2" s="125"/>
-      <c r="AF2" s="125"/>
-    </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AB2" s="125"/>
+      <c r="AG2" s="125"/>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="Q3" s="125"/>
-      <c r="AA3" s="125"/>
-      <c r="AF3" s="125"/>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AB3" s="125"/>
+      <c r="AG3" s="125"/>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="Q4" s="125"/>
-      <c r="AA4" s="125"/>
-      <c r="AF4" s="125"/>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AB4" s="125"/>
+      <c r="AG4" s="125"/>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="Q5" s="125"/>
-      <c r="AA5" s="125"/>
-      <c r="AF5" s="125"/>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AB5" s="125"/>
+      <c r="AG5" s="125"/>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="Q6" s="125"/>
-      <c r="AA6" s="125"/>
-      <c r="AF6" s="125"/>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AB6" s="125"/>
+      <c r="AG6" s="125"/>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="Q7" s="125"/>
-      <c r="AA7" s="125"/>
-      <c r="AF7" s="125"/>
-    </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AB7" s="125"/>
+      <c r="AG7" s="125"/>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="Q8" s="126"/>
-      <c r="AA8" s="128"/>
-      <c r="AF8" s="128"/>
-    </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AB8" s="128"/>
+      <c r="AG8" s="128"/>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="Q9" s="125"/>
-      <c r="AA9" s="125"/>
-      <c r="AF9" s="125"/>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AB9" s="125"/>
+      <c r="AG9" s="125"/>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="Q10" s="125"/>
-      <c r="AA10" s="125"/>
-      <c r="AF10" s="125"/>
-    </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AB10" s="125"/>
+      <c r="AG10" s="125"/>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="Q11" s="127"/>
-      <c r="AA11" s="125"/>
-      <c r="AF11" s="125"/>
-    </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AB11" s="125"/>
+      <c r="AG11" s="125"/>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="Q12" s="127"/>
-      <c r="AA12" s="125"/>
-      <c r="AF12" s="125"/>
-    </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AB12" s="125"/>
+      <c r="AG12" s="125"/>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="Q13" s="127"/>
-      <c r="AA13" s="125"/>
-      <c r="AF13" s="125"/>
-    </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AB13" s="125"/>
+      <c r="AG13" s="125"/>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="Q14" s="127"/>
-      <c r="AA14" s="125"/>
-      <c r="AF14" s="125"/>
-    </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AB14" s="125"/>
+      <c r="AG14" s="125"/>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="Q15" s="126"/>
-      <c r="AA15" s="128"/>
-      <c r="AF15" s="128"/>
-    </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AB15" s="128"/>
+      <c r="AG15" s="128"/>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="Q16" s="127"/>
-      <c r="AA16" s="125"/>
-      <c r="AF16" s="125"/>
-    </row>
-    <row r="17" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB16" s="125"/>
+      <c r="AG16" s="125"/>
+    </row>
+    <row r="17" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q17" s="127"/>
-      <c r="AA17" s="125"/>
-      <c r="AF17" s="125"/>
-    </row>
-    <row r="18" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB17" s="125"/>
+      <c r="AG17" s="125"/>
+    </row>
+    <row r="18" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q18" s="127"/>
-      <c r="AA18" s="125"/>
-      <c r="AF18" s="125"/>
-    </row>
-    <row r="19" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB18" s="125"/>
+      <c r="AG18" s="125"/>
+    </row>
+    <row r="19" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q19" s="127"/>
-      <c r="AA19" s="125"/>
-      <c r="AF19" s="125"/>
-    </row>
-    <row r="20" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB19" s="125"/>
+      <c r="AG19" s="125"/>
+    </row>
+    <row r="20" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q20" s="127"/>
-      <c r="AA20" s="125"/>
-      <c r="AF20" s="125"/>
-    </row>
-    <row r="21" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB20" s="125"/>
+      <c r="AG20" s="125"/>
+    </row>
+    <row r="21" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q21" s="127"/>
-      <c r="AA21" s="125"/>
-      <c r="AF21" s="125"/>
-    </row>
-    <row r="22" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB21" s="125"/>
+      <c r="AG21" s="125"/>
+    </row>
+    <row r="22" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q22" s="127"/>
-      <c r="AA22" s="125"/>
-      <c r="AF22" s="125"/>
-    </row>
-    <row r="23" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB22" s="125"/>
+      <c r="AG22" s="125"/>
+    </row>
+    <row r="23" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q23" s="127"/>
-      <c r="AA23" s="125"/>
-      <c r="AF23" s="125"/>
-    </row>
-    <row r="24" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB23" s="125"/>
+      <c r="AG23" s="125"/>
+    </row>
+    <row r="24" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q24" s="127"/>
-      <c r="AA24" s="125"/>
-      <c r="AF24" s="125"/>
-    </row>
-    <row r="25" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB24" s="125"/>
+      <c r="AG24" s="125"/>
+    </row>
+    <row r="25" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q25" s="127"/>
-      <c r="AA25" s="125"/>
-      <c r="AF25" s="125"/>
-    </row>
-    <row r="26" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB25" s="125"/>
+      <c r="AG25" s="125"/>
+    </row>
+    <row r="26" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q26" s="127"/>
-      <c r="AA26" s="125"/>
-      <c r="AF26" s="125"/>
-    </row>
-    <row r="27" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB26" s="125"/>
+      <c r="AG26" s="125"/>
+    </row>
+    <row r="27" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q27" s="127"/>
-      <c r="AA27" s="125"/>
-      <c r="AF27" s="125"/>
-    </row>
-    <row r="28" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB27" s="125"/>
+      <c r="AG27" s="125"/>
+    </row>
+    <row r="28" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q28" s="126"/>
-      <c r="AA28" s="128"/>
-      <c r="AF28" s="128"/>
-    </row>
-    <row r="29" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB28" s="128"/>
+      <c r="AG28" s="128"/>
+    </row>
+    <row r="29" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q29" s="127"/>
-      <c r="AA29" s="125"/>
-      <c r="AF29" s="125"/>
-    </row>
-    <row r="30" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB29" s="125"/>
+      <c r="AG29" s="125"/>
+    </row>
+    <row r="30" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q30" s="127"/>
-      <c r="AA30" s="125"/>
-      <c r="AF30" s="125"/>
-    </row>
-    <row r="31" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB30" s="125"/>
+      <c r="AG30" s="125"/>
+    </row>
+    <row r="31" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q31" s="127"/>
-      <c r="AA31" s="125"/>
-      <c r="AF31" s="125"/>
-    </row>
-    <row r="32" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB31" s="125"/>
+      <c r="AG31" s="125"/>
+    </row>
+    <row r="32" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q32" s="127"/>
-      <c r="AA32" s="125"/>
-      <c r="AF32" s="125"/>
-    </row>
-    <row r="33" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB32" s="125"/>
+      <c r="AG32" s="125"/>
+    </row>
+    <row r="33" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q33" s="127"/>
-      <c r="AA33" s="125"/>
-      <c r="AF33" s="125"/>
-    </row>
-    <row r="34" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB33" s="125"/>
+      <c r="AG33" s="125"/>
+    </row>
+    <row r="34" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q34" s="127"/>
-      <c r="AA34" s="125"/>
-      <c r="AF34" s="125"/>
-    </row>
-    <row r="35" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB34" s="125"/>
+      <c r="AG34" s="125"/>
+    </row>
+    <row r="35" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q35" s="127"/>
-      <c r="AA35" s="125"/>
-      <c r="AF35" s="125"/>
-    </row>
-    <row r="36" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB35" s="125"/>
+      <c r="AG35" s="125"/>
+    </row>
+    <row r="36" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q36" s="127"/>
-      <c r="AA36" s="125"/>
-      <c r="AF36" s="125"/>
-    </row>
-    <row r="37" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB36" s="125"/>
+      <c r="AG36" s="125"/>
+    </row>
+    <row r="37" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q37" s="127"/>
-      <c r="AA37" s="125"/>
-      <c r="AF37" s="125"/>
-    </row>
-    <row r="38" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB37" s="125"/>
+      <c r="AG37" s="125"/>
+    </row>
+    <row r="38" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q38" s="127"/>
-      <c r="AA38" s="125"/>
-      <c r="AF38" s="125"/>
-    </row>
-    <row r="39" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB38" s="125"/>
+      <c r="AG38" s="125"/>
+    </row>
+    <row r="39" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q39" s="127"/>
-      <c r="AA39" s="125"/>
-      <c r="AF39" s="125"/>
-    </row>
-    <row r="40" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB39" s="125"/>
+      <c r="AG39" s="125"/>
+    </row>
+    <row r="40" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q40" s="126"/>
-      <c r="AA40" s="128"/>
-      <c r="AF40" s="128"/>
-    </row>
-    <row r="41" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB40" s="128"/>
+      <c r="AG40" s="128"/>
+    </row>
+    <row r="41" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q41" s="127"/>
-      <c r="AA41" s="125"/>
-      <c r="AF41" s="125"/>
-    </row>
-    <row r="42" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB41" s="125"/>
+      <c r="AG41" s="125"/>
+    </row>
+    <row r="42" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q42" s="127"/>
-      <c r="AA42" s="125"/>
-      <c r="AF42" s="125"/>
-    </row>
-    <row r="43" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB42" s="125"/>
+      <c r="AG42" s="125"/>
+    </row>
+    <row r="43" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q43" s="127"/>
-      <c r="AA43" s="125"/>
-      <c r="AF43" s="125"/>
-    </row>
-    <row r="44" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB43" s="125"/>
+      <c r="AG43" s="125"/>
+    </row>
+    <row r="44" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q44" s="127"/>
-      <c r="AA44" s="125"/>
-      <c r="AF44" s="125"/>
-    </row>
-    <row r="45" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB44" s="125"/>
+      <c r="AG44" s="125"/>
+    </row>
+    <row r="45" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q45" s="127"/>
-      <c r="AA45" s="125"/>
-      <c r="AF45" s="125"/>
-    </row>
-    <row r="46" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB45" s="125"/>
+      <c r="AG45" s="125"/>
+    </row>
+    <row r="46" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q46" s="127"/>
-      <c r="AA46" s="125"/>
-      <c r="AF46" s="125"/>
-    </row>
-    <row r="47" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB46" s="125"/>
+      <c r="AG46" s="125"/>
+    </row>
+    <row r="47" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q47" s="127"/>
-      <c r="AA47" s="125"/>
-      <c r="AF47" s="125"/>
-    </row>
-    <row r="48" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB47" s="125"/>
+      <c r="AG47" s="125"/>
+    </row>
+    <row r="48" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q48" s="127"/>
-      <c r="AA48" s="125"/>
-      <c r="AF48" s="125"/>
-    </row>
-    <row r="49" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB48" s="125"/>
+      <c r="AG48" s="125"/>
+    </row>
+    <row r="49" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q49" s="127"/>
-      <c r="AA49" s="125"/>
-      <c r="AF49" s="125"/>
-    </row>
-    <row r="50" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB49" s="125"/>
+      <c r="AG49" s="125"/>
+    </row>
+    <row r="50" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q50" s="127"/>
-      <c r="AA50" s="125"/>
-      <c r="AF50" s="125"/>
-    </row>
-    <row r="51" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB50" s="125"/>
+      <c r="AG50" s="125"/>
+    </row>
+    <row r="51" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q51" s="127"/>
-      <c r="AA51" s="125"/>
-      <c r="AF51" s="125"/>
-    </row>
-    <row r="52" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB51" s="125"/>
+      <c r="AG51" s="125"/>
+    </row>
+    <row r="52" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q52" s="126"/>
-      <c r="AA52" s="128"/>
-      <c r="AF52" s="128"/>
-    </row>
-    <row r="53" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB52" s="128"/>
+      <c r="AG52" s="128"/>
+    </row>
+    <row r="53" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q53" s="127"/>
-      <c r="AA53" s="125"/>
-      <c r="AF53" s="125"/>
-    </row>
-    <row r="54" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB53" s="125"/>
+      <c r="AG53" s="125"/>
+    </row>
+    <row r="54" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q54" s="127"/>
-      <c r="AA54" s="125"/>
-      <c r="AF54" s="125"/>
-    </row>
-    <row r="55" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB54" s="125"/>
+      <c r="AG54" s="125"/>
+    </row>
+    <row r="55" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q55" s="127"/>
-      <c r="AA55" s="125"/>
-      <c r="AF55" s="125"/>
-    </row>
-    <row r="56" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB55" s="125"/>
+      <c r="AG55" s="125"/>
+    </row>
+    <row r="56" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q56" s="127"/>
-      <c r="AA56" s="125"/>
-      <c r="AF56" s="125"/>
-    </row>
-    <row r="57" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB56" s="125"/>
+      <c r="AG56" s="125"/>
+    </row>
+    <row r="57" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q57" s="127"/>
-      <c r="AA57" s="125"/>
-      <c r="AF57" s="125"/>
-    </row>
-    <row r="58" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB57" s="125"/>
+      <c r="AG57" s="125"/>
+    </row>
+    <row r="58" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q58" s="126"/>
-      <c r="AA58" s="128"/>
-      <c r="AF58" s="128"/>
-    </row>
-    <row r="59" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB58" s="128"/>
+      <c r="AG58" s="128"/>
+    </row>
+    <row r="59" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q59" s="127"/>
-      <c r="AA59" s="125"/>
-      <c r="AF59" s="125"/>
-    </row>
-    <row r="60" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB59" s="125"/>
+      <c r="AG59" s="125"/>
+    </row>
+    <row r="60" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q60" s="127"/>
-      <c r="AA60" s="125"/>
-      <c r="AF60" s="125"/>
-    </row>
-    <row r="61" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB60" s="125"/>
+      <c r="AG60" s="125"/>
+    </row>
+    <row r="61" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q61" s="127"/>
-      <c r="AA61" s="125"/>
-      <c r="AF61" s="125"/>
-    </row>
-    <row r="62" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB61" s="125"/>
+      <c r="AG61" s="125"/>
+    </row>
+    <row r="62" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q62" s="127"/>
-      <c r="AA62" s="125"/>
-      <c r="AF62" s="125"/>
-    </row>
-    <row r="63" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB62" s="125"/>
+      <c r="AG62" s="125"/>
+    </row>
+    <row r="63" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q63" s="127"/>
-      <c r="AA63" s="125"/>
-      <c r="AF63" s="125"/>
-    </row>
-    <row r="64" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB63" s="125"/>
+      <c r="AG63" s="125"/>
+    </row>
+    <row r="64" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q64" s="127"/>
-      <c r="AA64" s="125"/>
-      <c r="AF64" s="125"/>
-    </row>
-    <row r="65" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB64" s="125"/>
+      <c r="AG64" s="125"/>
+    </row>
+    <row r="65" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q65" s="127"/>
-      <c r="AA65" s="125"/>
-      <c r="AF65" s="125"/>
-    </row>
-    <row r="66" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB65" s="125"/>
+      <c r="AG65" s="125"/>
+    </row>
+    <row r="66" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q66" s="127"/>
-      <c r="AA66" s="125"/>
-      <c r="AF66" s="125"/>
-    </row>
-    <row r="67" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB66" s="125"/>
+      <c r="AG66" s="125"/>
+    </row>
+    <row r="67" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q67" s="126"/>
-      <c r="AA67" s="128"/>
-      <c r="AF67" s="128"/>
-    </row>
-    <row r="68" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB67" s="128"/>
+      <c r="AG67" s="128"/>
+    </row>
+    <row r="68" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q68" s="127"/>
-      <c r="AA68" s="125"/>
-      <c r="AF68" s="125"/>
-    </row>
-    <row r="69" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB68" s="125"/>
+      <c r="AG68" s="125"/>
+    </row>
+    <row r="69" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q69" s="127"/>
-      <c r="AA69" s="125"/>
-      <c r="AF69" s="125"/>
-    </row>
-    <row r="70" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB69" s="125"/>
+      <c r="AG69" s="125"/>
+    </row>
+    <row r="70" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q70" s="127"/>
-      <c r="AA70" s="125"/>
-      <c r="AF70" s="125"/>
-    </row>
-    <row r="71" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB70" s="125"/>
+      <c r="AG70" s="125"/>
+    </row>
+    <row r="71" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q71" s="127"/>
-      <c r="AA71" s="125"/>
-      <c r="AF71" s="125"/>
-    </row>
-    <row r="72" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB71" s="125"/>
+      <c r="AG71" s="125"/>
+    </row>
+    <row r="72" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q72" s="127"/>
-      <c r="AA72" s="125"/>
-      <c r="AF72" s="125"/>
-    </row>
-    <row r="73" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB72" s="125"/>
+      <c r="AG72" s="125"/>
+    </row>
+    <row r="73" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q73" s="127"/>
-      <c r="AA73" s="125"/>
-      <c r="AF73" s="125"/>
-    </row>
-    <row r="74" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB73" s="125"/>
+      <c r="AG73" s="125"/>
+    </row>
+    <row r="74" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q74" s="127"/>
-      <c r="AA74" s="125"/>
-      <c r="AF74" s="125"/>
-    </row>
-    <row r="75" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB74" s="125"/>
+      <c r="AG74" s="125"/>
+    </row>
+    <row r="75" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q75" s="127"/>
-      <c r="AA75" s="125"/>
-      <c r="AF75" s="125"/>
-    </row>
-    <row r="76" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB75" s="125"/>
+      <c r="AG75" s="125"/>
+    </row>
+    <row r="76" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q76" s="127"/>
-      <c r="AA76" s="125"/>
-      <c r="AF76" s="125"/>
-    </row>
-    <row r="77" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB76" s="125"/>
+      <c r="AG76" s="125"/>
+    </row>
+    <row r="77" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q77" s="127"/>
-      <c r="AA77" s="125"/>
-      <c r="AF77" s="125"/>
-    </row>
-    <row r="78" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB77" s="125"/>
+      <c r="AG77" s="125"/>
+    </row>
+    <row r="78" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q78" s="127"/>
-      <c r="AA78" s="125"/>
-      <c r="AF78" s="125"/>
-    </row>
-    <row r="79" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB78" s="125"/>
+      <c r="AG78" s="125"/>
+    </row>
+    <row r="79" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q79" s="126"/>
-      <c r="AA79" s="128"/>
-      <c r="AF79" s="128"/>
-    </row>
-    <row r="80" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB79" s="128"/>
+      <c r="AG79" s="128"/>
+    </row>
+    <row r="80" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q80" s="127"/>
-      <c r="AA80" s="125"/>
-      <c r="AF80" s="125"/>
-    </row>
-    <row r="81" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB80" s="125"/>
+      <c r="AG80" s="125"/>
+    </row>
+    <row r="81" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q81" s="127"/>
-      <c r="AA81" s="125"/>
-      <c r="AF81" s="125"/>
-    </row>
-    <row r="82" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB81" s="125"/>
+      <c r="AG81" s="125"/>
+    </row>
+    <row r="82" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q82" s="127"/>
-      <c r="AA82" s="125"/>
-      <c r="AF82" s="125"/>
-    </row>
-    <row r="83" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB82" s="125"/>
+      <c r="AG82" s="125"/>
+    </row>
+    <row r="83" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q83" s="127"/>
-      <c r="AA83" s="125"/>
-      <c r="AF83" s="125"/>
-    </row>
-    <row r="84" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB83" s="125"/>
+      <c r="AG83" s="125"/>
+    </row>
+    <row r="84" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q84" s="127"/>
-      <c r="AA84" s="125"/>
-      <c r="AF84" s="125"/>
-    </row>
-    <row r="85" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB84" s="125"/>
+      <c r="AG84" s="125"/>
+    </row>
+    <row r="85" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q85" s="127"/>
-      <c r="AA85" s="125"/>
-      <c r="AF85" s="125"/>
-    </row>
-    <row r="86" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB85" s="125"/>
+      <c r="AG85" s="125"/>
+    </row>
+    <row r="86" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q86" s="127"/>
-      <c r="AA86" s="125"/>
-      <c r="AF86" s="125"/>
-    </row>
-    <row r="87" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB86" s="125"/>
+      <c r="AG86" s="125"/>
+    </row>
+    <row r="87" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q87" s="127"/>
-      <c r="AA87" s="125"/>
-      <c r="AF87" s="125"/>
-    </row>
-    <row r="88" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB87" s="125"/>
+      <c r="AG87" s="125"/>
+    </row>
+    <row r="88" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q88" s="127"/>
-      <c r="AA88" s="125"/>
-      <c r="AF88" s="125"/>
-    </row>
-    <row r="89" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB88" s="125"/>
+      <c r="AG88" s="125"/>
+    </row>
+    <row r="89" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q89" s="127"/>
-      <c r="AA89" s="125"/>
-      <c r="AF89" s="125"/>
-    </row>
-    <row r="90" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB89" s="125"/>
+      <c r="AG89" s="125"/>
+    </row>
+    <row r="90" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q90" s="126"/>
-      <c r="AA90" s="128"/>
-      <c r="AF90" s="128"/>
-    </row>
-    <row r="91" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB90" s="128"/>
+      <c r="AG90" s="128"/>
+    </row>
+    <row r="91" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q91" s="127"/>
-      <c r="AA91" s="125"/>
-      <c r="AF91" s="125"/>
-    </row>
-    <row r="92" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB91" s="125"/>
+      <c r="AG91" s="125"/>
+    </row>
+    <row r="92" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q92" s="127"/>
-      <c r="AA92" s="125"/>
-      <c r="AF92" s="125"/>
-    </row>
-    <row r="93" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB92" s="125"/>
+      <c r="AG92" s="125"/>
+    </row>
+    <row r="93" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q93" s="127"/>
-      <c r="AA93" s="125"/>
-      <c r="AF93" s="125"/>
-    </row>
-    <row r="94" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB93" s="125"/>
+      <c r="AG93" s="125"/>
+    </row>
+    <row r="94" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q94" s="127"/>
-      <c r="AA94" s="125"/>
-      <c r="AF94" s="125"/>
-    </row>
-    <row r="95" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB94" s="125"/>
+      <c r="AG94" s="125"/>
+    </row>
+    <row r="95" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q95" s="127"/>
-      <c r="AA95" s="125"/>
-      <c r="AF95" s="125"/>
-    </row>
-    <row r="96" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB95" s="125"/>
+      <c r="AG95" s="125"/>
+    </row>
+    <row r="96" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q96" s="127"/>
-      <c r="AA96" s="125"/>
-      <c r="AF96" s="125"/>
-    </row>
-    <row r="97" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB96" s="125"/>
+      <c r="AG96" s="125"/>
+    </row>
+    <row r="97" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q97" s="127"/>
-      <c r="AA97" s="125"/>
-      <c r="AF97" s="125"/>
-    </row>
-    <row r="98" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB97" s="125"/>
+      <c r="AG97" s="125"/>
+    </row>
+    <row r="98" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q98" s="127"/>
-      <c r="AA98" s="125"/>
-      <c r="AF98" s="125"/>
-    </row>
-    <row r="99" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB98" s="125"/>
+      <c r="AG98" s="125"/>
+    </row>
+    <row r="99" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q99" s="127"/>
-      <c r="AA99" s="125"/>
-      <c r="AF99" s="125"/>
-    </row>
-    <row r="100" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB99" s="125"/>
+      <c r="AG99" s="125"/>
+    </row>
+    <row r="100" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q100" s="127"/>
-      <c r="AA100" s="125"/>
-      <c r="AF100" s="125"/>
-    </row>
-    <row r="101" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB100" s="125"/>
+      <c r="AG100" s="125"/>
+    </row>
+    <row r="101" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q101" s="126"/>
-      <c r="AA101" s="128"/>
-      <c r="AF101" s="128"/>
-    </row>
-    <row r="102" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB101" s="128"/>
+      <c r="AG101" s="128"/>
+    </row>
+    <row r="102" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q102" s="127"/>
-      <c r="AA102" s="125"/>
-      <c r="AF102" s="125"/>
-    </row>
-    <row r="103" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB102" s="125"/>
+      <c r="AG102" s="125"/>
+    </row>
+    <row r="103" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q103" s="127"/>
-      <c r="AA103" s="125"/>
-      <c r="AF103" s="125"/>
-    </row>
-    <row r="104" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB103" s="125"/>
+      <c r="AG103" s="125"/>
+    </row>
+    <row r="104" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q104" s="127"/>
-      <c r="AA104" s="125"/>
-      <c r="AF104" s="125"/>
-    </row>
-    <row r="105" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB104" s="125"/>
+      <c r="AG104" s="125"/>
+    </row>
+    <row r="105" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q105" s="127"/>
-      <c r="AA105" s="125"/>
-      <c r="AF105" s="125"/>
-    </row>
-    <row r="106" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB105" s="125"/>
+      <c r="AG105" s="125"/>
+    </row>
+    <row r="106" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q106" s="127"/>
-      <c r="AA106" s="125"/>
-      <c r="AF106" s="125"/>
-    </row>
-    <row r="107" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB106" s="125"/>
+      <c r="AG106" s="125"/>
+    </row>
+    <row r="107" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q107" s="127"/>
-      <c r="AA107" s="125"/>
-      <c r="AF107" s="125"/>
-    </row>
-    <row r="108" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB107" s="125"/>
+      <c r="AG107" s="125"/>
+    </row>
+    <row r="108" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q108" s="127"/>
-      <c r="AA108" s="125"/>
-      <c r="AF108" s="125"/>
-    </row>
-    <row r="109" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB108" s="125"/>
+      <c r="AG108" s="125"/>
+    </row>
+    <row r="109" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q109" s="127"/>
-      <c r="AA109" s="125"/>
-      <c r="AF109" s="125"/>
-    </row>
-    <row r="110" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB109" s="125"/>
+      <c r="AG109" s="125"/>
+    </row>
+    <row r="110" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q110" s="127"/>
-      <c r="AA110" s="125"/>
-      <c r="AF110" s="125"/>
-    </row>
-    <row r="111" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB110" s="125"/>
+      <c r="AG110" s="125"/>
+    </row>
+    <row r="111" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q111" s="126"/>
-      <c r="AA111" s="128"/>
-      <c r="AF111" s="128"/>
-    </row>
-    <row r="112" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB111" s="128"/>
+      <c r="AG111" s="128"/>
+    </row>
+    <row r="112" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q112" s="127"/>
-      <c r="AA112" s="125"/>
-      <c r="AF112" s="125"/>
-    </row>
-    <row r="113" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB112" s="125"/>
+      <c r="AG112" s="125"/>
+    </row>
+    <row r="113" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q113" s="127"/>
-      <c r="AA113" s="125"/>
-      <c r="AF113" s="125"/>
-    </row>
-    <row r="114" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB113" s="125"/>
+      <c r="AG113" s="125"/>
+    </row>
+    <row r="114" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q114" s="127"/>
-      <c r="AA114" s="125"/>
-      <c r="AF114" s="125"/>
-    </row>
-    <row r="115" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB114" s="125"/>
+      <c r="AG114" s="125"/>
+    </row>
+    <row r="115" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q115" s="127"/>
-      <c r="AA115" s="125"/>
-      <c r="AF115" s="125"/>
-    </row>
-    <row r="116" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB115" s="125"/>
+      <c r="AG115" s="125"/>
+    </row>
+    <row r="116" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q116" s="127"/>
-      <c r="AA116" s="125"/>
-      <c r="AF116" s="125"/>
-    </row>
-    <row r="117" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB116" s="125"/>
+      <c r="AG116" s="125"/>
+    </row>
+    <row r="117" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q117" s="127"/>
-      <c r="AA117" s="125"/>
-      <c r="AF117" s="125"/>
-    </row>
-    <row r="118" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB117" s="125"/>
+      <c r="AG117" s="125"/>
+    </row>
+    <row r="118" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q118" s="127"/>
-      <c r="AA118" s="125"/>
-      <c r="AF118" s="125"/>
-    </row>
-    <row r="119" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB118" s="125"/>
+      <c r="AG118" s="125"/>
+    </row>
+    <row r="119" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q119" s="127"/>
-      <c r="AA119" s="125"/>
-      <c r="AF119" s="125"/>
-    </row>
-    <row r="120" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB119" s="125"/>
+      <c r="AG119" s="125"/>
+    </row>
+    <row r="120" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q120" s="127"/>
-      <c r="AA120" s="125"/>
-      <c r="AF120" s="125"/>
-    </row>
-    <row r="121" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB120" s="125"/>
+      <c r="AG120" s="125"/>
+    </row>
+    <row r="121" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q121" s="127"/>
-      <c r="AA121" s="125"/>
-      <c r="AF121" s="125"/>
-    </row>
-    <row r="122" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB121" s="125"/>
+      <c r="AG121" s="125"/>
+    </row>
+    <row r="122" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q122" s="127"/>
-      <c r="AA122" s="125"/>
-      <c r="AF122" s="125"/>
-    </row>
-    <row r="123" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB122" s="125"/>
+      <c r="AG122" s="125"/>
+    </row>
+    <row r="123" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q123" s="127"/>
-      <c r="AA123" s="125"/>
-      <c r="AF123" s="125"/>
-    </row>
-    <row r="124" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB123" s="125"/>
+      <c r="AG123" s="125"/>
+    </row>
+    <row r="124" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q124" s="127"/>
-      <c r="AA124" s="125"/>
-      <c r="AF124" s="125"/>
-    </row>
-    <row r="125" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB124" s="125"/>
+      <c r="AG124" s="125"/>
+    </row>
+    <row r="125" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q125" s="127"/>
-      <c r="AA125" s="125"/>
-      <c r="AF125" s="125"/>
-    </row>
-    <row r="126" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB125" s="125"/>
+      <c r="AG125" s="125"/>
+    </row>
+    <row r="126" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q126" s="127"/>
-      <c r="AA126" s="125"/>
-      <c r="AF126" s="125"/>
-    </row>
-    <row r="127" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB126" s="125"/>
+      <c r="AG126" s="125"/>
+    </row>
+    <row r="127" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q127" s="127"/>
-      <c r="AA127" s="125"/>
-      <c r="AF127" s="125"/>
-    </row>
-    <row r="128" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB127" s="125"/>
+      <c r="AG127" s="125"/>
+    </row>
+    <row r="128" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q128" s="127"/>
-      <c r="AA128" s="125"/>
-      <c r="AF128" s="125"/>
-    </row>
-    <row r="129" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB128" s="125"/>
+      <c r="AG128" s="125"/>
+    </row>
+    <row r="129" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q129" s="127"/>
-      <c r="AA129" s="125"/>
-      <c r="AF129" s="125"/>
-    </row>
-    <row r="130" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB129" s="125"/>
+      <c r="AG129" s="125"/>
+    </row>
+    <row r="130" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q130" s="127"/>
-      <c r="AA130" s="125"/>
-      <c r="AF130" s="125"/>
-    </row>
-    <row r="131" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB130" s="125"/>
+      <c r="AG130" s="125"/>
+    </row>
+    <row r="131" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q131" s="127"/>
-      <c r="AA131" s="125"/>
-      <c r="AF131" s="125"/>
-    </row>
-    <row r="132" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB131" s="125"/>
+      <c r="AG131" s="125"/>
+    </row>
+    <row r="132" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q132" s="127"/>
-      <c r="AA132" s="125"/>
-      <c r="AF132" s="125"/>
-    </row>
-    <row r="133" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB132" s="125"/>
+      <c r="AG132" s="125"/>
+    </row>
+    <row r="133" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q133" s="127"/>
-      <c r="AA133" s="125"/>
-      <c r="AF133" s="125"/>
-    </row>
-    <row r="134" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB133" s="125"/>
+      <c r="AG133" s="125"/>
+    </row>
+    <row r="134" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q134" s="126"/>
-      <c r="AA134" s="128"/>
-      <c r="AF134" s="128"/>
-    </row>
-    <row r="135" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB134" s="128"/>
+      <c r="AG134" s="128"/>
+    </row>
+    <row r="135" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q135" s="127"/>
-      <c r="AA135" s="125"/>
-      <c r="AF135" s="125"/>
-    </row>
-    <row r="136" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB135" s="125"/>
+      <c r="AG135" s="125"/>
+    </row>
+    <row r="136" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q136" s="127"/>
-      <c r="AA136" s="125"/>
-      <c r="AF136" s="125"/>
-    </row>
-    <row r="137" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB136" s="125"/>
+      <c r="AG136" s="125"/>
+    </row>
+    <row r="137" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q137" s="127"/>
-      <c r="AA137" s="125"/>
-      <c r="AF137" s="125"/>
-    </row>
-    <row r="138" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB137" s="125"/>
+      <c r="AG137" s="125"/>
+    </row>
+    <row r="138" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q138" s="127"/>
-      <c r="AA138" s="125"/>
-      <c r="AF138" s="125"/>
-    </row>
-    <row r="139" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB138" s="125"/>
+      <c r="AG138" s="125"/>
+    </row>
+    <row r="139" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q139" s="127"/>
-      <c r="AA139" s="125"/>
-      <c r="AF139" s="125"/>
-    </row>
-    <row r="140" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB139" s="125"/>
+      <c r="AG139" s="125"/>
+    </row>
+    <row r="140" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q140" s="126"/>
-      <c r="AA140" s="128"/>
-      <c r="AF140" s="128"/>
-    </row>
-    <row r="141" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB140" s="128"/>
+      <c r="AG140" s="128"/>
+    </row>
+    <row r="141" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q141" s="127"/>
-      <c r="AA141" s="125"/>
-      <c r="AF141" s="125"/>
-    </row>
-    <row r="142" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB141" s="125"/>
+      <c r="AG141" s="125"/>
+    </row>
+    <row r="142" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q142" s="127"/>
-      <c r="AA142" s="125"/>
-      <c r="AF142" s="125"/>
-    </row>
-    <row r="143" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB142" s="125"/>
+      <c r="AG142" s="125"/>
+    </row>
+    <row r="143" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q143" s="127"/>
-      <c r="AA143" s="125"/>
-      <c r="AF143" s="125"/>
-    </row>
-    <row r="144" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB143" s="125"/>
+      <c r="AG143" s="125"/>
+    </row>
+    <row r="144" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q144" s="127"/>
-      <c r="AA144" s="125"/>
-      <c r="AF144" s="125"/>
-    </row>
-    <row r="145" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB144" s="125"/>
+      <c r="AG144" s="125"/>
+    </row>
+    <row r="145" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q145" s="127"/>
-      <c r="AA145" s="125"/>
-      <c r="AF145" s="125"/>
-    </row>
-    <row r="146" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB145" s="125"/>
+      <c r="AG145" s="125"/>
+    </row>
+    <row r="146" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q146" s="127"/>
-      <c r="AA146" s="125"/>
-      <c r="AF146" s="125"/>
-    </row>
-    <row r="147" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB146" s="125"/>
+      <c r="AG146" s="125"/>
+    </row>
+    <row r="147" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q147" s="127"/>
-      <c r="AA147" s="125"/>
-      <c r="AF147" s="125"/>
-    </row>
-    <row r="148" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB147" s="125"/>
+      <c r="AG147" s="125"/>
+    </row>
+    <row r="148" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q148" s="127"/>
-      <c r="AA148" s="125"/>
-      <c r="AF148" s="125"/>
-    </row>
-    <row r="149" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB148" s="125"/>
+      <c r="AG148" s="125"/>
+    </row>
+    <row r="149" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q149" s="127"/>
-      <c r="AA149" s="125"/>
-      <c r="AF149" s="125"/>
-    </row>
-    <row r="150" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB149" s="125"/>
+      <c r="AG149" s="125"/>
+    </row>
+    <row r="150" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q150" s="127"/>
-      <c r="AA150" s="125"/>
-      <c r="AF150" s="125"/>
-    </row>
-    <row r="151" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB150" s="125"/>
+      <c r="AG150" s="125"/>
+    </row>
+    <row r="151" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q151" s="127"/>
-      <c r="AA151" s="125"/>
-      <c r="AF151" s="125"/>
-    </row>
-    <row r="152" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB151" s="125"/>
+      <c r="AG151" s="125"/>
+    </row>
+    <row r="152" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q152" s="127"/>
-      <c r="AA152" s="125"/>
-      <c r="AF152" s="125"/>
-    </row>
-    <row r="153" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB152" s="125"/>
+      <c r="AG152" s="125"/>
+    </row>
+    <row r="153" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q153" s="127"/>
-      <c r="AA153" s="125"/>
-      <c r="AF153" s="125"/>
-    </row>
-    <row r="154" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB153" s="125"/>
+      <c r="AG153" s="125"/>
+    </row>
+    <row r="154" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q154" s="126"/>
-      <c r="AA154" s="128"/>
-      <c r="AF154" s="128"/>
-    </row>
-    <row r="155" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB154" s="128"/>
+      <c r="AG154" s="128"/>
+    </row>
+    <row r="155" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q155" s="127"/>
-      <c r="AA155" s="125"/>
-      <c r="AF155" s="125"/>
-    </row>
-    <row r="156" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB155" s="125"/>
+      <c r="AG155" s="125"/>
+    </row>
+    <row r="156" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q156" s="127"/>
-      <c r="AA156" s="125"/>
-      <c r="AF156" s="125"/>
-    </row>
-    <row r="157" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB156" s="125"/>
+      <c r="AG156" s="125"/>
+    </row>
+    <row r="157" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q157" s="127"/>
-      <c r="AA157" s="125"/>
-      <c r="AF157" s="125"/>
-    </row>
-    <row r="158" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB157" s="125"/>
+      <c r="AG157" s="125"/>
+    </row>
+    <row r="158" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q158" s="127"/>
-      <c r="AA158" s="125"/>
-      <c r="AF158" s="125"/>
-    </row>
-    <row r="159" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB158" s="125"/>
+      <c r="AG158" s="125"/>
+    </row>
+    <row r="159" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q159" s="127"/>
-      <c r="AA159" s="125"/>
-      <c r="AF159" s="125"/>
-    </row>
-    <row r="160" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB159" s="125"/>
+      <c r="AG159" s="125"/>
+    </row>
+    <row r="160" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q160" s="127"/>
-      <c r="AA160" s="125"/>
-      <c r="AF160" s="125"/>
-    </row>
-    <row r="161" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB160" s="125"/>
+      <c r="AG160" s="125"/>
+    </row>
+    <row r="161" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q161" s="127"/>
-      <c r="AA161" s="125"/>
-      <c r="AF161" s="125"/>
-    </row>
-    <row r="162" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB161" s="125"/>
+      <c r="AG161" s="125"/>
+    </row>
+    <row r="162" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q162" s="127"/>
-      <c r="AA162" s="125"/>
-      <c r="AF162" s="125"/>
-    </row>
-    <row r="163" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB162" s="125"/>
+      <c r="AG162" s="125"/>
+    </row>
+    <row r="163" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q163" s="127"/>
-      <c r="AA163" s="125"/>
-      <c r="AF163" s="125"/>
-    </row>
-    <row r="164" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB163" s="125"/>
+      <c r="AG163" s="125"/>
+    </row>
+    <row r="164" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q164" s="127"/>
-      <c r="AA164" s="125"/>
-      <c r="AF164" s="125"/>
-    </row>
-    <row r="165" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB164" s="125"/>
+      <c r="AG164" s="125"/>
+    </row>
+    <row r="165" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q165" s="127"/>
-      <c r="AA165" s="125"/>
-      <c r="AF165" s="125"/>
-    </row>
-    <row r="166" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB165" s="125"/>
+      <c r="AG165" s="125"/>
+    </row>
+    <row r="166" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q166" s="126"/>
-      <c r="AA166" s="128"/>
-      <c r="AF166" s="128"/>
-    </row>
-    <row r="167" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB166" s="128"/>
+      <c r="AG166" s="128"/>
+    </row>
+    <row r="167" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q167" s="127"/>
-      <c r="AA167" s="125"/>
-      <c r="AF167" s="125"/>
-    </row>
-    <row r="168" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB167" s="125"/>
+      <c r="AG167" s="125"/>
+    </row>
+    <row r="168" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q168" s="127"/>
-      <c r="AA168" s="125"/>
-      <c r="AF168" s="125"/>
-    </row>
-    <row r="169" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB168" s="125"/>
+      <c r="AG168" s="125"/>
+    </row>
+    <row r="169" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q169" s="127"/>
-      <c r="AA169" s="125"/>
-      <c r="AF169" s="125"/>
-    </row>
-    <row r="170" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB169" s="125"/>
+      <c r="AG169" s="125"/>
+    </row>
+    <row r="170" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q170" s="127"/>
-      <c r="AA170" s="125"/>
-      <c r="AF170" s="125"/>
-    </row>
-    <row r="171" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB170" s="125"/>
+      <c r="AG170" s="125"/>
+    </row>
+    <row r="171" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q171" s="127"/>
-      <c r="AA171" s="125"/>
-      <c r="AF171" s="125"/>
-    </row>
-    <row r="172" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB171" s="125"/>
+      <c r="AG171" s="125"/>
+    </row>
+    <row r="172" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q172" s="127"/>
-      <c r="AA172" s="125"/>
-      <c r="AF172" s="125"/>
-    </row>
-    <row r="173" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB172" s="125"/>
+      <c r="AG172" s="125"/>
+    </row>
+    <row r="173" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q173" s="127"/>
-      <c r="AA173" s="125"/>
-      <c r="AF173" s="125"/>
-    </row>
-    <row r="174" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB173" s="125"/>
+      <c r="AG173" s="125"/>
+    </row>
+    <row r="174" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q174" s="127"/>
-      <c r="AA174" s="125"/>
-      <c r="AF174" s="125"/>
-    </row>
-    <row r="175" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB174" s="125"/>
+      <c r="AG174" s="125"/>
+    </row>
+    <row r="175" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q175" s="127"/>
-      <c r="AA175" s="125"/>
-      <c r="AF175" s="125"/>
-    </row>
-    <row r="176" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB175" s="125"/>
+      <c r="AG175" s="125"/>
+    </row>
+    <row r="176" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q176" s="127"/>
-      <c r="AA176" s="125"/>
-      <c r="AF176" s="125"/>
-    </row>
-    <row r="177" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB176" s="125"/>
+      <c r="AG176" s="125"/>
+    </row>
+    <row r="177" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q177" s="127"/>
-      <c r="AA177" s="125"/>
-      <c r="AF177" s="125"/>
-    </row>
-    <row r="178" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB177" s="125"/>
+      <c r="AG177" s="125"/>
+    </row>
+    <row r="178" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q178" s="127"/>
-      <c r="AA178" s="125"/>
-      <c r="AF178" s="125"/>
-    </row>
-    <row r="179" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB178" s="125"/>
+      <c r="AG178" s="125"/>
+    </row>
+    <row r="179" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q179" s="127"/>
-      <c r="AA179" s="125"/>
-      <c r="AF179" s="125"/>
-    </row>
-    <row r="180" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB179" s="125"/>
+      <c r="AG179" s="125"/>
+    </row>
+    <row r="180" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q180" s="127"/>
-      <c r="AA180" s="125"/>
-      <c r="AF180" s="125"/>
-    </row>
-    <row r="181" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB180" s="125"/>
+      <c r="AG180" s="125"/>
+    </row>
+    <row r="181" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q181" s="127"/>
-      <c r="AA181" s="125"/>
-      <c r="AF181" s="125"/>
-    </row>
-    <row r="182" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB181" s="125"/>
+      <c r="AG181" s="125"/>
+    </row>
+    <row r="182" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q182" s="127"/>
-      <c r="AA182" s="125"/>
-      <c r="AF182" s="125"/>
-    </row>
-    <row r="183" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB182" s="125"/>
+      <c r="AG182" s="125"/>
+    </row>
+    <row r="183" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q183" s="127"/>
-      <c r="AA183" s="125"/>
-      <c r="AF183" s="125"/>
-    </row>
-    <row r="184" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB183" s="125"/>
+      <c r="AG183" s="125"/>
+    </row>
+    <row r="184" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q184" s="127"/>
-      <c r="AA184" s="125"/>
-      <c r="AF184" s="125"/>
-    </row>
-    <row r="185" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB184" s="125"/>
+      <c r="AG184" s="125"/>
+    </row>
+    <row r="185" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q185" s="127"/>
-      <c r="AA185" s="125"/>
-      <c r="AF185" s="125"/>
-    </row>
-    <row r="186" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB185" s="125"/>
+      <c r="AG185" s="125"/>
+    </row>
+    <row r="186" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q186" s="127"/>
-      <c r="AA186" s="125"/>
-      <c r="AF186" s="125"/>
-    </row>
-    <row r="187" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB186" s="125"/>
+      <c r="AG186" s="125"/>
+    </row>
+    <row r="187" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q187" s="126"/>
-      <c r="AA187" s="128"/>
-      <c r="AF187" s="128"/>
-    </row>
-    <row r="188" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB187" s="128"/>
+      <c r="AG187" s="128"/>
+    </row>
+    <row r="188" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q188" s="127"/>
-      <c r="AA188" s="125"/>
-      <c r="AF188" s="125"/>
-    </row>
-    <row r="189" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB188" s="125"/>
+      <c r="AG188" s="125"/>
+    </row>
+    <row r="189" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q189" s="127"/>
-      <c r="AA189" s="125"/>
-      <c r="AF189" s="125"/>
-    </row>
-    <row r="190" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB189" s="125"/>
+      <c r="AG189" s="125"/>
+    </row>
+    <row r="190" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q190" s="127"/>
-      <c r="AA190" s="125"/>
-      <c r="AF190" s="127"/>
-    </row>
-    <row r="191" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB190" s="125"/>
+      <c r="AG190" s="127"/>
+    </row>
+    <row r="191" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q191" s="127"/>
-      <c r="AA191" s="125"/>
-      <c r="AF191" s="127"/>
-    </row>
-    <row r="192" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB191" s="125"/>
+      <c r="AG191" s="127"/>
+    </row>
+    <row r="192" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q192" s="127"/>
-      <c r="AA192" s="125"/>
-      <c r="AF192" s="127"/>
-    </row>
-    <row r="193" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB192" s="125"/>
+      <c r="AG192" s="127"/>
+    </row>
+    <row r="193" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q193" s="127"/>
-      <c r="AA193" s="125"/>
-      <c r="AF193" s="127"/>
-    </row>
-    <row r="194" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB193" s="125"/>
+      <c r="AG193" s="127"/>
+    </row>
+    <row r="194" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q194" s="126"/>
-      <c r="AA194" s="128"/>
-      <c r="AF194" s="126"/>
-    </row>
-    <row r="195" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB194" s="128"/>
+      <c r="AG194" s="126"/>
+    </row>
+    <row r="195" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q195" s="127"/>
-      <c r="AA195" s="125"/>
-      <c r="AF195" s="127"/>
-    </row>
-    <row r="196" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB195" s="125"/>
+      <c r="AG195" s="127"/>
+    </row>
+    <row r="196" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q196" s="127"/>
-      <c r="AA196" s="125"/>
-      <c r="AF196" s="127"/>
-    </row>
-    <row r="197" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB196" s="125"/>
+      <c r="AG196" s="127"/>
+    </row>
+    <row r="197" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q197" s="127"/>
-      <c r="AA197" s="125"/>
-      <c r="AF197" s="127"/>
-    </row>
-    <row r="198" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB197" s="125"/>
+      <c r="AG197" s="127"/>
+    </row>
+    <row r="198" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q198" s="127"/>
-      <c r="AA198" s="125"/>
-      <c r="AF198" s="127"/>
-    </row>
-    <row r="199" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB198" s="125"/>
+      <c r="AG198" s="127"/>
+    </row>
+    <row r="199" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q199" s="127"/>
-      <c r="AA199" s="125"/>
-      <c r="AF199" s="127"/>
-    </row>
-    <row r="200" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB199" s="125"/>
+      <c r="AG199" s="127"/>
+    </row>
+    <row r="200" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q200" s="127"/>
-      <c r="AA200" s="125"/>
-      <c r="AF200" s="127"/>
-    </row>
-    <row r="201" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB200" s="125"/>
+      <c r="AG200" s="127"/>
+    </row>
+    <row r="201" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q201" s="127"/>
-      <c r="AA201" s="125"/>
-      <c r="AF201" s="127"/>
-    </row>
-    <row r="202" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB201" s="125"/>
+      <c r="AG201" s="127"/>
+    </row>
+    <row r="202" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q202" s="127"/>
-      <c r="AA202" s="125"/>
-      <c r="AF202" s="127"/>
-    </row>
-    <row r="203" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB202" s="125"/>
+      <c r="AG202" s="127"/>
+    </row>
+    <row r="203" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q203" s="127"/>
-      <c r="AA203" s="125"/>
-      <c r="AF203" s="127"/>
-    </row>
-    <row r="204" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB203" s="125"/>
+      <c r="AG203" s="127"/>
+    </row>
+    <row r="204" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q204" s="127"/>
-      <c r="AA204" s="125"/>
-      <c r="AF204" s="127"/>
-    </row>
-    <row r="205" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB204" s="125"/>
+      <c r="AG204" s="127"/>
+    </row>
+    <row r="205" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q205" s="127"/>
-      <c r="AA205" s="125"/>
-      <c r="AF205" s="127"/>
-    </row>
-    <row r="206" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB205" s="125"/>
+      <c r="AG205" s="127"/>
+    </row>
+    <row r="206" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q206" s="127"/>
-      <c r="AA206" s="125"/>
-      <c r="AF206" s="127"/>
-    </row>
-    <row r="207" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB206" s="125"/>
+      <c r="AG206" s="127"/>
+    </row>
+    <row r="207" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q207" s="127"/>
-      <c r="AA207" s="125"/>
-      <c r="AF207" s="127"/>
-    </row>
-    <row r="208" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB207" s="125"/>
+      <c r="AG207" s="127"/>
+    </row>
+    <row r="208" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q208" s="127"/>
-      <c r="AA208" s="125"/>
-      <c r="AF208" s="127"/>
-    </row>
-    <row r="209" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB208" s="125"/>
+      <c r="AG208" s="127"/>
+    </row>
+    <row r="209" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q209" s="127"/>
-      <c r="AA209" s="125"/>
-      <c r="AF209" s="127"/>
-    </row>
-    <row r="210" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB209" s="125"/>
+      <c r="AG209" s="127"/>
+    </row>
+    <row r="210" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q210" s="127"/>
-      <c r="AA210" s="125"/>
-      <c r="AF210" s="127"/>
-    </row>
-    <row r="211" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB210" s="125"/>
+      <c r="AG210" s="127"/>
+    </row>
+    <row r="211" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q211" s="127"/>
-      <c r="AA211" s="125"/>
-      <c r="AF211" s="127"/>
-    </row>
-    <row r="212" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB211" s="125"/>
+      <c r="AG211" s="127"/>
+    </row>
+    <row r="212" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q212" s="126"/>
-      <c r="AA212" s="128"/>
-      <c r="AF212" s="126"/>
-    </row>
-    <row r="213" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB212" s="128"/>
+      <c r="AG212" s="126"/>
+    </row>
+    <row r="213" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q213" s="127"/>
-      <c r="AA213" s="125"/>
-      <c r="AF213" s="127"/>
-    </row>
-    <row r="214" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB213" s="125"/>
+      <c r="AG213" s="127"/>
+    </row>
+    <row r="214" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q214" s="127"/>
-      <c r="AA214" s="125"/>
-      <c r="AF214" s="127"/>
-    </row>
-    <row r="215" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB214" s="125"/>
+      <c r="AG214" s="127"/>
+    </row>
+    <row r="215" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q215" s="127"/>
-      <c r="AA215" s="125"/>
-      <c r="AF215" s="127"/>
-    </row>
-    <row r="216" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB215" s="125"/>
+      <c r="AG215" s="127"/>
+    </row>
+    <row r="216" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q216" s="127"/>
-      <c r="AA216" s="125"/>
-      <c r="AF216" s="127"/>
-    </row>
-    <row r="217" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB216" s="125"/>
+      <c r="AG216" s="127"/>
+    </row>
+    <row r="217" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q217" s="127"/>
-      <c r="AA217" s="125"/>
-      <c r="AF217" s="127"/>
-    </row>
-    <row r="218" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB217" s="125"/>
+      <c r="AG217" s="127"/>
+    </row>
+    <row r="218" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q218" s="127"/>
-      <c r="AA218" s="125"/>
-      <c r="AF218" s="127"/>
-    </row>
-    <row r="219" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB218" s="125"/>
+      <c r="AG218" s="127"/>
+    </row>
+    <row r="219" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q219" s="126"/>
-      <c r="AA219" s="128"/>
-      <c r="AF219" s="126"/>
-    </row>
-    <row r="220" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB219" s="128"/>
+      <c r="AG219" s="126"/>
+    </row>
+    <row r="220" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q220" s="127"/>
-      <c r="AA220" s="125"/>
-      <c r="AF220" s="127"/>
-    </row>
-    <row r="221" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB220" s="125"/>
+      <c r="AG220" s="127"/>
+    </row>
+    <row r="221" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q221" s="127"/>
-      <c r="AA221" s="125"/>
-      <c r="AF221" s="127"/>
-    </row>
-    <row r="222" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB221" s="125"/>
+      <c r="AG221" s="127"/>
+    </row>
+    <row r="222" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q222" s="127"/>
-      <c r="AA222" s="127"/>
-      <c r="AF222" s="127"/>
-    </row>
-    <row r="223" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB222" s="127"/>
+      <c r="AG222" s="127"/>
+    </row>
+    <row r="223" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q223" s="127"/>
-      <c r="AA223" s="127"/>
-      <c r="AF223" s="127"/>
-    </row>
-    <row r="224" spans="17:32" x14ac:dyDescent="0.25">
-      <c r="AA224" s="129"/>
-      <c r="AF224" s="113"/>
-    </row>
-    <row r="225" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="AB223" s="127"/>
+      <c r="AG223" s="127"/>
+    </row>
+    <row r="224" spans="17:33" x14ac:dyDescent="0.25">
+      <c r="AB224" s="129"/>
+      <c r="AG224" s="113"/>
+    </row>
+    <row r="225" spans="17:33" x14ac:dyDescent="0.25">
       <c r="Q225" s="113"/>
-      <c r="AA225" s="130"/>
-      <c r="AF225" s="113"/>
-    </row>
-    <row r="229" spans="17:32" x14ac:dyDescent="0.25">
-      <c r="AA229" s="113"/>
+      <c r="AB225" s="130"/>
+      <c r="AG225" s="113"/>
+    </row>
+    <row r="229" spans="17:33" x14ac:dyDescent="0.25">
+      <c r="AB229" s="113"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8643,9 +8652,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ43"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z27" sqref="Z27"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8669,7 +8678,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="146" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C1" s="146"/>
       <c r="D1" s="146"/>
@@ -8774,10 +8783,10 @@
         <v>129</v>
       </c>
       <c r="X3" s="56" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Y3" s="56" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Z3" s="56" t="s">
         <v>56</v>
@@ -8873,10 +8882,10 @@
         <v>130</v>
       </c>
       <c r="X4" s="81" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Y4" s="81" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Z4" s="16" t="s">
         <v>60</v>
@@ -10120,7 +10129,7 @@
     <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B18" s="23"/>
       <c r="C18" s="110" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="47"/>
@@ -10735,18 +10744,18 @@
         <v>74</v>
       </c>
       <c r="C24" s="109" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D24" s="20">
-        <f t="shared" ref="D24:Y24" si="7">D21*2%</f>
+        <f>+MES!M5+MES!N5</f>
         <v>0</v>
       </c>
       <c r="E24" s="22">
-        <f t="shared" si="7"/>
+        <f>+MES!M5+MES!N5</f>
         <v>0</v>
       </c>
       <c r="F24" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="D24:Y24" si="7">F21*2%</f>
         <v>0</v>
       </c>
       <c r="G24" s="22">
@@ -11109,7 +11118,7 @@
     <row r="27" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="81"/>
       <c r="C27" s="109" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D27" s="109"/>
       <c r="E27" s="81"/>
